--- a/EV/data/bilsalg.xlsx
+++ b/EV/data/bilsalg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cicero.sharepoint.com/sites/Group-ClimateMitigation/Shared Documents/SmallJobs/2019/201903_bilsalg/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="70" documentId="13_ncr:1_{1916E19A-8449-4E2A-84FE-0F6CD095025C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3DC9C96C-7407-4429-9873-2888B41EAF2A}"/>
+  <xr:revisionPtr revIDLastSave="87" documentId="13_ncr:1_{1916E19A-8449-4E2A-84FE-0F6CD095025C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D108E6BB-65DD-43C0-8513-419B58F5038A}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{94A590A3-A19D-4EDC-866B-407362CF22C8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="17595" xr2:uid="{94A590A3-A19D-4EDC-866B-407362CF22C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -778,29 +778,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A23E6F8-FBFE-40A4-8A3E-1BC2B49C4A9C}">
-  <dimension ref="A1:Z114"/>
+  <dimension ref="A1:Z115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="M99" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B99" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Z114" sqref="Z114"/>
+      <selection pane="bottomRight" activeCell="B115" sqref="B115"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="12" max="12" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="11.08984375" customWidth="1"/>
-    <col min="18" max="18" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.36328125" customWidth="1"/>
-    <col min="22" max="22" width="10.453125" customWidth="1"/>
-    <col min="23" max="23" width="11.36328125" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="11.140625" customWidth="1"/>
+    <col min="18" max="18" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.42578125" customWidth="1"/>
+    <col min="22" max="22" width="10.42578125" customWidth="1"/>
+    <col min="23" max="23" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="58.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" ht="58.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>7</v>
       </c>
@@ -877,7 +877,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1994</v>
       </c>
@@ -906,7 +906,7 @@
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
     </row>
-    <row r="3" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1995</v>
       </c>
@@ -935,7 +935,7 @@
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
     </row>
-    <row r="4" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1996</v>
       </c>
@@ -964,7 +964,7 @@
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
     </row>
-    <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1997</v>
       </c>
@@ -995,7 +995,7 @@
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
     </row>
-    <row r="6" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1998</v>
       </c>
@@ -1024,7 +1024,7 @@
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
     </row>
-    <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1999</v>
       </c>
@@ -1053,7 +1053,7 @@
       <c r="X7" s="3"/>
       <c r="Y7" s="3"/>
     </row>
-    <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2000</v>
       </c>
@@ -1082,7 +1082,7 @@
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
     </row>
-    <row r="9" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2001</v>
       </c>
@@ -1111,7 +1111,7 @@
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
     </row>
-    <row r="10" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2002</v>
       </c>
@@ -1142,7 +1142,7 @@
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
     </row>
-    <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2003</v>
       </c>
@@ -1171,7 +1171,7 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
     </row>
-    <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2004</v>
       </c>
@@ -1206,7 +1206,7 @@
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
     </row>
-    <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>200512</v>
       </c>
@@ -1243,7 +1243,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2005</v>
       </c>
@@ -1282,7 +1282,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>200612</v>
       </c>
@@ -1319,7 +1319,7 @@
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
     </row>
-    <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2006</v>
       </c>
@@ -1354,7 +1354,7 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
     </row>
-    <row r="17" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>200712</v>
       </c>
@@ -1389,7 +1389,7 @@
       <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
     </row>
-    <row r="18" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2007</v>
       </c>
@@ -1432,7 +1432,7 @@
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
     </row>
-    <row r="19" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>200812</v>
       </c>
@@ -1469,7 +1469,7 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
     </row>
-    <row r="20" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2008</v>
       </c>
@@ -1513,7 +1513,7 @@
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
     </row>
-    <row r="21" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>200912</v>
       </c>
@@ -1548,7 +1548,7 @@
       <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
     </row>
-    <row r="22" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2009</v>
       </c>
@@ -1591,7 +1591,7 @@
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
     </row>
-    <row r="23" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>201012</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="24" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2010</v>
       </c>
@@ -1680,7 +1680,7 @@
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
     </row>
-    <row r="25" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>201112</v>
       </c>
@@ -1731,7 +1731,7 @@
       <c r="X25" s="3"/>
       <c r="Y25" s="3"/>
     </row>
-    <row r="26" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2011</v>
       </c>
@@ -1783,7 +1783,7 @@
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
     </row>
-    <row r="27" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>201212</v>
       </c>
@@ -1835,7 +1835,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2012</v>
       </c>
@@ -1887,7 +1887,7 @@
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
     </row>
-    <row r="29" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>201312</v>
       </c>
@@ -1941,7 +1941,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="30" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2013</v>
       </c>
@@ -2006,7 +2006,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="31" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2014</v>
       </c>
@@ -2070,7 +2070,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>201501</v>
       </c>
@@ -2137,7 +2137,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>201502</v>
       </c>
@@ -2198,7 +2198,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>201503</v>
       </c>
@@ -2255,7 +2255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>201504</v>
       </c>
@@ -2313,7 +2313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>201505</v>
       </c>
@@ -2382,7 +2382,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>201506</v>
       </c>
@@ -2442,7 +2442,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>201507</v>
       </c>
@@ -2517,7 +2517,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>201508</v>
       </c>
@@ -2592,7 +2592,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>201509</v>
       </c>
@@ -2671,7 +2671,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>201510</v>
       </c>
@@ -2751,7 +2751,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>201511</v>
       </c>
@@ -2831,7 +2831,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>201512</v>
       </c>
@@ -2911,7 +2911,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>201601</v>
       </c>
@@ -2976,7 +2976,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>201602</v>
       </c>
@@ -3039,7 +3039,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>201603</v>
       </c>
@@ -3102,7 +3102,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>201604</v>
       </c>
@@ -3169,7 +3169,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>201605</v>
       </c>
@@ -3236,7 +3236,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>201606</v>
       </c>
@@ -3309,7 +3309,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>201607</v>
       </c>
@@ -3382,7 +3382,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>201608</v>
       </c>
@@ -3455,7 +3455,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>201609</v>
       </c>
@@ -3528,7 +3528,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>201610</v>
       </c>
@@ -3601,7 +3601,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>201611</v>
       </c>
@@ -3674,7 +3674,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>201612</v>
       </c>
@@ -3747,7 +3747,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>201701</v>
       </c>
@@ -3818,7 +3818,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>201702</v>
       </c>
@@ -3889,7 +3889,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>201703</v>
       </c>
@@ -3960,7 +3960,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>201704</v>
       </c>
@@ -4029,7 +4029,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>201705</v>
       </c>
@@ -4098,7 +4098,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>201706</v>
       </c>
@@ -4168,7 +4168,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>201707</v>
       </c>
@@ -4238,7 +4238,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>201708</v>
       </c>
@@ -4308,7 +4308,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>201709</v>
       </c>
@@ -4378,7 +4378,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>201710</v>
       </c>
@@ -4448,7 +4448,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>201711</v>
       </c>
@@ -4518,7 +4518,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>201712</v>
       </c>
@@ -4588,7 +4588,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>201801</v>
       </c>
@@ -4650,7 +4650,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>201802</v>
       </c>
@@ -4712,7 +4712,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>201803</v>
       </c>
@@ -4774,7 +4774,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>201804</v>
       </c>
@@ -4836,7 +4836,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>201805</v>
       </c>
@@ -4847,7 +4847,7 @@
         <v>1923</v>
       </c>
       <c r="E72" s="2">
-        <f t="shared" ref="E72:E114" si="6">H72+K72+M72+S72</f>
+        <f t="shared" ref="E72:E115" si="6">H72+K72+M72+S72</f>
         <v>1</v>
       </c>
       <c r="H72" s="13">
@@ -4898,7 +4898,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>201806</v>
       </c>
@@ -4960,7 +4960,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>201807</v>
       </c>
@@ -5022,7 +5022,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>201808</v>
       </c>
@@ -5084,7 +5084,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>201809</v>
       </c>
@@ -5146,7 +5146,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>201810</v>
       </c>
@@ -5208,7 +5208,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>201811</v>
       </c>
@@ -5270,7 +5270,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>201812</v>
       </c>
@@ -5332,7 +5332,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>201901</v>
       </c>
@@ -5397,7 +5397,7 @@
         <v>0.35699999999999998</v>
       </c>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>201902</v>
       </c>
@@ -5462,7 +5462,7 @@
         <v>0.44700000000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>201903</v>
       </c>
@@ -5527,7 +5527,7 @@
         <v>0.59899999999999998</v>
       </c>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>201904</v>
       </c>
@@ -5589,7 +5589,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>201905</v>
       </c>
@@ -5651,7 +5651,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>201906</v>
       </c>
@@ -5713,7 +5713,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>201907</v>
       </c>
@@ -5775,7 +5775,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>201908</v>
       </c>
@@ -5837,7 +5837,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>201909</v>
       </c>
@@ -5899,7 +5899,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>201910</v>
       </c>
@@ -5961,7 +5961,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>201911</v>
       </c>
@@ -6023,7 +6023,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>201912</v>
       </c>
@@ -6085,7 +6085,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>202001</v>
       </c>
@@ -6150,7 +6150,7 @@
         <v>0.44800000000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>202002</v>
       </c>
@@ -6215,7 +6215,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>202003</v>
       </c>
@@ -6245,7 +6245,7 @@
         <v>2392</v>
       </c>
       <c r="O94" s="7">
-        <f t="shared" ref="O94:O114" si="7">N94/B94</f>
+        <f t="shared" ref="O94:O115" si="7">N94/B94</f>
         <v>0.19211308328648302</v>
       </c>
       <c r="Q94" s="14">
@@ -6280,7 +6280,7 @@
         <v>0.48499999999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>202004</v>
       </c>
@@ -6345,7 +6345,7 @@
         <v>0.437</v>
       </c>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>202005</v>
       </c>
@@ -6387,7 +6387,7 @@
         <v>3444</v>
       </c>
       <c r="S96" s="17">
-        <f t="shared" ref="S96:S114" si="8">R96/B96</f>
+        <f t="shared" ref="S96:S115" si="8">R96/B96</f>
         <v>0.43060765191297823</v>
       </c>
       <c r="T96">
@@ -6412,7 +6412,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>202006</v>
       </c>
@@ -6487,7 +6487,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>202007</v>
       </c>
@@ -6505,21 +6505,21 @@
         <v>1249</v>
       </c>
       <c r="H98" s="13">
-        <f t="shared" ref="H98:H114" si="9">G98/B98</f>
+        <f t="shared" ref="H98:H115" si="9">G98/B98</f>
         <v>0.12781416291444944</v>
       </c>
       <c r="J98">
         <v>1026</v>
       </c>
       <c r="K98" s="13">
-        <f t="shared" ref="K98:K114" si="10">J98/B98</f>
+        <f t="shared" ref="K98:K115" si="10">J98/B98</f>
         <v>0.10499386000818665</v>
       </c>
       <c r="L98">
         <v>3089</v>
       </c>
       <c r="M98" s="13">
-        <f t="shared" ref="M98:M114" si="11">L98/B98</f>
+        <f t="shared" ref="M98:M115" si="11">L98/B98</f>
         <v>0.31610724519033973</v>
       </c>
       <c r="N98">
@@ -6533,7 +6533,7 @@
         <v>811</v>
       </c>
       <c r="Q98" s="14">
-        <f t="shared" ref="Q98:Q114" si="12">P98/B98</f>
+        <f t="shared" ref="Q98:Q115" si="12">P98/B98</f>
         <v>8.2992222677036431E-2</v>
       </c>
       <c r="R98">
@@ -6565,7 +6565,7 @@
         <v>0.48699999999999999</v>
       </c>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>202008</v>
       </c>
@@ -6643,7 +6643,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>202009</v>
       </c>
@@ -6721,7 +6721,7 @@
         <v>0.45800000000000002</v>
       </c>
     </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>202010</v>
       </c>
@@ -6796,7 +6796,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>202011</v>
       </c>
@@ -6871,7 +6871,7 @@
         <v>0.48399999999999999</v>
       </c>
     </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>202012</v>
       </c>
@@ -6946,7 +6946,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>202101</v>
       </c>
@@ -7024,7 +7024,7 @@
         <v>0.56399999999999995</v>
       </c>
     </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>202102</v>
       </c>
@@ -7099,7 +7099,7 @@
         <v>0.54300000000000004</v>
       </c>
     </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>202103</v>
       </c>
@@ -7174,7 +7174,7 @@
         <v>0.55600000000000005</v>
       </c>
     </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>202104</v>
       </c>
@@ -7249,7 +7249,7 @@
         <v>0.45200000000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>202105</v>
       </c>
@@ -7327,7 +7327,7 @@
         <v>0.48399999999999999</v>
       </c>
     </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>202106</v>
       </c>
@@ -7402,7 +7402,7 @@
         <v>0.502</v>
       </c>
     </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>202107</v>
       </c>
@@ -7477,7 +7477,7 @@
         <v>0.48099999999999998</v>
       </c>
     </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>202108</v>
       </c>
@@ -7552,7 +7552,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>202109</v>
       </c>
@@ -7627,7 +7627,7 @@
         <v>0.59099999999999997</v>
       </c>
     </row>
-    <row r="113" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>202110</v>
       </c>
@@ -7702,7 +7702,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="114" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>202111</v>
       </c>
@@ -7775,6 +7775,81 @@
       </c>
       <c r="Z114" s="13">
         <v>0.55700000000000005</v>
+      </c>
+    </row>
+    <row r="115" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>202112</v>
+      </c>
+      <c r="B115">
+        <v>20564</v>
+      </c>
+      <c r="C115">
+        <v>1462</v>
+      </c>
+      <c r="E115" s="2">
+        <f t="shared" si="6"/>
+        <v>1.0001458860143941</v>
+      </c>
+      <c r="G115">
+        <v>720</v>
+      </c>
+      <c r="H115" s="13">
+        <f t="shared" si="9"/>
+        <v>3.501264345458082E-2</v>
+      </c>
+      <c r="J115">
+        <v>686</v>
+      </c>
+      <c r="K115" s="13">
+        <f t="shared" si="10"/>
+        <v>3.3359268624781169E-2</v>
+      </c>
+      <c r="L115">
+        <v>5358</v>
+      </c>
+      <c r="M115" s="13">
+        <f t="shared" si="11"/>
+        <v>0.26055242170783893</v>
+      </c>
+      <c r="N115">
+        <v>4706</v>
+      </c>
+      <c r="O115" s="7">
+        <f t="shared" si="7"/>
+        <v>0.22884652791285742</v>
+      </c>
+      <c r="P115">
+        <v>652</v>
+      </c>
+      <c r="Q115" s="14">
+        <f t="shared" si="12"/>
+        <v>3.1705893794981524E-2</v>
+      </c>
+      <c r="R115">
+        <v>13803</v>
+      </c>
+      <c r="S115" s="17">
+        <f t="shared" si="8"/>
+        <v>0.67122155222719315</v>
+      </c>
+      <c r="U115">
+        <v>828</v>
+      </c>
+      <c r="V115">
+        <v>377</v>
+      </c>
+      <c r="W115">
+        <v>9</v>
+      </c>
+      <c r="X115">
+        <v>297</v>
+      </c>
+      <c r="Y115">
+        <v>33</v>
+      </c>
+      <c r="Z115" s="13">
+        <v>0.46600000000000003</v>
       </c>
     </row>
   </sheetData>
@@ -7792,24 +7867,24 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -7823,9 +7898,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8052,27 +8130,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F14F16C9-F74E-4CAA-B7B8-5E225606C761}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF887100-7B50-47F5-87D7-ABDD1957FF85}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="5083af8e-c479-4bff-9f3e-2a380844c8c1"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="1ae9c94a-2673-46e1-b5a6-dc0c87eae04c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -8097,9 +8163,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF887100-7B50-47F5-87D7-ABDD1957FF85}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F14F16C9-F74E-4CAA-B7B8-5E225606C761}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="5083af8e-c479-4bff-9f3e-2a380844c8c1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="1ae9c94a-2673-46e1-b5a6-dc0c87eae04c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/EV/data/bilsalg.xlsx
+++ b/EV/data/bilsalg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cicero.sharepoint.com/sites/Group-ClimateMitigation/Shared Documents/SmallJobs/2019/201903_bilsalg/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="87" documentId="13_ncr:1_{1916E19A-8449-4E2A-84FE-0F6CD095025C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D108E6BB-65DD-43C0-8513-419B58F5038A}"/>
+  <xr:revisionPtr revIDLastSave="95" documentId="13_ncr:1_{1916E19A-8449-4E2A-84FE-0F6CD095025C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6DD85BFA-5729-48AF-9831-CF446F5A23FF}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="17595" xr2:uid="{94A590A3-A19D-4EDC-866B-407362CF22C8}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="17400" xr2:uid="{94A590A3-A19D-4EDC-866B-407362CF22C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -781,10 +781,10 @@
   <dimension ref="A1:Z115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B99" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B115" sqref="B115"/>
+      <selection pane="bottomRight" activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7898,12 +7898,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8130,15 +8127,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF887100-7B50-47F5-87D7-ABDD1957FF85}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F14F16C9-F74E-4CAA-B7B8-5E225606C761}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="5083af8e-c479-4bff-9f3e-2a380844c8c1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="1ae9c94a-2673-46e1-b5a6-dc0c87eae04c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -8163,18 +8172,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F14F16C9-F74E-4CAA-B7B8-5E225606C761}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF887100-7B50-47F5-87D7-ABDD1957FF85}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="5083af8e-c479-4bff-9f3e-2a380844c8c1"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="1ae9c94a-2673-46e1-b5a6-dc0c87eae04c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/EV/data/bilsalg.xlsx
+++ b/EV/data/bilsalg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cicero.sharepoint.com/sites/Group-ClimateMitigation/Shared Documents/SmallJobs/2019/201903_bilsalg/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roberan\CICERO senter for klimaforskning\CM - Documents\SmallJobs\2019\201903_bilsalg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="95" documentId="13_ncr:1_{1916E19A-8449-4E2A-84FE-0F6CD095025C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6DD85BFA-5729-48AF-9831-CF446F5A23FF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F864EC75-65FE-4242-9BDE-CE6CA8AD2589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="17400" xr2:uid="{94A590A3-A19D-4EDC-866B-407362CF22C8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{94A590A3-A19D-4EDC-866B-407362CF22C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -778,29 +778,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A23E6F8-FBFE-40A4-8A3E-1BC2B49C4A9C}">
-  <dimension ref="A1:Z115"/>
+  <dimension ref="A1:Z116"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="M94" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R24" sqref="R24"/>
+      <selection pane="bottomRight" activeCell="Z116" sqref="Z116"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="11.140625" customWidth="1"/>
-    <col min="18" max="18" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.42578125" customWidth="1"/>
-    <col min="22" max="22" width="10.42578125" customWidth="1"/>
-    <col min="23" max="23" width="11.42578125" customWidth="1"/>
+    <col min="12" max="12" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="11.1796875" customWidth="1"/>
+    <col min="18" max="18" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.453125" customWidth="1"/>
+    <col min="22" max="22" width="10.453125" customWidth="1"/>
+    <col min="23" max="23" width="11.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="58.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="58.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="3" t="s">
         <v>7</v>
       </c>
@@ -877,7 +877,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1994</v>
       </c>
@@ -906,7 +906,7 @@
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
     </row>
-    <row r="3" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1995</v>
       </c>
@@ -935,7 +935,7 @@
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
     </row>
-    <row r="4" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1996</v>
       </c>
@@ -964,7 +964,7 @@
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
     </row>
-    <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1997</v>
       </c>
@@ -995,7 +995,7 @@
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
     </row>
-    <row r="6" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1998</v>
       </c>
@@ -1024,7 +1024,7 @@
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
     </row>
-    <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1999</v>
       </c>
@@ -1053,7 +1053,7 @@
       <c r="X7" s="3"/>
       <c r="Y7" s="3"/>
     </row>
-    <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2000</v>
       </c>
@@ -1082,7 +1082,7 @@
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
     </row>
-    <row r="9" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2001</v>
       </c>
@@ -1111,7 +1111,7 @@
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
     </row>
-    <row r="10" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2002</v>
       </c>
@@ -1142,7 +1142,7 @@
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
     </row>
-    <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2003</v>
       </c>
@@ -1171,7 +1171,7 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
     </row>
-    <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2004</v>
       </c>
@@ -1206,7 +1206,7 @@
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
     </row>
-    <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>200512</v>
       </c>
@@ -1243,7 +1243,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2005</v>
       </c>
@@ -1282,7 +1282,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>200612</v>
       </c>
@@ -1319,7 +1319,7 @@
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
     </row>
-    <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2006</v>
       </c>
@@ -1354,7 +1354,7 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
     </row>
-    <row r="17" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>200712</v>
       </c>
@@ -1389,7 +1389,7 @@
       <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
     </row>
-    <row r="18" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>2007</v>
       </c>
@@ -1432,7 +1432,7 @@
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
     </row>
-    <row r="19" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>200812</v>
       </c>
@@ -1469,7 +1469,7 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
     </row>
-    <row r="20" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>2008</v>
       </c>
@@ -1513,7 +1513,7 @@
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
     </row>
-    <row r="21" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>200912</v>
       </c>
@@ -1548,7 +1548,7 @@
       <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
     </row>
-    <row r="22" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>2009</v>
       </c>
@@ -1591,7 +1591,7 @@
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
     </row>
-    <row r="23" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>201012</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="24" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>2010</v>
       </c>
@@ -1680,7 +1680,7 @@
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
     </row>
-    <row r="25" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>201112</v>
       </c>
@@ -1731,7 +1731,7 @@
       <c r="X25" s="3"/>
       <c r="Y25" s="3"/>
     </row>
-    <row r="26" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>2011</v>
       </c>
@@ -1783,7 +1783,7 @@
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
     </row>
-    <row r="27" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>201212</v>
       </c>
@@ -1835,7 +1835,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>2012</v>
       </c>
@@ -1887,7 +1887,7 @@
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
     </row>
-    <row r="29" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>201312</v>
       </c>
@@ -1941,7 +1941,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="30" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>2013</v>
       </c>
@@ -2006,7 +2006,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="31" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>2014</v>
       </c>
@@ -2070,7 +2070,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>201501</v>
       </c>
@@ -2137,7 +2137,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>201502</v>
       </c>
@@ -2198,7 +2198,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>201503</v>
       </c>
@@ -2255,7 +2255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>201504</v>
       </c>
@@ -2313,7 +2313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>201505</v>
       </c>
@@ -2382,7 +2382,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>201506</v>
       </c>
@@ -2442,7 +2442,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>201507</v>
       </c>
@@ -2517,7 +2517,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>201508</v>
       </c>
@@ -2592,7 +2592,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>201509</v>
       </c>
@@ -2671,7 +2671,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>201510</v>
       </c>
@@ -2751,7 +2751,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>201511</v>
       </c>
@@ -2831,7 +2831,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>201512</v>
       </c>
@@ -2911,7 +2911,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>201601</v>
       </c>
@@ -2976,7 +2976,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>201602</v>
       </c>
@@ -3039,7 +3039,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>201603</v>
       </c>
@@ -3102,7 +3102,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>201604</v>
       </c>
@@ -3169,7 +3169,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>201605</v>
       </c>
@@ -3236,7 +3236,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>201606</v>
       </c>
@@ -3309,7 +3309,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>201607</v>
       </c>
@@ -3382,7 +3382,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>201608</v>
       </c>
@@ -3455,7 +3455,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>201609</v>
       </c>
@@ -3528,7 +3528,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>201610</v>
       </c>
@@ -3601,7 +3601,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>201611</v>
       </c>
@@ -3674,7 +3674,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>201612</v>
       </c>
@@ -3747,7 +3747,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>201701</v>
       </c>
@@ -3818,7 +3818,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>201702</v>
       </c>
@@ -3889,7 +3889,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>201703</v>
       </c>
@@ -3960,7 +3960,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>201704</v>
       </c>
@@ -4029,7 +4029,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>201705</v>
       </c>
@@ -4098,7 +4098,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>201706</v>
       </c>
@@ -4168,7 +4168,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>201707</v>
       </c>
@@ -4238,7 +4238,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>201708</v>
       </c>
@@ -4308,7 +4308,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>201709</v>
       </c>
@@ -4378,7 +4378,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>201710</v>
       </c>
@@ -4448,7 +4448,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>201711</v>
       </c>
@@ -4518,7 +4518,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>201712</v>
       </c>
@@ -4588,7 +4588,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>201801</v>
       </c>
@@ -4650,7 +4650,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>201802</v>
       </c>
@@ -4712,7 +4712,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>201803</v>
       </c>
@@ -4774,7 +4774,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>201804</v>
       </c>
@@ -4836,7 +4836,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>201805</v>
       </c>
@@ -4847,7 +4847,7 @@
         <v>1923</v>
       </c>
       <c r="E72" s="2">
-        <f t="shared" ref="E72:E115" si="6">H72+K72+M72+S72</f>
+        <f t="shared" ref="E72:E116" si="6">H72+K72+M72+S72</f>
         <v>1</v>
       </c>
       <c r="H72" s="13">
@@ -4898,7 +4898,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>201806</v>
       </c>
@@ -4960,7 +4960,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>201807</v>
       </c>
@@ -5022,7 +5022,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>201808</v>
       </c>
@@ -5084,7 +5084,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>201809</v>
       </c>
@@ -5146,7 +5146,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>201810</v>
       </c>
@@ -5208,7 +5208,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>201811</v>
       </c>
@@ -5270,7 +5270,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>201812</v>
       </c>
@@ -5332,7 +5332,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>201901</v>
       </c>
@@ -5397,7 +5397,7 @@
         <v>0.35699999999999998</v>
       </c>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>201902</v>
       </c>
@@ -5462,7 +5462,7 @@
         <v>0.44700000000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>201903</v>
       </c>
@@ -5527,7 +5527,7 @@
         <v>0.59899999999999998</v>
       </c>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>201904</v>
       </c>
@@ -5589,7 +5589,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>201905</v>
       </c>
@@ -5651,7 +5651,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>201906</v>
       </c>
@@ -5713,7 +5713,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>201907</v>
       </c>
@@ -5775,7 +5775,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>201908</v>
       </c>
@@ -5837,7 +5837,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>201909</v>
       </c>
@@ -5899,7 +5899,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>201910</v>
       </c>
@@ -5961,7 +5961,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>201911</v>
       </c>
@@ -6023,7 +6023,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>201912</v>
       </c>
@@ -6085,7 +6085,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>202001</v>
       </c>
@@ -6150,7 +6150,7 @@
         <v>0.44800000000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>202002</v>
       </c>
@@ -6215,7 +6215,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>202003</v>
       </c>
@@ -6245,7 +6245,7 @@
         <v>2392</v>
       </c>
       <c r="O94" s="7">
-        <f t="shared" ref="O94:O115" si="7">N94/B94</f>
+        <f t="shared" ref="O94:O116" si="7">N94/B94</f>
         <v>0.19211308328648302</v>
       </c>
       <c r="Q94" s="14">
@@ -6280,7 +6280,7 @@
         <v>0.48499999999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>202004</v>
       </c>
@@ -6345,7 +6345,7 @@
         <v>0.437</v>
       </c>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>202005</v>
       </c>
@@ -6387,7 +6387,7 @@
         <v>3444</v>
       </c>
       <c r="S96" s="17">
-        <f t="shared" ref="S96:S115" si="8">R96/B96</f>
+        <f t="shared" ref="S96:S116" si="8">R96/B96</f>
         <v>0.43060765191297823</v>
       </c>
       <c r="T96">
@@ -6412,7 +6412,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>202006</v>
       </c>
@@ -6487,7 +6487,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>202007</v>
       </c>
@@ -6505,21 +6505,21 @@
         <v>1249</v>
       </c>
       <c r="H98" s="13">
-        <f t="shared" ref="H98:H115" si="9">G98/B98</f>
+        <f t="shared" ref="H98:H116" si="9">G98/B98</f>
         <v>0.12781416291444944</v>
       </c>
       <c r="J98">
         <v>1026</v>
       </c>
       <c r="K98" s="13">
-        <f t="shared" ref="K98:K115" si="10">J98/B98</f>
+        <f t="shared" ref="K98:K116" si="10">J98/B98</f>
         <v>0.10499386000818665</v>
       </c>
       <c r="L98">
         <v>3089</v>
       </c>
       <c r="M98" s="13">
-        <f t="shared" ref="M98:M115" si="11">L98/B98</f>
+        <f t="shared" ref="M98:M116" si="11">L98/B98</f>
         <v>0.31610724519033973</v>
       </c>
       <c r="N98">
@@ -6533,7 +6533,7 @@
         <v>811</v>
       </c>
       <c r="Q98" s="14">
-        <f t="shared" ref="Q98:Q115" si="12">P98/B98</f>
+        <f t="shared" ref="Q98:Q116" si="12">P98/B98</f>
         <v>8.2992222677036431E-2</v>
       </c>
       <c r="R98">
@@ -6565,7 +6565,7 @@
         <v>0.48699999999999999</v>
       </c>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>202008</v>
       </c>
@@ -6643,7 +6643,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>202009</v>
       </c>
@@ -6721,7 +6721,7 @@
         <v>0.45800000000000002</v>
       </c>
     </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>202010</v>
       </c>
@@ -6796,7 +6796,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>202011</v>
       </c>
@@ -6871,7 +6871,7 @@
         <v>0.48399999999999999</v>
       </c>
     </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>202012</v>
       </c>
@@ -6946,7 +6946,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>202101</v>
       </c>
@@ -7024,7 +7024,7 @@
         <v>0.56399999999999995</v>
       </c>
     </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>202102</v>
       </c>
@@ -7099,7 +7099,7 @@
         <v>0.54300000000000004</v>
       </c>
     </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>202103</v>
       </c>
@@ -7174,7 +7174,7 @@
         <v>0.55600000000000005</v>
       </c>
     </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>202104</v>
       </c>
@@ -7249,7 +7249,7 @@
         <v>0.45200000000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>202105</v>
       </c>
@@ -7327,7 +7327,7 @@
         <v>0.48399999999999999</v>
       </c>
     </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>202106</v>
       </c>
@@ -7402,7 +7402,7 @@
         <v>0.502</v>
       </c>
     </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>202107</v>
       </c>
@@ -7477,7 +7477,7 @@
         <v>0.48099999999999998</v>
       </c>
     </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>202108</v>
       </c>
@@ -7552,7 +7552,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>202109</v>
       </c>
@@ -7627,7 +7627,7 @@
         <v>0.59099999999999997</v>
       </c>
     </row>
-    <row r="113" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>202110</v>
       </c>
@@ -7702,7 +7702,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="114" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>202111</v>
       </c>
@@ -7777,7 +7777,7 @@
         <v>0.55700000000000005</v>
       </c>
     </row>
-    <row r="115" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>202112</v>
       </c>
@@ -7850,6 +7850,81 @@
       </c>
       <c r="Z115" s="13">
         <v>0.46600000000000003</v>
+      </c>
+    </row>
+    <row r="116" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A116">
+        <v>202201</v>
+      </c>
+      <c r="B116">
+        <v>7957</v>
+      </c>
+      <c r="C116">
+        <v>1000</v>
+      </c>
+      <c r="E116" s="2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G116">
+        <v>212</v>
+      </c>
+      <c r="H116" s="13">
+        <f t="shared" si="9"/>
+        <v>2.6643207238909138E-2</v>
+      </c>
+      <c r="J116">
+        <v>175</v>
+      </c>
+      <c r="K116" s="13">
+        <f t="shared" si="10"/>
+        <v>2.1993213522684428E-2</v>
+      </c>
+      <c r="L116">
+        <v>910</v>
+      </c>
+      <c r="M116" s="13">
+        <f t="shared" si="11"/>
+        <v>0.11436471031795903</v>
+      </c>
+      <c r="N116">
+        <v>539</v>
+      </c>
+      <c r="O116" s="7">
+        <f t="shared" si="7"/>
+        <v>6.7739097649868046E-2</v>
+      </c>
+      <c r="P116">
+        <v>371</v>
+      </c>
+      <c r="Q116" s="14">
+        <f t="shared" si="12"/>
+        <v>4.6625612668090989E-2</v>
+      </c>
+      <c r="R116">
+        <v>6660</v>
+      </c>
+      <c r="S116" s="17">
+        <f t="shared" si="8"/>
+        <v>0.83699886892044739</v>
+      </c>
+      <c r="U116">
+        <v>783</v>
+      </c>
+      <c r="V116">
+        <v>371</v>
+      </c>
+      <c r="W116">
+        <v>10</v>
+      </c>
+      <c r="X116">
+        <v>439</v>
+      </c>
+      <c r="Y116">
+        <v>60</v>
+      </c>
+      <c r="Z116" s="13">
+        <v>0.60499999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -7867,24 +7942,24 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -7904,6 +7979,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010074D02CDF85BB3C43825BB38CAE9C40BF" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9e6ebeebf662bbe5c42af7b30548b032">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1ae9c94a-2673-46e1-b5a6-dc0c87eae04c" xmlns:ns3="5083af8e-c479-4bff-9f3e-2a380844c8c1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ddcba00ed446088a4faa71495b72b8dd" ns2:_="" ns3:_="">
     <xsd:import namespace="1ae9c94a-2673-46e1-b5a6-dc0c87eae04c"/>
@@ -8126,15 +8210,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F14F16C9-F74E-4CAA-B7B8-5E225606C761}">
   <ds:schemaRefs>
@@ -8153,6 +8228,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF887100-7B50-47F5-87D7-ABDD1957FF85}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12B29FD4-B5AD-476C-9CAA-AB15E4434889}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8169,12 +8252,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF887100-7B50-47F5-87D7-ABDD1957FF85}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/EV/data/bilsalg.xlsx
+++ b/EV/data/bilsalg.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roberan\CICERO senter for klimaforskning\CM - Documents\SmallJobs\2019\201903_bilsalg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cicero.sharepoint.com/sites/Group-ClimateMitigation/Shared Documents/SmallJobs/2019/201903_bilsalg/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F864EC75-65FE-4242-9BDE-CE6CA8AD2589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{F864EC75-65FE-4242-9BDE-CE6CA8AD2589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5D1008D-6F6D-466C-AA9D-E7AF97970D64}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{94A590A3-A19D-4EDC-866B-407362CF22C8}"/>
   </bookViews>
@@ -778,13 +778,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A23E6F8-FBFE-40A4-8A3E-1BC2B49C4A9C}">
-  <dimension ref="A1:Z116"/>
+  <dimension ref="A1:Z117"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="M94" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B95" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Z116" sqref="Z116"/>
+      <selection pane="bottomRight" activeCell="A117" sqref="A117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4847,7 +4847,7 @@
         <v>1923</v>
       </c>
       <c r="E72" s="2">
-        <f t="shared" ref="E72:E116" si="6">H72+K72+M72+S72</f>
+        <f t="shared" ref="E72:E117" si="6">H72+K72+M72+S72</f>
         <v>1</v>
       </c>
       <c r="H72" s="13">
@@ -6245,7 +6245,7 @@
         <v>2392</v>
       </c>
       <c r="O94" s="7">
-        <f t="shared" ref="O94:O116" si="7">N94/B94</f>
+        <f t="shared" ref="O94:O117" si="7">N94/B94</f>
         <v>0.19211308328648302</v>
       </c>
       <c r="Q94" s="14">
@@ -6387,7 +6387,7 @@
         <v>3444</v>
       </c>
       <c r="S96" s="17">
-        <f t="shared" ref="S96:S116" si="8">R96/B96</f>
+        <f t="shared" ref="S96:S117" si="8">R96/B96</f>
         <v>0.43060765191297823</v>
       </c>
       <c r="T96">
@@ -6505,21 +6505,21 @@
         <v>1249</v>
       </c>
       <c r="H98" s="13">
-        <f t="shared" ref="H98:H116" si="9">G98/B98</f>
+        <f t="shared" ref="H98:H117" si="9">G98/B98</f>
         <v>0.12781416291444944</v>
       </c>
       <c r="J98">
         <v>1026</v>
       </c>
       <c r="K98" s="13">
-        <f t="shared" ref="K98:K116" si="10">J98/B98</f>
+        <f t="shared" ref="K98:K117" si="10">J98/B98</f>
         <v>0.10499386000818665</v>
       </c>
       <c r="L98">
         <v>3089</v>
       </c>
       <c r="M98" s="13">
-        <f t="shared" ref="M98:M116" si="11">L98/B98</f>
+        <f t="shared" ref="M98:M117" si="11">L98/B98</f>
         <v>0.31610724519033973</v>
       </c>
       <c r="N98">
@@ -6533,7 +6533,7 @@
         <v>811</v>
       </c>
       <c r="Q98" s="14">
-        <f t="shared" ref="Q98:Q116" si="12">P98/B98</f>
+        <f t="shared" ref="Q98:Q117" si="12">P98/B98</f>
         <v>8.2992222677036431E-2</v>
       </c>
       <c r="R98">
@@ -7925,6 +7925,81 @@
       </c>
       <c r="Z116" s="13">
         <v>0.60499999999999998</v>
+      </c>
+    </row>
+    <row r="117" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A117">
+        <v>202202</v>
+      </c>
+      <c r="B117">
+        <v>8147</v>
+      </c>
+      <c r="C117">
+        <v>1013</v>
+      </c>
+      <c r="E117" s="2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G117">
+        <v>379</v>
+      </c>
+      <c r="H117" s="13">
+        <f t="shared" si="9"/>
+        <v>4.6520191481526946E-2</v>
+      </c>
+      <c r="J117">
+        <v>385</v>
+      </c>
+      <c r="K117" s="13">
+        <f t="shared" si="10"/>
+        <v>4.7256658892843993E-2</v>
+      </c>
+      <c r="L117">
+        <v>1223</v>
+      </c>
+      <c r="M117" s="13">
+        <f t="shared" si="11"/>
+        <v>0.15011660734012519</v>
+      </c>
+      <c r="N117">
+        <v>852</v>
+      </c>
+      <c r="O117" s="7">
+        <f t="shared" si="7"/>
+        <v>0.10457837240702099</v>
+      </c>
+      <c r="P117">
+        <v>371</v>
+      </c>
+      <c r="Q117" s="14">
+        <f t="shared" si="12"/>
+        <v>4.5538234933104209E-2</v>
+      </c>
+      <c r="R117">
+        <v>6160</v>
+      </c>
+      <c r="S117" s="17">
+        <f t="shared" si="8"/>
+        <v>0.75610654228550389</v>
+      </c>
+      <c r="U117">
+        <v>794</v>
+      </c>
+      <c r="V117">
+        <v>250</v>
+      </c>
+      <c r="W117">
+        <v>15</v>
+      </c>
+      <c r="X117">
+        <v>344</v>
+      </c>
+      <c r="Y117">
+        <v>27</v>
+      </c>
+      <c r="Z117" s="13">
+        <v>0.55300000000000005</v>
       </c>
     </row>
   </sheetData>
@@ -7974,22 +8049,18 @@
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
+  <documentManagement>
+    <TaxCatchAll xmlns="5083af8e-c479-4bff-9f3e-2a380844c8c1" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1ae9c94a-2673-46e1-b5a6-dc0c87eae04c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010074D02CDF85BB3C43825BB38CAE9C40BF" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9e6ebeebf662bbe5c42af7b30548b032">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1ae9c94a-2673-46e1-b5a6-dc0c87eae04c" xmlns:ns3="5083af8e-c479-4bff-9f3e-2a380844c8c1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ddcba00ed446088a4faa71495b72b8dd" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010074D02CDF85BB3C43825BB38CAE9C40BF" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2fb5f53940ec2c7f0a344607982ab2a5">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1ae9c94a-2673-46e1-b5a6-dc0c87eae04c" xmlns:ns3="5083af8e-c479-4bff-9f3e-2a380844c8c1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0d94da3d7173a37185eb1f1bab2ed9be" ns2:_="" ns3:_="">
     <xsd:import namespace="1ae9c94a-2673-46e1-b5a6-dc0c87eae04c"/>
     <xsd:import namespace="5083af8e-c479-4bff-9f3e-2a380844c8c1"/>
     <xsd:element name="properties">
@@ -8011,6 +8082,8 @@
                 <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -8080,6 +8153,13 @@
         <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="22" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="1e53c95e-727e-44f4-9ee8-bf1dacd917f1" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="5083af8e-c479-4bff-9f3e-2a380844c8c1" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -8109,6 +8189,17 @@
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="23" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{36ae1418-1b43-41e8-bcf0-187ce1a503fc}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="5083af8e-c479-4bff-9f3e-2a380844c8c1">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -8210,6 +8301,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F14F16C9-F74E-4CAA-B7B8-5E225606C761}">
   <ds:schemaRefs>
@@ -8228,28 +8328,13 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38AD410B-FE07-4629-825B-47E04A071629}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF887100-7B50-47F5-87D7-ABDD1957FF85}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12B29FD4-B5AD-476C-9CAA-AB15E4434889}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1ae9c94a-2673-46e1-b5a6-dc0c87eae04c"/>
-    <ds:schemaRef ds:uri="5083af8e-c479-4bff-9f3e-2a380844c8c1"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/EV/data/bilsalg.xlsx
+++ b/EV/data/bilsalg.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cicero.sharepoint.com/sites/Group-ClimateMitigation/Shared Documents/SmallJobs/2019/201903_bilsalg/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{F864EC75-65FE-4242-9BDE-CE6CA8AD2589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5D1008D-6F6D-466C-AA9D-E7AF97970D64}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="13_ncr:1_{F864EC75-65FE-4242-9BDE-CE6CA8AD2589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE4D7EAE-A2F2-4AB2-92EE-1AAA8EA99455}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{94A590A3-A19D-4EDC-866B-407362CF22C8}"/>
   </bookViews>
@@ -778,13 +778,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A23E6F8-FBFE-40A4-8A3E-1BC2B49C4A9C}">
-  <dimension ref="A1:Z117"/>
+  <dimension ref="A1:Z118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B95" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C96" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A117" sqref="A117"/>
+      <selection pane="bottomRight" activeCell="A118" sqref="A118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4847,7 +4847,7 @@
         <v>1923</v>
       </c>
       <c r="E72" s="2">
-        <f t="shared" ref="E72:E117" si="6">H72+K72+M72+S72</f>
+        <f t="shared" ref="E72:E118" si="6">H72+K72+M72+S72</f>
         <v>1</v>
       </c>
       <c r="H72" s="13">
@@ -6245,7 +6245,7 @@
         <v>2392</v>
       </c>
       <c r="O94" s="7">
-        <f t="shared" ref="O94:O117" si="7">N94/B94</f>
+        <f t="shared" ref="O94:O118" si="7">N94/B94</f>
         <v>0.19211308328648302</v>
       </c>
       <c r="Q94" s="14">
@@ -6387,7 +6387,7 @@
         <v>3444</v>
       </c>
       <c r="S96" s="17">
-        <f t="shared" ref="S96:S117" si="8">R96/B96</f>
+        <f t="shared" ref="S96:S118" si="8">R96/B96</f>
         <v>0.43060765191297823</v>
       </c>
       <c r="T96">
@@ -6505,21 +6505,21 @@
         <v>1249</v>
       </c>
       <c r="H98" s="13">
-        <f t="shared" ref="H98:H117" si="9">G98/B98</f>
+        <f t="shared" ref="H98:H118" si="9">G98/B98</f>
         <v>0.12781416291444944</v>
       </c>
       <c r="J98">
         <v>1026</v>
       </c>
       <c r="K98" s="13">
-        <f t="shared" ref="K98:K117" si="10">J98/B98</f>
+        <f t="shared" ref="K98:K118" si="10">J98/B98</f>
         <v>0.10499386000818665</v>
       </c>
       <c r="L98">
         <v>3089</v>
       </c>
       <c r="M98" s="13">
-        <f t="shared" ref="M98:M117" si="11">L98/B98</f>
+        <f t="shared" ref="M98:M118" si="11">L98/B98</f>
         <v>0.31610724519033973</v>
       </c>
       <c r="N98">
@@ -6533,7 +6533,7 @@
         <v>811</v>
       </c>
       <c r="Q98" s="14">
-        <f t="shared" ref="Q98:Q117" si="12">P98/B98</f>
+        <f t="shared" ref="Q98:Q118" si="12">P98/B98</f>
         <v>8.2992222677036431E-2</v>
       </c>
       <c r="R98">
@@ -8000,6 +8000,81 @@
       </c>
       <c r="Z117" s="13">
         <v>0.55300000000000005</v>
+      </c>
+    </row>
+    <row r="118" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A118">
+        <v>202203</v>
+      </c>
+      <c r="B118">
+        <v>16238</v>
+      </c>
+      <c r="C118">
+        <v>1694</v>
+      </c>
+      <c r="E118" s="2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G118">
+        <v>418</v>
+      </c>
+      <c r="H118" s="13">
+        <f t="shared" si="9"/>
+        <v>2.5742086463850226E-2</v>
+      </c>
+      <c r="J118">
+        <v>450</v>
+      </c>
+      <c r="K118" s="13">
+        <f t="shared" si="10"/>
+        <v>2.7712772508929673E-2</v>
+      </c>
+      <c r="L118">
+        <v>1387</v>
+      </c>
+      <c r="M118" s="13">
+        <f t="shared" si="11"/>
+        <v>8.541692326641212E-2</v>
+      </c>
+      <c r="N118">
+        <v>947</v>
+      </c>
+      <c r="O118" s="7">
+        <f t="shared" si="7"/>
+        <v>5.8319990146569772E-2</v>
+      </c>
+      <c r="P118">
+        <v>440</v>
+      </c>
+      <c r="Q118" s="14">
+        <f t="shared" si="12"/>
+        <v>2.7096933119842345E-2</v>
+      </c>
+      <c r="R118">
+        <v>13983</v>
+      </c>
+      <c r="S118" s="17">
+        <f t="shared" si="8"/>
+        <v>0.86112821776080795</v>
+      </c>
+      <c r="U118">
+        <v>1336</v>
+      </c>
+      <c r="V118">
+        <v>495</v>
+      </c>
+      <c r="W118">
+        <v>10</v>
+      </c>
+      <c r="X118">
+        <v>396</v>
+      </c>
+      <c r="Y118">
+        <v>30</v>
+      </c>
+      <c r="Z118" s="13">
+        <v>0.69699999999999995</v>
       </c>
     </row>
   </sheetData>
@@ -8048,14 +8123,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="5083af8e-c479-4bff-9f3e-2a380844c8c1" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1ae9c94a-2673-46e1-b5a6-dc0c87eae04c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8302,15 +8375,44 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="5083af8e-c479-4bff-9f3e-2a380844c8c1" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1ae9c94a-2673-46e1-b5a6-dc0c87eae04c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF887100-7B50-47F5-87D7-ABDD1957FF85}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38AD410B-FE07-4629-825B-47E04A071629}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1ae9c94a-2673-46e1-b5a6-dc0c87eae04c"/>
+    <ds:schemaRef ds:uri="5083af8e-c479-4bff-9f3e-2a380844c8c1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F14F16C9-F74E-4CAA-B7B8-5E225606C761}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -8325,16 +8427,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38AD410B-FE07-4629-825B-47E04A071629}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF887100-7B50-47F5-87D7-ABDD1957FF85}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/EV/data/bilsalg.xlsx
+++ b/EV/data/bilsalg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cicero.sharepoint.com/sites/Group-ClimateMitigation/Shared Documents/SmallJobs/2019/201903_bilsalg/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="13_ncr:1_{F864EC75-65FE-4242-9BDE-CE6CA8AD2589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE4D7EAE-A2F2-4AB2-92EE-1AAA8EA99455}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="13_ncr:1_{F864EC75-65FE-4242-9BDE-CE6CA8AD2589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6928433E-F806-4B59-A8CF-9C56081FCD74}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{94A590A3-A19D-4EDC-866B-407362CF22C8}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="17595" xr2:uid="{94A590A3-A19D-4EDC-866B-407362CF22C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -778,29 +778,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A23E6F8-FBFE-40A4-8A3E-1BC2B49C4A9C}">
-  <dimension ref="A1:Z118"/>
+  <dimension ref="A1:Z119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C96" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B96" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A118" sqref="A118"/>
+      <selection pane="bottomRight" activeCell="B120" sqref="B120"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="12" max="12" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="11.1796875" customWidth="1"/>
-    <col min="18" max="18" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.453125" customWidth="1"/>
-    <col min="22" max="22" width="10.453125" customWidth="1"/>
-    <col min="23" max="23" width="11.453125" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="11.140625" customWidth="1"/>
+    <col min="18" max="18" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.42578125" customWidth="1"/>
+    <col min="22" max="22" width="10.42578125" customWidth="1"/>
+    <col min="23" max="23" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="58.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" ht="58.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>7</v>
       </c>
@@ -877,7 +877,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1994</v>
       </c>
@@ -906,7 +906,7 @@
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
     </row>
-    <row r="3" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1995</v>
       </c>
@@ -935,7 +935,7 @@
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
     </row>
-    <row r="4" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1996</v>
       </c>
@@ -964,7 +964,7 @@
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
     </row>
-    <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1997</v>
       </c>
@@ -995,7 +995,7 @@
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
     </row>
-    <row r="6" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1998</v>
       </c>
@@ -1024,7 +1024,7 @@
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
     </row>
-    <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1999</v>
       </c>
@@ -1053,7 +1053,7 @@
       <c r="X7" s="3"/>
       <c r="Y7" s="3"/>
     </row>
-    <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2000</v>
       </c>
@@ -1082,7 +1082,7 @@
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
     </row>
-    <row r="9" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2001</v>
       </c>
@@ -1111,7 +1111,7 @@
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
     </row>
-    <row r="10" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2002</v>
       </c>
@@ -1142,7 +1142,7 @@
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
     </row>
-    <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2003</v>
       </c>
@@ -1171,7 +1171,7 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
     </row>
-    <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2004</v>
       </c>
@@ -1206,7 +1206,7 @@
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
     </row>
-    <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>200512</v>
       </c>
@@ -1243,7 +1243,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2005</v>
       </c>
@@ -1282,7 +1282,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>200612</v>
       </c>
@@ -1319,7 +1319,7 @@
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
     </row>
-    <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2006</v>
       </c>
@@ -1354,7 +1354,7 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
     </row>
-    <row r="17" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>200712</v>
       </c>
@@ -1389,7 +1389,7 @@
       <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
     </row>
-    <row r="18" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2007</v>
       </c>
@@ -1432,7 +1432,7 @@
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
     </row>
-    <row r="19" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>200812</v>
       </c>
@@ -1469,7 +1469,7 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
     </row>
-    <row r="20" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2008</v>
       </c>
@@ -1513,7 +1513,7 @@
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
     </row>
-    <row r="21" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>200912</v>
       </c>
@@ -1548,7 +1548,7 @@
       <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
     </row>
-    <row r="22" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2009</v>
       </c>
@@ -1591,7 +1591,7 @@
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
     </row>
-    <row r="23" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>201012</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="24" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2010</v>
       </c>
@@ -1680,7 +1680,7 @@
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
     </row>
-    <row r="25" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>201112</v>
       </c>
@@ -1731,7 +1731,7 @@
       <c r="X25" s="3"/>
       <c r="Y25" s="3"/>
     </row>
-    <row r="26" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2011</v>
       </c>
@@ -1783,7 +1783,7 @@
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
     </row>
-    <row r="27" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>201212</v>
       </c>
@@ -1835,7 +1835,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2012</v>
       </c>
@@ -1887,7 +1887,7 @@
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
     </row>
-    <row r="29" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>201312</v>
       </c>
@@ -1941,7 +1941,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="30" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2013</v>
       </c>
@@ -2006,7 +2006,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="31" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2014</v>
       </c>
@@ -2070,7 +2070,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>201501</v>
       </c>
@@ -2137,7 +2137,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>201502</v>
       </c>
@@ -2198,7 +2198,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>201503</v>
       </c>
@@ -2255,7 +2255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>201504</v>
       </c>
@@ -2313,7 +2313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>201505</v>
       </c>
@@ -2382,7 +2382,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>201506</v>
       </c>
@@ -2442,7 +2442,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>201507</v>
       </c>
@@ -2517,7 +2517,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>201508</v>
       </c>
@@ -2592,7 +2592,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>201509</v>
       </c>
@@ -2671,7 +2671,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>201510</v>
       </c>
@@ -2751,7 +2751,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>201511</v>
       </c>
@@ -2831,7 +2831,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>201512</v>
       </c>
@@ -2911,7 +2911,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>201601</v>
       </c>
@@ -2976,7 +2976,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>201602</v>
       </c>
@@ -3039,7 +3039,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>201603</v>
       </c>
@@ -3102,7 +3102,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>201604</v>
       </c>
@@ -3169,7 +3169,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>201605</v>
       </c>
@@ -3236,7 +3236,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>201606</v>
       </c>
@@ -3309,7 +3309,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>201607</v>
       </c>
@@ -3382,7 +3382,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>201608</v>
       </c>
@@ -3455,7 +3455,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>201609</v>
       </c>
@@ -3528,7 +3528,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>201610</v>
       </c>
@@ -3601,7 +3601,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>201611</v>
       </c>
@@ -3674,7 +3674,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>201612</v>
       </c>
@@ -3747,7 +3747,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>201701</v>
       </c>
@@ -3818,7 +3818,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>201702</v>
       </c>
@@ -3889,7 +3889,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>201703</v>
       </c>
@@ -3960,7 +3960,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>201704</v>
       </c>
@@ -4029,7 +4029,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>201705</v>
       </c>
@@ -4098,7 +4098,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>201706</v>
       </c>
@@ -4168,7 +4168,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>201707</v>
       </c>
@@ -4238,7 +4238,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>201708</v>
       </c>
@@ -4308,7 +4308,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>201709</v>
       </c>
@@ -4378,7 +4378,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>201710</v>
       </c>
@@ -4448,7 +4448,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>201711</v>
       </c>
@@ -4518,7 +4518,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>201712</v>
       </c>
@@ -4588,7 +4588,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>201801</v>
       </c>
@@ -4650,7 +4650,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>201802</v>
       </c>
@@ -4712,7 +4712,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>201803</v>
       </c>
@@ -4774,7 +4774,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>201804</v>
       </c>
@@ -4836,7 +4836,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>201805</v>
       </c>
@@ -4847,7 +4847,7 @@
         <v>1923</v>
       </c>
       <c r="E72" s="2">
-        <f t="shared" ref="E72:E118" si="6">H72+K72+M72+S72</f>
+        <f t="shared" ref="E72:E119" si="6">H72+K72+M72+S72</f>
         <v>1</v>
       </c>
       <c r="H72" s="13">
@@ -4898,7 +4898,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>201806</v>
       </c>
@@ -4960,7 +4960,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>201807</v>
       </c>
@@ -5022,7 +5022,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>201808</v>
       </c>
@@ -5084,7 +5084,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>201809</v>
       </c>
@@ -5146,7 +5146,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>201810</v>
       </c>
@@ -5208,7 +5208,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>201811</v>
       </c>
@@ -5270,7 +5270,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>201812</v>
       </c>
@@ -5332,7 +5332,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>201901</v>
       </c>
@@ -5397,7 +5397,7 @@
         <v>0.35699999999999998</v>
       </c>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>201902</v>
       </c>
@@ -5462,7 +5462,7 @@
         <v>0.44700000000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>201903</v>
       </c>
@@ -5527,7 +5527,7 @@
         <v>0.59899999999999998</v>
       </c>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>201904</v>
       </c>
@@ -5589,7 +5589,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>201905</v>
       </c>
@@ -5651,7 +5651,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>201906</v>
       </c>
@@ -5713,7 +5713,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>201907</v>
       </c>
@@ -5775,7 +5775,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>201908</v>
       </c>
@@ -5837,7 +5837,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>201909</v>
       </c>
@@ -5899,7 +5899,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>201910</v>
       </c>
@@ -5961,7 +5961,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>201911</v>
       </c>
@@ -6023,7 +6023,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>201912</v>
       </c>
@@ -6085,7 +6085,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>202001</v>
       </c>
@@ -6150,7 +6150,7 @@
         <v>0.44800000000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>202002</v>
       </c>
@@ -6215,7 +6215,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>202003</v>
       </c>
@@ -6245,7 +6245,7 @@
         <v>2392</v>
       </c>
       <c r="O94" s="7">
-        <f t="shared" ref="O94:O118" si="7">N94/B94</f>
+        <f t="shared" ref="O94:O119" si="7">N94/B94</f>
         <v>0.19211308328648302</v>
       </c>
       <c r="Q94" s="14">
@@ -6280,7 +6280,7 @@
         <v>0.48499999999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>202004</v>
       </c>
@@ -6345,7 +6345,7 @@
         <v>0.437</v>
       </c>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>202005</v>
       </c>
@@ -6387,7 +6387,7 @@
         <v>3444</v>
       </c>
       <c r="S96" s="17">
-        <f t="shared" ref="S96:S118" si="8">R96/B96</f>
+        <f t="shared" ref="S96:S119" si="8">R96/B96</f>
         <v>0.43060765191297823</v>
       </c>
       <c r="T96">
@@ -6412,7 +6412,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>202006</v>
       </c>
@@ -6487,7 +6487,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>202007</v>
       </c>
@@ -6505,21 +6505,21 @@
         <v>1249</v>
       </c>
       <c r="H98" s="13">
-        <f t="shared" ref="H98:H118" si="9">G98/B98</f>
+        <f t="shared" ref="H98:H119" si="9">G98/B98</f>
         <v>0.12781416291444944</v>
       </c>
       <c r="J98">
         <v>1026</v>
       </c>
       <c r="K98" s="13">
-        <f t="shared" ref="K98:K118" si="10">J98/B98</f>
+        <f t="shared" ref="K98:K119" si="10">J98/B98</f>
         <v>0.10499386000818665</v>
       </c>
       <c r="L98">
         <v>3089</v>
       </c>
       <c r="M98" s="13">
-        <f t="shared" ref="M98:M118" si="11">L98/B98</f>
+        <f t="shared" ref="M98:M119" si="11">L98/B98</f>
         <v>0.31610724519033973</v>
       </c>
       <c r="N98">
@@ -6533,7 +6533,7 @@
         <v>811</v>
       </c>
       <c r="Q98" s="14">
-        <f t="shared" ref="Q98:Q118" si="12">P98/B98</f>
+        <f t="shared" ref="Q98:Q119" si="12">P98/B98</f>
         <v>8.2992222677036431E-2</v>
       </c>
       <c r="R98">
@@ -6565,7 +6565,7 @@
         <v>0.48699999999999999</v>
       </c>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>202008</v>
       </c>
@@ -6643,7 +6643,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>202009</v>
       </c>
@@ -6721,7 +6721,7 @@
         <v>0.45800000000000002</v>
       </c>
     </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>202010</v>
       </c>
@@ -6796,7 +6796,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>202011</v>
       </c>
@@ -6871,7 +6871,7 @@
         <v>0.48399999999999999</v>
       </c>
     </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>202012</v>
       </c>
@@ -6946,7 +6946,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>202101</v>
       </c>
@@ -7024,7 +7024,7 @@
         <v>0.56399999999999995</v>
       </c>
     </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>202102</v>
       </c>
@@ -7099,7 +7099,7 @@
         <v>0.54300000000000004</v>
       </c>
     </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>202103</v>
       </c>
@@ -7174,7 +7174,7 @@
         <v>0.55600000000000005</v>
       </c>
     </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>202104</v>
       </c>
@@ -7249,7 +7249,7 @@
         <v>0.45200000000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>202105</v>
       </c>
@@ -7327,7 +7327,7 @@
         <v>0.48399999999999999</v>
       </c>
     </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>202106</v>
       </c>
@@ -7402,7 +7402,7 @@
         <v>0.502</v>
       </c>
     </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>202107</v>
       </c>
@@ -7477,7 +7477,7 @@
         <v>0.48099999999999998</v>
       </c>
     </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>202108</v>
       </c>
@@ -7552,7 +7552,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>202109</v>
       </c>
@@ -7627,7 +7627,7 @@
         <v>0.59099999999999997</v>
       </c>
     </row>
-    <row r="113" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>202110</v>
       </c>
@@ -7702,7 +7702,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="114" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>202111</v>
       </c>
@@ -7777,7 +7777,7 @@
         <v>0.55700000000000005</v>
       </c>
     </row>
-    <row r="115" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>202112</v>
       </c>
@@ -7852,7 +7852,7 @@
         <v>0.46600000000000003</v>
       </c>
     </row>
-    <row r="116" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>202201</v>
       </c>
@@ -7927,7 +7927,7 @@
         <v>0.60499999999999998</v>
       </c>
     </row>
-    <row r="117" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>202202</v>
       </c>
@@ -8002,7 +8002,7 @@
         <v>0.55300000000000005</v>
       </c>
     </row>
-    <row r="118" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>202203</v>
       </c>
@@ -8075,6 +8075,81 @@
       </c>
       <c r="Z118" s="13">
         <v>0.69699999999999995</v>
+      </c>
+    </row>
+    <row r="119" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>202204</v>
+      </c>
+      <c r="B119">
+        <v>9725</v>
+      </c>
+      <c r="C119">
+        <v>1499</v>
+      </c>
+      <c r="E119" s="2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G119">
+        <v>313</v>
+      </c>
+      <c r="H119" s="13">
+        <f t="shared" si="9"/>
+        <v>3.2185089974293056E-2</v>
+      </c>
+      <c r="J119">
+        <v>514</v>
+      </c>
+      <c r="K119" s="13">
+        <f t="shared" si="10"/>
+        <v>5.2853470437017998E-2</v>
+      </c>
+      <c r="L119">
+        <v>1691</v>
+      </c>
+      <c r="M119" s="13">
+        <f t="shared" si="11"/>
+        <v>0.17388174807197943</v>
+      </c>
+      <c r="N119">
+        <v>982</v>
+      </c>
+      <c r="O119" s="7">
+        <f t="shared" si="7"/>
+        <v>0.10097686375321337</v>
+      </c>
+      <c r="P119">
+        <v>709</v>
+      </c>
+      <c r="Q119" s="14">
+        <f t="shared" si="12"/>
+        <v>7.2904884318766072E-2</v>
+      </c>
+      <c r="R119">
+        <v>7207</v>
+      </c>
+      <c r="S119" s="17">
+        <f t="shared" si="8"/>
+        <v>0.74107969151670949</v>
+      </c>
+      <c r="U119">
+        <v>1099</v>
+      </c>
+      <c r="V119">
+        <v>479</v>
+      </c>
+      <c r="W119">
+        <v>13</v>
+      </c>
+      <c r="X119">
+        <v>366</v>
+      </c>
+      <c r="Y119">
+        <v>29</v>
+      </c>
+      <c r="Z119" s="13">
+        <v>0.56499999999999995</v>
       </c>
     </row>
   </sheetData>
@@ -8092,24 +8167,24 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -8123,12 +8198,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="5083af8e-c479-4bff-9f3e-2a380844c8c1" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1ae9c94a-2673-46e1-b5a6-dc0c87eae04c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8375,20 +8452,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="5083af8e-c479-4bff-9f3e-2a380844c8c1" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1ae9c94a-2673-46e1-b5a6-dc0c87eae04c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF887100-7B50-47F5-87D7-ABDD1957FF85}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F14F16C9-F74E-4CAA-B7B8-5E225606C761}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="5083af8e-c479-4bff-9f3e-2a380844c8c1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="1ae9c94a-2673-46e1-b5a6-dc0c87eae04c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -8413,18 +8497,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F14F16C9-F74E-4CAA-B7B8-5E225606C761}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF887100-7B50-47F5-87D7-ABDD1957FF85}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="5083af8e-c479-4bff-9f3e-2a380844c8c1"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="1ae9c94a-2673-46e1-b5a6-dc0c87eae04c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/EV/data/bilsalg.xlsx
+++ b/EV/data/bilsalg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cicero.sharepoint.com/sites/Group-ClimateMitigation/Shared Documents/SmallJobs/2019/201903_bilsalg/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roberan\CICERO senter for klimaforskning\CM - Documents\SmallJobs\2019\201903_bilsalg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="57" documentId="13_ncr:1_{F864EC75-65FE-4242-9BDE-CE6CA8AD2589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6928433E-F806-4B59-A8CF-9C56081FCD74}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D299A52-626A-43A6-9CE2-398B071A1650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="17595" xr2:uid="{94A590A3-A19D-4EDC-866B-407362CF22C8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="16800" xr2:uid="{94A590A3-A19D-4EDC-866B-407362CF22C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -778,7 +778,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A23E6F8-FBFE-40A4-8A3E-1BC2B49C4A9C}">
-  <dimension ref="A1:Z119"/>
+  <dimension ref="A1:Z120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B96" activePane="bottomRight" state="frozen"/>
@@ -787,20 +787,20 @@
       <selection pane="bottomRight" activeCell="B120" sqref="B120"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="11.140625" customWidth="1"/>
-    <col min="18" max="18" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.42578125" customWidth="1"/>
-    <col min="22" max="22" width="10.42578125" customWidth="1"/>
-    <col min="23" max="23" width="11.42578125" customWidth="1"/>
+    <col min="12" max="12" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="11.109375" customWidth="1"/>
+    <col min="18" max="18" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.44140625" customWidth="1"/>
+    <col min="22" max="22" width="10.44140625" customWidth="1"/>
+    <col min="23" max="23" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="58.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="58.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>7</v>
       </c>
@@ -877,7 +877,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1994</v>
       </c>
@@ -906,7 +906,7 @@
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
     </row>
-    <row r="3" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1995</v>
       </c>
@@ -935,7 +935,7 @@
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
     </row>
-    <row r="4" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1996</v>
       </c>
@@ -964,7 +964,7 @@
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
     </row>
-    <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1997</v>
       </c>
@@ -995,7 +995,7 @@
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
     </row>
-    <row r="6" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1998</v>
       </c>
@@ -1024,7 +1024,7 @@
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
     </row>
-    <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1999</v>
       </c>
@@ -1053,7 +1053,7 @@
       <c r="X7" s="3"/>
       <c r="Y7" s="3"/>
     </row>
-    <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2000</v>
       </c>
@@ -1082,7 +1082,7 @@
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
     </row>
-    <row r="9" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2001</v>
       </c>
@@ -1111,7 +1111,7 @@
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
     </row>
-    <row r="10" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2002</v>
       </c>
@@ -1142,7 +1142,7 @@
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
     </row>
-    <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2003</v>
       </c>
@@ -1171,7 +1171,7 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
     </row>
-    <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2004</v>
       </c>
@@ -1206,7 +1206,7 @@
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
     </row>
-    <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>200512</v>
       </c>
@@ -1243,7 +1243,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2005</v>
       </c>
@@ -1282,7 +1282,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>200612</v>
       </c>
@@ -1319,7 +1319,7 @@
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
     </row>
-    <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2006</v>
       </c>
@@ -1354,7 +1354,7 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
     </row>
-    <row r="17" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>200712</v>
       </c>
@@ -1389,7 +1389,7 @@
       <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
     </row>
-    <row r="18" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2007</v>
       </c>
@@ -1432,7 +1432,7 @@
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
     </row>
-    <row r="19" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>200812</v>
       </c>
@@ -1469,7 +1469,7 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
     </row>
-    <row r="20" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2008</v>
       </c>
@@ -1513,7 +1513,7 @@
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
     </row>
-    <row r="21" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>200912</v>
       </c>
@@ -1548,7 +1548,7 @@
       <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
     </row>
-    <row r="22" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2009</v>
       </c>
@@ -1591,7 +1591,7 @@
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
     </row>
-    <row r="23" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>201012</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="24" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2010</v>
       </c>
@@ -1680,7 +1680,7 @@
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
     </row>
-    <row r="25" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>201112</v>
       </c>
@@ -1731,7 +1731,7 @@
       <c r="X25" s="3"/>
       <c r="Y25" s="3"/>
     </row>
-    <row r="26" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2011</v>
       </c>
@@ -1783,7 +1783,7 @@
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
     </row>
-    <row r="27" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>201212</v>
       </c>
@@ -1835,7 +1835,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2012</v>
       </c>
@@ -1887,7 +1887,7 @@
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
     </row>
-    <row r="29" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>201312</v>
       </c>
@@ -1941,7 +1941,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="30" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2013</v>
       </c>
@@ -2006,7 +2006,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="31" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2014</v>
       </c>
@@ -2070,7 +2070,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>201501</v>
       </c>
@@ -2137,7 +2137,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>201502</v>
       </c>
@@ -2198,7 +2198,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>201503</v>
       </c>
@@ -2255,7 +2255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>201504</v>
       </c>
@@ -2313,7 +2313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>201505</v>
       </c>
@@ -2382,7 +2382,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>201506</v>
       </c>
@@ -2442,7 +2442,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>201507</v>
       </c>
@@ -2517,7 +2517,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>201508</v>
       </c>
@@ -2592,7 +2592,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>201509</v>
       </c>
@@ -2671,7 +2671,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>201510</v>
       </c>
@@ -2751,7 +2751,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>201511</v>
       </c>
@@ -2831,7 +2831,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>201512</v>
       </c>
@@ -2911,7 +2911,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>201601</v>
       </c>
@@ -2976,7 +2976,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>201602</v>
       </c>
@@ -3039,7 +3039,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>201603</v>
       </c>
@@ -3102,7 +3102,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>201604</v>
       </c>
@@ -3169,7 +3169,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>201605</v>
       </c>
@@ -3236,7 +3236,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>201606</v>
       </c>
@@ -3309,7 +3309,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>201607</v>
       </c>
@@ -3382,7 +3382,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>201608</v>
       </c>
@@ -3455,7 +3455,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>201609</v>
       </c>
@@ -3528,7 +3528,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>201610</v>
       </c>
@@ -3601,7 +3601,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>201611</v>
       </c>
@@ -3674,7 +3674,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>201612</v>
       </c>
@@ -3747,7 +3747,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>201701</v>
       </c>
@@ -3818,7 +3818,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>201702</v>
       </c>
@@ -3889,7 +3889,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>201703</v>
       </c>
@@ -3960,7 +3960,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>201704</v>
       </c>
@@ -4029,7 +4029,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>201705</v>
       </c>
@@ -4098,7 +4098,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>201706</v>
       </c>
@@ -4168,7 +4168,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>201707</v>
       </c>
@@ -4238,7 +4238,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>201708</v>
       </c>
@@ -4308,7 +4308,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>201709</v>
       </c>
@@ -4378,7 +4378,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>201710</v>
       </c>
@@ -4448,7 +4448,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>201711</v>
       </c>
@@ -4518,7 +4518,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>201712</v>
       </c>
@@ -4588,7 +4588,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>201801</v>
       </c>
@@ -4650,7 +4650,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>201802</v>
       </c>
@@ -4712,7 +4712,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>201803</v>
       </c>
@@ -4774,7 +4774,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>201804</v>
       </c>
@@ -4836,7 +4836,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>201805</v>
       </c>
@@ -4847,7 +4847,7 @@
         <v>1923</v>
       </c>
       <c r="E72" s="2">
-        <f t="shared" ref="E72:E119" si="6">H72+K72+M72+S72</f>
+        <f t="shared" ref="E72:E120" si="6">H72+K72+M72+S72</f>
         <v>1</v>
       </c>
       <c r="H72" s="13">
@@ -4898,7 +4898,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>201806</v>
       </c>
@@ -4960,7 +4960,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>201807</v>
       </c>
@@ -5022,7 +5022,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>201808</v>
       </c>
@@ -5084,7 +5084,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>201809</v>
       </c>
@@ -5146,7 +5146,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>201810</v>
       </c>
@@ -5208,7 +5208,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>201811</v>
       </c>
@@ -5270,7 +5270,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>201812</v>
       </c>
@@ -5332,7 +5332,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>201901</v>
       </c>
@@ -5397,7 +5397,7 @@
         <v>0.35699999999999998</v>
       </c>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>201902</v>
       </c>
@@ -5462,7 +5462,7 @@
         <v>0.44700000000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>201903</v>
       </c>
@@ -5527,7 +5527,7 @@
         <v>0.59899999999999998</v>
       </c>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>201904</v>
       </c>
@@ -5589,7 +5589,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>201905</v>
       </c>
@@ -5651,7 +5651,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>201906</v>
       </c>
@@ -5713,7 +5713,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>201907</v>
       </c>
@@ -5775,7 +5775,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>201908</v>
       </c>
@@ -5837,7 +5837,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>201909</v>
       </c>
@@ -5899,7 +5899,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>201910</v>
       </c>
@@ -5961,7 +5961,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>201911</v>
       </c>
@@ -6023,7 +6023,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>201912</v>
       </c>
@@ -6085,7 +6085,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>202001</v>
       </c>
@@ -6150,7 +6150,7 @@
         <v>0.44800000000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>202002</v>
       </c>
@@ -6215,7 +6215,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>202003</v>
       </c>
@@ -6245,7 +6245,7 @@
         <v>2392</v>
       </c>
       <c r="O94" s="7">
-        <f t="shared" ref="O94:O119" si="7">N94/B94</f>
+        <f t="shared" ref="O94:O120" si="7">N94/B94</f>
         <v>0.19211308328648302</v>
       </c>
       <c r="Q94" s="14">
@@ -6280,7 +6280,7 @@
         <v>0.48499999999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>202004</v>
       </c>
@@ -6345,7 +6345,7 @@
         <v>0.437</v>
       </c>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>202005</v>
       </c>
@@ -6387,7 +6387,7 @@
         <v>3444</v>
       </c>
       <c r="S96" s="17">
-        <f t="shared" ref="S96:S119" si="8">R96/B96</f>
+        <f t="shared" ref="S96:S120" si="8">R96/B96</f>
         <v>0.43060765191297823</v>
       </c>
       <c r="T96">
@@ -6412,7 +6412,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>202006</v>
       </c>
@@ -6487,7 +6487,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>202007</v>
       </c>
@@ -6505,21 +6505,21 @@
         <v>1249</v>
       </c>
       <c r="H98" s="13">
-        <f t="shared" ref="H98:H119" si="9">G98/B98</f>
+        <f t="shared" ref="H98:H120" si="9">G98/B98</f>
         <v>0.12781416291444944</v>
       </c>
       <c r="J98">
         <v>1026</v>
       </c>
       <c r="K98" s="13">
-        <f t="shared" ref="K98:K119" si="10">J98/B98</f>
+        <f t="shared" ref="K98:K120" si="10">J98/B98</f>
         <v>0.10499386000818665</v>
       </c>
       <c r="L98">
         <v>3089</v>
       </c>
       <c r="M98" s="13">
-        <f t="shared" ref="M98:M119" si="11">L98/B98</f>
+        <f t="shared" ref="M98:M120" si="11">L98/B98</f>
         <v>0.31610724519033973</v>
       </c>
       <c r="N98">
@@ -6533,7 +6533,7 @@
         <v>811</v>
       </c>
       <c r="Q98" s="14">
-        <f t="shared" ref="Q98:Q119" si="12">P98/B98</f>
+        <f t="shared" ref="Q98:Q120" si="12">P98/B98</f>
         <v>8.2992222677036431E-2</v>
       </c>
       <c r="R98">
@@ -6565,7 +6565,7 @@
         <v>0.48699999999999999</v>
       </c>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>202008</v>
       </c>
@@ -6643,7 +6643,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>202009</v>
       </c>
@@ -6721,7 +6721,7 @@
         <v>0.45800000000000002</v>
       </c>
     </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>202010</v>
       </c>
@@ -6796,7 +6796,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>202011</v>
       </c>
@@ -6871,7 +6871,7 @@
         <v>0.48399999999999999</v>
       </c>
     </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>202012</v>
       </c>
@@ -6946,7 +6946,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>202101</v>
       </c>
@@ -7024,7 +7024,7 @@
         <v>0.56399999999999995</v>
       </c>
     </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>202102</v>
       </c>
@@ -7099,7 +7099,7 @@
         <v>0.54300000000000004</v>
       </c>
     </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>202103</v>
       </c>
@@ -7174,7 +7174,7 @@
         <v>0.55600000000000005</v>
       </c>
     </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>202104</v>
       </c>
@@ -7249,7 +7249,7 @@
         <v>0.45200000000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>202105</v>
       </c>
@@ -7327,7 +7327,7 @@
         <v>0.48399999999999999</v>
       </c>
     </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>202106</v>
       </c>
@@ -7402,7 +7402,7 @@
         <v>0.502</v>
       </c>
     </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>202107</v>
       </c>
@@ -7477,7 +7477,7 @@
         <v>0.48099999999999998</v>
       </c>
     </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>202108</v>
       </c>
@@ -7552,7 +7552,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>202109</v>
       </c>
@@ -7627,7 +7627,7 @@
         <v>0.59099999999999997</v>
       </c>
     </row>
-    <row r="113" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>202110</v>
       </c>
@@ -7702,7 +7702,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="114" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>202111</v>
       </c>
@@ -7777,7 +7777,7 @@
         <v>0.55700000000000005</v>
       </c>
     </row>
-    <row r="115" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>202112</v>
       </c>
@@ -7852,7 +7852,7 @@
         <v>0.46600000000000003</v>
       </c>
     </row>
-    <row r="116" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>202201</v>
       </c>
@@ -7927,7 +7927,7 @@
         <v>0.60499999999999998</v>
       </c>
     </row>
-    <row r="117" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>202202</v>
       </c>
@@ -8002,7 +8002,7 @@
         <v>0.55300000000000005</v>
       </c>
     </row>
-    <row r="118" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>202203</v>
       </c>
@@ -8077,7 +8077,7 @@
         <v>0.69699999999999995</v>
       </c>
     </row>
-    <row r="119" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>202204</v>
       </c>
@@ -8150,6 +8150,81 @@
       </c>
       <c r="Z119" s="13">
         <v>0.56499999999999995</v>
+      </c>
+    </row>
+    <row r="120" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>202205</v>
+      </c>
+      <c r="B120">
+        <v>11537</v>
+      </c>
+      <c r="C120">
+        <v>1676</v>
+      </c>
+      <c r="E120" s="2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G120">
+        <v>423</v>
+      </c>
+      <c r="H120" s="13">
+        <f t="shared" si="9"/>
+        <v>3.6664644188263845E-2</v>
+      </c>
+      <c r="J120">
+        <v>486</v>
+      </c>
+      <c r="K120" s="13">
+        <f t="shared" si="10"/>
+        <v>4.2125335875877613E-2</v>
+      </c>
+      <c r="L120">
+        <v>2183</v>
+      </c>
+      <c r="M120" s="13">
+        <f t="shared" si="11"/>
+        <v>0.1892173008581087</v>
+      </c>
+      <c r="N120">
+        <v>1375</v>
+      </c>
+      <c r="O120" s="7">
+        <f t="shared" si="7"/>
+        <v>0.11918176302331629</v>
+      </c>
+      <c r="P120">
+        <v>808</v>
+      </c>
+      <c r="Q120" s="14">
+        <f t="shared" si="12"/>
+        <v>7.0035537834792411E-2</v>
+      </c>
+      <c r="R120">
+        <v>8445</v>
+      </c>
+      <c r="S120" s="17">
+        <f t="shared" si="8"/>
+        <v>0.73199271907774988</v>
+      </c>
+      <c r="U120">
+        <v>1183</v>
+      </c>
+      <c r="V120">
+        <v>425</v>
+      </c>
+      <c r="W120">
+        <v>12</v>
+      </c>
+      <c r="X120">
+        <v>369</v>
+      </c>
+      <c r="Y120">
+        <v>72</v>
+      </c>
+      <c r="Z120" s="13">
+        <v>0.61499999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -8167,24 +8242,24 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -8209,6 +8284,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010074D02CDF85BB3C43825BB38CAE9C40BF" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2fb5f53940ec2c7f0a344607982ab2a5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1ae9c94a-2673-46e1-b5a6-dc0c87eae04c" xmlns:ns3="5083af8e-c479-4bff-9f3e-2a380844c8c1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0d94da3d7173a37185eb1f1bab2ed9be" ns2:_="" ns3:_="">
     <xsd:import namespace="1ae9c94a-2673-46e1-b5a6-dc0c87eae04c"/>
@@ -8451,15 +8535,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F14F16C9-F74E-4CAA-B7B8-5E225606C761}">
   <ds:schemaRefs>
@@ -8478,6 +8553,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF887100-7B50-47F5-87D7-ABDD1957FF85}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38AD410B-FE07-4629-825B-47E04A071629}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8494,12 +8577,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF887100-7B50-47F5-87D7-ABDD1957FF85}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/EV/data/bilsalg.xlsx
+++ b/EV/data/bilsalg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roberan\CICERO senter for klimaforskning\CM - Documents\SmallJobs\2019\201903_bilsalg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D299A52-626A-43A6-9CE2-398B071A1650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7435FA22-33C1-46FC-9CEE-C650859A0CD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="16800" xr2:uid="{94A590A3-A19D-4EDC-866B-407362CF22C8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{94A590A3-A19D-4EDC-866B-407362CF22C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -778,29 +778,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A23E6F8-FBFE-40A4-8A3E-1BC2B49C4A9C}">
-  <dimension ref="A1:Z120"/>
+  <dimension ref="A1:Z121"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B96" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="P103" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B120" sqref="B120"/>
+      <selection pane="bottomRight" activeCell="Z121" sqref="Z121"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="12" max="12" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="11.109375" customWidth="1"/>
-    <col min="18" max="18" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.44140625" customWidth="1"/>
-    <col min="22" max="22" width="10.44140625" customWidth="1"/>
-    <col min="23" max="23" width="11.44140625" customWidth="1"/>
+    <col min="12" max="12" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="11.08984375" customWidth="1"/>
+    <col min="18" max="18" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.453125" customWidth="1"/>
+    <col min="22" max="22" width="10.453125" customWidth="1"/>
+    <col min="23" max="23" width="11.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="58.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" ht="58.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="3" t="s">
         <v>7</v>
       </c>
@@ -877,7 +877,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1994</v>
       </c>
@@ -906,7 +906,7 @@
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
     </row>
-    <row r="3" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1995</v>
       </c>
@@ -935,7 +935,7 @@
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
     </row>
-    <row r="4" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1996</v>
       </c>
@@ -964,7 +964,7 @@
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
     </row>
-    <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1997</v>
       </c>
@@ -995,7 +995,7 @@
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
     </row>
-    <row r="6" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1998</v>
       </c>
@@ -1024,7 +1024,7 @@
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
     </row>
-    <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1999</v>
       </c>
@@ -1053,7 +1053,7 @@
       <c r="X7" s="3"/>
       <c r="Y7" s="3"/>
     </row>
-    <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2000</v>
       </c>
@@ -1082,7 +1082,7 @@
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
     </row>
-    <row r="9" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2001</v>
       </c>
@@ -1111,7 +1111,7 @@
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
     </row>
-    <row r="10" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2002</v>
       </c>
@@ -1142,7 +1142,7 @@
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
     </row>
-    <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2003</v>
       </c>
@@ -1171,7 +1171,7 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
     </row>
-    <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2004</v>
       </c>
@@ -1206,7 +1206,7 @@
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
     </row>
-    <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>200512</v>
       </c>
@@ -1243,7 +1243,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2005</v>
       </c>
@@ -1282,7 +1282,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>200612</v>
       </c>
@@ -1319,7 +1319,7 @@
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
     </row>
-    <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2006</v>
       </c>
@@ -1354,7 +1354,7 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
     </row>
-    <row r="17" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>200712</v>
       </c>
@@ -1389,7 +1389,7 @@
       <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
     </row>
-    <row r="18" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>2007</v>
       </c>
@@ -1432,7 +1432,7 @@
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
     </row>
-    <row r="19" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>200812</v>
       </c>
@@ -1469,7 +1469,7 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
     </row>
-    <row r="20" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>2008</v>
       </c>
@@ -1513,7 +1513,7 @@
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
     </row>
-    <row r="21" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>200912</v>
       </c>
@@ -1548,7 +1548,7 @@
       <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
     </row>
-    <row r="22" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>2009</v>
       </c>
@@ -1591,7 +1591,7 @@
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
     </row>
-    <row r="23" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>201012</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="24" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>2010</v>
       </c>
@@ -1680,7 +1680,7 @@
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
     </row>
-    <row r="25" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>201112</v>
       </c>
@@ -1731,7 +1731,7 @@
       <c r="X25" s="3"/>
       <c r="Y25" s="3"/>
     </row>
-    <row r="26" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>2011</v>
       </c>
@@ -1783,7 +1783,7 @@
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
     </row>
-    <row r="27" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>201212</v>
       </c>
@@ -1835,7 +1835,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>2012</v>
       </c>
@@ -1887,7 +1887,7 @@
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
     </row>
-    <row r="29" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>201312</v>
       </c>
@@ -1941,7 +1941,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="30" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>2013</v>
       </c>
@@ -2006,7 +2006,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="31" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>2014</v>
       </c>
@@ -2070,7 +2070,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>201501</v>
       </c>
@@ -2137,7 +2137,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>201502</v>
       </c>
@@ -2198,7 +2198,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>201503</v>
       </c>
@@ -2255,7 +2255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>201504</v>
       </c>
@@ -2313,7 +2313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>201505</v>
       </c>
@@ -2382,7 +2382,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>201506</v>
       </c>
@@ -2442,7 +2442,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>201507</v>
       </c>
@@ -2517,7 +2517,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>201508</v>
       </c>
@@ -2592,7 +2592,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>201509</v>
       </c>
@@ -2671,7 +2671,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>201510</v>
       </c>
@@ -2751,7 +2751,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>201511</v>
       </c>
@@ -2831,7 +2831,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>201512</v>
       </c>
@@ -2911,7 +2911,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>201601</v>
       </c>
@@ -2976,7 +2976,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>201602</v>
       </c>
@@ -3039,7 +3039,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>201603</v>
       </c>
@@ -3102,7 +3102,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>201604</v>
       </c>
@@ -3169,7 +3169,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>201605</v>
       </c>
@@ -3236,7 +3236,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>201606</v>
       </c>
@@ -3309,7 +3309,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>201607</v>
       </c>
@@ -3382,7 +3382,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>201608</v>
       </c>
@@ -3455,7 +3455,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>201609</v>
       </c>
@@ -3528,7 +3528,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>201610</v>
       </c>
@@ -3601,7 +3601,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>201611</v>
       </c>
@@ -3674,7 +3674,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>201612</v>
       </c>
@@ -3747,7 +3747,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>201701</v>
       </c>
@@ -3818,7 +3818,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>201702</v>
       </c>
@@ -3889,7 +3889,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>201703</v>
       </c>
@@ -3960,7 +3960,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>201704</v>
       </c>
@@ -4029,7 +4029,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>201705</v>
       </c>
@@ -4098,7 +4098,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>201706</v>
       </c>
@@ -4168,7 +4168,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>201707</v>
       </c>
@@ -4238,7 +4238,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>201708</v>
       </c>
@@ -4308,7 +4308,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>201709</v>
       </c>
@@ -4378,7 +4378,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>201710</v>
       </c>
@@ -4448,7 +4448,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>201711</v>
       </c>
@@ -4518,7 +4518,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>201712</v>
       </c>
@@ -4588,7 +4588,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>201801</v>
       </c>
@@ -4650,7 +4650,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>201802</v>
       </c>
@@ -4712,7 +4712,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>201803</v>
       </c>
@@ -4774,7 +4774,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>201804</v>
       </c>
@@ -4836,7 +4836,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>201805</v>
       </c>
@@ -4847,7 +4847,7 @@
         <v>1923</v>
       </c>
       <c r="E72" s="2">
-        <f t="shared" ref="E72:E120" si="6">H72+K72+M72+S72</f>
+        <f t="shared" ref="E72:E121" si="6">H72+K72+M72+S72</f>
         <v>1</v>
       </c>
       <c r="H72" s="13">
@@ -4898,7 +4898,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>201806</v>
       </c>
@@ -4960,7 +4960,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>201807</v>
       </c>
@@ -5022,7 +5022,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>201808</v>
       </c>
@@ -5084,7 +5084,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>201809</v>
       </c>
@@ -5146,7 +5146,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>201810</v>
       </c>
@@ -5208,7 +5208,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>201811</v>
       </c>
@@ -5270,7 +5270,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>201812</v>
       </c>
@@ -5332,7 +5332,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>201901</v>
       </c>
@@ -5397,7 +5397,7 @@
         <v>0.35699999999999998</v>
       </c>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>201902</v>
       </c>
@@ -5462,7 +5462,7 @@
         <v>0.44700000000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>201903</v>
       </c>
@@ -5527,7 +5527,7 @@
         <v>0.59899999999999998</v>
       </c>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>201904</v>
       </c>
@@ -5589,7 +5589,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>201905</v>
       </c>
@@ -5651,7 +5651,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>201906</v>
       </c>
@@ -5713,7 +5713,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>201907</v>
       </c>
@@ -5775,7 +5775,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>201908</v>
       </c>
@@ -5837,7 +5837,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>201909</v>
       </c>
@@ -5899,7 +5899,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>201910</v>
       </c>
@@ -5961,7 +5961,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>201911</v>
       </c>
@@ -6023,7 +6023,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>201912</v>
       </c>
@@ -6085,7 +6085,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>202001</v>
       </c>
@@ -6150,7 +6150,7 @@
         <v>0.44800000000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>202002</v>
       </c>
@@ -6215,7 +6215,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>202003</v>
       </c>
@@ -6245,7 +6245,7 @@
         <v>2392</v>
       </c>
       <c r="O94" s="7">
-        <f t="shared" ref="O94:O120" si="7">N94/B94</f>
+        <f t="shared" ref="O94:O121" si="7">N94/B94</f>
         <v>0.19211308328648302</v>
       </c>
       <c r="Q94" s="14">
@@ -6280,7 +6280,7 @@
         <v>0.48499999999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>202004</v>
       </c>
@@ -6345,7 +6345,7 @@
         <v>0.437</v>
       </c>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>202005</v>
       </c>
@@ -6387,7 +6387,7 @@
         <v>3444</v>
       </c>
       <c r="S96" s="17">
-        <f t="shared" ref="S96:S120" si="8">R96/B96</f>
+        <f t="shared" ref="S96:S121" si="8">R96/B96</f>
         <v>0.43060765191297823</v>
       </c>
       <c r="T96">
@@ -6412,7 +6412,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>202006</v>
       </c>
@@ -6487,7 +6487,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>202007</v>
       </c>
@@ -6505,21 +6505,21 @@
         <v>1249</v>
       </c>
       <c r="H98" s="13">
-        <f t="shared" ref="H98:H120" si="9">G98/B98</f>
+        <f t="shared" ref="H98:H121" si="9">G98/B98</f>
         <v>0.12781416291444944</v>
       </c>
       <c r="J98">
         <v>1026</v>
       </c>
       <c r="K98" s="13">
-        <f t="shared" ref="K98:K120" si="10">J98/B98</f>
+        <f t="shared" ref="K98:K121" si="10">J98/B98</f>
         <v>0.10499386000818665</v>
       </c>
       <c r="L98">
         <v>3089</v>
       </c>
       <c r="M98" s="13">
-        <f t="shared" ref="M98:M120" si="11">L98/B98</f>
+        <f t="shared" ref="M98:M121" si="11">L98/B98</f>
         <v>0.31610724519033973</v>
       </c>
       <c r="N98">
@@ -6533,7 +6533,7 @@
         <v>811</v>
       </c>
       <c r="Q98" s="14">
-        <f t="shared" ref="Q98:Q120" si="12">P98/B98</f>
+        <f t="shared" ref="Q98:Q121" si="12">P98/B98</f>
         <v>8.2992222677036431E-2</v>
       </c>
       <c r="R98">
@@ -6565,7 +6565,7 @@
         <v>0.48699999999999999</v>
       </c>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>202008</v>
       </c>
@@ -6643,7 +6643,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>202009</v>
       </c>
@@ -6721,7 +6721,7 @@
         <v>0.45800000000000002</v>
       </c>
     </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>202010</v>
       </c>
@@ -6796,7 +6796,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>202011</v>
       </c>
@@ -6871,7 +6871,7 @@
         <v>0.48399999999999999</v>
       </c>
     </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>202012</v>
       </c>
@@ -6946,7 +6946,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>202101</v>
       </c>
@@ -7024,7 +7024,7 @@
         <v>0.56399999999999995</v>
       </c>
     </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>202102</v>
       </c>
@@ -7099,7 +7099,7 @@
         <v>0.54300000000000004</v>
       </c>
     </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>202103</v>
       </c>
@@ -7174,7 +7174,7 @@
         <v>0.55600000000000005</v>
       </c>
     </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>202104</v>
       </c>
@@ -7249,7 +7249,7 @@
         <v>0.45200000000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>202105</v>
       </c>
@@ -7327,7 +7327,7 @@
         <v>0.48399999999999999</v>
       </c>
     </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>202106</v>
       </c>
@@ -7402,7 +7402,7 @@
         <v>0.502</v>
       </c>
     </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>202107</v>
       </c>
@@ -7477,7 +7477,7 @@
         <v>0.48099999999999998</v>
       </c>
     </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>202108</v>
       </c>
@@ -7552,7 +7552,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>202109</v>
       </c>
@@ -7627,7 +7627,7 @@
         <v>0.59099999999999997</v>
       </c>
     </row>
-    <row r="113" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>202110</v>
       </c>
@@ -7702,7 +7702,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="114" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>202111</v>
       </c>
@@ -7777,7 +7777,7 @@
         <v>0.55700000000000005</v>
       </c>
     </row>
-    <row r="115" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>202112</v>
       </c>
@@ -7852,7 +7852,7 @@
         <v>0.46600000000000003</v>
       </c>
     </row>
-    <row r="116" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>202201</v>
       </c>
@@ -7927,7 +7927,7 @@
         <v>0.60499999999999998</v>
       </c>
     </row>
-    <row r="117" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>202202</v>
       </c>
@@ -8002,7 +8002,7 @@
         <v>0.55300000000000005</v>
       </c>
     </row>
-    <row r="118" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>202203</v>
       </c>
@@ -8077,7 +8077,7 @@
         <v>0.69699999999999995</v>
       </c>
     </row>
-    <row r="119" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>202204</v>
       </c>
@@ -8152,7 +8152,7 @@
         <v>0.56499999999999995</v>
       </c>
     </row>
-    <row r="120" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>202205</v>
       </c>
@@ -8225,6 +8225,81 @@
       </c>
       <c r="Z120" s="13">
         <v>0.61499999999999999</v>
+      </c>
+    </row>
+    <row r="121" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A121">
+        <v>202206</v>
+      </c>
+      <c r="B121">
+        <v>14901</v>
+      </c>
+      <c r="C121">
+        <v>1668</v>
+      </c>
+      <c r="E121" s="2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G121">
+        <v>551</v>
+      </c>
+      <c r="H121" s="13">
+        <f t="shared" si="9"/>
+        <v>3.6977384068183343E-2</v>
+      </c>
+      <c r="J121">
+        <v>410</v>
+      </c>
+      <c r="K121" s="13">
+        <f t="shared" si="10"/>
+        <v>2.7514931883766192E-2</v>
+      </c>
+      <c r="L121">
+        <v>2218</v>
+      </c>
+      <c r="M121" s="13">
+        <f t="shared" si="11"/>
+        <v>0.14884907053217905</v>
+      </c>
+      <c r="N121">
+        <v>1669</v>
+      </c>
+      <c r="O121" s="7">
+        <f t="shared" si="7"/>
+        <v>0.11200590564391652</v>
+      </c>
+      <c r="P121">
+        <v>549</v>
+      </c>
+      <c r="Q121" s="14">
+        <f t="shared" si="12"/>
+        <v>3.6843164888262531E-2</v>
+      </c>
+      <c r="R121">
+        <v>11722</v>
+      </c>
+      <c r="S121" s="17">
+        <f t="shared" si="8"/>
+        <v>0.78665861351587141</v>
+      </c>
+      <c r="U121">
+        <v>1207</v>
+      </c>
+      <c r="V121">
+        <v>621</v>
+      </c>
+      <c r="W121">
+        <v>3</v>
+      </c>
+      <c r="X121">
+        <v>423</v>
+      </c>
+      <c r="Y121">
+        <v>92</v>
+      </c>
+      <c r="Z121" s="13">
+        <v>0.69</v>
       </c>
     </row>
   </sheetData>
@@ -8242,24 +8317,24 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -8284,15 +8359,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010074D02CDF85BB3C43825BB38CAE9C40BF" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2fb5f53940ec2c7f0a344607982ab2a5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1ae9c94a-2673-46e1-b5a6-dc0c87eae04c" xmlns:ns3="5083af8e-c479-4bff-9f3e-2a380844c8c1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0d94da3d7173a37185eb1f1bab2ed9be" ns2:_="" ns3:_="">
     <xsd:import namespace="1ae9c94a-2673-46e1-b5a6-dc0c87eae04c"/>
@@ -8535,6 +8601,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F14F16C9-F74E-4CAA-B7B8-5E225606C761}">
   <ds:schemaRefs>
@@ -8553,14 +8628,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF887100-7B50-47F5-87D7-ABDD1957FF85}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38AD410B-FE07-4629-825B-47E04A071629}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8577,4 +8644,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF887100-7B50-47F5-87D7-ABDD1957FF85}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/EV/data/bilsalg.xlsx
+++ b/EV/data/bilsalg.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roberan\CICERO senter for klimaforskning\CM - Documents\SmallJobs\2019\201903_bilsalg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cicero.sharepoint.com/sites/Group-ClimateMitigation/Shared Documents/SmallJobs/2019/201903_bilsalg/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7435FA22-33C1-46FC-9CEE-C650859A0CD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{7435FA22-33C1-46FC-9CEE-C650859A0CD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3987393E-7186-4BED-BCEE-F33139482985}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{94A590A3-A19D-4EDC-866B-407362CF22C8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="17400" xr2:uid="{94A590A3-A19D-4EDC-866B-407362CF22C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -778,29 +778,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A23E6F8-FBFE-40A4-8A3E-1BC2B49C4A9C}">
-  <dimension ref="A1:Z121"/>
+  <dimension ref="A1:Z122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="P103" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B103" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Z121" sqref="Z121"/>
+      <selection pane="bottomRight" activeCell="B122" sqref="B122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="12" max="12" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="11.08984375" customWidth="1"/>
-    <col min="18" max="18" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.453125" customWidth="1"/>
-    <col min="22" max="22" width="10.453125" customWidth="1"/>
-    <col min="23" max="23" width="11.453125" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="11.140625" customWidth="1"/>
+    <col min="18" max="18" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.42578125" customWidth="1"/>
+    <col min="22" max="22" width="10.42578125" customWidth="1"/>
+    <col min="23" max="23" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="58.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" ht="58.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>7</v>
       </c>
@@ -877,7 +877,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1994</v>
       </c>
@@ -906,7 +906,7 @@
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
     </row>
-    <row r="3" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1995</v>
       </c>
@@ -935,7 +935,7 @@
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
     </row>
-    <row r="4" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1996</v>
       </c>
@@ -964,7 +964,7 @@
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
     </row>
-    <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1997</v>
       </c>
@@ -995,7 +995,7 @@
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
     </row>
-    <row r="6" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1998</v>
       </c>
@@ -1024,7 +1024,7 @@
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
     </row>
-    <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1999</v>
       </c>
@@ -1053,7 +1053,7 @@
       <c r="X7" s="3"/>
       <c r="Y7" s="3"/>
     </row>
-    <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2000</v>
       </c>
@@ -1082,7 +1082,7 @@
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
     </row>
-    <row r="9" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2001</v>
       </c>
@@ -1111,7 +1111,7 @@
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
     </row>
-    <row r="10" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2002</v>
       </c>
@@ -1142,7 +1142,7 @@
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
     </row>
-    <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2003</v>
       </c>
@@ -1171,7 +1171,7 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
     </row>
-    <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2004</v>
       </c>
@@ -1206,7 +1206,7 @@
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
     </row>
-    <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>200512</v>
       </c>
@@ -1243,7 +1243,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2005</v>
       </c>
@@ -1282,7 +1282,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>200612</v>
       </c>
@@ -1319,7 +1319,7 @@
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
     </row>
-    <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2006</v>
       </c>
@@ -1354,7 +1354,7 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
     </row>
-    <row r="17" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>200712</v>
       </c>
@@ -1389,7 +1389,7 @@
       <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
     </row>
-    <row r="18" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2007</v>
       </c>
@@ -1432,7 +1432,7 @@
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
     </row>
-    <row r="19" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>200812</v>
       </c>
@@ -1469,7 +1469,7 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
     </row>
-    <row r="20" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2008</v>
       </c>
@@ -1513,7 +1513,7 @@
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
     </row>
-    <row r="21" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>200912</v>
       </c>
@@ -1548,7 +1548,7 @@
       <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
     </row>
-    <row r="22" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2009</v>
       </c>
@@ -1591,7 +1591,7 @@
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
     </row>
-    <row r="23" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>201012</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="24" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2010</v>
       </c>
@@ -1680,7 +1680,7 @@
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
     </row>
-    <row r="25" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>201112</v>
       </c>
@@ -1731,7 +1731,7 @@
       <c r="X25" s="3"/>
       <c r="Y25" s="3"/>
     </row>
-    <row r="26" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2011</v>
       </c>
@@ -1783,7 +1783,7 @@
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
     </row>
-    <row r="27" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>201212</v>
       </c>
@@ -1835,7 +1835,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2012</v>
       </c>
@@ -1887,7 +1887,7 @@
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
     </row>
-    <row r="29" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>201312</v>
       </c>
@@ -1941,7 +1941,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="30" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2013</v>
       </c>
@@ -2006,7 +2006,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="31" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2014</v>
       </c>
@@ -2070,7 +2070,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>201501</v>
       </c>
@@ -2137,7 +2137,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>201502</v>
       </c>
@@ -2198,7 +2198,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>201503</v>
       </c>
@@ -2255,7 +2255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>201504</v>
       </c>
@@ -2313,7 +2313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>201505</v>
       </c>
@@ -2382,7 +2382,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>201506</v>
       </c>
@@ -2442,7 +2442,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>201507</v>
       </c>
@@ -2517,7 +2517,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>201508</v>
       </c>
@@ -2592,7 +2592,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>201509</v>
       </c>
@@ -2671,7 +2671,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>201510</v>
       </c>
@@ -2751,7 +2751,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>201511</v>
       </c>
@@ -2831,7 +2831,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>201512</v>
       </c>
@@ -2911,7 +2911,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>201601</v>
       </c>
@@ -2976,7 +2976,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>201602</v>
       </c>
@@ -3039,7 +3039,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>201603</v>
       </c>
@@ -3102,7 +3102,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>201604</v>
       </c>
@@ -3169,7 +3169,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>201605</v>
       </c>
@@ -3236,7 +3236,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>201606</v>
       </c>
@@ -3309,7 +3309,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>201607</v>
       </c>
@@ -3382,7 +3382,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>201608</v>
       </c>
@@ -3455,7 +3455,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>201609</v>
       </c>
@@ -3528,7 +3528,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>201610</v>
       </c>
@@ -3601,7 +3601,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>201611</v>
       </c>
@@ -3674,7 +3674,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>201612</v>
       </c>
@@ -3747,7 +3747,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>201701</v>
       </c>
@@ -3818,7 +3818,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>201702</v>
       </c>
@@ -3889,7 +3889,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>201703</v>
       </c>
@@ -3960,7 +3960,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>201704</v>
       </c>
@@ -4029,7 +4029,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>201705</v>
       </c>
@@ -4098,7 +4098,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>201706</v>
       </c>
@@ -4168,7 +4168,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>201707</v>
       </c>
@@ -4238,7 +4238,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>201708</v>
       </c>
@@ -4308,7 +4308,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>201709</v>
       </c>
@@ -4378,7 +4378,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>201710</v>
       </c>
@@ -4448,7 +4448,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>201711</v>
       </c>
@@ -4518,7 +4518,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>201712</v>
       </c>
@@ -4588,7 +4588,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>201801</v>
       </c>
@@ -4650,7 +4650,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>201802</v>
       </c>
@@ -4712,7 +4712,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>201803</v>
       </c>
@@ -4774,7 +4774,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>201804</v>
       </c>
@@ -4836,7 +4836,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>201805</v>
       </c>
@@ -4847,7 +4847,7 @@
         <v>1923</v>
       </c>
       <c r="E72" s="2">
-        <f t="shared" ref="E72:E121" si="6">H72+K72+M72+S72</f>
+        <f t="shared" ref="E72:E122" si="6">H72+K72+M72+S72</f>
         <v>1</v>
       </c>
       <c r="H72" s="13">
@@ -4898,7 +4898,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>201806</v>
       </c>
@@ -4960,7 +4960,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>201807</v>
       </c>
@@ -5022,7 +5022,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>201808</v>
       </c>
@@ -5084,7 +5084,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>201809</v>
       </c>
@@ -5146,7 +5146,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>201810</v>
       </c>
@@ -5208,7 +5208,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>201811</v>
       </c>
@@ -5270,7 +5270,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>201812</v>
       </c>
@@ -5332,7 +5332,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>201901</v>
       </c>
@@ -5397,7 +5397,7 @@
         <v>0.35699999999999998</v>
       </c>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>201902</v>
       </c>
@@ -5462,7 +5462,7 @@
         <v>0.44700000000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>201903</v>
       </c>
@@ -5527,7 +5527,7 @@
         <v>0.59899999999999998</v>
       </c>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>201904</v>
       </c>
@@ -5589,7 +5589,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>201905</v>
       </c>
@@ -5651,7 +5651,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>201906</v>
       </c>
@@ -5713,7 +5713,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>201907</v>
       </c>
@@ -5775,7 +5775,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>201908</v>
       </c>
@@ -5837,7 +5837,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>201909</v>
       </c>
@@ -5899,7 +5899,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>201910</v>
       </c>
@@ -5961,7 +5961,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>201911</v>
       </c>
@@ -6023,7 +6023,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>201912</v>
       </c>
@@ -6085,7 +6085,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>202001</v>
       </c>
@@ -6150,7 +6150,7 @@
         <v>0.44800000000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>202002</v>
       </c>
@@ -6215,7 +6215,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>202003</v>
       </c>
@@ -6245,7 +6245,7 @@
         <v>2392</v>
       </c>
       <c r="O94" s="7">
-        <f t="shared" ref="O94:O121" si="7">N94/B94</f>
+        <f t="shared" ref="O94:O122" si="7">N94/B94</f>
         <v>0.19211308328648302</v>
       </c>
       <c r="Q94" s="14">
@@ -6280,7 +6280,7 @@
         <v>0.48499999999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>202004</v>
       </c>
@@ -6345,7 +6345,7 @@
         <v>0.437</v>
       </c>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>202005</v>
       </c>
@@ -6387,7 +6387,7 @@
         <v>3444</v>
       </c>
       <c r="S96" s="17">
-        <f t="shared" ref="S96:S121" si="8">R96/B96</f>
+        <f t="shared" ref="S96:S122" si="8">R96/B96</f>
         <v>0.43060765191297823</v>
       </c>
       <c r="T96">
@@ -6412,7 +6412,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>202006</v>
       </c>
@@ -6487,7 +6487,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>202007</v>
       </c>
@@ -6505,21 +6505,21 @@
         <v>1249</v>
       </c>
       <c r="H98" s="13">
-        <f t="shared" ref="H98:H121" si="9">G98/B98</f>
+        <f t="shared" ref="H98:H122" si="9">G98/B98</f>
         <v>0.12781416291444944</v>
       </c>
       <c r="J98">
         <v>1026</v>
       </c>
       <c r="K98" s="13">
-        <f t="shared" ref="K98:K121" si="10">J98/B98</f>
+        <f t="shared" ref="K98:K122" si="10">J98/B98</f>
         <v>0.10499386000818665</v>
       </c>
       <c r="L98">
         <v>3089</v>
       </c>
       <c r="M98" s="13">
-        <f t="shared" ref="M98:M121" si="11">L98/B98</f>
+        <f t="shared" ref="M98:M122" si="11">L98/B98</f>
         <v>0.31610724519033973</v>
       </c>
       <c r="N98">
@@ -6533,7 +6533,7 @@
         <v>811</v>
       </c>
       <c r="Q98" s="14">
-        <f t="shared" ref="Q98:Q121" si="12">P98/B98</f>
+        <f t="shared" ref="Q98:Q122" si="12">P98/B98</f>
         <v>8.2992222677036431E-2</v>
       </c>
       <c r="R98">
@@ -6565,7 +6565,7 @@
         <v>0.48699999999999999</v>
       </c>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>202008</v>
       </c>
@@ -6643,7 +6643,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>202009</v>
       </c>
@@ -6721,7 +6721,7 @@
         <v>0.45800000000000002</v>
       </c>
     </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>202010</v>
       </c>
@@ -6796,7 +6796,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>202011</v>
       </c>
@@ -6871,7 +6871,7 @@
         <v>0.48399999999999999</v>
       </c>
     </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>202012</v>
       </c>
@@ -6946,7 +6946,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>202101</v>
       </c>
@@ -7024,7 +7024,7 @@
         <v>0.56399999999999995</v>
       </c>
     </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>202102</v>
       </c>
@@ -7099,7 +7099,7 @@
         <v>0.54300000000000004</v>
       </c>
     </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>202103</v>
       </c>
@@ -7174,7 +7174,7 @@
         <v>0.55600000000000005</v>
       </c>
     </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>202104</v>
       </c>
@@ -7249,7 +7249,7 @@
         <v>0.45200000000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>202105</v>
       </c>
@@ -7327,7 +7327,7 @@
         <v>0.48399999999999999</v>
       </c>
     </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>202106</v>
       </c>
@@ -7402,7 +7402,7 @@
         <v>0.502</v>
       </c>
     </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>202107</v>
       </c>
@@ -7477,7 +7477,7 @@
         <v>0.48099999999999998</v>
       </c>
     </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>202108</v>
       </c>
@@ -7552,7 +7552,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>202109</v>
       </c>
@@ -7627,7 +7627,7 @@
         <v>0.59099999999999997</v>
       </c>
     </row>
-    <row r="113" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>202110</v>
       </c>
@@ -7702,7 +7702,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="114" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>202111</v>
       </c>
@@ -7777,7 +7777,7 @@
         <v>0.55700000000000005</v>
       </c>
     </row>
-    <row r="115" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>202112</v>
       </c>
@@ -7852,7 +7852,7 @@
         <v>0.46600000000000003</v>
       </c>
     </row>
-    <row r="116" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>202201</v>
       </c>
@@ -7927,7 +7927,7 @@
         <v>0.60499999999999998</v>
       </c>
     </row>
-    <row r="117" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>202202</v>
       </c>
@@ -8002,7 +8002,7 @@
         <v>0.55300000000000005</v>
       </c>
     </row>
-    <row r="118" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>202203</v>
       </c>
@@ -8077,7 +8077,7 @@
         <v>0.69699999999999995</v>
       </c>
     </row>
-    <row r="119" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>202204</v>
       </c>
@@ -8152,7 +8152,7 @@
         <v>0.56499999999999995</v>
       </c>
     </row>
-    <row r="120" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>202205</v>
       </c>
@@ -8227,7 +8227,7 @@
         <v>0.61499999999999999</v>
       </c>
     </row>
-    <row r="121" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>202206</v>
       </c>
@@ -8300,6 +8300,81 @@
       </c>
       <c r="Z121" s="13">
         <v>0.69</v>
+      </c>
+    </row>
+    <row r="122" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>202207</v>
+      </c>
+      <c r="B122">
+        <v>7247</v>
+      </c>
+      <c r="C122">
+        <v>1127</v>
+      </c>
+      <c r="E122" s="2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G122">
+        <v>332</v>
+      </c>
+      <c r="H122" s="13">
+        <f t="shared" si="9"/>
+        <v>4.5812060162825997E-2</v>
+      </c>
+      <c r="J122">
+        <v>247</v>
+      </c>
+      <c r="K122" s="13">
+        <f t="shared" si="10"/>
+        <v>3.4083068856078376E-2</v>
+      </c>
+      <c r="L122">
+        <v>1545</v>
+      </c>
+      <c r="M122" s="13">
+        <f t="shared" si="11"/>
+        <v>0.21319166551676555</v>
+      </c>
+      <c r="N122">
+        <v>890</v>
+      </c>
+      <c r="O122" s="7">
+        <f t="shared" si="7"/>
+        <v>0.12280943838829861</v>
+      </c>
+      <c r="P122">
+        <v>655</v>
+      </c>
+      <c r="Q122" s="14">
+        <f t="shared" si="12"/>
+        <v>9.0382227128466955E-2</v>
+      </c>
+      <c r="R122">
+        <v>5123</v>
+      </c>
+      <c r="S122" s="17">
+        <f t="shared" si="8"/>
+        <v>0.70691320546433012</v>
+      </c>
+      <c r="U122">
+        <v>791</v>
+      </c>
+      <c r="V122">
+        <v>304</v>
+      </c>
+      <c r="W122">
+        <v>3</v>
+      </c>
+      <c r="X122">
+        <v>237</v>
+      </c>
+      <c r="Y122">
+        <v>45</v>
+      </c>
+      <c r="Z122" s="13">
+        <v>0.61499999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -8317,24 +8392,24 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -8348,14 +8423,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="5083af8e-c479-4bff-9f3e-2a380844c8c1" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1ae9c94a-2673-46e1-b5a6-dc0c87eae04c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8602,27 +8675,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="5083af8e-c479-4bff-9f3e-2a380844c8c1" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1ae9c94a-2673-46e1-b5a6-dc0c87eae04c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F14F16C9-F74E-4CAA-B7B8-5E225606C761}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF887100-7B50-47F5-87D7-ABDD1957FF85}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="5083af8e-c479-4bff-9f3e-2a380844c8c1"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="1ae9c94a-2673-46e1-b5a6-dc0c87eae04c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -8647,9 +8713,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF887100-7B50-47F5-87D7-ABDD1957FF85}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F14F16C9-F74E-4CAA-B7B8-5E225606C761}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="5083af8e-c479-4bff-9f3e-2a380844c8c1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="1ae9c94a-2673-46e1-b5a6-dc0c87eae04c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/EV/data/bilsalg.xlsx
+++ b/EV/data/bilsalg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cicero.sharepoint.com/sites/Group-ClimateMitigation/Shared Documents/SmallJobs/2019/201903_bilsalg/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{7435FA22-33C1-46FC-9CEE-C650859A0CD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3987393E-7186-4BED-BCEE-F33139482985}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{7435FA22-33C1-46FC-9CEE-C650859A0CD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA2ABF9B-1C21-460A-9740-079A4DAB6B04}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="17400" xr2:uid="{94A590A3-A19D-4EDC-866B-407362CF22C8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{94A590A3-A19D-4EDC-866B-407362CF22C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -778,13 +778,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A23E6F8-FBFE-40A4-8A3E-1BC2B49C4A9C}">
-  <dimension ref="A1:Z122"/>
+  <dimension ref="A1:Z123"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B103" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B122" sqref="B122"/>
+      <selection pane="bottomRight" activeCell="B123" sqref="B123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4847,7 +4847,7 @@
         <v>1923</v>
       </c>
       <c r="E72" s="2">
-        <f t="shared" ref="E72:E122" si="6">H72+K72+M72+S72</f>
+        <f t="shared" ref="E72:E123" si="6">H72+K72+M72+S72</f>
         <v>1</v>
       </c>
       <c r="H72" s="13">
@@ -6245,7 +6245,7 @@
         <v>2392</v>
       </c>
       <c r="O94" s="7">
-        <f t="shared" ref="O94:O122" si="7">N94/B94</f>
+        <f t="shared" ref="O94:O123" si="7">N94/B94</f>
         <v>0.19211308328648302</v>
       </c>
       <c r="Q94" s="14">
@@ -6387,7 +6387,7 @@
         <v>3444</v>
       </c>
       <c r="S96" s="17">
-        <f t="shared" ref="S96:S122" si="8">R96/B96</f>
+        <f t="shared" ref="S96:S123" si="8">R96/B96</f>
         <v>0.43060765191297823</v>
       </c>
       <c r="T96">
@@ -6505,21 +6505,21 @@
         <v>1249</v>
       </c>
       <c r="H98" s="13">
-        <f t="shared" ref="H98:H122" si="9">G98/B98</f>
+        <f t="shared" ref="H98:H123" si="9">G98/B98</f>
         <v>0.12781416291444944</v>
       </c>
       <c r="J98">
         <v>1026</v>
       </c>
       <c r="K98" s="13">
-        <f t="shared" ref="K98:K122" si="10">J98/B98</f>
+        <f t="shared" ref="K98:K123" si="10">J98/B98</f>
         <v>0.10499386000818665</v>
       </c>
       <c r="L98">
         <v>3089</v>
       </c>
       <c r="M98" s="13">
-        <f t="shared" ref="M98:M122" si="11">L98/B98</f>
+        <f t="shared" ref="M98:M123" si="11">L98/B98</f>
         <v>0.31610724519033973</v>
       </c>
       <c r="N98">
@@ -6533,7 +6533,7 @@
         <v>811</v>
       </c>
       <c r="Q98" s="14">
-        <f t="shared" ref="Q98:Q122" si="12">P98/B98</f>
+        <f t="shared" ref="Q98:Q123" si="12">P98/B98</f>
         <v>8.2992222677036431E-2</v>
       </c>
       <c r="R98">
@@ -8375,6 +8375,81 @@
       </c>
       <c r="Z122" s="13">
         <v>0.61499999999999999</v>
+      </c>
+    </row>
+    <row r="123" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>202208</v>
+      </c>
+      <c r="B123">
+        <v>12363</v>
+      </c>
+      <c r="C123">
+        <v>1245</v>
+      </c>
+      <c r="E123" s="2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G123">
+        <v>472</v>
+      </c>
+      <c r="H123" s="13">
+        <f t="shared" si="9"/>
+        <v>3.8178435654776348E-2</v>
+      </c>
+      <c r="J123">
+        <v>288</v>
+      </c>
+      <c r="K123" s="13">
+        <f t="shared" si="10"/>
+        <v>2.3295316670710994E-2</v>
+      </c>
+      <c r="L123">
+        <v>2356</v>
+      </c>
+      <c r="M123" s="13">
+        <f t="shared" si="11"/>
+        <v>0.19056863220901077</v>
+      </c>
+      <c r="N123">
+        <v>1401</v>
+      </c>
+      <c r="O123" s="7">
+        <f t="shared" si="7"/>
+        <v>0.11332200922106285</v>
+      </c>
+      <c r="P123">
+        <v>955</v>
+      </c>
+      <c r="Q123" s="14">
+        <f t="shared" si="12"/>
+        <v>7.7246622987947905E-2</v>
+      </c>
+      <c r="R123">
+        <v>9247</v>
+      </c>
+      <c r="S123" s="17">
+        <f t="shared" si="8"/>
+        <v>0.74795761546550188</v>
+      </c>
+      <c r="U123">
+        <v>898</v>
+      </c>
+      <c r="V123">
+        <v>630</v>
+      </c>
+      <c r="W123">
+        <v>12</v>
+      </c>
+      <c r="X123">
+        <v>421</v>
+      </c>
+      <c r="Y123">
+        <v>74</v>
+      </c>
+      <c r="Z123" s="13">
+        <v>0.623</v>
       </c>
     </row>
   </sheetData>
@@ -8423,12 +8498,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="5083af8e-c479-4bff-9f3e-2a380844c8c1" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1ae9c94a-2673-46e1-b5a6-dc0c87eae04c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8675,20 +8752,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="5083af8e-c479-4bff-9f3e-2a380844c8c1" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1ae9c94a-2673-46e1-b5a6-dc0c87eae04c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF887100-7B50-47F5-87D7-ABDD1957FF85}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F14F16C9-F74E-4CAA-B7B8-5E225606C761}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="5083af8e-c479-4bff-9f3e-2a380844c8c1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="1ae9c94a-2673-46e1-b5a6-dc0c87eae04c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -8713,18 +8797,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F14F16C9-F74E-4CAA-B7B8-5E225606C761}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF887100-7B50-47F5-87D7-ABDD1957FF85}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="5083af8e-c479-4bff-9f3e-2a380844c8c1"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="1ae9c94a-2673-46e1-b5a6-dc0c87eae04c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/EV/data/bilsalg.xlsx
+++ b/EV/data/bilsalg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cicero.sharepoint.com/sites/Group-ClimateMitigation/Shared Documents/SmallJobs/2019/201903_bilsalg/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{7435FA22-33C1-46FC-9CEE-C650859A0CD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA2ABF9B-1C21-460A-9740-079A4DAB6B04}"/>
+  <xr:revisionPtr revIDLastSave="50" documentId="13_ncr:1_{7435FA22-33C1-46FC-9CEE-C650859A0CD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E0B53D1-403B-490B-964A-51FB3B4A042B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{94A590A3-A19D-4EDC-866B-407362CF22C8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{94A590A3-A19D-4EDC-866B-407362CF22C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -778,29 +778,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A23E6F8-FBFE-40A4-8A3E-1BC2B49C4A9C}">
-  <dimension ref="A1:Z123"/>
+  <dimension ref="A1:Z124"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B103" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B123" sqref="B123"/>
+      <selection pane="bottomRight" activeCell="A124" sqref="A124"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="11.140625" customWidth="1"/>
-    <col min="18" max="18" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.42578125" customWidth="1"/>
-    <col min="22" max="22" width="10.42578125" customWidth="1"/>
-    <col min="23" max="23" width="11.42578125" customWidth="1"/>
+    <col min="12" max="12" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="11.1796875" customWidth="1"/>
+    <col min="18" max="18" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.453125" customWidth="1"/>
+    <col min="22" max="22" width="10.453125" customWidth="1"/>
+    <col min="23" max="23" width="11.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="58.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="58.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="3" t="s">
         <v>7</v>
       </c>
@@ -877,7 +877,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1994</v>
       </c>
@@ -906,7 +906,7 @@
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
     </row>
-    <row r="3" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1995</v>
       </c>
@@ -935,7 +935,7 @@
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
     </row>
-    <row r="4" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1996</v>
       </c>
@@ -964,7 +964,7 @@
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
     </row>
-    <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1997</v>
       </c>
@@ -995,7 +995,7 @@
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
     </row>
-    <row r="6" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1998</v>
       </c>
@@ -1024,7 +1024,7 @@
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
     </row>
-    <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1999</v>
       </c>
@@ -1053,7 +1053,7 @@
       <c r="X7" s="3"/>
       <c r="Y7" s="3"/>
     </row>
-    <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2000</v>
       </c>
@@ -1082,7 +1082,7 @@
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
     </row>
-    <row r="9" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2001</v>
       </c>
@@ -1111,7 +1111,7 @@
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
     </row>
-    <row r="10" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2002</v>
       </c>
@@ -1142,7 +1142,7 @@
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
     </row>
-    <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2003</v>
       </c>
@@ -1171,7 +1171,7 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
     </row>
-    <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2004</v>
       </c>
@@ -1206,7 +1206,7 @@
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
     </row>
-    <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>200512</v>
       </c>
@@ -1243,7 +1243,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2005</v>
       </c>
@@ -1282,7 +1282,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>200612</v>
       </c>
@@ -1319,7 +1319,7 @@
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
     </row>
-    <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2006</v>
       </c>
@@ -1354,7 +1354,7 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
     </row>
-    <row r="17" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>200712</v>
       </c>
@@ -1389,7 +1389,7 @@
       <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
     </row>
-    <row r="18" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>2007</v>
       </c>
@@ -1432,7 +1432,7 @@
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
     </row>
-    <row r="19" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>200812</v>
       </c>
@@ -1469,7 +1469,7 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
     </row>
-    <row r="20" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>2008</v>
       </c>
@@ -1513,7 +1513,7 @@
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
     </row>
-    <row r="21" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>200912</v>
       </c>
@@ -1548,7 +1548,7 @@
       <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
     </row>
-    <row r="22" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>2009</v>
       </c>
@@ -1591,7 +1591,7 @@
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
     </row>
-    <row r="23" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>201012</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="24" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>2010</v>
       </c>
@@ -1680,7 +1680,7 @@
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
     </row>
-    <row r="25" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>201112</v>
       </c>
@@ -1731,7 +1731,7 @@
       <c r="X25" s="3"/>
       <c r="Y25" s="3"/>
     </row>
-    <row r="26" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>2011</v>
       </c>
@@ -1783,7 +1783,7 @@
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
     </row>
-    <row r="27" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>201212</v>
       </c>
@@ -1835,7 +1835,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>2012</v>
       </c>
@@ -1887,7 +1887,7 @@
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
     </row>
-    <row r="29" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>201312</v>
       </c>
@@ -1941,7 +1941,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="30" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>2013</v>
       </c>
@@ -2006,7 +2006,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="31" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>2014</v>
       </c>
@@ -2070,7 +2070,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>201501</v>
       </c>
@@ -2137,7 +2137,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>201502</v>
       </c>
@@ -2198,7 +2198,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>201503</v>
       </c>
@@ -2255,7 +2255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>201504</v>
       </c>
@@ -2313,7 +2313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>201505</v>
       </c>
@@ -2382,7 +2382,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>201506</v>
       </c>
@@ -2442,7 +2442,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>201507</v>
       </c>
@@ -2517,7 +2517,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>201508</v>
       </c>
@@ -2592,7 +2592,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>201509</v>
       </c>
@@ -2671,7 +2671,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>201510</v>
       </c>
@@ -2751,7 +2751,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>201511</v>
       </c>
@@ -2831,7 +2831,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>201512</v>
       </c>
@@ -2911,7 +2911,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>201601</v>
       </c>
@@ -2976,7 +2976,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>201602</v>
       </c>
@@ -3039,7 +3039,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>201603</v>
       </c>
@@ -3102,7 +3102,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>201604</v>
       </c>
@@ -3169,7 +3169,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>201605</v>
       </c>
@@ -3236,7 +3236,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>201606</v>
       </c>
@@ -3309,7 +3309,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>201607</v>
       </c>
@@ -3382,7 +3382,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>201608</v>
       </c>
@@ -3455,7 +3455,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>201609</v>
       </c>
@@ -3528,7 +3528,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>201610</v>
       </c>
@@ -3601,7 +3601,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>201611</v>
       </c>
@@ -3674,7 +3674,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>201612</v>
       </c>
@@ -3747,7 +3747,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>201701</v>
       </c>
@@ -3818,7 +3818,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>201702</v>
       </c>
@@ -3889,7 +3889,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>201703</v>
       </c>
@@ -3960,7 +3960,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>201704</v>
       </c>
@@ -4029,7 +4029,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>201705</v>
       </c>
@@ -4098,7 +4098,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>201706</v>
       </c>
@@ -4168,7 +4168,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>201707</v>
       </c>
@@ -4238,7 +4238,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>201708</v>
       </c>
@@ -4308,7 +4308,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>201709</v>
       </c>
@@ -4378,7 +4378,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>201710</v>
       </c>
@@ -4448,7 +4448,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>201711</v>
       </c>
@@ -4518,7 +4518,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>201712</v>
       </c>
@@ -4588,7 +4588,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>201801</v>
       </c>
@@ -4650,7 +4650,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>201802</v>
       </c>
@@ -4712,7 +4712,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>201803</v>
       </c>
@@ -4774,7 +4774,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>201804</v>
       </c>
@@ -4836,7 +4836,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>201805</v>
       </c>
@@ -4847,7 +4847,7 @@
         <v>1923</v>
       </c>
       <c r="E72" s="2">
-        <f t="shared" ref="E72:E123" si="6">H72+K72+M72+S72</f>
+        <f t="shared" ref="E72:E124" si="6">H72+K72+M72+S72</f>
         <v>1</v>
       </c>
       <c r="H72" s="13">
@@ -4898,7 +4898,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>201806</v>
       </c>
@@ -4960,7 +4960,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>201807</v>
       </c>
@@ -5022,7 +5022,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>201808</v>
       </c>
@@ -5084,7 +5084,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>201809</v>
       </c>
@@ -5146,7 +5146,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>201810</v>
       </c>
@@ -5208,7 +5208,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>201811</v>
       </c>
@@ -5270,7 +5270,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>201812</v>
       </c>
@@ -5332,7 +5332,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>201901</v>
       </c>
@@ -5397,7 +5397,7 @@
         <v>0.35699999999999998</v>
       </c>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>201902</v>
       </c>
@@ -5462,7 +5462,7 @@
         <v>0.44700000000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>201903</v>
       </c>
@@ -5527,7 +5527,7 @@
         <v>0.59899999999999998</v>
       </c>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>201904</v>
       </c>
@@ -5589,7 +5589,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>201905</v>
       </c>
@@ -5651,7 +5651,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>201906</v>
       </c>
@@ -5713,7 +5713,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>201907</v>
       </c>
@@ -5775,7 +5775,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>201908</v>
       </c>
@@ -5837,7 +5837,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>201909</v>
       </c>
@@ -5899,7 +5899,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>201910</v>
       </c>
@@ -5961,7 +5961,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>201911</v>
       </c>
@@ -6023,7 +6023,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>201912</v>
       </c>
@@ -6085,7 +6085,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>202001</v>
       </c>
@@ -6150,7 +6150,7 @@
         <v>0.44800000000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>202002</v>
       </c>
@@ -6215,7 +6215,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>202003</v>
       </c>
@@ -6245,7 +6245,7 @@
         <v>2392</v>
       </c>
       <c r="O94" s="7">
-        <f t="shared" ref="O94:O123" si="7">N94/B94</f>
+        <f t="shared" ref="O94:O124" si="7">N94/B94</f>
         <v>0.19211308328648302</v>
       </c>
       <c r="Q94" s="14">
@@ -6280,7 +6280,7 @@
         <v>0.48499999999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>202004</v>
       </c>
@@ -6345,7 +6345,7 @@
         <v>0.437</v>
       </c>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>202005</v>
       </c>
@@ -6387,7 +6387,7 @@
         <v>3444</v>
       </c>
       <c r="S96" s="17">
-        <f t="shared" ref="S96:S123" si="8">R96/B96</f>
+        <f t="shared" ref="S96:S124" si="8">R96/B96</f>
         <v>0.43060765191297823</v>
       </c>
       <c r="T96">
@@ -6412,7 +6412,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>202006</v>
       </c>
@@ -6487,7 +6487,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>202007</v>
       </c>
@@ -6505,21 +6505,21 @@
         <v>1249</v>
       </c>
       <c r="H98" s="13">
-        <f t="shared" ref="H98:H123" si="9">G98/B98</f>
+        <f t="shared" ref="H98:H124" si="9">G98/B98</f>
         <v>0.12781416291444944</v>
       </c>
       <c r="J98">
         <v>1026</v>
       </c>
       <c r="K98" s="13">
-        <f t="shared" ref="K98:K123" si="10">J98/B98</f>
+        <f t="shared" ref="K98:K124" si="10">J98/B98</f>
         <v>0.10499386000818665</v>
       </c>
       <c r="L98">
         <v>3089</v>
       </c>
       <c r="M98" s="13">
-        <f t="shared" ref="M98:M123" si="11">L98/B98</f>
+        <f t="shared" ref="M98:M124" si="11">L98/B98</f>
         <v>0.31610724519033973</v>
       </c>
       <c r="N98">
@@ -6533,7 +6533,7 @@
         <v>811</v>
       </c>
       <c r="Q98" s="14">
-        <f t="shared" ref="Q98:Q123" si="12">P98/B98</f>
+        <f t="shared" ref="Q98:Q124" si="12">P98/B98</f>
         <v>8.2992222677036431E-2</v>
       </c>
       <c r="R98">
@@ -6565,7 +6565,7 @@
         <v>0.48699999999999999</v>
       </c>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>202008</v>
       </c>
@@ -6643,7 +6643,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>202009</v>
       </c>
@@ -6721,7 +6721,7 @@
         <v>0.45800000000000002</v>
       </c>
     </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>202010</v>
       </c>
@@ -6796,7 +6796,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>202011</v>
       </c>
@@ -6871,7 +6871,7 @@
         <v>0.48399999999999999</v>
       </c>
     </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>202012</v>
       </c>
@@ -6946,7 +6946,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>202101</v>
       </c>
@@ -7024,7 +7024,7 @@
         <v>0.56399999999999995</v>
       </c>
     </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>202102</v>
       </c>
@@ -7099,7 +7099,7 @@
         <v>0.54300000000000004</v>
       </c>
     </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>202103</v>
       </c>
@@ -7174,7 +7174,7 @@
         <v>0.55600000000000005</v>
       </c>
     </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>202104</v>
       </c>
@@ -7249,7 +7249,7 @@
         <v>0.45200000000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>202105</v>
       </c>
@@ -7327,7 +7327,7 @@
         <v>0.48399999999999999</v>
       </c>
     </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>202106</v>
       </c>
@@ -7402,7 +7402,7 @@
         <v>0.502</v>
       </c>
     </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>202107</v>
       </c>
@@ -7477,7 +7477,7 @@
         <v>0.48099999999999998</v>
       </c>
     </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>202108</v>
       </c>
@@ -7552,7 +7552,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>202109</v>
       </c>
@@ -7627,7 +7627,7 @@
         <v>0.59099999999999997</v>
       </c>
     </row>
-    <row r="113" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>202110</v>
       </c>
@@ -7702,7 +7702,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="114" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>202111</v>
       </c>
@@ -7777,7 +7777,7 @@
         <v>0.55700000000000005</v>
       </c>
     </row>
-    <row r="115" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>202112</v>
       </c>
@@ -7852,7 +7852,7 @@
         <v>0.46600000000000003</v>
       </c>
     </row>
-    <row r="116" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>202201</v>
       </c>
@@ -7927,7 +7927,7 @@
         <v>0.60499999999999998</v>
       </c>
     </row>
-    <row r="117" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>202202</v>
       </c>
@@ -8002,7 +8002,7 @@
         <v>0.55300000000000005</v>
       </c>
     </row>
-    <row r="118" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>202203</v>
       </c>
@@ -8077,7 +8077,7 @@
         <v>0.69699999999999995</v>
       </c>
     </row>
-    <row r="119" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>202204</v>
       </c>
@@ -8152,7 +8152,7 @@
         <v>0.56499999999999995</v>
       </c>
     </row>
-    <row r="120" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>202205</v>
       </c>
@@ -8227,7 +8227,7 @@
         <v>0.61499999999999999</v>
       </c>
     </row>
-    <row r="121" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>202206</v>
       </c>
@@ -8302,7 +8302,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="122" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>202207</v>
       </c>
@@ -8377,7 +8377,7 @@
         <v>0.61499999999999999</v>
       </c>
     </row>
-    <row r="123" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>202208</v>
       </c>
@@ -8450,6 +8450,81 @@
       </c>
       <c r="Z123" s="13">
         <v>0.623</v>
+      </c>
+    </row>
+    <row r="124" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A124">
+        <v>202209</v>
+      </c>
+      <c r="B124">
+        <v>14646</v>
+      </c>
+      <c r="C124">
+        <v>1255</v>
+      </c>
+      <c r="E124" s="2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G124">
+        <v>454</v>
+      </c>
+      <c r="H124" s="13">
+        <f t="shared" si="9"/>
+        <v>3.0998224771268606E-2</v>
+      </c>
+      <c r="J124">
+        <v>327</v>
+      </c>
+      <c r="K124" s="13">
+        <f t="shared" si="10"/>
+        <v>2.2326915198689061E-2</v>
+      </c>
+      <c r="L124">
+        <v>2481</v>
+      </c>
+      <c r="M124" s="13">
+        <f t="shared" si="11"/>
+        <v>0.16939778779188858</v>
+      </c>
+      <c r="N124">
+        <v>1669</v>
+      </c>
+      <c r="O124" s="7">
+        <f t="shared" si="7"/>
+        <v>0.11395602894988392</v>
+      </c>
+      <c r="P124">
+        <v>812</v>
+      </c>
+      <c r="Q124" s="14">
+        <f t="shared" si="12"/>
+        <v>5.544175884200464E-2</v>
+      </c>
+      <c r="R124">
+        <v>11384</v>
+      </c>
+      <c r="S124" s="17">
+        <f t="shared" si="8"/>
+        <v>0.77727707223815379</v>
+      </c>
+      <c r="U124">
+        <v>888</v>
+      </c>
+      <c r="V124">
+        <v>725</v>
+      </c>
+      <c r="W124">
+        <v>15</v>
+      </c>
+      <c r="X124">
+        <v>427</v>
+      </c>
+      <c r="Y124">
+        <v>37</v>
+      </c>
+      <c r="Z124" s="13">
+        <v>0.70799999999999996</v>
       </c>
     </row>
   </sheetData>
@@ -8467,24 +8542,24 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -8509,6 +8584,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010074D02CDF85BB3C43825BB38CAE9C40BF" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2fb5f53940ec2c7f0a344607982ab2a5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1ae9c94a-2673-46e1-b5a6-dc0c87eae04c" xmlns:ns3="5083af8e-c479-4bff-9f3e-2a380844c8c1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0d94da3d7173a37185eb1f1bab2ed9be" ns2:_="" ns3:_="">
     <xsd:import namespace="1ae9c94a-2673-46e1-b5a6-dc0c87eae04c"/>
@@ -8751,15 +8835,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F14F16C9-F74E-4CAA-B7B8-5E225606C761}">
   <ds:schemaRefs>
@@ -8778,6 +8853,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF887100-7B50-47F5-87D7-ABDD1957FF85}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38AD410B-FE07-4629-825B-47E04A071629}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8794,12 +8877,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF887100-7B50-47F5-87D7-ABDD1957FF85}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/EV/data/bilsalg.xlsx
+++ b/EV/data/bilsalg.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cicero.sharepoint.com/sites/Group-ClimateMitigation/Shared Documents/SmallJobs/2019/201903_bilsalg/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="13_ncr:1_{7435FA22-33C1-46FC-9CEE-C650859A0CD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E0B53D1-403B-490B-964A-51FB3B4A042B}"/>
+  <xr:revisionPtr revIDLastSave="67" documentId="13_ncr:1_{7435FA22-33C1-46FC-9CEE-C650859A0CD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B11FB45B-752C-431B-B7B7-59596FE0DF66}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{94A590A3-A19D-4EDC-866B-407362CF22C8}"/>
   </bookViews>
@@ -778,13 +778,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A23E6F8-FBFE-40A4-8A3E-1BC2B49C4A9C}">
-  <dimension ref="A1:Z124"/>
+  <dimension ref="A1:Z125"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B103" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B106" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A124" sqref="A124"/>
+      <selection pane="bottomRight" activeCell="E125" sqref="E125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4847,7 +4847,7 @@
         <v>1923</v>
       </c>
       <c r="E72" s="2">
-        <f t="shared" ref="E72:E124" si="6">H72+K72+M72+S72</f>
+        <f t="shared" ref="E72:E125" si="6">H72+K72+M72+S72</f>
         <v>1</v>
       </c>
       <c r="H72" s="13">
@@ -6245,7 +6245,7 @@
         <v>2392</v>
       </c>
       <c r="O94" s="7">
-        <f t="shared" ref="O94:O124" si="7">N94/B94</f>
+        <f t="shared" ref="O94:O125" si="7">N94/B94</f>
         <v>0.19211308328648302</v>
       </c>
       <c r="Q94" s="14">
@@ -6387,7 +6387,7 @@
         <v>3444</v>
       </c>
       <c r="S96" s="17">
-        <f t="shared" ref="S96:S124" si="8">R96/B96</f>
+        <f t="shared" ref="S96:S125" si="8">R96/B96</f>
         <v>0.43060765191297823</v>
       </c>
       <c r="T96">
@@ -6505,21 +6505,21 @@
         <v>1249</v>
       </c>
       <c r="H98" s="13">
-        <f t="shared" ref="H98:H124" si="9">G98/B98</f>
+        <f t="shared" ref="H98:H125" si="9">G98/B98</f>
         <v>0.12781416291444944</v>
       </c>
       <c r="J98">
         <v>1026</v>
       </c>
       <c r="K98" s="13">
-        <f t="shared" ref="K98:K124" si="10">J98/B98</f>
+        <f t="shared" ref="K98:K125" si="10">J98/B98</f>
         <v>0.10499386000818665</v>
       </c>
       <c r="L98">
         <v>3089</v>
       </c>
       <c r="M98" s="13">
-        <f t="shared" ref="M98:M124" si="11">L98/B98</f>
+        <f t="shared" ref="M98:M125" si="11">L98/B98</f>
         <v>0.31610724519033973</v>
       </c>
       <c r="N98">
@@ -6533,7 +6533,7 @@
         <v>811</v>
       </c>
       <c r="Q98" s="14">
-        <f t="shared" ref="Q98:Q124" si="12">P98/B98</f>
+        <f t="shared" ref="Q98:Q125" si="12">P98/B98</f>
         <v>8.2992222677036431E-2</v>
       </c>
       <c r="R98">
@@ -8525,6 +8525,81 @@
       </c>
       <c r="Z124" s="13">
         <v>0.70799999999999996</v>
+      </c>
+    </row>
+    <row r="125" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A125">
+        <v>202210</v>
+      </c>
+      <c r="B125">
+        <v>12558</v>
+      </c>
+      <c r="C125">
+        <v>1217</v>
+      </c>
+      <c r="E125" s="2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G125">
+        <v>462</v>
+      </c>
+      <c r="H125" s="13">
+        <f t="shared" si="9"/>
+        <v>3.678929765886288E-2</v>
+      </c>
+      <c r="J125">
+        <v>266</v>
+      </c>
+      <c r="K125" s="13">
+        <f t="shared" si="10"/>
+        <v>2.1181716833890748E-2</v>
+      </c>
+      <c r="L125">
+        <v>2103</v>
+      </c>
+      <c r="M125" s="13">
+        <f t="shared" si="11"/>
+        <v>0.16746297181079789</v>
+      </c>
+      <c r="N125">
+        <v>1126</v>
+      </c>
+      <c r="O125" s="7">
+        <f t="shared" si="7"/>
+        <v>8.9663959229176624E-2</v>
+      </c>
+      <c r="P125">
+        <v>977</v>
+      </c>
+      <c r="Q125" s="14">
+        <f t="shared" si="12"/>
+        <v>7.779901258162128E-2</v>
+      </c>
+      <c r="R125">
+        <v>9727</v>
+      </c>
+      <c r="S125" s="17">
+        <f t="shared" si="8"/>
+        <v>0.77456601369644851</v>
+      </c>
+      <c r="U125">
+        <v>946</v>
+      </c>
+      <c r="V125">
+        <v>569</v>
+      </c>
+      <c r="W125">
+        <v>10</v>
+      </c>
+      <c r="X125">
+        <v>447</v>
+      </c>
+      <c r="Y125">
+        <v>69</v>
+      </c>
+      <c r="Z125" s="13">
+        <v>0.60399999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -8584,15 +8659,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010074D02CDF85BB3C43825BB38CAE9C40BF" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2fb5f53940ec2c7f0a344607982ab2a5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1ae9c94a-2673-46e1-b5a6-dc0c87eae04c" xmlns:ns3="5083af8e-c479-4bff-9f3e-2a380844c8c1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0d94da3d7173a37185eb1f1bab2ed9be" ns2:_="" ns3:_="">
     <xsd:import namespace="1ae9c94a-2673-46e1-b5a6-dc0c87eae04c"/>
@@ -8835,6 +8901,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F14F16C9-F74E-4CAA-B7B8-5E225606C761}">
   <ds:schemaRefs>
@@ -8853,14 +8928,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF887100-7B50-47F5-87D7-ABDD1957FF85}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38AD410B-FE07-4629-825B-47E04A071629}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8877,4 +8944,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF887100-7B50-47F5-87D7-ABDD1957FF85}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/EV/data/bilsalg.xlsx
+++ b/EV/data/bilsalg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cicero.sharepoint.com/sites/Group-ClimateMitigation/Shared Documents/SmallJobs/2019/201903_bilsalg/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="67" documentId="13_ncr:1_{7435FA22-33C1-46FC-9CEE-C650859A0CD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B11FB45B-752C-431B-B7B7-59596FE0DF66}"/>
+  <xr:revisionPtr revIDLastSave="86" documentId="13_ncr:1_{7435FA22-33C1-46FC-9CEE-C650859A0CD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{026243E3-BAE6-444C-82F0-4EF81247036A}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{94A590A3-A19D-4EDC-866B-407362CF22C8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="17505" xr2:uid="{94A590A3-A19D-4EDC-866B-407362CF22C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -481,6 +481,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -778,29 +782,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A23E6F8-FBFE-40A4-8A3E-1BC2B49C4A9C}">
-  <dimension ref="A1:Z125"/>
+  <dimension ref="A1:Z126"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B106" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B116" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E125" sqref="E125"/>
+      <selection pane="bottomRight" activeCell="K126" sqref="K126"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="12" max="12" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="11.1796875" customWidth="1"/>
-    <col min="18" max="18" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.453125" customWidth="1"/>
-    <col min="22" max="22" width="10.453125" customWidth="1"/>
-    <col min="23" max="23" width="11.453125" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="11.140625" customWidth="1"/>
+    <col min="18" max="18" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.42578125" customWidth="1"/>
+    <col min="22" max="22" width="10.42578125" customWidth="1"/>
+    <col min="23" max="23" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="58.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" ht="58.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>7</v>
       </c>
@@ -877,7 +881,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1994</v>
       </c>
@@ -906,7 +910,7 @@
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
     </row>
-    <row r="3" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1995</v>
       </c>
@@ -935,7 +939,7 @@
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
     </row>
-    <row r="4" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1996</v>
       </c>
@@ -964,7 +968,7 @@
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
     </row>
-    <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1997</v>
       </c>
@@ -995,7 +999,7 @@
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
     </row>
-    <row r="6" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1998</v>
       </c>
@@ -1024,7 +1028,7 @@
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
     </row>
-    <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1999</v>
       </c>
@@ -1053,7 +1057,7 @@
       <c r="X7" s="3"/>
       <c r="Y7" s="3"/>
     </row>
-    <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2000</v>
       </c>
@@ -1082,7 +1086,7 @@
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
     </row>
-    <row r="9" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2001</v>
       </c>
@@ -1111,7 +1115,7 @@
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
     </row>
-    <row r="10" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2002</v>
       </c>
@@ -1142,7 +1146,7 @@
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
     </row>
-    <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2003</v>
       </c>
@@ -1171,7 +1175,7 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
     </row>
-    <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2004</v>
       </c>
@@ -1206,7 +1210,7 @@
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
     </row>
-    <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>200512</v>
       </c>
@@ -1243,7 +1247,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2005</v>
       </c>
@@ -1282,7 +1286,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>200612</v>
       </c>
@@ -1319,7 +1323,7 @@
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
     </row>
-    <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2006</v>
       </c>
@@ -1354,7 +1358,7 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
     </row>
-    <row r="17" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>200712</v>
       </c>
@@ -1389,7 +1393,7 @@
       <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
     </row>
-    <row r="18" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2007</v>
       </c>
@@ -1432,7 +1436,7 @@
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
     </row>
-    <row r="19" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>200812</v>
       </c>
@@ -1469,7 +1473,7 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
     </row>
-    <row r="20" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2008</v>
       </c>
@@ -1513,7 +1517,7 @@
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
     </row>
-    <row r="21" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>200912</v>
       </c>
@@ -1548,7 +1552,7 @@
       <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
     </row>
-    <row r="22" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2009</v>
       </c>
@@ -1591,7 +1595,7 @@
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
     </row>
-    <row r="23" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>201012</v>
       </c>
@@ -1630,7 +1634,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="24" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2010</v>
       </c>
@@ -1680,7 +1684,7 @@
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
     </row>
-    <row r="25" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>201112</v>
       </c>
@@ -1731,7 +1735,7 @@
       <c r="X25" s="3"/>
       <c r="Y25" s="3"/>
     </row>
-    <row r="26" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2011</v>
       </c>
@@ -1783,7 +1787,7 @@
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
     </row>
-    <row r="27" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>201212</v>
       </c>
@@ -1835,7 +1839,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2012</v>
       </c>
@@ -1887,7 +1891,7 @@
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
     </row>
-    <row r="29" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>201312</v>
       </c>
@@ -1941,7 +1945,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="30" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2013</v>
       </c>
@@ -2006,7 +2010,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="31" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2014</v>
       </c>
@@ -2070,7 +2074,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>201501</v>
       </c>
@@ -2137,7 +2141,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>201502</v>
       </c>
@@ -2198,7 +2202,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>201503</v>
       </c>
@@ -2255,7 +2259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>201504</v>
       </c>
@@ -2313,7 +2317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>201505</v>
       </c>
@@ -2382,7 +2386,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>201506</v>
       </c>
@@ -2442,7 +2446,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>201507</v>
       </c>
@@ -2517,7 +2521,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>201508</v>
       </c>
@@ -2592,7 +2596,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>201509</v>
       </c>
@@ -2671,7 +2675,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>201510</v>
       </c>
@@ -2751,7 +2755,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>201511</v>
       </c>
@@ -2831,7 +2835,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>201512</v>
       </c>
@@ -2911,7 +2915,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>201601</v>
       </c>
@@ -2976,7 +2980,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>201602</v>
       </c>
@@ -3039,7 +3043,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>201603</v>
       </c>
@@ -3102,7 +3106,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>201604</v>
       </c>
@@ -3169,7 +3173,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>201605</v>
       </c>
@@ -3236,7 +3240,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>201606</v>
       </c>
@@ -3309,7 +3313,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>201607</v>
       </c>
@@ -3382,7 +3386,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>201608</v>
       </c>
@@ -3455,7 +3459,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>201609</v>
       </c>
@@ -3528,7 +3532,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>201610</v>
       </c>
@@ -3601,7 +3605,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>201611</v>
       </c>
@@ -3674,7 +3678,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>201612</v>
       </c>
@@ -3747,7 +3751,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>201701</v>
       </c>
@@ -3818,7 +3822,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>201702</v>
       </c>
@@ -3889,7 +3893,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>201703</v>
       </c>
@@ -3960,7 +3964,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>201704</v>
       </c>
@@ -4029,7 +4033,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>201705</v>
       </c>
@@ -4098,7 +4102,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>201706</v>
       </c>
@@ -4168,7 +4172,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>201707</v>
       </c>
@@ -4238,7 +4242,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>201708</v>
       </c>
@@ -4308,7 +4312,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>201709</v>
       </c>
@@ -4378,7 +4382,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>201710</v>
       </c>
@@ -4448,7 +4452,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>201711</v>
       </c>
@@ -4518,7 +4522,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>201712</v>
       </c>
@@ -4588,7 +4592,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>201801</v>
       </c>
@@ -4650,7 +4654,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>201802</v>
       </c>
@@ -4712,7 +4716,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>201803</v>
       </c>
@@ -4774,7 +4778,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>201804</v>
       </c>
@@ -4836,7 +4840,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>201805</v>
       </c>
@@ -4847,7 +4851,7 @@
         <v>1923</v>
       </c>
       <c r="E72" s="2">
-        <f t="shared" ref="E72:E125" si="6">H72+K72+M72+S72</f>
+        <f t="shared" ref="E72:E126" si="6">H72+K72+M72+S72</f>
         <v>1</v>
       </c>
       <c r="H72" s="13">
@@ -4898,7 +4902,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>201806</v>
       </c>
@@ -4960,7 +4964,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>201807</v>
       </c>
@@ -5022,7 +5026,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>201808</v>
       </c>
@@ -5084,7 +5088,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>201809</v>
       </c>
@@ -5146,7 +5150,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>201810</v>
       </c>
@@ -5208,7 +5212,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>201811</v>
       </c>
@@ -5270,7 +5274,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>201812</v>
       </c>
@@ -5332,7 +5336,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>201901</v>
       </c>
@@ -5397,7 +5401,7 @@
         <v>0.35699999999999998</v>
       </c>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>201902</v>
       </c>
@@ -5462,7 +5466,7 @@
         <v>0.44700000000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>201903</v>
       </c>
@@ -5527,7 +5531,7 @@
         <v>0.59899999999999998</v>
       </c>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>201904</v>
       </c>
@@ -5589,7 +5593,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>201905</v>
       </c>
@@ -5651,7 +5655,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>201906</v>
       </c>
@@ -5713,7 +5717,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>201907</v>
       </c>
@@ -5775,7 +5779,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>201908</v>
       </c>
@@ -5837,7 +5841,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>201909</v>
       </c>
@@ -5899,7 +5903,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>201910</v>
       </c>
@@ -5961,7 +5965,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>201911</v>
       </c>
@@ -6023,7 +6027,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>201912</v>
       </c>
@@ -6085,7 +6089,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>202001</v>
       </c>
@@ -6150,7 +6154,7 @@
         <v>0.44800000000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>202002</v>
       </c>
@@ -6215,7 +6219,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>202003</v>
       </c>
@@ -6245,7 +6249,7 @@
         <v>2392</v>
       </c>
       <c r="O94" s="7">
-        <f t="shared" ref="O94:O125" si="7">N94/B94</f>
+        <f t="shared" ref="O94:O126" si="7">N94/B94</f>
         <v>0.19211308328648302</v>
       </c>
       <c r="Q94" s="14">
@@ -6280,7 +6284,7 @@
         <v>0.48499999999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>202004</v>
       </c>
@@ -6345,7 +6349,7 @@
         <v>0.437</v>
       </c>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>202005</v>
       </c>
@@ -6387,7 +6391,7 @@
         <v>3444</v>
       </c>
       <c r="S96" s="17">
-        <f t="shared" ref="S96:S125" si="8">R96/B96</f>
+        <f t="shared" ref="S96:S126" si="8">R96/B96</f>
         <v>0.43060765191297823</v>
       </c>
       <c r="T96">
@@ -6412,7 +6416,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>202006</v>
       </c>
@@ -6487,7 +6491,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>202007</v>
       </c>
@@ -6505,21 +6509,21 @@
         <v>1249</v>
       </c>
       <c r="H98" s="13">
-        <f t="shared" ref="H98:H125" si="9">G98/B98</f>
+        <f t="shared" ref="H98:H126" si="9">G98/B98</f>
         <v>0.12781416291444944</v>
       </c>
       <c r="J98">
         <v>1026</v>
       </c>
       <c r="K98" s="13">
-        <f t="shared" ref="K98:K125" si="10">J98/B98</f>
+        <f t="shared" ref="K98:K126" si="10">J98/B98</f>
         <v>0.10499386000818665</v>
       </c>
       <c r="L98">
         <v>3089</v>
       </c>
       <c r="M98" s="13">
-        <f t="shared" ref="M98:M125" si="11">L98/B98</f>
+        <f t="shared" ref="M98:M126" si="11">L98/B98</f>
         <v>0.31610724519033973</v>
       </c>
       <c r="N98">
@@ -6533,7 +6537,7 @@
         <v>811</v>
       </c>
       <c r="Q98" s="14">
-        <f t="shared" ref="Q98:Q125" si="12">P98/B98</f>
+        <f t="shared" ref="Q98:Q126" si="12">P98/B98</f>
         <v>8.2992222677036431E-2</v>
       </c>
       <c r="R98">
@@ -6565,7 +6569,7 @@
         <v>0.48699999999999999</v>
       </c>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>202008</v>
       </c>
@@ -6643,7 +6647,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>202009</v>
       </c>
@@ -6721,7 +6725,7 @@
         <v>0.45800000000000002</v>
       </c>
     </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>202010</v>
       </c>
@@ -6796,7 +6800,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>202011</v>
       </c>
@@ -6871,7 +6875,7 @@
         <v>0.48399999999999999</v>
       </c>
     </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>202012</v>
       </c>
@@ -6946,7 +6950,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>202101</v>
       </c>
@@ -7024,7 +7028,7 @@
         <v>0.56399999999999995</v>
       </c>
     </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>202102</v>
       </c>
@@ -7099,7 +7103,7 @@
         <v>0.54300000000000004</v>
       </c>
     </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>202103</v>
       </c>
@@ -7174,7 +7178,7 @@
         <v>0.55600000000000005</v>
       </c>
     </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>202104</v>
       </c>
@@ -7249,7 +7253,7 @@
         <v>0.45200000000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>202105</v>
       </c>
@@ -7327,7 +7331,7 @@
         <v>0.48399999999999999</v>
       </c>
     </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>202106</v>
       </c>
@@ -7402,7 +7406,7 @@
         <v>0.502</v>
       </c>
     </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>202107</v>
       </c>
@@ -7477,7 +7481,7 @@
         <v>0.48099999999999998</v>
       </c>
     </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>202108</v>
       </c>
@@ -7552,7 +7556,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>202109</v>
       </c>
@@ -7627,7 +7631,7 @@
         <v>0.59099999999999997</v>
       </c>
     </row>
-    <row r="113" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>202110</v>
       </c>
@@ -7702,7 +7706,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="114" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>202111</v>
       </c>
@@ -7777,7 +7781,7 @@
         <v>0.55700000000000005</v>
       </c>
     </row>
-    <row r="115" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>202112</v>
       </c>
@@ -7852,7 +7856,7 @@
         <v>0.46600000000000003</v>
       </c>
     </row>
-    <row r="116" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>202201</v>
       </c>
@@ -7927,7 +7931,7 @@
         <v>0.60499999999999998</v>
       </c>
     </row>
-    <row r="117" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>202202</v>
       </c>
@@ -8002,7 +8006,7 @@
         <v>0.55300000000000005</v>
       </c>
     </row>
-    <row r="118" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>202203</v>
       </c>
@@ -8077,7 +8081,7 @@
         <v>0.69699999999999995</v>
       </c>
     </row>
-    <row r="119" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>202204</v>
       </c>
@@ -8152,7 +8156,7 @@
         <v>0.56499999999999995</v>
       </c>
     </row>
-    <row r="120" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>202205</v>
       </c>
@@ -8227,7 +8231,7 @@
         <v>0.61499999999999999</v>
       </c>
     </row>
-    <row r="121" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>202206</v>
       </c>
@@ -8302,7 +8306,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="122" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>202207</v>
       </c>
@@ -8377,7 +8381,7 @@
         <v>0.61499999999999999</v>
       </c>
     </row>
-    <row r="123" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>202208</v>
       </c>
@@ -8452,7 +8456,7 @@
         <v>0.623</v>
       </c>
     </row>
-    <row r="124" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>202209</v>
       </c>
@@ -8527,7 +8531,7 @@
         <v>0.70799999999999996</v>
       </c>
     </row>
-    <row r="125" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>202210</v>
       </c>
@@ -8600,6 +8604,81 @@
       </c>
       <c r="Z125" s="13">
         <v>0.60399999999999998</v>
+      </c>
+    </row>
+    <row r="126" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>202211</v>
+      </c>
+      <c r="B126">
+        <v>19513</v>
+      </c>
+      <c r="C126">
+        <v>1258</v>
+      </c>
+      <c r="E126" s="2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G126">
+        <v>438</v>
+      </c>
+      <c r="H126" s="13">
+        <f t="shared" si="9"/>
+        <v>2.244657407881925E-2</v>
+      </c>
+      <c r="J126">
+        <v>229</v>
+      </c>
+      <c r="K126" s="13">
+        <f t="shared" si="10"/>
+        <v>1.173576589965664E-2</v>
+      </c>
+      <c r="L126">
+        <v>2931</v>
+      </c>
+      <c r="M126" s="13">
+        <f t="shared" si="11"/>
+        <v>0.15020755393840005</v>
+      </c>
+      <c r="N126">
+        <v>1502</v>
+      </c>
+      <c r="O126" s="7">
+        <f t="shared" si="7"/>
+        <v>7.697432480910163E-2</v>
+      </c>
+      <c r="P126">
+        <v>1429</v>
+      </c>
+      <c r="Q126" s="14">
+        <f t="shared" si="12"/>
+        <v>7.3233229129298416E-2</v>
+      </c>
+      <c r="R126">
+        <v>15915</v>
+      </c>
+      <c r="S126" s="17">
+        <f t="shared" si="8"/>
+        <v>0.81561010608312412</v>
+      </c>
+      <c r="U126">
+        <v>986</v>
+      </c>
+      <c r="V126">
+        <v>694</v>
+      </c>
+      <c r="W126">
+        <v>8</v>
+      </c>
+      <c r="X126">
+        <v>488</v>
+      </c>
+      <c r="Y126">
+        <v>29</v>
+      </c>
+      <c r="Z126" s="13">
+        <v>0.72299999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -8617,24 +8696,24 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -8648,19 +8727,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="5083af8e-c479-4bff-9f3e-2a380844c8c1" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1ae9c94a-2673-46e1-b5a6-dc0c87eae04c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010074D02CDF85BB3C43825BB38CAE9C40BF" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2fb5f53940ec2c7f0a344607982ab2a5">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1ae9c94a-2673-46e1-b5a6-dc0c87eae04c" xmlns:ns3="5083af8e-c479-4bff-9f3e-2a380844c8c1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0d94da3d7173a37185eb1f1bab2ed9be" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010074D02CDF85BB3C43825BB38CAE9C40BF" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cc0fdec67fe3d070701ed30df77ff2e4">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1ae9c94a-2673-46e1-b5a6-dc0c87eae04c" xmlns:ns3="5083af8e-c479-4bff-9f3e-2a380844c8c1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7af3f9d5f786658f4f8b979713004dd2" ns2:_="" ns3:_="">
     <xsd:import namespace="1ae9c94a-2673-46e1-b5a6-dc0c87eae04c"/>
     <xsd:import namespace="5083af8e-c479-4bff-9f3e-2a380844c8c1"/>
     <xsd:element name="properties">
@@ -8684,6 +8752,7 @@
                 <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -8759,6 +8828,11 @@
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
         </xsd:sequence>
       </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="24" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="5083af8e-c479-4bff-9f3e-2a380844c8c1" elementFormDefault="qualified">
@@ -8901,7 +8975,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -8910,25 +8984,19 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F14F16C9-F74E-4CAA-B7B8-5E225606C761}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="5083af8e-c479-4bff-9f3e-2a380844c8c1"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="1ae9c94a-2673-46e1-b5a6-dc0c87eae04c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="5083af8e-c479-4bff-9f3e-2a380844c8c1" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1ae9c94a-2673-46e1-b5a6-dc0c87eae04c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38AD410B-FE07-4629-825B-47E04A071629}">
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{798DD26E-7447-4512-9765-D428BF88CEC4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -8946,10 +9014,27 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF887100-7B50-47F5-87D7-ABDD1957FF85}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F14F16C9-F74E-4CAA-B7B8-5E225606C761}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="5083af8e-c479-4bff-9f3e-2a380844c8c1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="1ae9c94a-2673-46e1-b5a6-dc0c87eae04c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/EV/data/bilsalg.xlsx
+++ b/EV/data/bilsalg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cicero.sharepoint.com/sites/Group-ClimateMitigation/Shared Documents/SmallJobs/2019/201903_bilsalg/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="86" documentId="13_ncr:1_{7435FA22-33C1-46FC-9CEE-C650859A0CD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{026243E3-BAE6-444C-82F0-4EF81247036A}"/>
+  <xr:revisionPtr revIDLastSave="117" documentId="13_ncr:1_{7435FA22-33C1-46FC-9CEE-C650859A0CD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{552F177E-B5E9-4F3B-83FA-06E3220A9214}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="17505" xr2:uid="{94A590A3-A19D-4EDC-866B-407362CF22C8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{94A590A3-A19D-4EDC-866B-407362CF22C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -228,6 +228,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="N127" authorId="0" shapeId="0" xr:uid="{B4990975-115F-47C9-9BA5-8B0B3884F41B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Robbie Andrew:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+OFV summary says 4706, but their overall table says total hybrid is 3293, so they have something wrong. 4706 is the number for dec 2021, so the table is wrong. The total hybrid of 3293 appears correct, since that adds up to the total cars. This site says ladbare hybrid were 4.8%, so I've used that: https://bilbransje24.no/nyheter/727451</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -424,7 +448,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -459,7 +483,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
@@ -782,29 +805,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A23E6F8-FBFE-40A4-8A3E-1BC2B49C4A9C}">
-  <dimension ref="A1:Z126"/>
+  <dimension ref="A1:Z128"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B116" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B106" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K126" sqref="K126"/>
+      <selection pane="bottomRight" activeCell="A126" sqref="A126"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="11.140625" customWidth="1"/>
-    <col min="18" max="18" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.42578125" customWidth="1"/>
-    <col min="22" max="22" width="10.42578125" customWidth="1"/>
-    <col min="23" max="23" width="11.42578125" customWidth="1"/>
+    <col min="12" max="12" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="11.1796875" customWidth="1"/>
+    <col min="18" max="18" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.453125" customWidth="1"/>
+    <col min="22" max="22" width="10.453125" customWidth="1"/>
+    <col min="23" max="23" width="11.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="58.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="58.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="3" t="s">
         <v>7</v>
       </c>
@@ -881,7 +904,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1994</v>
       </c>
@@ -910,7 +933,7 @@
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
     </row>
-    <row r="3" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1995</v>
       </c>
@@ -939,7 +962,7 @@
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
     </row>
-    <row r="4" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1996</v>
       </c>
@@ -968,7 +991,7 @@
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
     </row>
-    <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1997</v>
       </c>
@@ -999,7 +1022,7 @@
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
     </row>
-    <row r="6" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1998</v>
       </c>
@@ -1028,7 +1051,7 @@
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
     </row>
-    <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1999</v>
       </c>
@@ -1057,7 +1080,7 @@
       <c r="X7" s="3"/>
       <c r="Y7" s="3"/>
     </row>
-    <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2000</v>
       </c>
@@ -1086,7 +1109,7 @@
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
     </row>
-    <row r="9" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2001</v>
       </c>
@@ -1115,7 +1138,7 @@
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
     </row>
-    <row r="10" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2002</v>
       </c>
@@ -1146,7 +1169,7 @@
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
     </row>
-    <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2003</v>
       </c>
@@ -1175,7 +1198,7 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
     </row>
-    <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2004</v>
       </c>
@@ -1210,7 +1233,7 @@
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
     </row>
-    <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>200512</v>
       </c>
@@ -1247,7 +1270,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2005</v>
       </c>
@@ -1286,7 +1309,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>200612</v>
       </c>
@@ -1323,7 +1346,7 @@
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
     </row>
-    <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2006</v>
       </c>
@@ -1358,7 +1381,7 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
     </row>
-    <row r="17" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>200712</v>
       </c>
@@ -1393,7 +1416,7 @@
       <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
     </row>
-    <row r="18" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>2007</v>
       </c>
@@ -1436,7 +1459,7 @@
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
     </row>
-    <row r="19" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>200812</v>
       </c>
@@ -1473,7 +1496,7 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
     </row>
-    <row r="20" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>2008</v>
       </c>
@@ -1517,7 +1540,7 @@
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
     </row>
-    <row r="21" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>200912</v>
       </c>
@@ -1552,7 +1575,7 @@
       <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
     </row>
-    <row r="22" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>2009</v>
       </c>
@@ -1595,7 +1618,7 @@
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
     </row>
-    <row r="23" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>201012</v>
       </c>
@@ -1634,7 +1657,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="24" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>2010</v>
       </c>
@@ -1684,7 +1707,7 @@
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
     </row>
-    <row r="25" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>201112</v>
       </c>
@@ -1735,7 +1758,7 @@
       <c r="X25" s="3"/>
       <c r="Y25" s="3"/>
     </row>
-    <row r="26" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>2011</v>
       </c>
@@ -1787,7 +1810,7 @@
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
     </row>
-    <row r="27" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>201212</v>
       </c>
@@ -1839,7 +1862,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>2012</v>
       </c>
@@ -1891,7 +1914,7 @@
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
     </row>
-    <row r="29" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>201312</v>
       </c>
@@ -1945,7 +1968,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="30" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>2013</v>
       </c>
@@ -2010,7 +2033,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="31" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>2014</v>
       </c>
@@ -2074,7 +2097,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>201501</v>
       </c>
@@ -2141,7 +2164,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>201502</v>
       </c>
@@ -2202,7 +2225,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>201503</v>
       </c>
@@ -2259,7 +2282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>201504</v>
       </c>
@@ -2317,7 +2340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>201505</v>
       </c>
@@ -2386,7 +2409,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>201506</v>
       </c>
@@ -2446,7 +2469,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>201507</v>
       </c>
@@ -2521,7 +2544,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>201508</v>
       </c>
@@ -2596,7 +2619,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>201509</v>
       </c>
@@ -2675,7 +2698,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>201510</v>
       </c>
@@ -2755,7 +2778,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>201511</v>
       </c>
@@ -2835,7 +2858,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>201512</v>
       </c>
@@ -2915,7 +2938,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>201601</v>
       </c>
@@ -2980,7 +3003,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>201602</v>
       </c>
@@ -3043,7 +3066,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>201603</v>
       </c>
@@ -3106,7 +3129,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>201604</v>
       </c>
@@ -3173,7 +3196,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>201605</v>
       </c>
@@ -3240,7 +3263,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>201606</v>
       </c>
@@ -3313,7 +3336,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>201607</v>
       </c>
@@ -3386,7 +3409,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>201608</v>
       </c>
@@ -3459,7 +3482,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>201609</v>
       </c>
@@ -3532,7 +3555,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>201610</v>
       </c>
@@ -3605,7 +3628,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>201611</v>
       </c>
@@ -3678,7 +3701,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>201612</v>
       </c>
@@ -3751,7 +3774,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>201701</v>
       </c>
@@ -3822,7 +3845,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>201702</v>
       </c>
@@ -3893,7 +3916,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>201703</v>
       </c>
@@ -3964,7 +3987,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>201704</v>
       </c>
@@ -4033,7 +4056,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>201705</v>
       </c>
@@ -4102,7 +4125,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>201706</v>
       </c>
@@ -4172,7 +4195,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>201707</v>
       </c>
@@ -4242,7 +4265,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>201708</v>
       </c>
@@ -4312,7 +4335,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>201709</v>
       </c>
@@ -4382,7 +4405,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>201710</v>
       </c>
@@ -4452,7 +4475,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>201711</v>
       </c>
@@ -4522,7 +4545,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>201712</v>
       </c>
@@ -4592,7 +4615,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>201801</v>
       </c>
@@ -4654,7 +4677,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>201802</v>
       </c>
@@ -4716,7 +4739,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>201803</v>
       </c>
@@ -4778,7 +4801,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>201804</v>
       </c>
@@ -4840,7 +4863,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>201805</v>
       </c>
@@ -4851,7 +4874,7 @@
         <v>1923</v>
       </c>
       <c r="E72" s="2">
-        <f t="shared" ref="E72:E126" si="6">H72+K72+M72+S72</f>
+        <f t="shared" ref="E72:E127" si="6">H72+K72+M72+S72</f>
         <v>1</v>
       </c>
       <c r="H72" s="13">
@@ -4902,7 +4925,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>201806</v>
       </c>
@@ -4964,7 +4987,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>201807</v>
       </c>
@@ -5026,7 +5049,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>201808</v>
       </c>
@@ -5088,7 +5111,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>201809</v>
       </c>
@@ -5150,7 +5173,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>201810</v>
       </c>
@@ -5212,7 +5235,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>201811</v>
       </c>
@@ -5274,7 +5297,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>201812</v>
       </c>
@@ -5336,7 +5359,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>201901</v>
       </c>
@@ -5401,7 +5424,7 @@
         <v>0.35699999999999998</v>
       </c>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>201902</v>
       </c>
@@ -5466,7 +5489,7 @@
         <v>0.44700000000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>201903</v>
       </c>
@@ -5531,7 +5554,7 @@
         <v>0.59899999999999998</v>
       </c>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>201904</v>
       </c>
@@ -5593,7 +5616,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>201905</v>
       </c>
@@ -5655,7 +5678,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>201906</v>
       </c>
@@ -5665,7 +5688,7 @@
       <c r="C85">
         <v>1380</v>
       </c>
-      <c r="E85" s="16">
+      <c r="E85" s="2">
         <f t="shared" si="6"/>
         <v>1.0009999999999999</v>
       </c>
@@ -5717,7 +5740,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>201907</v>
       </c>
@@ -5779,7 +5802,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>201908</v>
       </c>
@@ -5841,7 +5864,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>201909</v>
       </c>
@@ -5903,7 +5926,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>201910</v>
       </c>
@@ -5913,7 +5936,7 @@
       <c r="C89">
         <v>1248</v>
       </c>
-      <c r="E89" s="16">
+      <c r="E89" s="2">
         <f t="shared" si="6"/>
         <v>1.0009999999999999</v>
       </c>
@@ -5965,7 +5988,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>201911</v>
       </c>
@@ -6027,7 +6050,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>201912</v>
       </c>
@@ -6089,7 +6112,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>202001</v>
       </c>
@@ -6154,7 +6177,7 @@
         <v>0.44800000000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>202002</v>
       </c>
@@ -6219,7 +6242,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>202003</v>
       </c>
@@ -6249,7 +6272,7 @@
         <v>2392</v>
       </c>
       <c r="O94" s="7">
-        <f t="shared" ref="O94:O126" si="7">N94/B94</f>
+        <f t="shared" ref="O94:O127" si="7">N94/B94</f>
         <v>0.19211308328648302</v>
       </c>
       <c r="Q94" s="14">
@@ -6284,7 +6307,7 @@
         <v>0.48499999999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>202004</v>
       </c>
@@ -6349,7 +6372,7 @@
         <v>0.437</v>
       </c>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>202005</v>
       </c>
@@ -6390,8 +6413,8 @@
       <c r="R96">
         <v>3444</v>
       </c>
-      <c r="S96" s="17">
-        <f t="shared" ref="S96:S126" si="8">R96/B96</f>
+      <c r="S96" s="16">
+        <f t="shared" ref="S96:S127" si="8">R96/B96</f>
         <v>0.43060765191297823</v>
       </c>
       <c r="T96">
@@ -6416,7 +6439,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>202006</v>
       </c>
@@ -6465,11 +6488,11 @@
       <c r="R97">
         <v>5041</v>
       </c>
-      <c r="S97" s="17">
+      <c r="S97" s="16">
         <f t="shared" si="8"/>
         <v>0.44053132919688892</v>
       </c>
-      <c r="T97" s="18">
+      <c r="T97" s="17">
         <v>0</v>
       </c>
       <c r="U97">
@@ -6491,7 +6514,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>202007</v>
       </c>
@@ -6509,21 +6532,21 @@
         <v>1249</v>
       </c>
       <c r="H98" s="13">
-        <f t="shared" ref="H98:H126" si="9">G98/B98</f>
+        <f t="shared" ref="H98:H127" si="9">G98/B98</f>
         <v>0.12781416291444944</v>
       </c>
       <c r="J98">
         <v>1026</v>
       </c>
       <c r="K98" s="13">
-        <f t="shared" ref="K98:K126" si="10">J98/B98</f>
+        <f t="shared" ref="K98:K127" si="10">J98/B98</f>
         <v>0.10499386000818665</v>
       </c>
       <c r="L98">
         <v>3089</v>
       </c>
       <c r="M98" s="13">
-        <f t="shared" ref="M98:M126" si="11">L98/B98</f>
+        <f t="shared" ref="M98:M127" si="11">L98/B98</f>
         <v>0.31610724519033973</v>
       </c>
       <c r="N98">
@@ -6537,17 +6560,17 @@
         <v>811</v>
       </c>
       <c r="Q98" s="14">
-        <f t="shared" ref="Q98:Q126" si="12">P98/B98</f>
+        <f t="shared" ref="Q98:Q127" si="12">P98/B98</f>
         <v>8.2992222677036431E-2</v>
       </c>
       <c r="R98">
         <v>4408</v>
       </c>
-      <c r="S98" s="17">
+      <c r="S98" s="16">
         <f t="shared" si="8"/>
         <v>0.45108473188702414</v>
       </c>
-      <c r="T98" s="18">
+      <c r="T98" s="17">
         <v>0</v>
       </c>
       <c r="U98">
@@ -6569,7 +6592,7 @@
         <v>0.48699999999999999</v>
       </c>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>202008</v>
       </c>
@@ -6621,7 +6644,7 @@
       <c r="R99">
         <v>5704</v>
       </c>
-      <c r="S99" s="17">
+      <c r="S99" s="16">
         <f t="shared" si="8"/>
         <v>0.52805036104425107</v>
       </c>
@@ -6647,7 +6670,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>202009</v>
       </c>
@@ -6699,7 +6722,7 @@
       <c r="R100">
         <v>9560</v>
       </c>
-      <c r="S100" s="17">
+      <c r="S100" s="16">
         <f t="shared" si="8"/>
         <v>0.61471193415637859</v>
       </c>
@@ -6725,7 +6748,7 @@
         <v>0.45800000000000002</v>
       </c>
     </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>202010</v>
       </c>
@@ -6777,7 +6800,7 @@
       <c r="R101">
         <v>7873</v>
       </c>
-      <c r="S101" s="17">
+      <c r="S101" s="16">
         <f t="shared" si="8"/>
         <v>0.6080475749150448</v>
       </c>
@@ -6800,7 +6823,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>202011</v>
       </c>
@@ -6852,7 +6875,7 @@
       <c r="R102">
         <v>7035</v>
       </c>
-      <c r="S102" s="17">
+      <c r="S102" s="16">
         <f t="shared" si="8"/>
         <v>0.56131812016277027</v>
       </c>
@@ -6875,7 +6898,7 @@
         <v>0.48399999999999999</v>
       </c>
     </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>202012</v>
       </c>
@@ -6927,7 +6950,7 @@
       <c r="R103">
         <v>13718</v>
       </c>
-      <c r="S103" s="17">
+      <c r="S103" s="16">
         <f t="shared" si="8"/>
         <v>0.66676387673763005</v>
       </c>
@@ -6950,7 +6973,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>202101</v>
       </c>
@@ -7002,7 +7025,7 @@
       <c r="R104">
         <v>5461</v>
       </c>
-      <c r="S104" s="17">
+      <c r="S104" s="16">
         <f t="shared" si="8"/>
         <v>0.53014270459178725</v>
       </c>
@@ -7028,7 +7051,7 @@
         <v>0.56399999999999995</v>
       </c>
     </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>202102</v>
       </c>
@@ -7080,7 +7103,7 @@
       <c r="R105">
         <v>5074</v>
       </c>
-      <c r="S105" s="17">
+      <c r="S105" s="16">
         <f t="shared" si="8"/>
         <v>0.47478244596238423</v>
       </c>
@@ -7103,7 +7126,7 @@
         <v>0.54300000000000004</v>
       </c>
     </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>202103</v>
       </c>
@@ -7155,7 +7178,7 @@
       <c r="R106">
         <v>8624</v>
       </c>
-      <c r="S106" s="17">
+      <c r="S106" s="16">
         <f t="shared" si="8"/>
         <v>0.56288753997780827</v>
       </c>
@@ -7178,7 +7201,7 @@
         <v>0.55600000000000005</v>
       </c>
     </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>202104</v>
       </c>
@@ -7230,7 +7253,7 @@
       <c r="R107">
         <v>7229</v>
       </c>
-      <c r="S107" s="17">
+      <c r="S107" s="16">
         <f t="shared" si="8"/>
         <v>0.54906577548230295</v>
       </c>
@@ -7253,7 +7276,7 @@
         <v>0.45200000000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>202105</v>
       </c>
@@ -7305,7 +7328,7 @@
       <c r="R108">
         <v>8498</v>
       </c>
-      <c r="S108" s="17">
+      <c r="S108" s="16">
         <f t="shared" si="8"/>
         <v>0.60428073668491789</v>
       </c>
@@ -7331,7 +7354,7 @@
         <v>0.48399999999999999</v>
       </c>
     </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>202106</v>
       </c>
@@ -7383,7 +7406,7 @@
       <c r="R109">
         <v>13184</v>
       </c>
-      <c r="S109" s="17">
+      <c r="S109" s="16">
         <f t="shared" si="8"/>
         <v>0.64652805021577087</v>
       </c>
@@ -7406,7 +7429,7 @@
         <v>0.502</v>
       </c>
     </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>202107</v>
       </c>
@@ -7458,7 +7481,7 @@
       <c r="R110">
         <v>6731</v>
       </c>
-      <c r="S110" s="17">
+      <c r="S110" s="16">
         <f t="shared" si="8"/>
         <v>0.64062053868849334</v>
       </c>
@@ -7481,7 +7504,7 @@
         <v>0.48099999999999998</v>
       </c>
     </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>202108</v>
       </c>
@@ -7533,7 +7556,7 @@
       <c r="R111">
         <v>11811</v>
       </c>
-      <c r="S111" s="17">
+      <c r="S111" s="16">
         <f t="shared" si="8"/>
         <v>0.71899920861995492</v>
       </c>
@@ -7556,7 +7579,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>202109</v>
       </c>
@@ -7608,7 +7631,7 @@
       <c r="R112">
         <v>13946</v>
       </c>
-      <c r="S112" s="17">
+      <c r="S112" s="16">
         <f t="shared" si="8"/>
         <v>0.77512227656736332</v>
       </c>
@@ -7631,7 +7654,7 @@
         <v>0.59099999999999997</v>
       </c>
     </row>
-    <row r="113" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>202110</v>
       </c>
@@ -7683,7 +7706,7 @@
       <c r="R113">
         <v>8116</v>
       </c>
-      <c r="S113" s="17">
+      <c r="S113" s="16">
         <f t="shared" si="8"/>
         <v>0.70092408670869677</v>
       </c>
@@ -7706,7 +7729,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="114" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>202111</v>
       </c>
@@ -7758,7 +7781,7 @@
       <c r="R114">
         <v>11274</v>
       </c>
-      <c r="S114" s="17">
+      <c r="S114" s="16">
         <f t="shared" si="8"/>
         <v>0.73811706167343194</v>
       </c>
@@ -7781,7 +7804,7 @@
         <v>0.55700000000000005</v>
       </c>
     </row>
-    <row r="115" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>202112</v>
       </c>
@@ -7833,7 +7856,7 @@
       <c r="R115">
         <v>13803</v>
       </c>
-      <c r="S115" s="17">
+      <c r="S115" s="16">
         <f t="shared" si="8"/>
         <v>0.67122155222719315</v>
       </c>
@@ -7856,7 +7879,7 @@
         <v>0.46600000000000003</v>
       </c>
     </row>
-    <row r="116" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>202201</v>
       </c>
@@ -7908,7 +7931,7 @@
       <c r="R116">
         <v>6660</v>
       </c>
-      <c r="S116" s="17">
+      <c r="S116" s="16">
         <f t="shared" si="8"/>
         <v>0.83699886892044739</v>
       </c>
@@ -7931,7 +7954,7 @@
         <v>0.60499999999999998</v>
       </c>
     </row>
-    <row r="117" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>202202</v>
       </c>
@@ -7983,7 +8006,7 @@
       <c r="R117">
         <v>6160</v>
       </c>
-      <c r="S117" s="17">
+      <c r="S117" s="16">
         <f t="shared" si="8"/>
         <v>0.75610654228550389</v>
       </c>
@@ -8006,7 +8029,7 @@
         <v>0.55300000000000005</v>
       </c>
     </row>
-    <row r="118" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>202203</v>
       </c>
@@ -8058,7 +8081,7 @@
       <c r="R118">
         <v>13983</v>
       </c>
-      <c r="S118" s="17">
+      <c r="S118" s="16">
         <f t="shared" si="8"/>
         <v>0.86112821776080795</v>
       </c>
@@ -8081,7 +8104,7 @@
         <v>0.69699999999999995</v>
       </c>
     </row>
-    <row r="119" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>202204</v>
       </c>
@@ -8133,7 +8156,7 @@
       <c r="R119">
         <v>7207</v>
       </c>
-      <c r="S119" s="17">
+      <c r="S119" s="16">
         <f t="shared" si="8"/>
         <v>0.74107969151670949</v>
       </c>
@@ -8156,7 +8179,7 @@
         <v>0.56499999999999995</v>
       </c>
     </row>
-    <row r="120" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>202205</v>
       </c>
@@ -8208,7 +8231,7 @@
       <c r="R120">
         <v>8445</v>
       </c>
-      <c r="S120" s="17">
+      <c r="S120" s="16">
         <f t="shared" si="8"/>
         <v>0.73199271907774988</v>
       </c>
@@ -8231,7 +8254,7 @@
         <v>0.61499999999999999</v>
       </c>
     </row>
-    <row r="121" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>202206</v>
       </c>
@@ -8283,7 +8306,7 @@
       <c r="R121">
         <v>11722</v>
       </c>
-      <c r="S121" s="17">
+      <c r="S121" s="16">
         <f t="shared" si="8"/>
         <v>0.78665861351587141</v>
       </c>
@@ -8306,7 +8329,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="122" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>202207</v>
       </c>
@@ -8358,7 +8381,7 @@
       <c r="R122">
         <v>5123</v>
       </c>
-      <c r="S122" s="17">
+      <c r="S122" s="16">
         <f t="shared" si="8"/>
         <v>0.70691320546433012</v>
       </c>
@@ -8381,7 +8404,7 @@
         <v>0.61499999999999999</v>
       </c>
     </row>
-    <row r="123" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>202208</v>
       </c>
@@ -8433,7 +8456,7 @@
       <c r="R123">
         <v>9247</v>
       </c>
-      <c r="S123" s="17">
+      <c r="S123" s="16">
         <f t="shared" si="8"/>
         <v>0.74795761546550188</v>
       </c>
@@ -8456,7 +8479,7 @@
         <v>0.623</v>
       </c>
     </row>
-    <row r="124" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>202209</v>
       </c>
@@ -8508,7 +8531,7 @@
       <c r="R124">
         <v>11384</v>
       </c>
-      <c r="S124" s="17">
+      <c r="S124" s="16">
         <f t="shared" si="8"/>
         <v>0.77727707223815379</v>
       </c>
@@ -8531,7 +8554,7 @@
         <v>0.70799999999999996</v>
       </c>
     </row>
-    <row r="125" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>202210</v>
       </c>
@@ -8583,7 +8606,7 @@
       <c r="R125">
         <v>9727</v>
       </c>
-      <c r="S125" s="17">
+      <c r="S125" s="16">
         <f t="shared" si="8"/>
         <v>0.77456601369644851</v>
       </c>
@@ -8606,7 +8629,7 @@
         <v>0.60399999999999998</v>
       </c>
     </row>
-    <row r="126" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>202211</v>
       </c>
@@ -8658,7 +8681,7 @@
       <c r="R126">
         <v>15915</v>
       </c>
-      <c r="S126" s="17">
+      <c r="S126" s="16">
         <f t="shared" si="8"/>
         <v>0.81561010608312412</v>
       </c>
@@ -8680,6 +8703,86 @@
       <c r="Z126" s="13">
         <v>0.72299999999999998</v>
       </c>
+    </row>
+    <row r="127" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A127">
+        <v>202212</v>
+      </c>
+      <c r="B127">
+        <v>39497</v>
+      </c>
+      <c r="C127">
+        <v>3861</v>
+      </c>
+      <c r="E127" s="2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G127">
+        <v>987</v>
+      </c>
+      <c r="H127" s="13">
+        <f t="shared" si="9"/>
+        <v>2.4989239689090309E-2</v>
+      </c>
+      <c r="J127">
+        <v>2503</v>
+      </c>
+      <c r="K127" s="13">
+        <f t="shared" si="10"/>
+        <v>6.3371901663417468E-2</v>
+      </c>
+      <c r="L127">
+        <v>3293</v>
+      </c>
+      <c r="M127" s="13">
+        <f t="shared" si="11"/>
+        <v>8.3373420766134132E-2</v>
+      </c>
+      <c r="N127" s="17">
+        <v>1896</v>
+      </c>
+      <c r="O127" s="7">
+        <f t="shared" si="7"/>
+        <v>4.8003645846519991E-2</v>
+      </c>
+      <c r="P127" s="17">
+        <f>L127-N127</f>
+        <v>1397</v>
+      </c>
+      <c r="Q127" s="14">
+        <f t="shared" si="12"/>
+        <v>3.5369774919614148E-2</v>
+      </c>
+      <c r="R127">
+        <v>32714</v>
+      </c>
+      <c r="S127" s="16">
+        <f t="shared" si="8"/>
+        <v>0.82826543788135809</v>
+      </c>
+      <c r="U127">
+        <v>3557</v>
+      </c>
+      <c r="V127">
+        <v>6726</v>
+      </c>
+      <c r="W127">
+        <v>18</v>
+      </c>
+      <c r="X127">
+        <v>360</v>
+      </c>
+      <c r="Y127">
+        <v>35</v>
+      </c>
+      <c r="Z127" s="13">
+        <v>0.73499999999999999</v>
+      </c>
+    </row>
+    <row r="128" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="O128" s="1"/>
+      <c r="Z128" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8696,24 +8799,24 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -8727,6 +8830,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010074D02CDF85BB3C43825BB38CAE9C40BF" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cc0fdec67fe3d070701ed30df77ff2e4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1ae9c94a-2673-46e1-b5a6-dc0c87eae04c" xmlns:ns3="5083af8e-c479-4bff-9f3e-2a380844c8c1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7af3f9d5f786658f4f8b979713004dd2" ns2:_="" ns3:_="">
     <xsd:import namespace="1ae9c94a-2673-46e1-b5a6-dc0c87eae04c"/>
@@ -8975,15 +9087,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -8996,6 +9099,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF887100-7B50-47F5-87D7-ABDD1957FF85}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{798DD26E-7447-4512-9765-D428BF88CEC4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9010,14 +9121,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF887100-7B50-47F5-87D7-ABDD1957FF85}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/EV/data/bilsalg.xlsx
+++ b/EV/data/bilsalg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cicero.sharepoint.com/sites/Group-ClimateMitigation/Shared Documents/SmallJobs/2019/201903_bilsalg/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="117" documentId="13_ncr:1_{7435FA22-33C1-46FC-9CEE-C650859A0CD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{552F177E-B5E9-4F3B-83FA-06E3220A9214}"/>
+  <xr:revisionPtr revIDLastSave="135" documentId="13_ncr:1_{7435FA22-33C1-46FC-9CEE-C650859A0CD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E33056E-3A74-4C37-BBFB-A836F8468711}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{94A590A3-A19D-4EDC-866B-407362CF22C8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="17505" xr2:uid="{94A590A3-A19D-4EDC-866B-407362CF22C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -811,23 +811,23 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B106" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A126" sqref="A126"/>
+      <selection pane="bottomRight" activeCell="B128" sqref="B128"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="12" max="12" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="11.1796875" customWidth="1"/>
-    <col min="18" max="18" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.453125" customWidth="1"/>
-    <col min="22" max="22" width="10.453125" customWidth="1"/>
-    <col min="23" max="23" width="11.453125" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="11.140625" customWidth="1"/>
+    <col min="18" max="18" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.42578125" customWidth="1"/>
+    <col min="22" max="22" width="10.42578125" customWidth="1"/>
+    <col min="23" max="23" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="58.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" ht="58.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>7</v>
       </c>
@@ -904,7 +904,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1994</v>
       </c>
@@ -933,7 +933,7 @@
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
     </row>
-    <row r="3" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1995</v>
       </c>
@@ -962,7 +962,7 @@
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
     </row>
-    <row r="4" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1996</v>
       </c>
@@ -991,7 +991,7 @@
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
     </row>
-    <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1997</v>
       </c>
@@ -1022,7 +1022,7 @@
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
     </row>
-    <row r="6" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1998</v>
       </c>
@@ -1051,7 +1051,7 @@
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
     </row>
-    <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1999</v>
       </c>
@@ -1080,7 +1080,7 @@
       <c r="X7" s="3"/>
       <c r="Y7" s="3"/>
     </row>
-    <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2000</v>
       </c>
@@ -1109,7 +1109,7 @@
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
     </row>
-    <row r="9" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2001</v>
       </c>
@@ -1138,7 +1138,7 @@
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
     </row>
-    <row r="10" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2002</v>
       </c>
@@ -1169,7 +1169,7 @@
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
     </row>
-    <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2003</v>
       </c>
@@ -1198,7 +1198,7 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
     </row>
-    <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2004</v>
       </c>
@@ -1233,7 +1233,7 @@
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
     </row>
-    <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>200512</v>
       </c>
@@ -1270,7 +1270,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2005</v>
       </c>
@@ -1309,7 +1309,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>200612</v>
       </c>
@@ -1346,7 +1346,7 @@
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
     </row>
-    <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2006</v>
       </c>
@@ -1381,7 +1381,7 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
     </row>
-    <row r="17" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>200712</v>
       </c>
@@ -1416,7 +1416,7 @@
       <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
     </row>
-    <row r="18" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2007</v>
       </c>
@@ -1459,7 +1459,7 @@
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
     </row>
-    <row r="19" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>200812</v>
       </c>
@@ -1496,7 +1496,7 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
     </row>
-    <row r="20" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2008</v>
       </c>
@@ -1540,7 +1540,7 @@
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
     </row>
-    <row r="21" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>200912</v>
       </c>
@@ -1575,7 +1575,7 @@
       <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
     </row>
-    <row r="22" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2009</v>
       </c>
@@ -1618,7 +1618,7 @@
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
     </row>
-    <row r="23" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>201012</v>
       </c>
@@ -1657,7 +1657,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="24" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2010</v>
       </c>
@@ -1707,7 +1707,7 @@
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
     </row>
-    <row r="25" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>201112</v>
       </c>
@@ -1758,7 +1758,7 @@
       <c r="X25" s="3"/>
       <c r="Y25" s="3"/>
     </row>
-    <row r="26" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2011</v>
       </c>
@@ -1810,7 +1810,7 @@
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
     </row>
-    <row r="27" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>201212</v>
       </c>
@@ -1862,7 +1862,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2012</v>
       </c>
@@ -1914,7 +1914,7 @@
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
     </row>
-    <row r="29" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>201312</v>
       </c>
@@ -1968,7 +1968,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="30" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2013</v>
       </c>
@@ -2033,7 +2033,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="31" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2014</v>
       </c>
@@ -2097,7 +2097,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>201501</v>
       </c>
@@ -2164,7 +2164,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>201502</v>
       </c>
@@ -2225,7 +2225,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>201503</v>
       </c>
@@ -2282,7 +2282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>201504</v>
       </c>
@@ -2340,7 +2340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>201505</v>
       </c>
@@ -2409,7 +2409,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>201506</v>
       </c>
@@ -2469,7 +2469,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>201507</v>
       </c>
@@ -2544,7 +2544,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>201508</v>
       </c>
@@ -2619,7 +2619,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>201509</v>
       </c>
@@ -2698,7 +2698,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>201510</v>
       </c>
@@ -2778,7 +2778,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>201511</v>
       </c>
@@ -2858,7 +2858,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>201512</v>
       </c>
@@ -2938,7 +2938,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>201601</v>
       </c>
@@ -3003,7 +3003,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>201602</v>
       </c>
@@ -3066,7 +3066,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>201603</v>
       </c>
@@ -3129,7 +3129,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>201604</v>
       </c>
@@ -3196,7 +3196,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>201605</v>
       </c>
@@ -3263,7 +3263,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>201606</v>
       </c>
@@ -3336,7 +3336,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>201607</v>
       </c>
@@ -3409,7 +3409,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>201608</v>
       </c>
@@ -3482,7 +3482,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>201609</v>
       </c>
@@ -3555,7 +3555,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>201610</v>
       </c>
@@ -3628,7 +3628,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>201611</v>
       </c>
@@ -3701,7 +3701,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>201612</v>
       </c>
@@ -3774,7 +3774,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>201701</v>
       </c>
@@ -3845,7 +3845,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>201702</v>
       </c>
@@ -3916,7 +3916,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>201703</v>
       </c>
@@ -3987,7 +3987,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>201704</v>
       </c>
@@ -4056,7 +4056,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>201705</v>
       </c>
@@ -4125,7 +4125,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>201706</v>
       </c>
@@ -4195,7 +4195,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>201707</v>
       </c>
@@ -4265,7 +4265,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>201708</v>
       </c>
@@ -4335,7 +4335,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>201709</v>
       </c>
@@ -4405,7 +4405,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>201710</v>
       </c>
@@ -4475,7 +4475,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>201711</v>
       </c>
@@ -4545,7 +4545,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>201712</v>
       </c>
@@ -4615,7 +4615,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>201801</v>
       </c>
@@ -4677,7 +4677,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>201802</v>
       </c>
@@ -4739,7 +4739,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>201803</v>
       </c>
@@ -4801,7 +4801,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>201804</v>
       </c>
@@ -4863,7 +4863,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>201805</v>
       </c>
@@ -4874,7 +4874,7 @@
         <v>1923</v>
       </c>
       <c r="E72" s="2">
-        <f t="shared" ref="E72:E127" si="6">H72+K72+M72+S72</f>
+        <f t="shared" ref="E72:E128" si="6">H72+K72+M72+S72</f>
         <v>1</v>
       </c>
       <c r="H72" s="13">
@@ -4925,7 +4925,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>201806</v>
       </c>
@@ -4987,7 +4987,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>201807</v>
       </c>
@@ -5049,7 +5049,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>201808</v>
       </c>
@@ -5111,7 +5111,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>201809</v>
       </c>
@@ -5173,7 +5173,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>201810</v>
       </c>
@@ -5235,7 +5235,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>201811</v>
       </c>
@@ -5297,7 +5297,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>201812</v>
       </c>
@@ -5359,7 +5359,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>201901</v>
       </c>
@@ -5424,7 +5424,7 @@
         <v>0.35699999999999998</v>
       </c>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>201902</v>
       </c>
@@ -5489,7 +5489,7 @@
         <v>0.44700000000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>201903</v>
       </c>
@@ -5554,7 +5554,7 @@
         <v>0.59899999999999998</v>
       </c>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>201904</v>
       </c>
@@ -5616,7 +5616,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>201905</v>
       </c>
@@ -5678,7 +5678,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>201906</v>
       </c>
@@ -5740,7 +5740,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>201907</v>
       </c>
@@ -5802,7 +5802,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>201908</v>
       </c>
@@ -5864,7 +5864,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>201909</v>
       </c>
@@ -5926,7 +5926,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>201910</v>
       </c>
@@ -5988,7 +5988,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>201911</v>
       </c>
@@ -6050,7 +6050,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>201912</v>
       </c>
@@ -6112,7 +6112,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>202001</v>
       </c>
@@ -6177,7 +6177,7 @@
         <v>0.44800000000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>202002</v>
       </c>
@@ -6242,7 +6242,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>202003</v>
       </c>
@@ -6272,7 +6272,7 @@
         <v>2392</v>
       </c>
       <c r="O94" s="7">
-        <f t="shared" ref="O94:O127" si="7">N94/B94</f>
+        <f t="shared" ref="O94:O128" si="7">N94/B94</f>
         <v>0.19211308328648302</v>
       </c>
       <c r="Q94" s="14">
@@ -6307,7 +6307,7 @@
         <v>0.48499999999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>202004</v>
       </c>
@@ -6372,7 +6372,7 @@
         <v>0.437</v>
       </c>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>202005</v>
       </c>
@@ -6414,7 +6414,7 @@
         <v>3444</v>
       </c>
       <c r="S96" s="16">
-        <f t="shared" ref="S96:S127" si="8">R96/B96</f>
+        <f t="shared" ref="S96:S128" si="8">R96/B96</f>
         <v>0.43060765191297823</v>
       </c>
       <c r="T96">
@@ -6439,7 +6439,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>202006</v>
       </c>
@@ -6514,7 +6514,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>202007</v>
       </c>
@@ -6532,21 +6532,21 @@
         <v>1249</v>
       </c>
       <c r="H98" s="13">
-        <f t="shared" ref="H98:H127" si="9">G98/B98</f>
+        <f t="shared" ref="H98:H128" si="9">G98/B98</f>
         <v>0.12781416291444944</v>
       </c>
       <c r="J98">
         <v>1026</v>
       </c>
       <c r="K98" s="13">
-        <f t="shared" ref="K98:K127" si="10">J98/B98</f>
+        <f t="shared" ref="K98:K128" si="10">J98/B98</f>
         <v>0.10499386000818665</v>
       </c>
       <c r="L98">
         <v>3089</v>
       </c>
       <c r="M98" s="13">
-        <f t="shared" ref="M98:M127" si="11">L98/B98</f>
+        <f t="shared" ref="M98:M128" si="11">L98/B98</f>
         <v>0.31610724519033973</v>
       </c>
       <c r="N98">
@@ -6560,7 +6560,7 @@
         <v>811</v>
       </c>
       <c r="Q98" s="14">
-        <f t="shared" ref="Q98:Q127" si="12">P98/B98</f>
+        <f t="shared" ref="Q98:Q128" si="12">P98/B98</f>
         <v>8.2992222677036431E-2</v>
       </c>
       <c r="R98">
@@ -6592,7 +6592,7 @@
         <v>0.48699999999999999</v>
       </c>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>202008</v>
       </c>
@@ -6670,7 +6670,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>202009</v>
       </c>
@@ -6748,7 +6748,7 @@
         <v>0.45800000000000002</v>
       </c>
     </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>202010</v>
       </c>
@@ -6823,7 +6823,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>202011</v>
       </c>
@@ -6898,7 +6898,7 @@
         <v>0.48399999999999999</v>
       </c>
     </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>202012</v>
       </c>
@@ -6973,7 +6973,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>202101</v>
       </c>
@@ -7051,7 +7051,7 @@
         <v>0.56399999999999995</v>
       </c>
     </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>202102</v>
       </c>
@@ -7126,7 +7126,7 @@
         <v>0.54300000000000004</v>
       </c>
     </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>202103</v>
       </c>
@@ -7201,7 +7201,7 @@
         <v>0.55600000000000005</v>
       </c>
     </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>202104</v>
       </c>
@@ -7276,7 +7276,7 @@
         <v>0.45200000000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>202105</v>
       </c>
@@ -7354,7 +7354,7 @@
         <v>0.48399999999999999</v>
       </c>
     </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>202106</v>
       </c>
@@ -7429,7 +7429,7 @@
         <v>0.502</v>
       </c>
     </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>202107</v>
       </c>
@@ -7504,7 +7504,7 @@
         <v>0.48099999999999998</v>
       </c>
     </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>202108</v>
       </c>
@@ -7579,7 +7579,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>202109</v>
       </c>
@@ -7654,7 +7654,7 @@
         <v>0.59099999999999997</v>
       </c>
     </row>
-    <row r="113" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>202110</v>
       </c>
@@ -7729,7 +7729,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="114" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>202111</v>
       </c>
@@ -7804,7 +7804,7 @@
         <v>0.55700000000000005</v>
       </c>
     </row>
-    <row r="115" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>202112</v>
       </c>
@@ -7879,7 +7879,7 @@
         <v>0.46600000000000003</v>
       </c>
     </row>
-    <row r="116" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>202201</v>
       </c>
@@ -7954,7 +7954,7 @@
         <v>0.60499999999999998</v>
       </c>
     </row>
-    <row r="117" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>202202</v>
       </c>
@@ -8029,7 +8029,7 @@
         <v>0.55300000000000005</v>
       </c>
     </row>
-    <row r="118" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>202203</v>
       </c>
@@ -8104,7 +8104,7 @@
         <v>0.69699999999999995</v>
       </c>
     </row>
-    <row r="119" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>202204</v>
       </c>
@@ -8179,7 +8179,7 @@
         <v>0.56499999999999995</v>
       </c>
     </row>
-    <row r="120" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>202205</v>
       </c>
@@ -8254,7 +8254,7 @@
         <v>0.61499999999999999</v>
       </c>
     </row>
-    <row r="121" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>202206</v>
       </c>
@@ -8329,7 +8329,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="122" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>202207</v>
       </c>
@@ -8404,7 +8404,7 @@
         <v>0.61499999999999999</v>
       </c>
     </row>
-    <row r="123" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>202208</v>
       </c>
@@ -8479,7 +8479,7 @@
         <v>0.623</v>
       </c>
     </row>
-    <row r="124" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>202209</v>
       </c>
@@ -8554,7 +8554,7 @@
         <v>0.70799999999999996</v>
       </c>
     </row>
-    <row r="125" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>202210</v>
       </c>
@@ -8629,7 +8629,7 @@
         <v>0.60399999999999998</v>
       </c>
     </row>
-    <row r="126" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>202211</v>
       </c>
@@ -8704,7 +8704,7 @@
         <v>0.72299999999999998</v>
       </c>
     </row>
-    <row r="127" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>202212</v>
       </c>
@@ -8780,9 +8780,80 @@
         <v>0.73499999999999999</v>
       </c>
     </row>
-    <row r="128" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="O128" s="1"/>
-      <c r="Z128" s="1"/>
+    <row r="128" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>202301</v>
+      </c>
+      <c r="B128">
+        <v>1860</v>
+      </c>
+      <c r="C128">
+        <v>254</v>
+      </c>
+      <c r="E128" s="2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G128">
+        <v>142</v>
+      </c>
+      <c r="H128" s="13">
+        <f t="shared" si="9"/>
+        <v>7.6344086021505372E-2</v>
+      </c>
+      <c r="J128">
+        <v>36</v>
+      </c>
+      <c r="K128" s="13">
+        <f t="shared" si="10"/>
+        <v>1.935483870967742E-2</v>
+      </c>
+      <c r="L128">
+        <v>445</v>
+      </c>
+      <c r="M128" s="13">
+        <f t="shared" si="11"/>
+        <v>0.239247311827957</v>
+      </c>
+      <c r="N128">
+        <v>182</v>
+      </c>
+      <c r="O128" s="1">
+        <f t="shared" si="7"/>
+        <v>9.7849462365591403E-2</v>
+      </c>
+      <c r="P128">
+        <v>263</v>
+      </c>
+      <c r="Q128" s="14">
+        <f t="shared" si="12"/>
+        <v>0.14139784946236558</v>
+      </c>
+      <c r="R128">
+        <v>1237</v>
+      </c>
+      <c r="S128" s="16">
+        <f t="shared" si="8"/>
+        <v>0.6650537634408602</v>
+      </c>
+      <c r="U128">
+        <v>112</v>
+      </c>
+      <c r="V128">
+        <v>358</v>
+      </c>
+      <c r="W128">
+        <v>4</v>
+      </c>
+      <c r="X128">
+        <v>23</v>
+      </c>
+      <c r="Y128">
+        <v>34</v>
+      </c>
+      <c r="Z128" s="13">
+        <v>0.51600000000000001</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8799,24 +8870,24 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -8830,15 +8901,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010074D02CDF85BB3C43825BB38CAE9C40BF" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cc0fdec67fe3d070701ed30df77ff2e4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1ae9c94a-2673-46e1-b5a6-dc0c87eae04c" xmlns:ns3="5083af8e-c479-4bff-9f3e-2a380844c8c1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7af3f9d5f786658f4f8b979713004dd2" ns2:_="" ns3:_="">
     <xsd:import namespace="1ae9c94a-2673-46e1-b5a6-dc0c87eae04c"/>
@@ -9087,6 +9149,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -9099,14 +9170,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF887100-7B50-47F5-87D7-ABDD1957FF85}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{798DD26E-7447-4512-9765-D428BF88CEC4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9121,6 +9184,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF887100-7B50-47F5-87D7-ABDD1957FF85}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/EV/data/bilsalg.xlsx
+++ b/EV/data/bilsalg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cicero.sharepoint.com/sites/Group-ClimateMitigation/Shared Documents/SmallJobs/2019/201903_bilsalg/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roberan\CICERO senter for klimaforskning\CM - Documents\SmallJobs\2019\201903_bilsalg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="135" documentId="13_ncr:1_{7435FA22-33C1-46FC-9CEE-C650859A0CD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E33056E-3A74-4C37-BBFB-A836F8468711}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD3D75AD-2659-408E-A6B8-FC4EDAFF4E01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="17505" xr2:uid="{94A590A3-A19D-4EDC-866B-407362CF22C8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{94A590A3-A19D-4EDC-866B-407362CF22C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -504,10 +504,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -805,29 +801,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A23E6F8-FBFE-40A4-8A3E-1BC2B49C4A9C}">
-  <dimension ref="A1:Z128"/>
+  <dimension ref="A1:Z130"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B106" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="U106" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B128" sqref="B128"/>
+      <selection pane="bottomRight" activeCell="Z129" sqref="Z129"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="11.140625" customWidth="1"/>
-    <col min="18" max="18" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.42578125" customWidth="1"/>
-    <col min="22" max="22" width="10.42578125" customWidth="1"/>
-    <col min="23" max="23" width="11.42578125" customWidth="1"/>
+    <col min="12" max="12" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="11.1796875" customWidth="1"/>
+    <col min="18" max="18" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.453125" customWidth="1"/>
+    <col min="22" max="22" width="10.453125" customWidth="1"/>
+    <col min="23" max="23" width="11.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="58.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="58.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="3" t="s">
         <v>7</v>
       </c>
@@ -904,7 +900,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1994</v>
       </c>
@@ -933,7 +929,7 @@
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
     </row>
-    <row r="3" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1995</v>
       </c>
@@ -962,7 +958,7 @@
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
     </row>
-    <row r="4" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1996</v>
       </c>
@@ -991,7 +987,7 @@
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
     </row>
-    <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1997</v>
       </c>
@@ -1022,7 +1018,7 @@
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
     </row>
-    <row r="6" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1998</v>
       </c>
@@ -1051,7 +1047,7 @@
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
     </row>
-    <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1999</v>
       </c>
@@ -1080,7 +1076,7 @@
       <c r="X7" s="3"/>
       <c r="Y7" s="3"/>
     </row>
-    <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2000</v>
       </c>
@@ -1109,7 +1105,7 @@
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
     </row>
-    <row r="9" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2001</v>
       </c>
@@ -1138,7 +1134,7 @@
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
     </row>
-    <row r="10" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2002</v>
       </c>
@@ -1169,7 +1165,7 @@
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
     </row>
-    <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2003</v>
       </c>
@@ -1198,7 +1194,7 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
     </row>
-    <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2004</v>
       </c>
@@ -1233,7 +1229,7 @@
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
     </row>
-    <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>200512</v>
       </c>
@@ -1270,7 +1266,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2005</v>
       </c>
@@ -1309,7 +1305,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>200612</v>
       </c>
@@ -1346,7 +1342,7 @@
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
     </row>
-    <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2006</v>
       </c>
@@ -1381,7 +1377,7 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
     </row>
-    <row r="17" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>200712</v>
       </c>
@@ -1416,7 +1412,7 @@
       <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
     </row>
-    <row r="18" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>2007</v>
       </c>
@@ -1459,7 +1455,7 @@
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
     </row>
-    <row r="19" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>200812</v>
       </c>
@@ -1496,7 +1492,7 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
     </row>
-    <row r="20" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>2008</v>
       </c>
@@ -1540,7 +1536,7 @@
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
     </row>
-    <row r="21" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>200912</v>
       </c>
@@ -1575,7 +1571,7 @@
       <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
     </row>
-    <row r="22" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>2009</v>
       </c>
@@ -1618,7 +1614,7 @@
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
     </row>
-    <row r="23" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>201012</v>
       </c>
@@ -1657,7 +1653,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="24" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>2010</v>
       </c>
@@ -1707,7 +1703,7 @@
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
     </row>
-    <row r="25" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>201112</v>
       </c>
@@ -1758,7 +1754,7 @@
       <c r="X25" s="3"/>
       <c r="Y25" s="3"/>
     </row>
-    <row r="26" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>2011</v>
       </c>
@@ -1810,7 +1806,7 @@
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
     </row>
-    <row r="27" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>201212</v>
       </c>
@@ -1862,7 +1858,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>2012</v>
       </c>
@@ -1914,7 +1910,7 @@
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
     </row>
-    <row r="29" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>201312</v>
       </c>
@@ -1968,7 +1964,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="30" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>2013</v>
       </c>
@@ -2033,7 +2029,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="31" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>2014</v>
       </c>
@@ -2097,7 +2093,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>201501</v>
       </c>
@@ -2164,7 +2160,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>201502</v>
       </c>
@@ -2225,7 +2221,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>201503</v>
       </c>
@@ -2282,7 +2278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>201504</v>
       </c>
@@ -2340,7 +2336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>201505</v>
       </c>
@@ -2409,7 +2405,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>201506</v>
       </c>
@@ -2469,7 +2465,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>201507</v>
       </c>
@@ -2544,7 +2540,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>201508</v>
       </c>
@@ -2619,7 +2615,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>201509</v>
       </c>
@@ -2698,7 +2694,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>201510</v>
       </c>
@@ -2778,7 +2774,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>201511</v>
       </c>
@@ -2858,7 +2854,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>201512</v>
       </c>
@@ -2938,7 +2934,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>201601</v>
       </c>
@@ -3003,7 +2999,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>201602</v>
       </c>
@@ -3066,7 +3062,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>201603</v>
       </c>
@@ -3129,7 +3125,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>201604</v>
       </c>
@@ -3196,7 +3192,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>201605</v>
       </c>
@@ -3263,7 +3259,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>201606</v>
       </c>
@@ -3336,7 +3332,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>201607</v>
       </c>
@@ -3409,7 +3405,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>201608</v>
       </c>
@@ -3482,7 +3478,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>201609</v>
       </c>
@@ -3555,7 +3551,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>201610</v>
       </c>
@@ -3628,7 +3624,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>201611</v>
       </c>
@@ -3701,7 +3697,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>201612</v>
       </c>
@@ -3774,7 +3770,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>201701</v>
       </c>
@@ -3845,7 +3841,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>201702</v>
       </c>
@@ -3916,7 +3912,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>201703</v>
       </c>
@@ -3987,7 +3983,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>201704</v>
       </c>
@@ -4056,7 +4052,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>201705</v>
       </c>
@@ -4125,7 +4121,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>201706</v>
       </c>
@@ -4195,7 +4191,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>201707</v>
       </c>
@@ -4265,7 +4261,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>201708</v>
       </c>
@@ -4335,7 +4331,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>201709</v>
       </c>
@@ -4405,7 +4401,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>201710</v>
       </c>
@@ -4475,7 +4471,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>201711</v>
       </c>
@@ -4545,7 +4541,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>201712</v>
       </c>
@@ -4615,7 +4611,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>201801</v>
       </c>
@@ -4677,7 +4673,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>201802</v>
       </c>
@@ -4739,7 +4735,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>201803</v>
       </c>
@@ -4801,7 +4797,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>201804</v>
       </c>
@@ -4863,7 +4859,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>201805</v>
       </c>
@@ -4874,7 +4870,7 @@
         <v>1923</v>
       </c>
       <c r="E72" s="2">
-        <f t="shared" ref="E72:E128" si="6">H72+K72+M72+S72</f>
+        <f t="shared" ref="E72:E129" si="6">H72+K72+M72+S72</f>
         <v>1</v>
       </c>
       <c r="H72" s="13">
@@ -4925,7 +4921,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>201806</v>
       </c>
@@ -4987,7 +4983,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>201807</v>
       </c>
@@ -5049,7 +5045,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>201808</v>
       </c>
@@ -5111,7 +5107,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>201809</v>
       </c>
@@ -5173,7 +5169,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>201810</v>
       </c>
@@ -5235,7 +5231,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>201811</v>
       </c>
@@ -5297,7 +5293,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>201812</v>
       </c>
@@ -5359,7 +5355,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>201901</v>
       </c>
@@ -5424,7 +5420,7 @@
         <v>0.35699999999999998</v>
       </c>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>201902</v>
       </c>
@@ -5489,7 +5485,7 @@
         <v>0.44700000000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>201903</v>
       </c>
@@ -5554,7 +5550,7 @@
         <v>0.59899999999999998</v>
       </c>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>201904</v>
       </c>
@@ -5616,7 +5612,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>201905</v>
       </c>
@@ -5678,7 +5674,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>201906</v>
       </c>
@@ -5740,7 +5736,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>201907</v>
       </c>
@@ -5802,7 +5798,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>201908</v>
       </c>
@@ -5864,7 +5860,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>201909</v>
       </c>
@@ -5926,7 +5922,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>201910</v>
       </c>
@@ -5988,7 +5984,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>201911</v>
       </c>
@@ -6050,7 +6046,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>201912</v>
       </c>
@@ -6112,7 +6108,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>202001</v>
       </c>
@@ -6177,7 +6173,7 @@
         <v>0.44800000000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>202002</v>
       </c>
@@ -6242,7 +6238,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>202003</v>
       </c>
@@ -6272,7 +6268,7 @@
         <v>2392</v>
       </c>
       <c r="O94" s="7">
-        <f t="shared" ref="O94:O128" si="7">N94/B94</f>
+        <f t="shared" ref="O94:O129" si="7">N94/B94</f>
         <v>0.19211308328648302</v>
       </c>
       <c r="Q94" s="14">
@@ -6307,7 +6303,7 @@
         <v>0.48499999999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>202004</v>
       </c>
@@ -6372,7 +6368,7 @@
         <v>0.437</v>
       </c>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>202005</v>
       </c>
@@ -6414,7 +6410,7 @@
         <v>3444</v>
       </c>
       <c r="S96" s="16">
-        <f t="shared" ref="S96:S128" si="8">R96/B96</f>
+        <f t="shared" ref="S96:S129" si="8">R96/B96</f>
         <v>0.43060765191297823</v>
       </c>
       <c r="T96">
@@ -6439,7 +6435,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>202006</v>
       </c>
@@ -6514,7 +6510,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>202007</v>
       </c>
@@ -6532,21 +6528,21 @@
         <v>1249</v>
       </c>
       <c r="H98" s="13">
-        <f t="shared" ref="H98:H128" si="9">G98/B98</f>
+        <f t="shared" ref="H98:H129" si="9">G98/B98</f>
         <v>0.12781416291444944</v>
       </c>
       <c r="J98">
         <v>1026</v>
       </c>
       <c r="K98" s="13">
-        <f t="shared" ref="K98:K128" si="10">J98/B98</f>
+        <f t="shared" ref="K98:K129" si="10">J98/B98</f>
         <v>0.10499386000818665</v>
       </c>
       <c r="L98">
         <v>3089</v>
       </c>
       <c r="M98" s="13">
-        <f t="shared" ref="M98:M128" si="11">L98/B98</f>
+        <f t="shared" ref="M98:M129" si="11">L98/B98</f>
         <v>0.31610724519033973</v>
       </c>
       <c r="N98">
@@ -6560,7 +6556,7 @@
         <v>811</v>
       </c>
       <c r="Q98" s="14">
-        <f t="shared" ref="Q98:Q128" si="12">P98/B98</f>
+        <f t="shared" ref="Q98:Q129" si="12">P98/B98</f>
         <v>8.2992222677036431E-2</v>
       </c>
       <c r="R98">
@@ -6592,7 +6588,7 @@
         <v>0.48699999999999999</v>
       </c>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>202008</v>
       </c>
@@ -6670,7 +6666,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>202009</v>
       </c>
@@ -6748,7 +6744,7 @@
         <v>0.45800000000000002</v>
       </c>
     </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>202010</v>
       </c>
@@ -6823,7 +6819,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>202011</v>
       </c>
@@ -6898,7 +6894,7 @@
         <v>0.48399999999999999</v>
       </c>
     </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>202012</v>
       </c>
@@ -6973,7 +6969,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>202101</v>
       </c>
@@ -7051,7 +7047,7 @@
         <v>0.56399999999999995</v>
       </c>
     </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>202102</v>
       </c>
@@ -7126,7 +7122,7 @@
         <v>0.54300000000000004</v>
       </c>
     </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>202103</v>
       </c>
@@ -7201,7 +7197,7 @@
         <v>0.55600000000000005</v>
       </c>
     </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>202104</v>
       </c>
@@ -7276,7 +7272,7 @@
         <v>0.45200000000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>202105</v>
       </c>
@@ -7354,7 +7350,7 @@
         <v>0.48399999999999999</v>
       </c>
     </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>202106</v>
       </c>
@@ -7429,7 +7425,7 @@
         <v>0.502</v>
       </c>
     </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>202107</v>
       </c>
@@ -7504,7 +7500,7 @@
         <v>0.48099999999999998</v>
       </c>
     </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>202108</v>
       </c>
@@ -7579,7 +7575,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>202109</v>
       </c>
@@ -7654,7 +7650,7 @@
         <v>0.59099999999999997</v>
       </c>
     </row>
-    <row r="113" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>202110</v>
       </c>
@@ -7729,7 +7725,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="114" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>202111</v>
       </c>
@@ -7804,7 +7800,7 @@
         <v>0.55700000000000005</v>
       </c>
     </row>
-    <row r="115" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>202112</v>
       </c>
@@ -7879,7 +7875,7 @@
         <v>0.46600000000000003</v>
       </c>
     </row>
-    <row r="116" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>202201</v>
       </c>
@@ -7954,7 +7950,7 @@
         <v>0.60499999999999998</v>
       </c>
     </row>
-    <row r="117" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>202202</v>
       </c>
@@ -8029,7 +8025,7 @@
         <v>0.55300000000000005</v>
       </c>
     </row>
-    <row r="118" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>202203</v>
       </c>
@@ -8104,7 +8100,7 @@
         <v>0.69699999999999995</v>
       </c>
     </row>
-    <row r="119" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>202204</v>
       </c>
@@ -8179,7 +8175,7 @@
         <v>0.56499999999999995</v>
       </c>
     </row>
-    <row r="120" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>202205</v>
       </c>
@@ -8254,7 +8250,7 @@
         <v>0.61499999999999999</v>
       </c>
     </row>
-    <row r="121" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>202206</v>
       </c>
@@ -8329,7 +8325,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="122" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>202207</v>
       </c>
@@ -8404,7 +8400,7 @@
         <v>0.61499999999999999</v>
       </c>
     </row>
-    <row r="123" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>202208</v>
       </c>
@@ -8479,7 +8475,7 @@
         <v>0.623</v>
       </c>
     </row>
-    <row r="124" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>202209</v>
       </c>
@@ -8554,7 +8550,7 @@
         <v>0.70799999999999996</v>
       </c>
     </row>
-    <row r="125" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>202210</v>
       </c>
@@ -8629,7 +8625,7 @@
         <v>0.60399999999999998</v>
       </c>
     </row>
-    <row r="126" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>202211</v>
       </c>
@@ -8704,7 +8700,7 @@
         <v>0.72299999999999998</v>
       </c>
     </row>
-    <row r="127" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>202212</v>
       </c>
@@ -8780,7 +8776,7 @@
         <v>0.73499999999999999</v>
       </c>
     </row>
-    <row r="128" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>202301</v>
       </c>
@@ -8854,6 +8850,84 @@
       <c r="Z128" s="13">
         <v>0.51600000000000001</v>
       </c>
+    </row>
+    <row r="129" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A129">
+        <v>202302</v>
+      </c>
+      <c r="B129">
+        <v>7439</v>
+      </c>
+      <c r="C129">
+        <v>239</v>
+      </c>
+      <c r="E129" s="2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G129">
+        <v>221</v>
+      </c>
+      <c r="H129" s="13">
+        <f t="shared" si="9"/>
+        <v>2.9708294125554511E-2</v>
+      </c>
+      <c r="J129">
+        <v>108</v>
+      </c>
+      <c r="K129" s="13">
+        <f t="shared" si="10"/>
+        <v>1.451808038714881E-2</v>
+      </c>
+      <c r="L129">
+        <v>927</v>
+      </c>
+      <c r="M129" s="13">
+        <f t="shared" si="11"/>
+        <v>0.12461352332302729</v>
+      </c>
+      <c r="N129">
+        <v>521</v>
+      </c>
+      <c r="O129" s="7">
+        <f t="shared" si="7"/>
+        <v>7.0036295200967866E-2</v>
+      </c>
+      <c r="P129">
+        <v>406</v>
+      </c>
+      <c r="Q129" s="14">
+        <f t="shared" si="12"/>
+        <v>5.4577228122059417E-2</v>
+      </c>
+      <c r="R129">
+        <v>6183</v>
+      </c>
+      <c r="S129" s="16">
+        <f t="shared" si="8"/>
+        <v>0.83116010216426939</v>
+      </c>
+      <c r="U129">
+        <v>115</v>
+      </c>
+      <c r="V129">
+        <v>572</v>
+      </c>
+      <c r="W129">
+        <v>2</v>
+      </c>
+      <c r="X129">
+        <v>415</v>
+      </c>
+      <c r="Y129">
+        <v>27</v>
+      </c>
+      <c r="Z129" s="13">
+        <v>0.57099999999999995</v>
+      </c>
+    </row>
+    <row r="130" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="Z130" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8870,24 +8944,24 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -8901,6 +8975,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010074D02CDF85BB3C43825BB38CAE9C40BF" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cc0fdec67fe3d070701ed30df77ff2e4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1ae9c94a-2673-46e1-b5a6-dc0c87eae04c" xmlns:ns3="5083af8e-c479-4bff-9f3e-2a380844c8c1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7af3f9d5f786658f4f8b979713004dd2" ns2:_="" ns3:_="">
     <xsd:import namespace="1ae9c94a-2673-46e1-b5a6-dc0c87eae04c"/>
@@ -9149,15 +9232,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -9170,6 +9244,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF887100-7B50-47F5-87D7-ABDD1957FF85}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{798DD26E-7447-4512-9765-D428BF88CEC4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9184,14 +9266,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF887100-7B50-47F5-87D7-ABDD1957FF85}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/EV/data/bilsalg.xlsx
+++ b/EV/data/bilsalg.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roberan\CICERO senter for klimaforskning\CM - Documents\SmallJobs\2019\201903_bilsalg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cicero.sharepoint.com/sites/Group-ClimateMitigation/Shared Documents/SmallJobs/2019/201903_bilsalg/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD3D75AD-2659-408E-A6B8-FC4EDAFF4E01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{CD3D75AD-2659-408E-A6B8-FC4EDAFF4E01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{704F1BAE-C1AE-4C20-AE4B-877AF6711732}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{94A590A3-A19D-4EDC-866B-407362CF22C8}"/>
   </bookViews>
@@ -804,10 +804,10 @@
   <dimension ref="A1:Z130"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="U106" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B107" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Z129" sqref="Z129"/>
+      <selection pane="bottomRight" activeCell="A130" sqref="A130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4870,7 +4870,7 @@
         <v>1923</v>
       </c>
       <c r="E72" s="2">
-        <f t="shared" ref="E72:E129" si="6">H72+K72+M72+S72</f>
+        <f t="shared" ref="E72:E130" si="6">H72+K72+M72+S72</f>
         <v>1</v>
       </c>
       <c r="H72" s="13">
@@ -6268,7 +6268,7 @@
         <v>2392</v>
       </c>
       <c r="O94" s="7">
-        <f t="shared" ref="O94:O129" si="7">N94/B94</f>
+        <f t="shared" ref="O94:O130" si="7">N94/B94</f>
         <v>0.19211308328648302</v>
       </c>
       <c r="Q94" s="14">
@@ -6410,7 +6410,7 @@
         <v>3444</v>
       </c>
       <c r="S96" s="16">
-        <f t="shared" ref="S96:S129" si="8">R96/B96</f>
+        <f t="shared" ref="S96:S130" si="8">R96/B96</f>
         <v>0.43060765191297823</v>
       </c>
       <c r="T96">
@@ -6528,21 +6528,21 @@
         <v>1249</v>
       </c>
       <c r="H98" s="13">
-        <f t="shared" ref="H98:H129" si="9">G98/B98</f>
+        <f t="shared" ref="H98:H130" si="9">G98/B98</f>
         <v>0.12781416291444944</v>
       </c>
       <c r="J98">
         <v>1026</v>
       </c>
       <c r="K98" s="13">
-        <f t="shared" ref="K98:K129" si="10">J98/B98</f>
+        <f t="shared" ref="K98:K130" si="10">J98/B98</f>
         <v>0.10499386000818665</v>
       </c>
       <c r="L98">
         <v>3089</v>
       </c>
       <c r="M98" s="13">
-        <f t="shared" ref="M98:M129" si="11">L98/B98</f>
+        <f t="shared" ref="M98:M130" si="11">L98/B98</f>
         <v>0.31610724519033973</v>
       </c>
       <c r="N98">
@@ -6556,7 +6556,7 @@
         <v>811</v>
       </c>
       <c r="Q98" s="14">
-        <f t="shared" ref="Q98:Q129" si="12">P98/B98</f>
+        <f t="shared" ref="Q98:Q130" si="12">P98/B98</f>
         <v>8.2992222677036431E-2</v>
       </c>
       <c r="R98">
@@ -8927,7 +8927,79 @@
       </c>
     </row>
     <row r="130" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="Z130" s="1"/>
+      <c r="A130">
+        <v>202303</v>
+      </c>
+      <c r="B130">
+        <v>19366</v>
+      </c>
+      <c r="C130">
+        <v>298</v>
+      </c>
+      <c r="E130" s="2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G130">
+        <v>331</v>
+      </c>
+      <c r="H130" s="13">
+        <f t="shared" si="9"/>
+        <v>1.7091810389342148E-2</v>
+      </c>
+      <c r="J130">
+        <v>196</v>
+      </c>
+      <c r="K130" s="13">
+        <f t="shared" si="10"/>
+        <v>1.0120830321181452E-2</v>
+      </c>
+      <c r="L130">
+        <v>2028</v>
+      </c>
+      <c r="M130" s="13">
+        <f t="shared" si="11"/>
+        <v>0.10471961169059175</v>
+      </c>
+      <c r="N130">
+        <v>837</v>
+      </c>
+      <c r="O130" s="7">
+        <f t="shared" si="7"/>
+        <v>4.3220076422596301E-2</v>
+      </c>
+      <c r="P130">
+        <v>1191</v>
+      </c>
+      <c r="Q130" s="14">
+        <f t="shared" si="12"/>
+        <v>6.1499535267995453E-2</v>
+      </c>
+      <c r="R130">
+        <v>16811</v>
+      </c>
+      <c r="S130" s="16">
+        <f t="shared" si="8"/>
+        <v>0.86806774759888461</v>
+      </c>
+      <c r="U130">
+        <v>131</v>
+      </c>
+      <c r="V130">
+        <v>1045</v>
+      </c>
+      <c r="W130">
+        <v>0</v>
+      </c>
+      <c r="X130">
+        <v>625</v>
+      </c>
+      <c r="Y130">
+        <v>119</v>
+      </c>
+      <c r="Z130" s="13">
+        <v>0.68100000000000005</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8984,6 +9056,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="5083af8e-c479-4bff-9f3e-2a380844c8c1" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1ae9c94a-2673-46e1-b5a6-dc0c87eae04c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010074D02CDF85BB3C43825BB38CAE9C40BF" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cc0fdec67fe3d070701ed30df77ff2e4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1ae9c94a-2673-46e1-b5a6-dc0c87eae04c" xmlns:ns3="5083af8e-c479-4bff-9f3e-2a380844c8c1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7af3f9d5f786658f4f8b979713004dd2" ns2:_="" ns3:_="">
     <xsd:import namespace="1ae9c94a-2673-46e1-b5a6-dc0c87eae04c"/>
@@ -9232,17 +9315,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="5083af8e-c479-4bff-9f3e-2a380844c8c1" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1ae9c94a-2673-46e1-b5a6-dc0c87eae04c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF887100-7B50-47F5-87D7-ABDD1957FF85}">
   <ds:schemaRefs>
@@ -9252,6 +9324,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F14F16C9-F74E-4CAA-B7B8-5E225606C761}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="5083af8e-c479-4bff-9f3e-2a380844c8c1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="1ae9c94a-2673-46e1-b5a6-dc0c87eae04c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{798DD26E-7447-4512-9765-D428BF88CEC4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9268,21 +9357,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F14F16C9-F74E-4CAA-B7B8-5E225606C761}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="5083af8e-c479-4bff-9f3e-2a380844c8c1"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="1ae9c94a-2673-46e1-b5a6-dc0c87eae04c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/EV/data/bilsalg.xlsx
+++ b/EV/data/bilsalg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cicero.sharepoint.com/sites/Group-ClimateMitigation/Shared Documents/SmallJobs/2019/201903_bilsalg/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{CD3D75AD-2659-408E-A6B8-FC4EDAFF4E01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{704F1BAE-C1AE-4C20-AE4B-877AF6711732}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="13_ncr:1_{CD3D75AD-2659-408E-A6B8-FC4EDAFF4E01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D06BDD83-7134-4C8A-99D1-CD04F3AD5455}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{94A590A3-A19D-4EDC-866B-407362CF22C8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{94A590A3-A19D-4EDC-866B-407362CF22C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -801,29 +801,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A23E6F8-FBFE-40A4-8A3E-1BC2B49C4A9C}">
-  <dimension ref="A1:Z130"/>
+  <dimension ref="A1:Z131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B107" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A130" sqref="A130"/>
+      <selection pane="bottomRight" activeCell="D131" sqref="D131"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="12" max="12" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="11.1796875" customWidth="1"/>
-    <col min="18" max="18" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.453125" customWidth="1"/>
-    <col min="22" max="22" width="10.453125" customWidth="1"/>
-    <col min="23" max="23" width="11.453125" customWidth="1"/>
+    <col min="12" max="12" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="11.21875" customWidth="1"/>
+    <col min="18" max="18" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.44140625" customWidth="1"/>
+    <col min="22" max="22" width="10.44140625" customWidth="1"/>
+    <col min="23" max="23" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="58.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>7</v>
       </c>
@@ -900,7 +900,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1994</v>
       </c>
@@ -929,7 +929,7 @@
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
     </row>
-    <row r="3" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1995</v>
       </c>
@@ -958,7 +958,7 @@
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
     </row>
-    <row r="4" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1996</v>
       </c>
@@ -987,7 +987,7 @@
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
     </row>
-    <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1997</v>
       </c>
@@ -1018,7 +1018,7 @@
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
     </row>
-    <row r="6" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1998</v>
       </c>
@@ -1047,7 +1047,7 @@
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
     </row>
-    <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1999</v>
       </c>
@@ -1076,7 +1076,7 @@
       <c r="X7" s="3"/>
       <c r="Y7" s="3"/>
     </row>
-    <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2000</v>
       </c>
@@ -1105,7 +1105,7 @@
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
     </row>
-    <row r="9" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2001</v>
       </c>
@@ -1134,7 +1134,7 @@
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
     </row>
-    <row r="10" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2002</v>
       </c>
@@ -1165,7 +1165,7 @@
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
     </row>
-    <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2003</v>
       </c>
@@ -1194,7 +1194,7 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
     </row>
-    <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2004</v>
       </c>
@@ -1229,7 +1229,7 @@
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
     </row>
-    <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>200512</v>
       </c>
@@ -1266,7 +1266,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2005</v>
       </c>
@@ -1305,7 +1305,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>200612</v>
       </c>
@@ -1342,7 +1342,7 @@
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
     </row>
-    <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2006</v>
       </c>
@@ -1377,7 +1377,7 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
     </row>
-    <row r="17" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>200712</v>
       </c>
@@ -1412,7 +1412,7 @@
       <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
     </row>
-    <row r="18" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2007</v>
       </c>
@@ -1455,7 +1455,7 @@
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
     </row>
-    <row r="19" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>200812</v>
       </c>
@@ -1492,7 +1492,7 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
     </row>
-    <row r="20" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2008</v>
       </c>
@@ -1536,7 +1536,7 @@
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
     </row>
-    <row r="21" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>200912</v>
       </c>
@@ -1571,7 +1571,7 @@
       <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
     </row>
-    <row r="22" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2009</v>
       </c>
@@ -1614,7 +1614,7 @@
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
     </row>
-    <row r="23" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>201012</v>
       </c>
@@ -1653,7 +1653,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="24" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2010</v>
       </c>
@@ -1703,7 +1703,7 @@
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
     </row>
-    <row r="25" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>201112</v>
       </c>
@@ -1754,7 +1754,7 @@
       <c r="X25" s="3"/>
       <c r="Y25" s="3"/>
     </row>
-    <row r="26" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2011</v>
       </c>
@@ -1806,7 +1806,7 @@
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
     </row>
-    <row r="27" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>201212</v>
       </c>
@@ -1858,7 +1858,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2012</v>
       </c>
@@ -1910,7 +1910,7 @@
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
     </row>
-    <row r="29" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>201312</v>
       </c>
@@ -1964,7 +1964,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="30" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2013</v>
       </c>
@@ -2029,7 +2029,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="31" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2014</v>
       </c>
@@ -2093,7 +2093,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>201501</v>
       </c>
@@ -2160,7 +2160,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>201502</v>
       </c>
@@ -2221,7 +2221,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>201503</v>
       </c>
@@ -2278,7 +2278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>201504</v>
       </c>
@@ -2336,7 +2336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>201505</v>
       </c>
@@ -2405,7 +2405,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>201506</v>
       </c>
@@ -2465,7 +2465,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>201507</v>
       </c>
@@ -2540,7 +2540,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>201508</v>
       </c>
@@ -2615,7 +2615,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>201509</v>
       </c>
@@ -2694,7 +2694,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>201510</v>
       </c>
@@ -2774,7 +2774,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>201511</v>
       </c>
@@ -2854,7 +2854,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>201512</v>
       </c>
@@ -2934,7 +2934,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>201601</v>
       </c>
@@ -2999,7 +2999,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>201602</v>
       </c>
@@ -3062,7 +3062,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>201603</v>
       </c>
@@ -3125,7 +3125,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>201604</v>
       </c>
@@ -3192,7 +3192,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>201605</v>
       </c>
@@ -3259,7 +3259,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>201606</v>
       </c>
@@ -3332,7 +3332,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>201607</v>
       </c>
@@ -3405,7 +3405,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>201608</v>
       </c>
@@ -3478,7 +3478,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>201609</v>
       </c>
@@ -3551,7 +3551,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>201610</v>
       </c>
@@ -3624,7 +3624,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>201611</v>
       </c>
@@ -3697,7 +3697,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>201612</v>
       </c>
@@ -3770,7 +3770,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>201701</v>
       </c>
@@ -3841,7 +3841,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>201702</v>
       </c>
@@ -3912,7 +3912,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>201703</v>
       </c>
@@ -3983,7 +3983,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>201704</v>
       </c>
@@ -4052,7 +4052,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>201705</v>
       </c>
@@ -4121,7 +4121,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>201706</v>
       </c>
@@ -4191,7 +4191,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>201707</v>
       </c>
@@ -4261,7 +4261,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>201708</v>
       </c>
@@ -4331,7 +4331,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>201709</v>
       </c>
@@ -4401,7 +4401,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>201710</v>
       </c>
@@ -4471,7 +4471,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>201711</v>
       </c>
@@ -4541,7 +4541,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>201712</v>
       </c>
@@ -4611,7 +4611,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>201801</v>
       </c>
@@ -4673,7 +4673,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>201802</v>
       </c>
@@ -4735,7 +4735,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>201803</v>
       </c>
@@ -4797,7 +4797,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>201804</v>
       </c>
@@ -4859,7 +4859,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>201805</v>
       </c>
@@ -4870,7 +4870,7 @@
         <v>1923</v>
       </c>
       <c r="E72" s="2">
-        <f t="shared" ref="E72:E130" si="6">H72+K72+M72+S72</f>
+        <f t="shared" ref="E72:E131" si="6">H72+K72+M72+S72</f>
         <v>1</v>
       </c>
       <c r="H72" s="13">
@@ -4921,7 +4921,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>201806</v>
       </c>
@@ -4983,7 +4983,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>201807</v>
       </c>
@@ -5045,7 +5045,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>201808</v>
       </c>
@@ -5107,7 +5107,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>201809</v>
       </c>
@@ -5169,7 +5169,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>201810</v>
       </c>
@@ -5231,7 +5231,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>201811</v>
       </c>
@@ -5293,7 +5293,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>201812</v>
       </c>
@@ -5355,7 +5355,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>201901</v>
       </c>
@@ -5420,7 +5420,7 @@
         <v>0.35699999999999998</v>
       </c>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>201902</v>
       </c>
@@ -5485,7 +5485,7 @@
         <v>0.44700000000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>201903</v>
       </c>
@@ -5550,7 +5550,7 @@
         <v>0.59899999999999998</v>
       </c>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>201904</v>
       </c>
@@ -5612,7 +5612,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>201905</v>
       </c>
@@ -5674,7 +5674,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>201906</v>
       </c>
@@ -5736,7 +5736,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>201907</v>
       </c>
@@ -5798,7 +5798,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>201908</v>
       </c>
@@ -5860,7 +5860,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>201909</v>
       </c>
@@ -5922,7 +5922,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>201910</v>
       </c>
@@ -5984,7 +5984,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>201911</v>
       </c>
@@ -6046,7 +6046,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>201912</v>
       </c>
@@ -6108,7 +6108,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>202001</v>
       </c>
@@ -6173,7 +6173,7 @@
         <v>0.44800000000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>202002</v>
       </c>
@@ -6238,7 +6238,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>202003</v>
       </c>
@@ -6268,7 +6268,7 @@
         <v>2392</v>
       </c>
       <c r="O94" s="7">
-        <f t="shared" ref="O94:O130" si="7">N94/B94</f>
+        <f t="shared" ref="O94:O131" si="7">N94/B94</f>
         <v>0.19211308328648302</v>
       </c>
       <c r="Q94" s="14">
@@ -6303,7 +6303,7 @@
         <v>0.48499999999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>202004</v>
       </c>
@@ -6368,7 +6368,7 @@
         <v>0.437</v>
       </c>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>202005</v>
       </c>
@@ -6410,7 +6410,7 @@
         <v>3444</v>
       </c>
       <c r="S96" s="16">
-        <f t="shared" ref="S96:S130" si="8">R96/B96</f>
+        <f t="shared" ref="S96:S131" si="8">R96/B96</f>
         <v>0.43060765191297823</v>
       </c>
       <c r="T96">
@@ -6435,7 +6435,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>202006</v>
       </c>
@@ -6510,7 +6510,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>202007</v>
       </c>
@@ -6528,21 +6528,21 @@
         <v>1249</v>
       </c>
       <c r="H98" s="13">
-        <f t="shared" ref="H98:H130" si="9">G98/B98</f>
+        <f t="shared" ref="H98:H131" si="9">G98/B98</f>
         <v>0.12781416291444944</v>
       </c>
       <c r="J98">
         <v>1026</v>
       </c>
       <c r="K98" s="13">
-        <f t="shared" ref="K98:K130" si="10">J98/B98</f>
+        <f t="shared" ref="K98:K131" si="10">J98/B98</f>
         <v>0.10499386000818665</v>
       </c>
       <c r="L98">
         <v>3089</v>
       </c>
       <c r="M98" s="13">
-        <f t="shared" ref="M98:M130" si="11">L98/B98</f>
+        <f t="shared" ref="M98:M131" si="11">L98/B98</f>
         <v>0.31610724519033973</v>
       </c>
       <c r="N98">
@@ -6556,7 +6556,7 @@
         <v>811</v>
       </c>
       <c r="Q98" s="14">
-        <f t="shared" ref="Q98:Q130" si="12">P98/B98</f>
+        <f t="shared" ref="Q98:Q131" si="12">P98/B98</f>
         <v>8.2992222677036431E-2</v>
       </c>
       <c r="R98">
@@ -6588,7 +6588,7 @@
         <v>0.48699999999999999</v>
       </c>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>202008</v>
       </c>
@@ -6666,7 +6666,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>202009</v>
       </c>
@@ -6744,7 +6744,7 @@
         <v>0.45800000000000002</v>
       </c>
     </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>202010</v>
       </c>
@@ -6819,7 +6819,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>202011</v>
       </c>
@@ -6894,7 +6894,7 @@
         <v>0.48399999999999999</v>
       </c>
     </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>202012</v>
       </c>
@@ -6969,7 +6969,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>202101</v>
       </c>
@@ -7047,7 +7047,7 @@
         <v>0.56399999999999995</v>
       </c>
     </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>202102</v>
       </c>
@@ -7122,7 +7122,7 @@
         <v>0.54300000000000004</v>
       </c>
     </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>202103</v>
       </c>
@@ -7197,7 +7197,7 @@
         <v>0.55600000000000005</v>
       </c>
     </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>202104</v>
       </c>
@@ -7272,7 +7272,7 @@
         <v>0.45200000000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>202105</v>
       </c>
@@ -7350,7 +7350,7 @@
         <v>0.48399999999999999</v>
       </c>
     </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>202106</v>
       </c>
@@ -7425,7 +7425,7 @@
         <v>0.502</v>
       </c>
     </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>202107</v>
       </c>
@@ -7500,7 +7500,7 @@
         <v>0.48099999999999998</v>
       </c>
     </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>202108</v>
       </c>
@@ -7575,7 +7575,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>202109</v>
       </c>
@@ -7650,7 +7650,7 @@
         <v>0.59099999999999997</v>
       </c>
     </row>
-    <row r="113" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>202110</v>
       </c>
@@ -7725,7 +7725,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="114" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>202111</v>
       </c>
@@ -7800,7 +7800,7 @@
         <v>0.55700000000000005</v>
       </c>
     </row>
-    <row r="115" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>202112</v>
       </c>
@@ -7875,7 +7875,7 @@
         <v>0.46600000000000003</v>
       </c>
     </row>
-    <row r="116" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>202201</v>
       </c>
@@ -7950,7 +7950,7 @@
         <v>0.60499999999999998</v>
       </c>
     </row>
-    <row r="117" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>202202</v>
       </c>
@@ -8025,7 +8025,7 @@
         <v>0.55300000000000005</v>
       </c>
     </row>
-    <row r="118" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>202203</v>
       </c>
@@ -8100,7 +8100,7 @@
         <v>0.69699999999999995</v>
       </c>
     </row>
-    <row r="119" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>202204</v>
       </c>
@@ -8175,7 +8175,7 @@
         <v>0.56499999999999995</v>
       </c>
     </row>
-    <row r="120" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>202205</v>
       </c>
@@ -8250,7 +8250,7 @@
         <v>0.61499999999999999</v>
       </c>
     </row>
-    <row r="121" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>202206</v>
       </c>
@@ -8325,7 +8325,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="122" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>202207</v>
       </c>
@@ -8400,7 +8400,7 @@
         <v>0.61499999999999999</v>
       </c>
     </row>
-    <row r="123" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>202208</v>
       </c>
@@ -8475,7 +8475,7 @@
         <v>0.623</v>
       </c>
     </row>
-    <row r="124" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>202209</v>
       </c>
@@ -8550,7 +8550,7 @@
         <v>0.70799999999999996</v>
       </c>
     </row>
-    <row r="125" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>202210</v>
       </c>
@@ -8625,7 +8625,7 @@
         <v>0.60399999999999998</v>
       </c>
     </row>
-    <row r="126" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>202211</v>
       </c>
@@ -8700,7 +8700,7 @@
         <v>0.72299999999999998</v>
       </c>
     </row>
-    <row r="127" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>202212</v>
       </c>
@@ -8776,7 +8776,7 @@
         <v>0.73499999999999999</v>
       </c>
     </row>
-    <row r="128" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>202301</v>
       </c>
@@ -8851,7 +8851,7 @@
         <v>0.51600000000000001</v>
       </c>
     </row>
-    <row r="129" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>202302</v>
       </c>
@@ -8926,7 +8926,7 @@
         <v>0.57099999999999995</v>
       </c>
     </row>
-    <row r="130" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>202303</v>
       </c>
@@ -8999,6 +8999,81 @@
       </c>
       <c r="Z130" s="13">
         <v>0.68100000000000005</v>
+      </c>
+    </row>
+    <row r="131" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>202304</v>
+      </c>
+      <c r="B131">
+        <v>8976</v>
+      </c>
+      <c r="C131">
+        <v>354</v>
+      </c>
+      <c r="E131" s="2">
+        <f t="shared" si="6"/>
+        <v>0.99977718360071299</v>
+      </c>
+      <c r="G131">
+        <v>289</v>
+      </c>
+      <c r="H131" s="13">
+        <f t="shared" si="9"/>
+        <v>3.2196969696969696E-2</v>
+      </c>
+      <c r="J131">
+        <v>112</v>
+      </c>
+      <c r="K131" s="13">
+        <f t="shared" si="10"/>
+        <v>1.2477718360071301E-2</v>
+      </c>
+      <c r="L131">
+        <v>1102</v>
+      </c>
+      <c r="M131" s="13">
+        <f t="shared" si="11"/>
+        <v>0.12277183600713013</v>
+      </c>
+      <c r="N131">
+        <v>703</v>
+      </c>
+      <c r="O131" s="7">
+        <f t="shared" si="7"/>
+        <v>7.8319964349376117E-2</v>
+      </c>
+      <c r="P131">
+        <v>399</v>
+      </c>
+      <c r="Q131" s="14">
+        <f t="shared" si="12"/>
+        <v>4.4451871657754008E-2</v>
+      </c>
+      <c r="R131">
+        <v>7471</v>
+      </c>
+      <c r="S131" s="16">
+        <f t="shared" si="8"/>
+        <v>0.83233065953654184</v>
+      </c>
+      <c r="U131">
+        <v>124</v>
+      </c>
+      <c r="V131">
+        <v>725</v>
+      </c>
+      <c r="W131">
+        <v>1</v>
+      </c>
+      <c r="X131">
+        <v>449</v>
+      </c>
+      <c r="Y131">
+        <v>163</v>
+      </c>
+      <c r="Z131" s="13">
+        <v>0.64100000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -9016,24 +9091,24 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -9047,26 +9122,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="5083af8e-c479-4bff-9f3e-2a380844c8c1" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1ae9c94a-2673-46e1-b5a6-dc0c87eae04c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010074D02CDF85BB3C43825BB38CAE9C40BF" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cc0fdec67fe3d070701ed30df77ff2e4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1ae9c94a-2673-46e1-b5a6-dc0c87eae04c" xmlns:ns3="5083af8e-c479-4bff-9f3e-2a380844c8c1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7af3f9d5f786658f4f8b979713004dd2" ns2:_="" ns3:_="">
     <xsd:import namespace="1ae9c94a-2673-46e1-b5a6-dc0c87eae04c"/>
@@ -9315,10 +9370,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="5083af8e-c479-4bff-9f3e-2a380844c8c1" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1ae9c94a-2673-46e1-b5a6-dc0c87eae04c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF887100-7B50-47F5-87D7-ABDD1957FF85}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{798DD26E-7447-4512-9765-D428BF88CEC4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1ae9c94a-2673-46e1-b5a6-dc0c87eae04c"/>
+    <ds:schemaRef ds:uri="5083af8e-c479-4bff-9f3e-2a380844c8c1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9341,20 +9427,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{798DD26E-7447-4512-9765-D428BF88CEC4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF887100-7B50-47F5-87D7-ABDD1957FF85}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1ae9c94a-2673-46e1-b5a6-dc0c87eae04c"/>
-    <ds:schemaRef ds:uri="5083af8e-c479-4bff-9f3e-2a380844c8c1"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/EV/data/bilsalg.xlsx
+++ b/EV/data/bilsalg.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cicero.sharepoint.com/sites/Group-ClimateMitigation/Shared Documents/SmallJobs/2019/201903_bilsalg/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roberan\CICERO senter for klimaforskning\CM - Documents\SmallJobs\2019\201903_bilsalg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="13_ncr:1_{CD3D75AD-2659-408E-A6B8-FC4EDAFF4E01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D06BDD83-7134-4C8A-99D1-CD04F3AD5455}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1095F43B-03EF-4864-A58D-4940FD46B4E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{94A590A3-A19D-4EDC-866B-407362CF22C8}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="17250" xr2:uid="{94A590A3-A19D-4EDC-866B-407362CF22C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -801,29 +801,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A23E6F8-FBFE-40A4-8A3E-1BC2B49C4A9C}">
-  <dimension ref="A1:Z131"/>
+  <dimension ref="A1:Z132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B107" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D131" sqref="D131"/>
+      <selection pane="bottomRight" activeCell="B132" sqref="B132"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="12" max="12" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="11.21875" customWidth="1"/>
-    <col min="18" max="18" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.44140625" customWidth="1"/>
-    <col min="22" max="22" width="10.44140625" customWidth="1"/>
-    <col min="23" max="23" width="11.44140625" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="11.28515625" customWidth="1"/>
+    <col min="18" max="18" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.42578125" customWidth="1"/>
+    <col min="22" max="22" width="10.42578125" customWidth="1"/>
+    <col min="23" max="23" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" ht="58.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>7</v>
       </c>
@@ -900,7 +900,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1994</v>
       </c>
@@ -929,7 +929,7 @@
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
     </row>
-    <row r="3" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1995</v>
       </c>
@@ -958,7 +958,7 @@
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
     </row>
-    <row r="4" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1996</v>
       </c>
@@ -987,7 +987,7 @@
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
     </row>
-    <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1997</v>
       </c>
@@ -1018,7 +1018,7 @@
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
     </row>
-    <row r="6" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1998</v>
       </c>
@@ -1047,7 +1047,7 @@
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
     </row>
-    <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1999</v>
       </c>
@@ -1076,7 +1076,7 @@
       <c r="X7" s="3"/>
       <c r="Y7" s="3"/>
     </row>
-    <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2000</v>
       </c>
@@ -1105,7 +1105,7 @@
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
     </row>
-    <row r="9" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2001</v>
       </c>
@@ -1134,7 +1134,7 @@
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
     </row>
-    <row r="10" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2002</v>
       </c>
@@ -1165,7 +1165,7 @@
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
     </row>
-    <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2003</v>
       </c>
@@ -1194,7 +1194,7 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
     </row>
-    <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2004</v>
       </c>
@@ -1229,7 +1229,7 @@
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
     </row>
-    <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>200512</v>
       </c>
@@ -1266,7 +1266,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2005</v>
       </c>
@@ -1305,7 +1305,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>200612</v>
       </c>
@@ -1342,7 +1342,7 @@
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
     </row>
-    <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2006</v>
       </c>
@@ -1377,7 +1377,7 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
     </row>
-    <row r="17" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>200712</v>
       </c>
@@ -1412,7 +1412,7 @@
       <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
     </row>
-    <row r="18" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2007</v>
       </c>
@@ -1455,7 +1455,7 @@
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
     </row>
-    <row r="19" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>200812</v>
       </c>
@@ -1492,7 +1492,7 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
     </row>
-    <row r="20" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2008</v>
       </c>
@@ -1536,7 +1536,7 @@
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
     </row>
-    <row r="21" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>200912</v>
       </c>
@@ -1571,7 +1571,7 @@
       <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
     </row>
-    <row r="22" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2009</v>
       </c>
@@ -1614,7 +1614,7 @@
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
     </row>
-    <row r="23" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>201012</v>
       </c>
@@ -1653,7 +1653,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="24" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2010</v>
       </c>
@@ -1703,7 +1703,7 @@
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
     </row>
-    <row r="25" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>201112</v>
       </c>
@@ -1754,7 +1754,7 @@
       <c r="X25" s="3"/>
       <c r="Y25" s="3"/>
     </row>
-    <row r="26" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2011</v>
       </c>
@@ -1806,7 +1806,7 @@
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
     </row>
-    <row r="27" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>201212</v>
       </c>
@@ -1858,7 +1858,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2012</v>
       </c>
@@ -1910,7 +1910,7 @@
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
     </row>
-    <row r="29" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>201312</v>
       </c>
@@ -1964,7 +1964,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="30" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2013</v>
       </c>
@@ -2029,7 +2029,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="31" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2014</v>
       </c>
@@ -2093,7 +2093,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>201501</v>
       </c>
@@ -2160,7 +2160,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>201502</v>
       </c>
@@ -2221,7 +2221,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>201503</v>
       </c>
@@ -2278,7 +2278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>201504</v>
       </c>
@@ -2336,7 +2336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>201505</v>
       </c>
@@ -2405,7 +2405,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>201506</v>
       </c>
@@ -2465,7 +2465,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>201507</v>
       </c>
@@ -2540,7 +2540,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>201508</v>
       </c>
@@ -2615,7 +2615,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>201509</v>
       </c>
@@ -2694,7 +2694,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>201510</v>
       </c>
@@ -2774,7 +2774,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>201511</v>
       </c>
@@ -2854,7 +2854,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>201512</v>
       </c>
@@ -2934,7 +2934,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>201601</v>
       </c>
@@ -2999,7 +2999,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>201602</v>
       </c>
@@ -3062,7 +3062,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>201603</v>
       </c>
@@ -3125,7 +3125,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>201604</v>
       </c>
@@ -3192,7 +3192,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>201605</v>
       </c>
@@ -3259,7 +3259,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>201606</v>
       </c>
@@ -3332,7 +3332,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>201607</v>
       </c>
@@ -3405,7 +3405,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>201608</v>
       </c>
@@ -3478,7 +3478,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>201609</v>
       </c>
@@ -3551,7 +3551,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>201610</v>
       </c>
@@ -3624,7 +3624,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>201611</v>
       </c>
@@ -3697,7 +3697,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>201612</v>
       </c>
@@ -3770,7 +3770,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>201701</v>
       </c>
@@ -3841,7 +3841,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>201702</v>
       </c>
@@ -3912,7 +3912,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>201703</v>
       </c>
@@ -3983,7 +3983,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>201704</v>
       </c>
@@ -4052,7 +4052,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>201705</v>
       </c>
@@ -4121,7 +4121,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>201706</v>
       </c>
@@ -4191,7 +4191,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>201707</v>
       </c>
@@ -4261,7 +4261,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>201708</v>
       </c>
@@ -4331,7 +4331,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>201709</v>
       </c>
@@ -4401,7 +4401,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>201710</v>
       </c>
@@ -4471,7 +4471,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>201711</v>
       </c>
@@ -4541,7 +4541,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>201712</v>
       </c>
@@ -4611,7 +4611,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>201801</v>
       </c>
@@ -4673,7 +4673,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>201802</v>
       </c>
@@ -4735,7 +4735,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>201803</v>
       </c>
@@ -4797,7 +4797,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>201804</v>
       </c>
@@ -4859,7 +4859,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>201805</v>
       </c>
@@ -4870,7 +4870,7 @@
         <v>1923</v>
       </c>
       <c r="E72" s="2">
-        <f t="shared" ref="E72:E131" si="6">H72+K72+M72+S72</f>
+        <f t="shared" ref="E72:E132" si="6">H72+K72+M72+S72</f>
         <v>1</v>
       </c>
       <c r="H72" s="13">
@@ -4921,7 +4921,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>201806</v>
       </c>
@@ -4983,7 +4983,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>201807</v>
       </c>
@@ -5045,7 +5045,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>201808</v>
       </c>
@@ -5107,7 +5107,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>201809</v>
       </c>
@@ -5169,7 +5169,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>201810</v>
       </c>
@@ -5231,7 +5231,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>201811</v>
       </c>
@@ -5293,7 +5293,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>201812</v>
       </c>
@@ -5355,7 +5355,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>201901</v>
       </c>
@@ -5420,7 +5420,7 @@
         <v>0.35699999999999998</v>
       </c>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>201902</v>
       </c>
@@ -5485,7 +5485,7 @@
         <v>0.44700000000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>201903</v>
       </c>
@@ -5550,7 +5550,7 @@
         <v>0.59899999999999998</v>
       </c>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>201904</v>
       </c>
@@ -5612,7 +5612,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>201905</v>
       </c>
@@ -5674,7 +5674,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>201906</v>
       </c>
@@ -5736,7 +5736,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>201907</v>
       </c>
@@ -5798,7 +5798,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>201908</v>
       </c>
@@ -5860,7 +5860,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>201909</v>
       </c>
@@ -5922,7 +5922,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>201910</v>
       </c>
@@ -5984,7 +5984,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>201911</v>
       </c>
@@ -6046,7 +6046,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>201912</v>
       </c>
@@ -6108,7 +6108,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>202001</v>
       </c>
@@ -6173,7 +6173,7 @@
         <v>0.44800000000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>202002</v>
       </c>
@@ -6238,7 +6238,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>202003</v>
       </c>
@@ -6268,7 +6268,7 @@
         <v>2392</v>
       </c>
       <c r="O94" s="7">
-        <f t="shared" ref="O94:O131" si="7">N94/B94</f>
+        <f t="shared" ref="O94:O132" si="7">N94/B94</f>
         <v>0.19211308328648302</v>
       </c>
       <c r="Q94" s="14">
@@ -6303,7 +6303,7 @@
         <v>0.48499999999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>202004</v>
       </c>
@@ -6368,7 +6368,7 @@
         <v>0.437</v>
       </c>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>202005</v>
       </c>
@@ -6410,7 +6410,7 @@
         <v>3444</v>
       </c>
       <c r="S96" s="16">
-        <f t="shared" ref="S96:S131" si="8">R96/B96</f>
+        <f t="shared" ref="S96:S132" si="8">R96/B96</f>
         <v>0.43060765191297823</v>
       </c>
       <c r="T96">
@@ -6435,7 +6435,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>202006</v>
       </c>
@@ -6510,7 +6510,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>202007</v>
       </c>
@@ -6528,21 +6528,21 @@
         <v>1249</v>
       </c>
       <c r="H98" s="13">
-        <f t="shared" ref="H98:H131" si="9">G98/B98</f>
+        <f t="shared" ref="H98:H132" si="9">G98/B98</f>
         <v>0.12781416291444944</v>
       </c>
       <c r="J98">
         <v>1026</v>
       </c>
       <c r="K98" s="13">
-        <f t="shared" ref="K98:K131" si="10">J98/B98</f>
+        <f t="shared" ref="K98:K132" si="10">J98/B98</f>
         <v>0.10499386000818665</v>
       </c>
       <c r="L98">
         <v>3089</v>
       </c>
       <c r="M98" s="13">
-        <f t="shared" ref="M98:M131" si="11">L98/B98</f>
+        <f t="shared" ref="M98:M132" si="11">L98/B98</f>
         <v>0.31610724519033973</v>
       </c>
       <c r="N98">
@@ -6556,7 +6556,7 @@
         <v>811</v>
       </c>
       <c r="Q98" s="14">
-        <f t="shared" ref="Q98:Q131" si="12">P98/B98</f>
+        <f t="shared" ref="Q98:Q132" si="12">P98/B98</f>
         <v>8.2992222677036431E-2</v>
       </c>
       <c r="R98">
@@ -6588,7 +6588,7 @@
         <v>0.48699999999999999</v>
       </c>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>202008</v>
       </c>
@@ -6666,7 +6666,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>202009</v>
       </c>
@@ -6744,7 +6744,7 @@
         <v>0.45800000000000002</v>
       </c>
     </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>202010</v>
       </c>
@@ -6819,7 +6819,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>202011</v>
       </c>
@@ -6894,7 +6894,7 @@
         <v>0.48399999999999999</v>
       </c>
     </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>202012</v>
       </c>
@@ -6969,7 +6969,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>202101</v>
       </c>
@@ -7047,7 +7047,7 @@
         <v>0.56399999999999995</v>
       </c>
     </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>202102</v>
       </c>
@@ -7122,7 +7122,7 @@
         <v>0.54300000000000004</v>
       </c>
     </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>202103</v>
       </c>
@@ -7197,7 +7197,7 @@
         <v>0.55600000000000005</v>
       </c>
     </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>202104</v>
       </c>
@@ -7272,7 +7272,7 @@
         <v>0.45200000000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>202105</v>
       </c>
@@ -7350,7 +7350,7 @@
         <v>0.48399999999999999</v>
       </c>
     </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>202106</v>
       </c>
@@ -7425,7 +7425,7 @@
         <v>0.502</v>
       </c>
     </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>202107</v>
       </c>
@@ -7500,7 +7500,7 @@
         <v>0.48099999999999998</v>
       </c>
     </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>202108</v>
       </c>
@@ -7575,7 +7575,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>202109</v>
       </c>
@@ -7650,7 +7650,7 @@
         <v>0.59099999999999997</v>
       </c>
     </row>
-    <row r="113" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>202110</v>
       </c>
@@ -7725,7 +7725,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="114" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>202111</v>
       </c>
@@ -7800,7 +7800,7 @@
         <v>0.55700000000000005</v>
       </c>
     </row>
-    <row r="115" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>202112</v>
       </c>
@@ -7875,7 +7875,7 @@
         <v>0.46600000000000003</v>
       </c>
     </row>
-    <row r="116" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>202201</v>
       </c>
@@ -7950,7 +7950,7 @@
         <v>0.60499999999999998</v>
       </c>
     </row>
-    <row r="117" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>202202</v>
       </c>
@@ -8025,7 +8025,7 @@
         <v>0.55300000000000005</v>
       </c>
     </row>
-    <row r="118" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>202203</v>
       </c>
@@ -8100,7 +8100,7 @@
         <v>0.69699999999999995</v>
       </c>
     </row>
-    <row r="119" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>202204</v>
       </c>
@@ -8175,7 +8175,7 @@
         <v>0.56499999999999995</v>
       </c>
     </row>
-    <row r="120" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>202205</v>
       </c>
@@ -8250,7 +8250,7 @@
         <v>0.61499999999999999</v>
       </c>
     </row>
-    <row r="121" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>202206</v>
       </c>
@@ -8325,7 +8325,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="122" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>202207</v>
       </c>
@@ -8400,7 +8400,7 @@
         <v>0.61499999999999999</v>
       </c>
     </row>
-    <row r="123" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>202208</v>
       </c>
@@ -8475,7 +8475,7 @@
         <v>0.623</v>
       </c>
     </row>
-    <row r="124" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>202209</v>
       </c>
@@ -8550,7 +8550,7 @@
         <v>0.70799999999999996</v>
       </c>
     </row>
-    <row r="125" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>202210</v>
       </c>
@@ -8625,7 +8625,7 @@
         <v>0.60399999999999998</v>
       </c>
     </row>
-    <row r="126" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>202211</v>
       </c>
@@ -8700,7 +8700,7 @@
         <v>0.72299999999999998</v>
       </c>
     </row>
-    <row r="127" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>202212</v>
       </c>
@@ -8776,7 +8776,7 @@
         <v>0.73499999999999999</v>
       </c>
     </row>
-    <row r="128" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>202301</v>
       </c>
@@ -8851,7 +8851,7 @@
         <v>0.51600000000000001</v>
       </c>
     </row>
-    <row r="129" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>202302</v>
       </c>
@@ -8926,7 +8926,7 @@
         <v>0.57099999999999995</v>
       </c>
     </row>
-    <row r="130" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>202303</v>
       </c>
@@ -9001,7 +9001,7 @@
         <v>0.68100000000000005</v>
       </c>
     </row>
-    <row r="131" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>202304</v>
       </c>
@@ -9074,6 +9074,81 @@
       </c>
       <c r="Z131" s="13">
         <v>0.64100000000000001</v>
+      </c>
+    </row>
+    <row r="132" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>202305</v>
+      </c>
+      <c r="B132">
+        <v>13342</v>
+      </c>
+      <c r="C132">
+        <v>353</v>
+      </c>
+      <c r="E132" s="2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G132">
+        <v>278</v>
+      </c>
+      <c r="H132" s="13">
+        <f t="shared" si="9"/>
+        <v>2.0836456303402789E-2</v>
+      </c>
+      <c r="J132">
+        <v>157</v>
+      </c>
+      <c r="K132" s="13">
+        <f t="shared" si="10"/>
+        <v>1.176735122170589E-2</v>
+      </c>
+      <c r="L132">
+        <v>2134</v>
+      </c>
+      <c r="M132" s="13">
+        <f t="shared" si="11"/>
+        <v>0.15994603507719982</v>
+      </c>
+      <c r="N132">
+        <v>703</v>
+      </c>
+      <c r="O132" s="7">
+        <f t="shared" si="7"/>
+        <v>5.2690751011842306E-2</v>
+      </c>
+      <c r="P132">
+        <v>399</v>
+      </c>
+      <c r="Q132" s="14">
+        <f t="shared" si="12"/>
+        <v>2.9905561385099685E-2</v>
+      </c>
+      <c r="R132">
+        <v>10773</v>
+      </c>
+      <c r="S132" s="16">
+        <f t="shared" si="8"/>
+        <v>0.80745015739769155</v>
+      </c>
+      <c r="U132">
+        <v>110</v>
+      </c>
+      <c r="V132">
+        <v>664</v>
+      </c>
+      <c r="W132">
+        <v>3</v>
+      </c>
+      <c r="X132">
+        <v>504</v>
+      </c>
+      <c r="Y132">
+        <v>66</v>
+      </c>
+      <c r="Z132" s="13">
+        <v>0.64600000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -9091,24 +9166,24 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -9371,6 +9446,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="5083af8e-c479-4bff-9f3e-2a380844c8c1" xsi:nil="true"/>
@@ -9379,15 +9463,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9410,6 +9485,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF887100-7B50-47F5-87D7-ABDD1957FF85}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F14F16C9-F74E-4CAA-B7B8-5E225606C761}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -9424,12 +9507,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF887100-7B50-47F5-87D7-ABDD1957FF85}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/EV/data/bilsalg.xlsx
+++ b/EV/data/bilsalg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roberan\CICERO senter for klimaforskning\CM - Documents\SmallJobs\2019\201903_bilsalg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1095F43B-03EF-4864-A58D-4940FD46B4E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F044DC10-8177-49F4-BFAA-5C47B4867FF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="17250" xr2:uid="{94A590A3-A19D-4EDC-866B-407362CF22C8}"/>
+    <workbookView xWindow="15360" yWindow="0" windowWidth="15360" windowHeight="16680" xr2:uid="{94A590A3-A19D-4EDC-866B-407362CF22C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -804,26 +804,26 @@
   <dimension ref="A1:Z132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B107" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="I117" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B132" sqref="B132"/>
+      <selection pane="bottomRight" activeCell="N133" sqref="N133"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="12" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="11.28515625" customWidth="1"/>
-    <col min="18" max="18" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.42578125" customWidth="1"/>
-    <col min="22" max="22" width="10.42578125" customWidth="1"/>
-    <col min="23" max="23" width="11.42578125" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="11.33203125" customWidth="1"/>
+    <col min="18" max="18" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.44140625" customWidth="1"/>
+    <col min="22" max="22" width="10.44140625" customWidth="1"/>
+    <col min="23" max="23" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="58.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="58.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>7</v>
       </c>
@@ -900,7 +900,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1994</v>
       </c>
@@ -929,7 +929,7 @@
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
     </row>
-    <row r="3" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1995</v>
       </c>
@@ -958,7 +958,7 @@
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
     </row>
-    <row r="4" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1996</v>
       </c>
@@ -987,7 +987,7 @@
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
     </row>
-    <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1997</v>
       </c>
@@ -1018,7 +1018,7 @@
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
     </row>
-    <row r="6" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1998</v>
       </c>
@@ -1047,7 +1047,7 @@
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
     </row>
-    <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1999</v>
       </c>
@@ -1076,7 +1076,7 @@
       <c r="X7" s="3"/>
       <c r="Y7" s="3"/>
     </row>
-    <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2000</v>
       </c>
@@ -1105,7 +1105,7 @@
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
     </row>
-    <row r="9" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2001</v>
       </c>
@@ -1134,7 +1134,7 @@
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
     </row>
-    <row r="10" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2002</v>
       </c>
@@ -1165,7 +1165,7 @@
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
     </row>
-    <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2003</v>
       </c>
@@ -1194,7 +1194,7 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
     </row>
-    <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2004</v>
       </c>
@@ -1229,7 +1229,7 @@
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
     </row>
-    <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>200512</v>
       </c>
@@ -1266,7 +1266,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2005</v>
       </c>
@@ -1305,7 +1305,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>200612</v>
       </c>
@@ -1342,7 +1342,7 @@
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
     </row>
-    <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2006</v>
       </c>
@@ -1377,7 +1377,7 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
     </row>
-    <row r="17" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>200712</v>
       </c>
@@ -1412,7 +1412,7 @@
       <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
     </row>
-    <row r="18" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2007</v>
       </c>
@@ -1455,7 +1455,7 @@
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
     </row>
-    <row r="19" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>200812</v>
       </c>
@@ -1492,7 +1492,7 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
     </row>
-    <row r="20" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2008</v>
       </c>
@@ -1536,7 +1536,7 @@
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
     </row>
-    <row r="21" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>200912</v>
       </c>
@@ -1571,7 +1571,7 @@
       <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
     </row>
-    <row r="22" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2009</v>
       </c>
@@ -1614,7 +1614,7 @@
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
     </row>
-    <row r="23" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>201012</v>
       </c>
@@ -1653,7 +1653,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="24" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2010</v>
       </c>
@@ -1703,7 +1703,7 @@
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
     </row>
-    <row r="25" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>201112</v>
       </c>
@@ -1754,7 +1754,7 @@
       <c r="X25" s="3"/>
       <c r="Y25" s="3"/>
     </row>
-    <row r="26" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2011</v>
       </c>
@@ -1806,7 +1806,7 @@
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
     </row>
-    <row r="27" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>201212</v>
       </c>
@@ -1858,7 +1858,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2012</v>
       </c>
@@ -1910,7 +1910,7 @@
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
     </row>
-    <row r="29" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>201312</v>
       </c>
@@ -1964,7 +1964,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="30" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2013</v>
       </c>
@@ -2029,7 +2029,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="31" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2014</v>
       </c>
@@ -2093,7 +2093,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>201501</v>
       </c>
@@ -2160,7 +2160,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>201502</v>
       </c>
@@ -2221,7 +2221,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>201503</v>
       </c>
@@ -2278,7 +2278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>201504</v>
       </c>
@@ -2336,7 +2336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>201505</v>
       </c>
@@ -2405,7 +2405,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>201506</v>
       </c>
@@ -2465,7 +2465,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>201507</v>
       </c>
@@ -2540,7 +2540,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>201508</v>
       </c>
@@ -2615,7 +2615,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>201509</v>
       </c>
@@ -2694,7 +2694,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>201510</v>
       </c>
@@ -2774,7 +2774,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>201511</v>
       </c>
@@ -2854,7 +2854,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>201512</v>
       </c>
@@ -2934,7 +2934,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>201601</v>
       </c>
@@ -2999,7 +2999,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>201602</v>
       </c>
@@ -3062,7 +3062,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>201603</v>
       </c>
@@ -3125,7 +3125,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>201604</v>
       </c>
@@ -3192,7 +3192,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>201605</v>
       </c>
@@ -3259,7 +3259,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>201606</v>
       </c>
@@ -3332,7 +3332,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>201607</v>
       </c>
@@ -3405,7 +3405,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>201608</v>
       </c>
@@ -3478,7 +3478,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>201609</v>
       </c>
@@ -3551,7 +3551,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>201610</v>
       </c>
@@ -3624,7 +3624,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>201611</v>
       </c>
@@ -3697,7 +3697,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>201612</v>
       </c>
@@ -3770,7 +3770,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>201701</v>
       </c>
@@ -3841,7 +3841,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>201702</v>
       </c>
@@ -3912,7 +3912,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>201703</v>
       </c>
@@ -3983,7 +3983,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>201704</v>
       </c>
@@ -4052,7 +4052,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>201705</v>
       </c>
@@ -4121,7 +4121,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>201706</v>
       </c>
@@ -4191,7 +4191,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>201707</v>
       </c>
@@ -4261,7 +4261,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>201708</v>
       </c>
@@ -4331,7 +4331,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>201709</v>
       </c>
@@ -4401,7 +4401,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>201710</v>
       </c>
@@ -4471,7 +4471,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>201711</v>
       </c>
@@ -4541,7 +4541,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>201712</v>
       </c>
@@ -4611,7 +4611,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>201801</v>
       </c>
@@ -4673,7 +4673,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>201802</v>
       </c>
@@ -4735,7 +4735,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>201803</v>
       </c>
@@ -4797,7 +4797,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>201804</v>
       </c>
@@ -4859,7 +4859,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>201805</v>
       </c>
@@ -4921,7 +4921,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>201806</v>
       </c>
@@ -4983,7 +4983,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>201807</v>
       </c>
@@ -5045,7 +5045,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>201808</v>
       </c>
@@ -5107,7 +5107,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>201809</v>
       </c>
@@ -5169,7 +5169,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>201810</v>
       </c>
@@ -5231,7 +5231,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>201811</v>
       </c>
@@ -5293,7 +5293,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>201812</v>
       </c>
@@ -5355,7 +5355,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>201901</v>
       </c>
@@ -5420,7 +5420,7 @@
         <v>0.35699999999999998</v>
       </c>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>201902</v>
       </c>
@@ -5485,7 +5485,7 @@
         <v>0.44700000000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>201903</v>
       </c>
@@ -5550,7 +5550,7 @@
         <v>0.59899999999999998</v>
       </c>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>201904</v>
       </c>
@@ -5612,7 +5612,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>201905</v>
       </c>
@@ -5674,7 +5674,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>201906</v>
       </c>
@@ -5736,7 +5736,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>201907</v>
       </c>
@@ -5798,7 +5798,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>201908</v>
       </c>
@@ -5860,7 +5860,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>201909</v>
       </c>
@@ -5922,7 +5922,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>201910</v>
       </c>
@@ -5984,7 +5984,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>201911</v>
       </c>
@@ -6046,7 +6046,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>201912</v>
       </c>
@@ -6108,7 +6108,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>202001</v>
       </c>
@@ -6173,7 +6173,7 @@
         <v>0.44800000000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>202002</v>
       </c>
@@ -6238,7 +6238,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>202003</v>
       </c>
@@ -6303,7 +6303,7 @@
         <v>0.48499999999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>202004</v>
       </c>
@@ -6368,7 +6368,7 @@
         <v>0.437</v>
       </c>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>202005</v>
       </c>
@@ -6435,7 +6435,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>202006</v>
       </c>
@@ -6510,7 +6510,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>202007</v>
       </c>
@@ -6588,7 +6588,7 @@
         <v>0.48699999999999999</v>
       </c>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>202008</v>
       </c>
@@ -6666,7 +6666,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>202009</v>
       </c>
@@ -6744,7 +6744,7 @@
         <v>0.45800000000000002</v>
       </c>
     </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>202010</v>
       </c>
@@ -6819,7 +6819,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>202011</v>
       </c>
@@ -6894,7 +6894,7 @@
         <v>0.48399999999999999</v>
       </c>
     </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>202012</v>
       </c>
@@ -6969,7 +6969,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>202101</v>
       </c>
@@ -7047,7 +7047,7 @@
         <v>0.56399999999999995</v>
       </c>
     </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>202102</v>
       </c>
@@ -7122,7 +7122,7 @@
         <v>0.54300000000000004</v>
       </c>
     </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>202103</v>
       </c>
@@ -7197,7 +7197,7 @@
         <v>0.55600000000000005</v>
       </c>
     </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>202104</v>
       </c>
@@ -7272,7 +7272,7 @@
         <v>0.45200000000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>202105</v>
       </c>
@@ -7350,7 +7350,7 @@
         <v>0.48399999999999999</v>
       </c>
     </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>202106</v>
       </c>
@@ -7425,7 +7425,7 @@
         <v>0.502</v>
       </c>
     </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>202107</v>
       </c>
@@ -7500,7 +7500,7 @@
         <v>0.48099999999999998</v>
       </c>
     </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>202108</v>
       </c>
@@ -7575,7 +7575,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>202109</v>
       </c>
@@ -7650,7 +7650,7 @@
         <v>0.59099999999999997</v>
       </c>
     </row>
-    <row r="113" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>202110</v>
       </c>
@@ -7725,7 +7725,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="114" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>202111</v>
       </c>
@@ -7800,7 +7800,7 @@
         <v>0.55700000000000005</v>
       </c>
     </row>
-    <row r="115" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>202112</v>
       </c>
@@ -7875,7 +7875,7 @@
         <v>0.46600000000000003</v>
       </c>
     </row>
-    <row r="116" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>202201</v>
       </c>
@@ -7950,7 +7950,7 @@
         <v>0.60499999999999998</v>
       </c>
     </row>
-    <row r="117" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>202202</v>
       </c>
@@ -8025,7 +8025,7 @@
         <v>0.55300000000000005</v>
       </c>
     </row>
-    <row r="118" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>202203</v>
       </c>
@@ -8100,7 +8100,7 @@
         <v>0.69699999999999995</v>
       </c>
     </row>
-    <row r="119" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>202204</v>
       </c>
@@ -8175,7 +8175,7 @@
         <v>0.56499999999999995</v>
       </c>
     </row>
-    <row r="120" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>202205</v>
       </c>
@@ -8250,7 +8250,7 @@
         <v>0.61499999999999999</v>
       </c>
     </row>
-    <row r="121" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>202206</v>
       </c>
@@ -8325,7 +8325,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="122" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>202207</v>
       </c>
@@ -8400,7 +8400,7 @@
         <v>0.61499999999999999</v>
       </c>
     </row>
-    <row r="123" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>202208</v>
       </c>
@@ -8475,7 +8475,7 @@
         <v>0.623</v>
       </c>
     </row>
-    <row r="124" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>202209</v>
       </c>
@@ -8550,7 +8550,7 @@
         <v>0.70799999999999996</v>
       </c>
     </row>
-    <row r="125" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>202210</v>
       </c>
@@ -8625,7 +8625,7 @@
         <v>0.60399999999999998</v>
       </c>
     </row>
-    <row r="126" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>202211</v>
       </c>
@@ -8700,7 +8700,7 @@
         <v>0.72299999999999998</v>
       </c>
     </row>
-    <row r="127" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>202212</v>
       </c>
@@ -8776,7 +8776,7 @@
         <v>0.73499999999999999</v>
       </c>
     </row>
-    <row r="128" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>202301</v>
       </c>
@@ -8851,7 +8851,7 @@
         <v>0.51600000000000001</v>
       </c>
     </row>
-    <row r="129" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>202302</v>
       </c>
@@ -8926,7 +8926,7 @@
         <v>0.57099999999999995</v>
       </c>
     </row>
-    <row r="130" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>202303</v>
       </c>
@@ -9001,7 +9001,7 @@
         <v>0.68100000000000005</v>
       </c>
     </row>
-    <row r="131" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>202304</v>
       </c>
@@ -9076,7 +9076,7 @@
         <v>0.64100000000000001</v>
       </c>
     </row>
-    <row r="132" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>202305</v>
       </c>
@@ -9112,18 +9112,18 @@
         <v>0.15994603507719982</v>
       </c>
       <c r="N132">
-        <v>703</v>
+        <v>1092</v>
       </c>
       <c r="O132" s="7">
         <f t="shared" si="7"/>
-        <v>5.2690751011842306E-2</v>
+        <v>8.1846799580272828E-2</v>
       </c>
       <c r="P132">
-        <v>399</v>
+        <v>1041</v>
       </c>
       <c r="Q132" s="14">
         <f t="shared" si="12"/>
-        <v>2.9905561385099685E-2</v>
+        <v>7.8024284215260087E-2</v>
       </c>
       <c r="R132">
         <v>10773</v>
@@ -9166,24 +9166,24 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -9446,15 +9446,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="5083af8e-c479-4bff-9f3e-2a380844c8c1" xsi:nil="true"/>
@@ -9463,6 +9454,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9485,14 +9485,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF887100-7B50-47F5-87D7-ABDD1957FF85}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F14F16C9-F74E-4CAA-B7B8-5E225606C761}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -9507,4 +9499,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF887100-7B50-47F5-87D7-ABDD1957FF85}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/EV/data/bilsalg.xlsx
+++ b/EV/data/bilsalg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roberan\CICERO senter for klimaforskning\CM - Documents\SmallJobs\2019\201903_bilsalg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F044DC10-8177-49F4-BFAA-5C47B4867FF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF9E3489-096F-45AE-8417-3B18E058C05D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15360" yWindow="0" windowWidth="15360" windowHeight="16680" xr2:uid="{94A590A3-A19D-4EDC-866B-407362CF22C8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="11500" xr2:uid="{94A590A3-A19D-4EDC-866B-407362CF22C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -801,29 +801,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A23E6F8-FBFE-40A4-8A3E-1BC2B49C4A9C}">
-  <dimension ref="A1:Z132"/>
+  <dimension ref="A1:Z133"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="I117" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D117" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N133" sqref="N133"/>
+      <selection pane="bottomRight" activeCell="H133" sqref="H133"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="12" max="12" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="11.33203125" customWidth="1"/>
-    <col min="18" max="18" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.44140625" customWidth="1"/>
-    <col min="22" max="22" width="10.44140625" customWidth="1"/>
-    <col min="23" max="23" width="11.44140625" customWidth="1"/>
+    <col min="12" max="12" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="11.36328125" customWidth="1"/>
+    <col min="18" max="18" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.453125" customWidth="1"/>
+    <col min="22" max="22" width="10.453125" customWidth="1"/>
+    <col min="23" max="23" width="11.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="58.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" ht="59" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="3" t="s">
         <v>7</v>
       </c>
@@ -900,7 +900,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1994</v>
       </c>
@@ -929,7 +929,7 @@
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
     </row>
-    <row r="3" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1995</v>
       </c>
@@ -958,7 +958,7 @@
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
     </row>
-    <row r="4" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1996</v>
       </c>
@@ -987,7 +987,7 @@
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
     </row>
-    <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1997</v>
       </c>
@@ -1018,7 +1018,7 @@
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
     </row>
-    <row r="6" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1998</v>
       </c>
@@ -1047,7 +1047,7 @@
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
     </row>
-    <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1999</v>
       </c>
@@ -1076,7 +1076,7 @@
       <c r="X7" s="3"/>
       <c r="Y7" s="3"/>
     </row>
-    <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2000</v>
       </c>
@@ -1105,7 +1105,7 @@
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
     </row>
-    <row r="9" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2001</v>
       </c>
@@ -1134,7 +1134,7 @@
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
     </row>
-    <row r="10" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2002</v>
       </c>
@@ -1165,7 +1165,7 @@
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
     </row>
-    <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2003</v>
       </c>
@@ -1194,7 +1194,7 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
     </row>
-    <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2004</v>
       </c>
@@ -1229,7 +1229,7 @@
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
     </row>
-    <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>200512</v>
       </c>
@@ -1266,7 +1266,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2005</v>
       </c>
@@ -1305,7 +1305,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>200612</v>
       </c>
@@ -1342,7 +1342,7 @@
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
     </row>
-    <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2006</v>
       </c>
@@ -1377,7 +1377,7 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
     </row>
-    <row r="17" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>200712</v>
       </c>
@@ -1412,7 +1412,7 @@
       <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
     </row>
-    <row r="18" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>2007</v>
       </c>
@@ -1455,7 +1455,7 @@
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
     </row>
-    <row r="19" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>200812</v>
       </c>
@@ -1492,7 +1492,7 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
     </row>
-    <row r="20" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>2008</v>
       </c>
@@ -1536,7 +1536,7 @@
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
     </row>
-    <row r="21" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>200912</v>
       </c>
@@ -1571,7 +1571,7 @@
       <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
     </row>
-    <row r="22" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>2009</v>
       </c>
@@ -1614,7 +1614,7 @@
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
     </row>
-    <row r="23" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>201012</v>
       </c>
@@ -1653,7 +1653,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="24" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>2010</v>
       </c>
@@ -1703,7 +1703,7 @@
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
     </row>
-    <row r="25" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>201112</v>
       </c>
@@ -1754,7 +1754,7 @@
       <c r="X25" s="3"/>
       <c r="Y25" s="3"/>
     </row>
-    <row r="26" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>2011</v>
       </c>
@@ -1806,7 +1806,7 @@
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
     </row>
-    <row r="27" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>201212</v>
       </c>
@@ -1858,7 +1858,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>2012</v>
       </c>
@@ -1910,7 +1910,7 @@
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
     </row>
-    <row r="29" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>201312</v>
       </c>
@@ -1964,7 +1964,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="30" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>2013</v>
       </c>
@@ -2029,7 +2029,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="31" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>2014</v>
       </c>
@@ -2093,7 +2093,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>201501</v>
       </c>
@@ -2160,7 +2160,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>201502</v>
       </c>
@@ -2221,7 +2221,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>201503</v>
       </c>
@@ -2278,7 +2278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>201504</v>
       </c>
@@ -2336,7 +2336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>201505</v>
       </c>
@@ -2405,7 +2405,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>201506</v>
       </c>
@@ -2465,7 +2465,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>201507</v>
       </c>
@@ -2540,7 +2540,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>201508</v>
       </c>
@@ -2615,7 +2615,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>201509</v>
       </c>
@@ -2694,7 +2694,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>201510</v>
       </c>
@@ -2774,7 +2774,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>201511</v>
       </c>
@@ -2854,7 +2854,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>201512</v>
       </c>
@@ -2934,7 +2934,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>201601</v>
       </c>
@@ -2999,7 +2999,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>201602</v>
       </c>
@@ -3062,7 +3062,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>201603</v>
       </c>
@@ -3125,7 +3125,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>201604</v>
       </c>
@@ -3192,7 +3192,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>201605</v>
       </c>
@@ -3259,7 +3259,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>201606</v>
       </c>
@@ -3332,7 +3332,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>201607</v>
       </c>
@@ -3405,7 +3405,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>201608</v>
       </c>
@@ -3478,7 +3478,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>201609</v>
       </c>
@@ -3551,7 +3551,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>201610</v>
       </c>
@@ -3624,7 +3624,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>201611</v>
       </c>
@@ -3697,7 +3697,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>201612</v>
       </c>
@@ -3770,7 +3770,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>201701</v>
       </c>
@@ -3841,7 +3841,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>201702</v>
       </c>
@@ -3912,7 +3912,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>201703</v>
       </c>
@@ -3983,7 +3983,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>201704</v>
       </c>
@@ -4052,7 +4052,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>201705</v>
       </c>
@@ -4121,7 +4121,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>201706</v>
       </c>
@@ -4191,7 +4191,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>201707</v>
       </c>
@@ -4261,7 +4261,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>201708</v>
       </c>
@@ -4331,7 +4331,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>201709</v>
       </c>
@@ -4401,7 +4401,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>201710</v>
       </c>
@@ -4471,7 +4471,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>201711</v>
       </c>
@@ -4541,7 +4541,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>201712</v>
       </c>
@@ -4611,7 +4611,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>201801</v>
       </c>
@@ -4673,7 +4673,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>201802</v>
       </c>
@@ -4735,7 +4735,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>201803</v>
       </c>
@@ -4797,7 +4797,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>201804</v>
       </c>
@@ -4859,7 +4859,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>201805</v>
       </c>
@@ -4870,7 +4870,7 @@
         <v>1923</v>
       </c>
       <c r="E72" s="2">
-        <f t="shared" ref="E72:E132" si="6">H72+K72+M72+S72</f>
+        <f t="shared" ref="E72:E133" si="6">H72+K72+M72+S72</f>
         <v>1</v>
       </c>
       <c r="H72" s="13">
@@ -4921,7 +4921,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>201806</v>
       </c>
@@ -4983,7 +4983,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>201807</v>
       </c>
@@ -5045,7 +5045,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>201808</v>
       </c>
@@ -5107,7 +5107,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>201809</v>
       </c>
@@ -5169,7 +5169,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>201810</v>
       </c>
@@ -5231,7 +5231,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>201811</v>
       </c>
@@ -5293,7 +5293,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>201812</v>
       </c>
@@ -5355,7 +5355,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>201901</v>
       </c>
@@ -5420,7 +5420,7 @@
         <v>0.35699999999999998</v>
       </c>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>201902</v>
       </c>
@@ -5485,7 +5485,7 @@
         <v>0.44700000000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>201903</v>
       </c>
@@ -5550,7 +5550,7 @@
         <v>0.59899999999999998</v>
       </c>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>201904</v>
       </c>
@@ -5612,7 +5612,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>201905</v>
       </c>
@@ -5674,7 +5674,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>201906</v>
       </c>
@@ -5736,7 +5736,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>201907</v>
       </c>
@@ -5798,7 +5798,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>201908</v>
       </c>
@@ -5860,7 +5860,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>201909</v>
       </c>
@@ -5922,7 +5922,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>201910</v>
       </c>
@@ -5984,7 +5984,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>201911</v>
       </c>
@@ -6046,7 +6046,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>201912</v>
       </c>
@@ -6108,7 +6108,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>202001</v>
       </c>
@@ -6173,7 +6173,7 @@
         <v>0.44800000000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>202002</v>
       </c>
@@ -6238,7 +6238,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>202003</v>
       </c>
@@ -6268,7 +6268,7 @@
         <v>2392</v>
       </c>
       <c r="O94" s="7">
-        <f t="shared" ref="O94:O132" si="7">N94/B94</f>
+        <f t="shared" ref="O94:O133" si="7">N94/B94</f>
         <v>0.19211308328648302</v>
       </c>
       <c r="Q94" s="14">
@@ -6303,7 +6303,7 @@
         <v>0.48499999999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>202004</v>
       </c>
@@ -6368,7 +6368,7 @@
         <v>0.437</v>
       </c>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>202005</v>
       </c>
@@ -6410,7 +6410,7 @@
         <v>3444</v>
       </c>
       <c r="S96" s="16">
-        <f t="shared" ref="S96:S132" si="8">R96/B96</f>
+        <f t="shared" ref="S96:S133" si="8">R96/B96</f>
         <v>0.43060765191297823</v>
       </c>
       <c r="T96">
@@ -6435,7 +6435,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>202006</v>
       </c>
@@ -6510,7 +6510,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>202007</v>
       </c>
@@ -6528,21 +6528,21 @@
         <v>1249</v>
       </c>
       <c r="H98" s="13">
-        <f t="shared" ref="H98:H132" si="9">G98/B98</f>
+        <f t="shared" ref="H98:H133" si="9">G98/B98</f>
         <v>0.12781416291444944</v>
       </c>
       <c r="J98">
         <v>1026</v>
       </c>
       <c r="K98" s="13">
-        <f t="shared" ref="K98:K132" si="10">J98/B98</f>
+        <f t="shared" ref="K98:K133" si="10">J98/B98</f>
         <v>0.10499386000818665</v>
       </c>
       <c r="L98">
         <v>3089</v>
       </c>
       <c r="M98" s="13">
-        <f t="shared" ref="M98:M132" si="11">L98/B98</f>
+        <f t="shared" ref="M98:M133" si="11">L98/B98</f>
         <v>0.31610724519033973</v>
       </c>
       <c r="N98">
@@ -6556,7 +6556,7 @@
         <v>811</v>
       </c>
       <c r="Q98" s="14">
-        <f t="shared" ref="Q98:Q132" si="12">P98/B98</f>
+        <f t="shared" ref="Q98:Q133" si="12">P98/B98</f>
         <v>8.2992222677036431E-2</v>
       </c>
       <c r="R98">
@@ -6588,7 +6588,7 @@
         <v>0.48699999999999999</v>
       </c>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>202008</v>
       </c>
@@ -6666,7 +6666,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>202009</v>
       </c>
@@ -6744,7 +6744,7 @@
         <v>0.45800000000000002</v>
       </c>
     </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>202010</v>
       </c>
@@ -6819,7 +6819,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>202011</v>
       </c>
@@ -6894,7 +6894,7 @@
         <v>0.48399999999999999</v>
       </c>
     </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>202012</v>
       </c>
@@ -6969,7 +6969,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>202101</v>
       </c>
@@ -7047,7 +7047,7 @@
         <v>0.56399999999999995</v>
       </c>
     </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>202102</v>
       </c>
@@ -7122,7 +7122,7 @@
         <v>0.54300000000000004</v>
       </c>
     </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>202103</v>
       </c>
@@ -7197,7 +7197,7 @@
         <v>0.55600000000000005</v>
       </c>
     </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>202104</v>
       </c>
@@ -7272,7 +7272,7 @@
         <v>0.45200000000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>202105</v>
       </c>
@@ -7350,7 +7350,7 @@
         <v>0.48399999999999999</v>
       </c>
     </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>202106</v>
       </c>
@@ -7425,7 +7425,7 @@
         <v>0.502</v>
       </c>
     </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>202107</v>
       </c>
@@ -7500,7 +7500,7 @@
         <v>0.48099999999999998</v>
       </c>
     </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>202108</v>
       </c>
@@ -7575,7 +7575,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>202109</v>
       </c>
@@ -7650,7 +7650,7 @@
         <v>0.59099999999999997</v>
       </c>
     </row>
-    <row r="113" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>202110</v>
       </c>
@@ -7725,7 +7725,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="114" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>202111</v>
       </c>
@@ -7800,7 +7800,7 @@
         <v>0.55700000000000005</v>
       </c>
     </row>
-    <row r="115" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>202112</v>
       </c>
@@ -7875,7 +7875,7 @@
         <v>0.46600000000000003</v>
       </c>
     </row>
-    <row r="116" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>202201</v>
       </c>
@@ -7950,7 +7950,7 @@
         <v>0.60499999999999998</v>
       </c>
     </row>
-    <row r="117" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>202202</v>
       </c>
@@ -8025,7 +8025,7 @@
         <v>0.55300000000000005</v>
       </c>
     </row>
-    <row r="118" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>202203</v>
       </c>
@@ -8100,7 +8100,7 @@
         <v>0.69699999999999995</v>
       </c>
     </row>
-    <row r="119" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>202204</v>
       </c>
@@ -8175,7 +8175,7 @@
         <v>0.56499999999999995</v>
       </c>
     </row>
-    <row r="120" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>202205</v>
       </c>
@@ -8250,7 +8250,7 @@
         <v>0.61499999999999999</v>
       </c>
     </row>
-    <row r="121" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>202206</v>
       </c>
@@ -8325,7 +8325,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="122" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>202207</v>
       </c>
@@ -8400,7 +8400,7 @@
         <v>0.61499999999999999</v>
       </c>
     </row>
-    <row r="123" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>202208</v>
       </c>
@@ -8475,7 +8475,7 @@
         <v>0.623</v>
       </c>
     </row>
-    <row r="124" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>202209</v>
       </c>
@@ -8550,7 +8550,7 @@
         <v>0.70799999999999996</v>
       </c>
     </row>
-    <row r="125" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>202210</v>
       </c>
@@ -8625,7 +8625,7 @@
         <v>0.60399999999999998</v>
       </c>
     </row>
-    <row r="126" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>202211</v>
       </c>
@@ -8700,7 +8700,7 @@
         <v>0.72299999999999998</v>
       </c>
     </row>
-    <row r="127" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>202212</v>
       </c>
@@ -8776,7 +8776,7 @@
         <v>0.73499999999999999</v>
       </c>
     </row>
-    <row r="128" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>202301</v>
       </c>
@@ -8851,7 +8851,7 @@
         <v>0.51600000000000001</v>
       </c>
     </row>
-    <row r="129" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>202302</v>
       </c>
@@ -8926,7 +8926,7 @@
         <v>0.57099999999999995</v>
       </c>
     </row>
-    <row r="130" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>202303</v>
       </c>
@@ -9001,7 +9001,7 @@
         <v>0.68100000000000005</v>
       </c>
     </row>
-    <row r="131" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>202304</v>
       </c>
@@ -9076,7 +9076,7 @@
         <v>0.64100000000000001</v>
       </c>
     </row>
-    <row r="132" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>202305</v>
       </c>
@@ -9149,6 +9149,81 @@
       </c>
       <c r="Z132" s="13">
         <v>0.64600000000000002</v>
+      </c>
+    </row>
+    <row r="133" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A133">
+        <v>202306</v>
+      </c>
+      <c r="B133">
+        <v>15566</v>
+      </c>
+      <c r="C133">
+        <v>460</v>
+      </c>
+      <c r="E133" s="2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G133">
+        <v>357</v>
+      </c>
+      <c r="H133" s="13">
+        <f t="shared" si="9"/>
+        <v>2.2934601053578311E-2</v>
+      </c>
+      <c r="J133">
+        <v>231</v>
+      </c>
+      <c r="K133" s="13">
+        <f t="shared" si="10"/>
+        <v>1.484003597584479E-2</v>
+      </c>
+      <c r="L133">
+        <v>2177</v>
+      </c>
+      <c r="M133" s="13">
+        <f t="shared" si="11"/>
+        <v>0.13985609662084028</v>
+      </c>
+      <c r="N133">
+        <v>1354</v>
+      </c>
+      <c r="O133" s="7">
+        <f t="shared" si="7"/>
+        <v>8.6984453295644359E-2</v>
+      </c>
+      <c r="P133">
+        <v>823</v>
+      </c>
+      <c r="Q133" s="14">
+        <f t="shared" si="12"/>
+        <v>5.2871643325195943E-2</v>
+      </c>
+      <c r="R133">
+        <v>12801</v>
+      </c>
+      <c r="S133" s="16">
+        <f t="shared" si="8"/>
+        <v>0.82236926634973662</v>
+      </c>
+      <c r="U133">
+        <v>147</v>
+      </c>
+      <c r="V133">
+        <v>962</v>
+      </c>
+      <c r="W133">
+        <v>3</v>
+      </c>
+      <c r="X133">
+        <v>522</v>
+      </c>
+      <c r="Y133">
+        <v>262</v>
+      </c>
+      <c r="Z133" s="13">
+        <v>0.64500000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -9166,24 +9241,24 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -9446,6 +9521,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="5083af8e-c479-4bff-9f3e-2a380844c8c1" xsi:nil="true"/>
@@ -9454,15 +9538,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9485,6 +9560,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF887100-7B50-47F5-87D7-ABDD1957FF85}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F14F16C9-F74E-4CAA-B7B8-5E225606C761}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -9499,12 +9582,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF887100-7B50-47F5-87D7-ABDD1957FF85}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/EV/data/bilsalg.xlsx
+++ b/EV/data/bilsalg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roberan\CICERO senter for klimaforskning\CM - Documents\SmallJobs\2019\201903_bilsalg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cicero.sharepoint.com/sites/Group-ClimateMitigation/Shared Documents/SmallJobs/2019/201903_bilsalg/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF9E3489-096F-45AE-8417-3B18E058C05D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{CF9E3489-096F-45AE-8417-3B18E058C05D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3673ED37-1A3F-43FF-8A99-FF66538D3529}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="11500" xr2:uid="{94A590A3-A19D-4EDC-866B-407362CF22C8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{94A590A3-A19D-4EDC-866B-407362CF22C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -801,13 +801,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A23E6F8-FBFE-40A4-8A3E-1BC2B49C4A9C}">
-  <dimension ref="A1:Z133"/>
+  <dimension ref="A1:Z134"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D117" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B117" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H133" sqref="H133"/>
+      <selection pane="bottomRight" activeCell="A134" sqref="A134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4870,7 +4870,7 @@
         <v>1923</v>
       </c>
       <c r="E72" s="2">
-        <f t="shared" ref="E72:E133" si="6">H72+K72+M72+S72</f>
+        <f t="shared" ref="E72:E134" si="6">H72+K72+M72+S72</f>
         <v>1</v>
       </c>
       <c r="H72" s="13">
@@ -6268,7 +6268,7 @@
         <v>2392</v>
       </c>
       <c r="O94" s="7">
-        <f t="shared" ref="O94:O133" si="7">N94/B94</f>
+        <f t="shared" ref="O94:O134" si="7">N94/B94</f>
         <v>0.19211308328648302</v>
       </c>
       <c r="Q94" s="14">
@@ -6410,7 +6410,7 @@
         <v>3444</v>
       </c>
       <c r="S96" s="16">
-        <f t="shared" ref="S96:S133" si="8">R96/B96</f>
+        <f t="shared" ref="S96:S134" si="8">R96/B96</f>
         <v>0.43060765191297823</v>
       </c>
       <c r="T96">
@@ -6528,21 +6528,21 @@
         <v>1249</v>
       </c>
       <c r="H98" s="13">
-        <f t="shared" ref="H98:H133" si="9">G98/B98</f>
+        <f t="shared" ref="H98:H134" si="9">G98/B98</f>
         <v>0.12781416291444944</v>
       </c>
       <c r="J98">
         <v>1026</v>
       </c>
       <c r="K98" s="13">
-        <f t="shared" ref="K98:K133" si="10">J98/B98</f>
+        <f t="shared" ref="K98:K134" si="10">J98/B98</f>
         <v>0.10499386000818665</v>
       </c>
       <c r="L98">
         <v>3089</v>
       </c>
       <c r="M98" s="13">
-        <f t="shared" ref="M98:M133" si="11">L98/B98</f>
+        <f t="shared" ref="M98:M134" si="11">L98/B98</f>
         <v>0.31610724519033973</v>
       </c>
       <c r="N98">
@@ -6556,7 +6556,7 @@
         <v>811</v>
       </c>
       <c r="Q98" s="14">
-        <f t="shared" ref="Q98:Q133" si="12">P98/B98</f>
+        <f t="shared" ref="Q98:Q134" si="12">P98/B98</f>
         <v>8.2992222677036431E-2</v>
       </c>
       <c r="R98">
@@ -9224,6 +9224,81 @@
       </c>
       <c r="Z133" s="13">
         <v>0.64500000000000002</v>
+      </c>
+    </row>
+    <row r="134" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A134">
+        <v>202307</v>
+      </c>
+      <c r="B134">
+        <v>7525</v>
+      </c>
+      <c r="C134">
+        <v>370</v>
+      </c>
+      <c r="E134" s="2">
+        <f t="shared" si="6"/>
+        <v>0.9998671096345515</v>
+      </c>
+      <c r="G134">
+        <v>211</v>
+      </c>
+      <c r="H134" s="13">
+        <f t="shared" si="9"/>
+        <v>2.8039867109634551E-2</v>
+      </c>
+      <c r="J134">
+        <v>109</v>
+      </c>
+      <c r="K134" s="13">
+        <f t="shared" si="10"/>
+        <v>1.4485049833887043E-2</v>
+      </c>
+      <c r="L134">
+        <v>1056</v>
+      </c>
+      <c r="M134" s="13">
+        <f t="shared" si="11"/>
+        <v>0.14033222591362127</v>
+      </c>
+      <c r="N134">
+        <v>613</v>
+      </c>
+      <c r="O134" s="7">
+        <f t="shared" si="7"/>
+        <v>8.1461794019933559E-2</v>
+      </c>
+      <c r="P134">
+        <v>443</v>
+      </c>
+      <c r="Q134" s="14">
+        <f t="shared" si="12"/>
+        <v>5.8870431893687708E-2</v>
+      </c>
+      <c r="R134">
+        <v>6148</v>
+      </c>
+      <c r="S134" s="16">
+        <f t="shared" si="8"/>
+        <v>0.81700996677740867</v>
+      </c>
+      <c r="U134">
+        <v>144</v>
+      </c>
+      <c r="V134">
+        <v>353</v>
+      </c>
+      <c r="W134">
+        <v>2</v>
+      </c>
+      <c r="X134">
+        <v>258</v>
+      </c>
+      <c r="Y134">
+        <v>50</v>
+      </c>
+      <c r="Z134" s="13">
+        <v>0.63300000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -9521,15 +9596,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="5083af8e-c479-4bff-9f3e-2a380844c8c1" xsi:nil="true"/>
@@ -9538,6 +9604,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9560,14 +9635,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF887100-7B50-47F5-87D7-ABDD1957FF85}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F14F16C9-F74E-4CAA-B7B8-5E225606C761}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -9582,4 +9649,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF887100-7B50-47F5-87D7-ABDD1957FF85}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/EV/data/bilsalg.xlsx
+++ b/EV/data/bilsalg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cicero.sharepoint.com/sites/Group-ClimateMitigation/Shared Documents/SmallJobs/2019/201903_bilsalg/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roberan\CICERO senter for klimaforskning\CM - Documents\SmallJobs\2019\201903_bilsalg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{CF9E3489-096F-45AE-8417-3B18E058C05D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3673ED37-1A3F-43FF-8A99-FF66538D3529}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B1A2DE8-1D59-4ACF-A8D2-43DFCF4F0289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{94A590A3-A19D-4EDC-866B-407362CF22C8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="17250" xr2:uid="{94A590A3-A19D-4EDC-866B-407362CF22C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -129,6 +129,30 @@
           <t xml:space="preserve">
 "Elektriske varebiler kom i salg i 2011 da Ford forhandler Røhne og Selmer i Oslo-området inngikk en avtale med AzureDynamics om import og salg av den lille elvarebilen Ford Transit Connect. Denne bilen ble utviklet i samarbeid med Ford."
 https://www.regeringen.se/4a4b1d/contentassets/7bb237f0adf546daa36aaf044922f473/underlagsrapport-10--elbil-i-norge.pdf#page=45 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B59" authorId="0" shapeId="0" xr:uid="{D5E92BFB-8A36-4400-AC84-FF45AE1BFC77}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Robbie Andrew:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+This number is probably incorrect.</t>
         </r>
       </text>
     </comment>
@@ -491,7 +515,36 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -801,29 +854,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A23E6F8-FBFE-40A4-8A3E-1BC2B49C4A9C}">
-  <dimension ref="A1:Z134"/>
+  <dimension ref="A1:Z137"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B117" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B121" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A134" sqref="A134"/>
+      <selection pane="bottomRight" activeCell="G137" sqref="G137"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="12" max="12" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="11.36328125" customWidth="1"/>
-    <col min="18" max="18" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.453125" customWidth="1"/>
-    <col min="22" max="22" width="10.453125" customWidth="1"/>
-    <col min="23" max="23" width="11.453125" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="11.42578125" customWidth="1"/>
+    <col min="18" max="18" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.42578125" customWidth="1"/>
+    <col min="22" max="22" width="10.42578125" customWidth="1"/>
+    <col min="23" max="23" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="59" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" ht="59.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>7</v>
       </c>
@@ -900,7 +953,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1994</v>
       </c>
@@ -929,7 +982,7 @@
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
     </row>
-    <row r="3" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1995</v>
       </c>
@@ -958,7 +1011,7 @@
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
     </row>
-    <row r="4" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1996</v>
       </c>
@@ -987,7 +1040,7 @@
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
     </row>
-    <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1997</v>
       </c>
@@ -1018,7 +1071,7 @@
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
     </row>
-    <row r="6" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1998</v>
       </c>
@@ -1047,7 +1100,7 @@
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
     </row>
-    <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1999</v>
       </c>
@@ -1076,7 +1129,7 @@
       <c r="X7" s="3"/>
       <c r="Y7" s="3"/>
     </row>
-    <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2000</v>
       </c>
@@ -1105,7 +1158,7 @@
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
     </row>
-    <row r="9" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2001</v>
       </c>
@@ -1134,7 +1187,7 @@
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
     </row>
-    <row r="10" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2002</v>
       </c>
@@ -1165,7 +1218,7 @@
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
     </row>
-    <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2003</v>
       </c>
@@ -1194,7 +1247,7 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
     </row>
-    <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2004</v>
       </c>
@@ -1229,7 +1282,7 @@
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
     </row>
-    <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>200512</v>
       </c>
@@ -1266,7 +1319,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2005</v>
       </c>
@@ -1305,7 +1358,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>200612</v>
       </c>
@@ -1342,7 +1395,7 @@
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
     </row>
-    <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2006</v>
       </c>
@@ -1377,7 +1430,7 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
     </row>
-    <row r="17" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>200712</v>
       </c>
@@ -1412,7 +1465,7 @@
       <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
     </row>
-    <row r="18" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2007</v>
       </c>
@@ -1455,7 +1508,7 @@
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
     </row>
-    <row r="19" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>200812</v>
       </c>
@@ -1492,7 +1545,7 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
     </row>
-    <row r="20" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2008</v>
       </c>
@@ -1536,7 +1589,7 @@
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
     </row>
-    <row r="21" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>200912</v>
       </c>
@@ -1571,7 +1624,7 @@
       <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
     </row>
-    <row r="22" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2009</v>
       </c>
@@ -1614,7 +1667,7 @@
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
     </row>
-    <row r="23" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>201012</v>
       </c>
@@ -1653,7 +1706,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="24" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2010</v>
       </c>
@@ -1703,7 +1756,7 @@
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
     </row>
-    <row r="25" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>201112</v>
       </c>
@@ -1754,7 +1807,7 @@
       <c r="X25" s="3"/>
       <c r="Y25" s="3"/>
     </row>
-    <row r="26" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2011</v>
       </c>
@@ -1806,7 +1859,7 @@
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
     </row>
-    <row r="27" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>201212</v>
       </c>
@@ -1858,7 +1911,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2012</v>
       </c>
@@ -1910,7 +1963,7 @@
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
     </row>
-    <row r="29" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>201312</v>
       </c>
@@ -1964,7 +2017,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="30" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2013</v>
       </c>
@@ -2029,7 +2082,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="31" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2014</v>
       </c>
@@ -2093,7 +2146,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>201501</v>
       </c>
@@ -2160,7 +2213,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>201502</v>
       </c>
@@ -2221,7 +2274,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>201503</v>
       </c>
@@ -2278,7 +2331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>201504</v>
       </c>
@@ -2336,7 +2389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>201505</v>
       </c>
@@ -2405,7 +2458,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>201506</v>
       </c>
@@ -2465,7 +2518,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>201507</v>
       </c>
@@ -2540,7 +2593,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>201508</v>
       </c>
@@ -2615,7 +2668,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>201509</v>
       </c>
@@ -2694,7 +2747,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>201510</v>
       </c>
@@ -2774,7 +2827,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>201511</v>
       </c>
@@ -2854,7 +2907,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>201512</v>
       </c>
@@ -2934,7 +2987,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>201601</v>
       </c>
@@ -2999,7 +3052,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>201602</v>
       </c>
@@ -3062,7 +3115,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>201603</v>
       </c>
@@ -3125,7 +3178,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>201604</v>
       </c>
@@ -3192,7 +3245,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>201605</v>
       </c>
@@ -3259,7 +3312,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>201606</v>
       </c>
@@ -3332,7 +3385,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>201607</v>
       </c>
@@ -3405,7 +3458,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>201608</v>
       </c>
@@ -3478,7 +3531,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>201609</v>
       </c>
@@ -3551,7 +3604,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>201610</v>
       </c>
@@ -3624,7 +3677,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>201611</v>
       </c>
@@ -3697,7 +3750,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>201612</v>
       </c>
@@ -3770,7 +3823,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>201701</v>
       </c>
@@ -3841,7 +3894,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>201702</v>
       </c>
@@ -3912,7 +3965,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>201703</v>
       </c>
@@ -3983,7 +4036,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>201704</v>
       </c>
@@ -4052,7 +4105,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>201705</v>
       </c>
@@ -4121,7 +4174,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>201706</v>
       </c>
@@ -4191,7 +4244,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>201707</v>
       </c>
@@ -4261,7 +4314,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>201708</v>
       </c>
@@ -4331,7 +4384,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>201709</v>
       </c>
@@ -4401,7 +4454,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>201710</v>
       </c>
@@ -4471,7 +4524,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>201711</v>
       </c>
@@ -4541,7 +4594,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>201712</v>
       </c>
@@ -4611,7 +4664,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>201801</v>
       </c>
@@ -4673,7 +4726,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>201802</v>
       </c>
@@ -4735,7 +4788,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>201803</v>
       </c>
@@ -4797,7 +4850,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>201804</v>
       </c>
@@ -4859,7 +4912,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>201805</v>
       </c>
@@ -4870,7 +4923,7 @@
         <v>1923</v>
       </c>
       <c r="E72" s="2">
-        <f t="shared" ref="E72:E134" si="6">H72+K72+M72+S72</f>
+        <f t="shared" ref="E72:E137" si="6">H72+K72+M72+S72</f>
         <v>1</v>
       </c>
       <c r="H72" s="13">
@@ -4921,7 +4974,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>201806</v>
       </c>
@@ -4983,7 +5036,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>201807</v>
       </c>
@@ -5045,7 +5098,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>201808</v>
       </c>
@@ -5107,7 +5160,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>201809</v>
       </c>
@@ -5169,7 +5222,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>201810</v>
       </c>
@@ -5231,7 +5284,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>201811</v>
       </c>
@@ -5293,7 +5346,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>201812</v>
       </c>
@@ -5355,7 +5408,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>201901</v>
       </c>
@@ -5420,7 +5473,7 @@
         <v>0.35699999999999998</v>
       </c>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>201902</v>
       </c>
@@ -5485,7 +5538,7 @@
         <v>0.44700000000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>201903</v>
       </c>
@@ -5550,7 +5603,7 @@
         <v>0.59899999999999998</v>
       </c>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>201904</v>
       </c>
@@ -5612,7 +5665,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>201905</v>
       </c>
@@ -5674,7 +5727,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>201906</v>
       </c>
@@ -5736,7 +5789,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>201907</v>
       </c>
@@ -5798,7 +5851,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>201908</v>
       </c>
@@ -5860,7 +5913,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>201909</v>
       </c>
@@ -5922,7 +5975,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>201910</v>
       </c>
@@ -5984,7 +6037,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>201911</v>
       </c>
@@ -6046,7 +6099,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>201912</v>
       </c>
@@ -6108,7 +6161,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>202001</v>
       </c>
@@ -6173,7 +6226,7 @@
         <v>0.44800000000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>202002</v>
       </c>
@@ -6238,7 +6291,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>202003</v>
       </c>
@@ -6268,7 +6321,7 @@
         <v>2392</v>
       </c>
       <c r="O94" s="7">
-        <f t="shared" ref="O94:O134" si="7">N94/B94</f>
+        <f t="shared" ref="O94:O137" si="7">N94/B94</f>
         <v>0.19211308328648302</v>
       </c>
       <c r="Q94" s="14">
@@ -6303,7 +6356,7 @@
         <v>0.48499999999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>202004</v>
       </c>
@@ -6368,7 +6421,7 @@
         <v>0.437</v>
       </c>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>202005</v>
       </c>
@@ -6410,7 +6463,7 @@
         <v>3444</v>
       </c>
       <c r="S96" s="16">
-        <f t="shared" ref="S96:S134" si="8">R96/B96</f>
+        <f t="shared" ref="S96:S137" si="8">R96/B96</f>
         <v>0.43060765191297823</v>
       </c>
       <c r="T96">
@@ -6435,7 +6488,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>202006</v>
       </c>
@@ -6510,7 +6563,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>202007</v>
       </c>
@@ -6528,21 +6581,21 @@
         <v>1249</v>
       </c>
       <c r="H98" s="13">
-        <f t="shared" ref="H98:H134" si="9">G98/B98</f>
+        <f t="shared" ref="H98:H137" si="9">G98/B98</f>
         <v>0.12781416291444944</v>
       </c>
       <c r="J98">
         <v>1026</v>
       </c>
       <c r="K98" s="13">
-        <f t="shared" ref="K98:K134" si="10">J98/B98</f>
+        <f t="shared" ref="K98:K137" si="10">J98/B98</f>
         <v>0.10499386000818665</v>
       </c>
       <c r="L98">
         <v>3089</v>
       </c>
       <c r="M98" s="13">
-        <f t="shared" ref="M98:M134" si="11">L98/B98</f>
+        <f t="shared" ref="M98:M137" si="11">L98/B98</f>
         <v>0.31610724519033973</v>
       </c>
       <c r="N98">
@@ -6556,7 +6609,7 @@
         <v>811</v>
       </c>
       <c r="Q98" s="14">
-        <f t="shared" ref="Q98:Q134" si="12">P98/B98</f>
+        <f t="shared" ref="Q98:Q137" si="12">P98/B98</f>
         <v>8.2992222677036431E-2</v>
       </c>
       <c r="R98">
@@ -6588,7 +6641,7 @@
         <v>0.48699999999999999</v>
       </c>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>202008</v>
       </c>
@@ -6666,7 +6719,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>202009</v>
       </c>
@@ -6744,7 +6797,7 @@
         <v>0.45800000000000002</v>
       </c>
     </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>202010</v>
       </c>
@@ -6819,7 +6872,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>202011</v>
       </c>
@@ -6894,7 +6947,7 @@
         <v>0.48399999999999999</v>
       </c>
     </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>202012</v>
       </c>
@@ -6969,7 +7022,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>202101</v>
       </c>
@@ -7047,7 +7100,7 @@
         <v>0.56399999999999995</v>
       </c>
     </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>202102</v>
       </c>
@@ -7122,7 +7175,7 @@
         <v>0.54300000000000004</v>
       </c>
     </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>202103</v>
       </c>
@@ -7197,7 +7250,7 @@
         <v>0.55600000000000005</v>
       </c>
     </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>202104</v>
       </c>
@@ -7272,7 +7325,7 @@
         <v>0.45200000000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>202105</v>
       </c>
@@ -7350,7 +7403,7 @@
         <v>0.48399999999999999</v>
       </c>
     </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>202106</v>
       </c>
@@ -7425,7 +7478,7 @@
         <v>0.502</v>
       </c>
     </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>202107</v>
       </c>
@@ -7500,7 +7553,7 @@
         <v>0.48099999999999998</v>
       </c>
     </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>202108</v>
       </c>
@@ -7575,7 +7628,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>202109</v>
       </c>
@@ -7650,7 +7703,7 @@
         <v>0.59099999999999997</v>
       </c>
     </row>
-    <row r="113" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>202110</v>
       </c>
@@ -7725,7 +7778,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="114" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>202111</v>
       </c>
@@ -7800,7 +7853,7 @@
         <v>0.55700000000000005</v>
       </c>
     </row>
-    <row r="115" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>202112</v>
       </c>
@@ -7875,7 +7928,7 @@
         <v>0.46600000000000003</v>
       </c>
     </row>
-    <row r="116" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>202201</v>
       </c>
@@ -7950,7 +8003,7 @@
         <v>0.60499999999999998</v>
       </c>
     </row>
-    <row r="117" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>202202</v>
       </c>
@@ -8025,7 +8078,7 @@
         <v>0.55300000000000005</v>
       </c>
     </row>
-    <row r="118" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>202203</v>
       </c>
@@ -8100,7 +8153,7 @@
         <v>0.69699999999999995</v>
       </c>
     </row>
-    <row r="119" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>202204</v>
       </c>
@@ -8175,7 +8228,7 @@
         <v>0.56499999999999995</v>
       </c>
     </row>
-    <row r="120" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>202205</v>
       </c>
@@ -8250,7 +8303,7 @@
         <v>0.61499999999999999</v>
       </c>
     </row>
-    <row r="121" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>202206</v>
       </c>
@@ -8325,7 +8378,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="122" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>202207</v>
       </c>
@@ -8400,7 +8453,7 @@
         <v>0.61499999999999999</v>
       </c>
     </row>
-    <row r="123" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>202208</v>
       </c>
@@ -8475,7 +8528,7 @@
         <v>0.623</v>
       </c>
     </row>
-    <row r="124" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>202209</v>
       </c>
@@ -8550,7 +8603,7 @@
         <v>0.70799999999999996</v>
       </c>
     </row>
-    <row r="125" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>202210</v>
       </c>
@@ -8625,7 +8678,7 @@
         <v>0.60399999999999998</v>
       </c>
     </row>
-    <row r="126" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>202211</v>
       </c>
@@ -8700,7 +8753,7 @@
         <v>0.72299999999999998</v>
       </c>
     </row>
-    <row r="127" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>202212</v>
       </c>
@@ -8776,7 +8829,7 @@
         <v>0.73499999999999999</v>
       </c>
     </row>
-    <row r="128" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>202301</v>
       </c>
@@ -8814,7 +8867,7 @@
       <c r="N128">
         <v>182</v>
       </c>
-      <c r="O128" s="1">
+      <c r="O128" s="7">
         <f t="shared" si="7"/>
         <v>9.7849462365591403E-2</v>
       </c>
@@ -8851,7 +8904,7 @@
         <v>0.51600000000000001</v>
       </c>
     </row>
-    <row r="129" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>202302</v>
       </c>
@@ -8926,7 +8979,7 @@
         <v>0.57099999999999995</v>
       </c>
     </row>
-    <row r="130" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>202303</v>
       </c>
@@ -9001,7 +9054,7 @@
         <v>0.68100000000000005</v>
       </c>
     </row>
-    <row r="131" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>202304</v>
       </c>
@@ -9076,7 +9129,7 @@
         <v>0.64100000000000001</v>
       </c>
     </row>
-    <row r="132" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>202305</v>
       </c>
@@ -9151,7 +9204,7 @@
         <v>0.64600000000000002</v>
       </c>
     </row>
-    <row r="133" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>202306</v>
       </c>
@@ -9226,7 +9279,7 @@
         <v>0.64500000000000002</v>
       </c>
     </row>
-    <row r="134" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>202307</v>
       </c>
@@ -9301,7 +9354,237 @@
         <v>0.63300000000000001</v>
       </c>
     </row>
+    <row r="135" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>202308</v>
+      </c>
+      <c r="B135">
+        <v>11083</v>
+      </c>
+      <c r="C135">
+        <v>417</v>
+      </c>
+      <c r="E135" s="2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G135">
+        <v>312</v>
+      </c>
+      <c r="H135" s="13">
+        <f t="shared" si="9"/>
+        <v>2.8151222593160698E-2</v>
+      </c>
+      <c r="J135">
+        <v>122</v>
+      </c>
+      <c r="K135" s="13">
+        <f t="shared" si="10"/>
+        <v>1.100784986014617E-2</v>
+      </c>
+      <c r="L135">
+        <v>1399</v>
+      </c>
+      <c r="M135" s="13">
+        <f t="shared" si="11"/>
+        <v>0.12622936028151222</v>
+      </c>
+      <c r="N135">
+        <v>724</v>
+      </c>
+      <c r="O135" s="7">
+        <f t="shared" si="7"/>
+        <v>6.5325272940539567E-2</v>
+      </c>
+      <c r="P135">
+        <v>675</v>
+      </c>
+      <c r="Q135" s="14">
+        <f t="shared" si="12"/>
+        <v>6.0904087340972662E-2</v>
+      </c>
+      <c r="R135">
+        <v>9250</v>
+      </c>
+      <c r="S135" s="16">
+        <f t="shared" si="8"/>
+        <v>0.83461156726518093</v>
+      </c>
+      <c r="U135">
+        <v>193</v>
+      </c>
+      <c r="V135">
+        <v>965</v>
+      </c>
+      <c r="W135">
+        <v>3</v>
+      </c>
+      <c r="X135">
+        <v>653</v>
+      </c>
+      <c r="Y135">
+        <v>25</v>
+      </c>
+      <c r="Z135" s="13">
+        <v>0.66500000000000004</v>
+      </c>
+    </row>
+    <row r="136" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>202309</v>
+      </c>
+      <c r="B136">
+        <v>10342</v>
+      </c>
+      <c r="C136">
+        <v>407</v>
+      </c>
+      <c r="E136" s="2">
+        <f t="shared" si="6"/>
+        <v>0.9958421968671437</v>
+      </c>
+      <c r="G136">
+        <v>164</v>
+      </c>
+      <c r="H136" s="13">
+        <f t="shared" si="9"/>
+        <v>1.5857667762521756E-2</v>
+      </c>
+      <c r="J136">
+        <v>76</v>
+      </c>
+      <c r="K136" s="13">
+        <f t="shared" si="10"/>
+        <v>7.3486753045832525E-3</v>
+      </c>
+      <c r="L136">
+        <v>1059</v>
+      </c>
+      <c r="M136" s="13">
+        <f t="shared" si="11"/>
+        <v>0.10239798878360085</v>
+      </c>
+      <c r="N136">
+        <v>617</v>
+      </c>
+      <c r="O136" s="7">
+        <f t="shared" si="7"/>
+        <v>5.9659640301682457E-2</v>
+      </c>
+      <c r="P136">
+        <v>442</v>
+      </c>
+      <c r="Q136" s="14">
+        <f t="shared" si="12"/>
+        <v>4.273834848191839E-2</v>
+      </c>
+      <c r="R136">
+        <v>9000</v>
+      </c>
+      <c r="S136" s="16">
+        <f t="shared" si="8"/>
+        <v>0.87023786501643785</v>
+      </c>
+      <c r="U136">
+        <v>208</v>
+      </c>
+      <c r="V136">
+        <v>632</v>
+      </c>
+      <c r="W136">
+        <v>4</v>
+      </c>
+      <c r="X136">
+        <v>421</v>
+      </c>
+      <c r="Y136">
+        <v>58</v>
+      </c>
+      <c r="Z136" s="13">
+        <v>0.69099999999999995</v>
+      </c>
+    </row>
+    <row r="137" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>202310</v>
+      </c>
+      <c r="B137">
+        <v>8925</v>
+      </c>
+      <c r="C137">
+        <v>380</v>
+      </c>
+      <c r="E137" s="2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G137">
+        <v>198</v>
+      </c>
+      <c r="H137" s="13">
+        <f t="shared" si="9"/>
+        <v>2.2184873949579832E-2</v>
+      </c>
+      <c r="J137">
+        <v>87</v>
+      </c>
+      <c r="K137" s="13">
+        <f t="shared" si="10"/>
+        <v>9.7478991596638663E-3</v>
+      </c>
+      <c r="L137">
+        <v>1124</v>
+      </c>
+      <c r="M137" s="13">
+        <f t="shared" si="11"/>
+        <v>0.12593837535014005</v>
+      </c>
+      <c r="N137">
+        <v>635</v>
+      </c>
+      <c r="O137" s="7">
+        <f t="shared" si="7"/>
+        <v>7.1148459383753498E-2</v>
+      </c>
+      <c r="P137">
+        <v>489</v>
+      </c>
+      <c r="Q137" s="14">
+        <f t="shared" si="12"/>
+        <v>5.4789915966386556E-2</v>
+      </c>
+      <c r="R137">
+        <v>7516</v>
+      </c>
+      <c r="S137" s="16">
+        <f t="shared" si="8"/>
+        <v>0.84212885154061623</v>
+      </c>
+      <c r="U137">
+        <v>181</v>
+      </c>
+      <c r="V137">
+        <v>370</v>
+      </c>
+      <c r="W137">
+        <v>2</v>
+      </c>
+      <c r="X137">
+        <v>327</v>
+      </c>
+      <c r="Y137">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="E1:E137 E140:E1048576">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="lessThan">
+      <formula>0.99</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" priority="2" stopIfTrue="1">
+      <formula>LEN(TRIM(E1))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -9316,24 +9599,24 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -9347,8 +9630,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010074D02CDF85BB3C43825BB38CAE9C40BF" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cc0fdec67fe3d070701ed30df77ff2e4">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1ae9c94a-2673-46e1-b5a6-dc0c87eae04c" xmlns:ns3="5083af8e-c479-4bff-9f3e-2a380844c8c1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7af3f9d5f786658f4f8b979713004dd2" ns2:_="" ns3:_="">
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010074D02CDF85BB3C43825BB38CAE9C40BF" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="62feba1939917040a6b1ec14de8a482b">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1ae9c94a-2673-46e1-b5a6-dc0c87eae04c" xmlns:ns3="5083af8e-c479-4bff-9f3e-2a380844c8c1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="78886e55d6c6caec8810e425b736b93a" ns2:_="" ns3:_="">
     <xsd:import namespace="1ae9c94a-2673-46e1-b5a6-dc0c87eae04c"/>
     <xsd:import namespace="5083af8e-c479-4bff-9f3e-2a380844c8c1"/>
     <xsd:element name="properties">
@@ -9373,6 +9665,7 @@
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -9452,6 +9745,11 @@
     <xsd:element name="MediaServiceSearchProperties" ma:index="24" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="25" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -9595,7 +9893,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="5083af8e-c479-4bff-9f3e-2a380844c8c1" xsi:nil="true"/>
@@ -9606,17 +9904,16 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF887100-7B50-47F5-87D7-ABDD1957FF85}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{798DD26E-7447-4512-9765-D428BF88CEC4}">
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{46F1A33C-471B-4837-B594-FCF42F1264AA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -9634,7 +9931,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F14F16C9-F74E-4CAA-B7B8-5E225606C761}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -9649,12 +9946,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF887100-7B50-47F5-87D7-ABDD1957FF85}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/EV/data/bilsalg.xlsx
+++ b/EV/data/bilsalg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roberan\CICERO senter for klimaforskning\CM - Documents\SmallJobs\2019\201903_bilsalg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B1A2DE8-1D59-4ACF-A8D2-43DFCF4F0289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DBFD6F7-B7AB-42E0-9CD3-5DA37D125FC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="17250" xr2:uid="{94A590A3-A19D-4EDC-866B-407362CF22C8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{94A590A3-A19D-4EDC-866B-407362CF22C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -39,6 +39,30 @@
     <author>Robbie Andrew</author>
   </authors>
   <commentList>
+    <comment ref="AA1" authorId="0" shapeId="0" xr:uid="{276B5C85-A37C-4EBA-83E8-6142594C65F1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Robbie Andrew:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Share of new cars (excl used imports)</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B15" authorId="0" shapeId="0" xr:uid="{81D56E2B-9854-47C7-98FE-651689E08E4A}">
       <text>
         <r>
@@ -272,6 +296,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
+Update: Re-accessed OFV's page a year later and the numbers appear to have been corrected.
 OFV summary says 4706, but their overall table says total hybrid is 3293, so they have something wrong. 4706 is the number for dec 2021, so the table is wrong. The total hybrid of 3293 appears correct, since that adds up to the total cars. This site says ladbare hybrid were 4.8%, so I've used that: https://bilbransje24.no/nyheter/727451</t>
         </r>
       </text>
@@ -281,7 +306,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Hydrogenbil</t>
   </si>
@@ -368,6 +393,9 @@
   </si>
   <si>
     <t>Data collated by Robbie Andrew, CICERO</t>
+  </si>
+  <si>
+    <t>Næringsandel (personbiler)</t>
   </si>
 </sst>
 </file>
@@ -515,28 +543,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -558,9 +565,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -598,7 +605,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -704,7 +711,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -846,7 +853,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -854,29 +861,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A23E6F8-FBFE-40A4-8A3E-1BC2B49C4A9C}">
-  <dimension ref="A1:Z137"/>
+  <dimension ref="A1:AA142"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B121" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B124" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G137" sqref="G137"/>
+      <selection pane="bottomRight" activeCell="E142" sqref="E142"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="11.42578125" customWidth="1"/>
-    <col min="18" max="18" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.42578125" customWidth="1"/>
-    <col min="22" max="22" width="10.42578125" customWidth="1"/>
-    <col min="23" max="23" width="11.42578125" customWidth="1"/>
+    <col min="12" max="12" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="11.453125" customWidth="1"/>
+    <col min="18" max="18" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.453125" customWidth="1"/>
+    <col min="22" max="22" width="10.453125" customWidth="1"/>
+    <col min="23" max="23" width="11.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="59.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="59.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="3" t="s">
         <v>7</v>
       </c>
@@ -952,8 +959,11 @@
       <c r="Z1" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA1" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1994</v>
       </c>
@@ -982,7 +992,7 @@
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
     </row>
-    <row r="3" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1995</v>
       </c>
@@ -1011,7 +1021,7 @@
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
     </row>
-    <row r="4" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1996</v>
       </c>
@@ -1040,7 +1050,7 @@
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
     </row>
-    <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1997</v>
       </c>
@@ -1071,7 +1081,7 @@
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
     </row>
-    <row r="6" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1998</v>
       </c>
@@ -1100,7 +1110,7 @@
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
     </row>
-    <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1999</v>
       </c>
@@ -1129,7 +1139,7 @@
       <c r="X7" s="3"/>
       <c r="Y7" s="3"/>
     </row>
-    <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2000</v>
       </c>
@@ -1158,7 +1168,7 @@
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
     </row>
-    <row r="9" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2001</v>
       </c>
@@ -1187,7 +1197,7 @@
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
     </row>
-    <row r="10" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2002</v>
       </c>
@@ -1218,7 +1228,7 @@
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
     </row>
-    <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2003</v>
       </c>
@@ -1247,7 +1257,7 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
     </row>
-    <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2004</v>
       </c>
@@ -1282,7 +1292,7 @@
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
     </row>
-    <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>200512</v>
       </c>
@@ -1319,7 +1329,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2005</v>
       </c>
@@ -1358,7 +1368,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>200612</v>
       </c>
@@ -1395,7 +1405,7 @@
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
     </row>
-    <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2006</v>
       </c>
@@ -1430,7 +1440,7 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
     </row>
-    <row r="17" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>200712</v>
       </c>
@@ -1465,7 +1475,7 @@
       <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
     </row>
-    <row r="18" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>2007</v>
       </c>
@@ -1508,7 +1518,7 @@
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
     </row>
-    <row r="19" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>200812</v>
       </c>
@@ -1545,7 +1555,7 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
     </row>
-    <row r="20" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>2008</v>
       </c>
@@ -1589,7 +1599,7 @@
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
     </row>
-    <row r="21" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>200912</v>
       </c>
@@ -1624,7 +1634,7 @@
       <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
     </row>
-    <row r="22" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>2009</v>
       </c>
@@ -1667,7 +1677,7 @@
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
     </row>
-    <row r="23" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>201012</v>
       </c>
@@ -1706,7 +1716,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="24" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>2010</v>
       </c>
@@ -1756,7 +1766,7 @@
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
     </row>
-    <row r="25" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>201112</v>
       </c>
@@ -1807,7 +1817,7 @@
       <c r="X25" s="3"/>
       <c r="Y25" s="3"/>
     </row>
-    <row r="26" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>2011</v>
       </c>
@@ -1859,7 +1869,7 @@
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
     </row>
-    <row r="27" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>201212</v>
       </c>
@@ -1911,7 +1921,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>2012</v>
       </c>
@@ -1963,7 +1973,7 @@
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
     </row>
-    <row r="29" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>201312</v>
       </c>
@@ -2017,7 +2027,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="30" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>2013</v>
       </c>
@@ -2082,7 +2092,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="31" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>2014</v>
       </c>
@@ -2146,7 +2156,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>201501</v>
       </c>
@@ -2213,7 +2223,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>201502</v>
       </c>
@@ -2274,7 +2284,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>201503</v>
       </c>
@@ -2331,7 +2341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>201504</v>
       </c>
@@ -2389,7 +2399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>201505</v>
       </c>
@@ -2458,7 +2468,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>201506</v>
       </c>
@@ -2518,7 +2528,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>201507</v>
       </c>
@@ -2593,7 +2603,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>201508</v>
       </c>
@@ -2668,7 +2678,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>201509</v>
       </c>
@@ -2747,7 +2757,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>201510</v>
       </c>
@@ -2827,7 +2837,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>201511</v>
       </c>
@@ -2907,7 +2917,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>201512</v>
       </c>
@@ -2987,7 +2997,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>201601</v>
       </c>
@@ -3052,7 +3062,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>201602</v>
       </c>
@@ -3115,7 +3125,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>201603</v>
       </c>
@@ -3178,7 +3188,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>201604</v>
       </c>
@@ -3245,7 +3255,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>201605</v>
       </c>
@@ -3312,7 +3322,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>201606</v>
       </c>
@@ -3385,7 +3395,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>201607</v>
       </c>
@@ -3458,7 +3468,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>201608</v>
       </c>
@@ -3531,7 +3541,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>201609</v>
       </c>
@@ -3604,7 +3614,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>201610</v>
       </c>
@@ -3677,7 +3687,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>201611</v>
       </c>
@@ -3750,7 +3760,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>201612</v>
       </c>
@@ -3823,7 +3833,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>201701</v>
       </c>
@@ -3894,7 +3904,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>201702</v>
       </c>
@@ -3965,7 +3975,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>201703</v>
       </c>
@@ -4036,7 +4046,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>201704</v>
       </c>
@@ -4105,7 +4115,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>201705</v>
       </c>
@@ -4174,7 +4184,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>201706</v>
       </c>
@@ -4244,7 +4254,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>201707</v>
       </c>
@@ -4314,7 +4324,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>201708</v>
       </c>
@@ -4384,7 +4394,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>201709</v>
       </c>
@@ -4454,7 +4464,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>201710</v>
       </c>
@@ -4524,7 +4534,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>201711</v>
       </c>
@@ -4594,7 +4604,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>201712</v>
       </c>
@@ -4664,7 +4674,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>201801</v>
       </c>
@@ -4726,7 +4736,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>201802</v>
       </c>
@@ -4788,7 +4798,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>201803</v>
       </c>
@@ -4850,7 +4860,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>201804</v>
       </c>
@@ -4912,7 +4922,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>201805</v>
       </c>
@@ -4923,7 +4933,7 @@
         <v>1923</v>
       </c>
       <c r="E72" s="2">
-        <f t="shared" ref="E72:E137" si="6">H72+K72+M72+S72</f>
+        <f t="shared" ref="E72:E142" si="6">H72+K72+M72+S72</f>
         <v>1</v>
       </c>
       <c r="H72" s="13">
@@ -4974,7 +4984,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>201806</v>
       </c>
@@ -5036,7 +5046,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>201807</v>
       </c>
@@ -5098,7 +5108,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>201808</v>
       </c>
@@ -5160,7 +5170,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>201809</v>
       </c>
@@ -5222,7 +5232,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>201810</v>
       </c>
@@ -5284,7 +5294,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>201811</v>
       </c>
@@ -5346,7 +5356,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>201812</v>
       </c>
@@ -5408,7 +5418,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>201901</v>
       </c>
@@ -5473,7 +5483,7 @@
         <v>0.35699999999999998</v>
       </c>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>201902</v>
       </c>
@@ -5538,7 +5548,7 @@
         <v>0.44700000000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>201903</v>
       </c>
@@ -5603,7 +5613,7 @@
         <v>0.59899999999999998</v>
       </c>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>201904</v>
       </c>
@@ -5665,7 +5675,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>201905</v>
       </c>
@@ -5727,7 +5737,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>201906</v>
       </c>
@@ -5789,7 +5799,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>201907</v>
       </c>
@@ -5851,7 +5861,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>201908</v>
       </c>
@@ -5913,7 +5923,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>201909</v>
       </c>
@@ -5975,7 +5985,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>201910</v>
       </c>
@@ -6037,7 +6047,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>201911</v>
       </c>
@@ -6099,7 +6109,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>201912</v>
       </c>
@@ -6161,7 +6171,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>202001</v>
       </c>
@@ -6226,7 +6236,7 @@
         <v>0.44800000000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>202002</v>
       </c>
@@ -6291,7 +6301,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>202003</v>
       </c>
@@ -6321,7 +6331,7 @@
         <v>2392</v>
       </c>
       <c r="O94" s="7">
-        <f t="shared" ref="O94:O137" si="7">N94/B94</f>
+        <f t="shared" ref="O94:O142" si="7">N94/B94</f>
         <v>0.19211308328648302</v>
       </c>
       <c r="Q94" s="14">
@@ -6356,7 +6366,7 @@
         <v>0.48499999999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>202004</v>
       </c>
@@ -6421,7 +6431,7 @@
         <v>0.437</v>
       </c>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>202005</v>
       </c>
@@ -6463,7 +6473,7 @@
         <v>3444</v>
       </c>
       <c r="S96" s="16">
-        <f t="shared" ref="S96:S137" si="8">R96/B96</f>
+        <f t="shared" ref="S96:S142" si="8">R96/B96</f>
         <v>0.43060765191297823</v>
       </c>
       <c r="T96">
@@ -6488,7 +6498,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>202006</v>
       </c>
@@ -6563,7 +6573,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>202007</v>
       </c>
@@ -6581,21 +6591,21 @@
         <v>1249</v>
       </c>
       <c r="H98" s="13">
-        <f t="shared" ref="H98:H137" si="9">G98/B98</f>
+        <f t="shared" ref="H98:H142" si="9">G98/B98</f>
         <v>0.12781416291444944</v>
       </c>
       <c r="J98">
         <v>1026</v>
       </c>
       <c r="K98" s="13">
-        <f t="shared" ref="K98:K137" si="10">J98/B98</f>
+        <f t="shared" ref="K98:K142" si="10">J98/B98</f>
         <v>0.10499386000818665</v>
       </c>
       <c r="L98">
         <v>3089</v>
       </c>
       <c r="M98" s="13">
-        <f t="shared" ref="M98:M137" si="11">L98/B98</f>
+        <f t="shared" ref="M98:M142" si="11">L98/B98</f>
         <v>0.31610724519033973</v>
       </c>
       <c r="N98">
@@ -6609,7 +6619,7 @@
         <v>811</v>
       </c>
       <c r="Q98" s="14">
-        <f t="shared" ref="Q98:Q137" si="12">P98/B98</f>
+        <f t="shared" ref="Q98:Q142" si="12">P98/B98</f>
         <v>8.2992222677036431E-2</v>
       </c>
       <c r="R98">
@@ -6641,7 +6651,7 @@
         <v>0.48699999999999999</v>
       </c>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>202008</v>
       </c>
@@ -6719,7 +6729,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>202009</v>
       </c>
@@ -6797,7 +6807,7 @@
         <v>0.45800000000000002</v>
       </c>
     </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>202010</v>
       </c>
@@ -6872,7 +6882,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>202011</v>
       </c>
@@ -6947,7 +6957,7 @@
         <v>0.48399999999999999</v>
       </c>
     </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>202012</v>
       </c>
@@ -7021,8 +7031,11 @@
       <c r="Z103" s="13">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA103" s="13">
+        <v>0.48699999999999999</v>
+      </c>
+    </row>
+    <row r="104" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>202101</v>
       </c>
@@ -7099,8 +7112,11 @@
       <c r="Z104" s="13">
         <v>0.56399999999999995</v>
       </c>
-    </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA104" s="13">
+        <v>0.51200000000000001</v>
+      </c>
+    </row>
+    <row r="105" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>202102</v>
       </c>
@@ -7174,8 +7190,11 @@
       <c r="Z105" s="13">
         <v>0.54300000000000004</v>
       </c>
-    </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA105" s="13">
+        <v>0.48899999999999999</v>
+      </c>
+    </row>
+    <row r="106" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>202103</v>
       </c>
@@ -7249,8 +7268,11 @@
       <c r="Z106" s="13">
         <v>0.55600000000000005</v>
       </c>
-    </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA106" s="13">
+        <v>0.496</v>
+      </c>
+    </row>
+    <row r="107" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>202104</v>
       </c>
@@ -7324,8 +7346,11 @@
       <c r="Z107" s="13">
         <v>0.45200000000000001</v>
       </c>
-    </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA107" s="13">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="108" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>202105</v>
       </c>
@@ -7402,8 +7427,11 @@
       <c r="Z108" s="13">
         <v>0.48399999999999999</v>
       </c>
-    </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA108" s="13">
+        <v>0.48799999999999999</v>
+      </c>
+    </row>
+    <row r="109" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>202106</v>
       </c>
@@ -7477,8 +7505,11 @@
       <c r="Z109" s="13">
         <v>0.502</v>
       </c>
-    </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA109" s="13">
+        <v>0.45100000000000001</v>
+      </c>
+    </row>
+    <row r="110" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>202107</v>
       </c>
@@ -7552,8 +7583,11 @@
       <c r="Z110" s="13">
         <v>0.48099999999999998</v>
       </c>
-    </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA110" s="13">
+        <v>0.44900000000000001</v>
+      </c>
+    </row>
+    <row r="111" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>202108</v>
       </c>
@@ -7627,8 +7661,11 @@
       <c r="Z111" s="13">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA111" s="13">
+        <v>0.42099999999999999</v>
+      </c>
+    </row>
+    <row r="112" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>202109</v>
       </c>
@@ -7702,8 +7739,11 @@
       <c r="Z112" s="13">
         <v>0.59099999999999997</v>
       </c>
-    </row>
-    <row r="113" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA112" s="13">
+        <v>0.34599999999999997</v>
+      </c>
+    </row>
+    <row r="113" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>202110</v>
       </c>
@@ -7777,8 +7817,11 @@
       <c r="Z113" s="13">
         <v>0.55000000000000004</v>
       </c>
-    </row>
-    <row r="114" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA113" s="13">
+        <v>0.45900000000000002</v>
+      </c>
+    </row>
+    <row r="114" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>202111</v>
       </c>
@@ -7852,8 +7895,11 @@
       <c r="Z114" s="13">
         <v>0.55700000000000005</v>
       </c>
-    </row>
-    <row r="115" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA114" s="13">
+        <v>0.40899999999999997</v>
+      </c>
+    </row>
+    <row r="115" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>202112</v>
       </c>
@@ -7927,8 +7973,11 @@
       <c r="Z115" s="13">
         <v>0.46600000000000003</v>
       </c>
-    </row>
-    <row r="116" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA115" s="13">
+        <v>0.47599999999999998</v>
+      </c>
+    </row>
+    <row r="116" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>202201</v>
       </c>
@@ -8002,8 +8051,11 @@
       <c r="Z116" s="13">
         <v>0.60499999999999998</v>
       </c>
-    </row>
-    <row r="117" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA116" s="13">
+        <v>0.39200000000000002</v>
+      </c>
+    </row>
+    <row r="117" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>202202</v>
       </c>
@@ -8077,8 +8129,11 @@
       <c r="Z117" s="13">
         <v>0.55300000000000005</v>
       </c>
-    </row>
-    <row r="118" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA117" s="13">
+        <v>0.44800000000000001</v>
+      </c>
+    </row>
+    <row r="118" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>202203</v>
       </c>
@@ -8152,8 +8207,11 @@
       <c r="Z118" s="13">
         <v>0.69699999999999995</v>
       </c>
-    </row>
-    <row r="119" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA118" s="13">
+        <v>0.34599999999999997</v>
+      </c>
+    </row>
+    <row r="119" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>202204</v>
       </c>
@@ -8227,8 +8285,11 @@
       <c r="Z119" s="13">
         <v>0.56499999999999995</v>
       </c>
-    </row>
-    <row r="120" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA119" s="13">
+        <v>0.497</v>
+      </c>
+    </row>
+    <row r="120" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>202205</v>
       </c>
@@ -8302,8 +8363,11 @@
       <c r="Z120" s="13">
         <v>0.61499999999999999</v>
       </c>
-    </row>
-    <row r="121" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA120" s="13">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="121" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>202206</v>
       </c>
@@ -8377,8 +8441,11 @@
       <c r="Z121" s="13">
         <v>0.69</v>
       </c>
-    </row>
-    <row r="122" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA121" s="13">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="122" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>202207</v>
       </c>
@@ -8452,8 +8519,11 @@
       <c r="Z122" s="13">
         <v>0.61499999999999999</v>
       </c>
-    </row>
-    <row r="123" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA122" s="13">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="123" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>202208</v>
       </c>
@@ -8527,8 +8597,11 @@
       <c r="Z123" s="13">
         <v>0.623</v>
       </c>
-    </row>
-    <row r="124" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA123" s="13">
+        <v>0.441</v>
+      </c>
+    </row>
+    <row r="124" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>202209</v>
       </c>
@@ -8602,8 +8675,11 @@
       <c r="Z124" s="13">
         <v>0.70799999999999996</v>
       </c>
-    </row>
-    <row r="125" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA124" s="13">
+        <v>0.38100000000000001</v>
+      </c>
+    </row>
+    <row r="125" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>202210</v>
       </c>
@@ -8677,8 +8753,11 @@
       <c r="Z125" s="13">
         <v>0.60399999999999998</v>
       </c>
-    </row>
-    <row r="126" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA125" s="13">
+        <v>0.433</v>
+      </c>
+    </row>
+    <row r="126" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>202211</v>
       </c>
@@ -8752,8 +8831,11 @@
       <c r="Z126" s="13">
         <v>0.72299999999999998</v>
       </c>
-    </row>
-    <row r="127" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA126" s="13">
+        <v>0.34200000000000003</v>
+      </c>
+    </row>
+    <row r="127" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>202212</v>
       </c>
@@ -8789,19 +8871,19 @@
         <v>8.3373420766134132E-2</v>
       </c>
       <c r="N127" s="17">
-        <v>1896</v>
+        <v>1905</v>
       </c>
       <c r="O127" s="7">
         <f t="shared" si="7"/>
-        <v>4.8003645846519991E-2</v>
+        <v>4.8231511254019289E-2</v>
       </c>
       <c r="P127" s="17">
         <f>L127-N127</f>
-        <v>1397</v>
+        <v>1388</v>
       </c>
       <c r="Q127" s="14">
         <f t="shared" si="12"/>
-        <v>3.5369774919614148E-2</v>
+        <v>3.5141909512114843E-2</v>
       </c>
       <c r="R127">
         <v>32714</v>
@@ -8828,8 +8910,11 @@
       <c r="Z127" s="13">
         <v>0.73499999999999999</v>
       </c>
-    </row>
-    <row r="128" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA127" s="13">
+        <v>0.40799999999999997</v>
+      </c>
+    </row>
+    <row r="128" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>202301</v>
       </c>
@@ -8903,8 +8988,11 @@
       <c r="Z128" s="13">
         <v>0.51600000000000001</v>
       </c>
-    </row>
-    <row r="129" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA128" s="13">
+        <v>0.55300000000000005</v>
+      </c>
+    </row>
+    <row r="129" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>202302</v>
       </c>
@@ -8978,8 +9066,11 @@
       <c r="Z129" s="13">
         <v>0.57099999999999995</v>
       </c>
-    </row>
-    <row r="130" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA129" s="13">
+        <v>0.41699999999999998</v>
+      </c>
+    </row>
+    <row r="130" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>202303</v>
       </c>
@@ -9053,8 +9144,11 @@
       <c r="Z130" s="13">
         <v>0.68100000000000005</v>
       </c>
-    </row>
-    <row r="131" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA130" s="13">
+        <v>0.33800000000000002</v>
+      </c>
+    </row>
+    <row r="131" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>202304</v>
       </c>
@@ -9128,8 +9222,11 @@
       <c r="Z131" s="13">
         <v>0.64100000000000001</v>
       </c>
-    </row>
-    <row r="132" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA131" s="13">
+        <v>0.46800000000000003</v>
+      </c>
+    </row>
+    <row r="132" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>202305</v>
       </c>
@@ -9203,8 +9300,11 @@
       <c r="Z132" s="13">
         <v>0.64600000000000002</v>
       </c>
-    </row>
-    <row r="133" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA132" s="13">
+        <v>0.42099999999999999</v>
+      </c>
+    </row>
+    <row r="133" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>202306</v>
       </c>
@@ -9278,8 +9378,11 @@
       <c r="Z133" s="13">
         <v>0.64500000000000002</v>
       </c>
-    </row>
-    <row r="134" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA133" s="13">
+        <v>0.438</v>
+      </c>
+    </row>
+    <row r="134" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>202307</v>
       </c>
@@ -9353,8 +9456,11 @@
       <c r="Z134" s="13">
         <v>0.63300000000000001</v>
       </c>
-    </row>
-    <row r="135" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA134" s="13">
+        <v>0.45300000000000001</v>
+      </c>
+    </row>
+    <row r="135" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>202308</v>
       </c>
@@ -9428,8 +9534,11 @@
       <c r="Z135" s="13">
         <v>0.66500000000000004</v>
       </c>
-    </row>
-    <row r="136" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA135" s="13">
+        <v>0.47599999999999998</v>
+      </c>
+    </row>
+    <row r="136" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>202309</v>
       </c>
@@ -9503,8 +9612,11 @@
       <c r="Z136" s="13">
         <v>0.69099999999999995</v>
       </c>
-    </row>
-    <row r="137" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA136" s="13">
+        <v>0.436</v>
+      </c>
+    </row>
+    <row r="137" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>202310</v>
       </c>
@@ -9575,14 +9687,425 @@
       <c r="Y137">
         <v>43</v>
       </c>
+      <c r="Z137" s="13">
+        <v>0.66800000000000004</v>
+      </c>
+      <c r="AA137" s="13">
+        <v>0.495</v>
+      </c>
+    </row>
+    <row r="138" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A138">
+        <v>202311</v>
+      </c>
+      <c r="B138">
+        <v>10348</v>
+      </c>
+      <c r="C138">
+        <v>289</v>
+      </c>
+      <c r="D138">
+        <v>2842</v>
+      </c>
+      <c r="E138" s="2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G138">
+        <v>207</v>
+      </c>
+      <c r="H138" s="13">
+        <f t="shared" si="9"/>
+        <v>2.0003865481252416E-2</v>
+      </c>
+      <c r="J138">
+        <v>59</v>
+      </c>
+      <c r="K138" s="13">
+        <f t="shared" si="10"/>
+        <v>5.7015848473134902E-3</v>
+      </c>
+      <c r="L138">
+        <v>1640</v>
+      </c>
+      <c r="M138" s="13">
+        <f t="shared" si="11"/>
+        <v>0.15848473134905297</v>
+      </c>
+      <c r="N138">
+        <v>938</v>
+      </c>
+      <c r="O138" s="7">
+        <f t="shared" si="7"/>
+        <v>9.0645535369153457E-2</v>
+      </c>
+      <c r="P138">
+        <v>702</v>
+      </c>
+      <c r="Q138" s="14">
+        <f t="shared" si="12"/>
+        <v>6.78391959798995E-2</v>
+      </c>
+      <c r="R138">
+        <v>8442</v>
+      </c>
+      <c r="S138" s="16">
+        <f t="shared" si="8"/>
+        <v>0.81580981832238109</v>
+      </c>
+      <c r="U138">
+        <v>163</v>
+      </c>
+      <c r="V138">
+        <v>784</v>
+      </c>
+      <c r="W138">
+        <v>0</v>
+      </c>
+      <c r="X138">
+        <v>547</v>
+      </c>
+      <c r="Y138">
+        <v>79</v>
+      </c>
+      <c r="Z138" s="13">
+        <v>0.7</v>
+      </c>
+      <c r="AA138" s="13">
+        <v>0.48499999999999999</v>
+      </c>
+    </row>
+    <row r="139" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A139">
+        <v>202312</v>
+      </c>
+      <c r="B139">
+        <v>12183</v>
+      </c>
+      <c r="C139">
+        <v>236</v>
+      </c>
+      <c r="D139">
+        <v>3883</v>
+      </c>
+      <c r="E139" s="2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G139">
+        <v>380</v>
+      </c>
+      <c r="H139" s="13">
+        <f t="shared" si="9"/>
+        <v>3.1191003857834687E-2</v>
+      </c>
+      <c r="J139">
+        <v>183</v>
+      </c>
+      <c r="K139" s="13">
+        <f t="shared" si="10"/>
+        <v>1.5020930805220389E-2</v>
+      </c>
+      <c r="L139">
+        <v>2663</v>
+      </c>
+      <c r="M139" s="13">
+        <f t="shared" si="11"/>
+        <v>0.21858327177214151</v>
+      </c>
+      <c r="N139">
+        <v>1954</v>
+      </c>
+      <c r="O139" s="7">
+        <f t="shared" si="7"/>
+        <v>0.16038742510054996</v>
+      </c>
+      <c r="P139">
+        <v>709</v>
+      </c>
+      <c r="Q139" s="14">
+        <f t="shared" si="12"/>
+        <v>5.8195846671591563E-2</v>
+      </c>
+      <c r="R139">
+        <v>8957</v>
+      </c>
+      <c r="S139" s="16">
+        <f t="shared" si="8"/>
+        <v>0.73520479356480339</v>
+      </c>
+      <c r="U139">
+        <v>120</v>
+      </c>
+      <c r="V139">
+        <v>964</v>
+      </c>
+      <c r="W139">
+        <v>3</v>
+      </c>
+      <c r="X139">
+        <v>380</v>
+      </c>
+      <c r="Y139">
+        <v>117</v>
+      </c>
+      <c r="Z139" s="13">
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="AA139" s="13">
+        <v>0.56899999999999995</v>
+      </c>
+    </row>
+    <row r="140" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A140">
+        <v>202401</v>
+      </c>
+      <c r="B140">
+        <v>5122</v>
+      </c>
+      <c r="C140">
+        <v>245</v>
+      </c>
+      <c r="D140">
+        <v>1416</v>
+      </c>
+      <c r="E140" s="2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G140">
+        <v>103</v>
+      </c>
+      <c r="H140" s="13">
+        <f t="shared" si="9"/>
+        <v>2.0109332292073408E-2</v>
+      </c>
+      <c r="J140">
+        <v>44</v>
+      </c>
+      <c r="K140" s="13">
+        <f t="shared" si="10"/>
+        <v>8.5903943771964072E-3</v>
+      </c>
+      <c r="L140">
+        <v>258</v>
+      </c>
+      <c r="M140" s="13">
+        <f t="shared" si="11"/>
+        <v>5.0370948848106209E-2</v>
+      </c>
+      <c r="N140">
+        <v>94</v>
+      </c>
+      <c r="O140" s="7">
+        <f t="shared" si="7"/>
+        <v>1.8352206169465052E-2</v>
+      </c>
+      <c r="P140">
+        <v>164</v>
+      </c>
+      <c r="Q140" s="14">
+        <f t="shared" si="12"/>
+        <v>3.2018742678641153E-2</v>
+      </c>
+      <c r="R140">
+        <v>4717</v>
+      </c>
+      <c r="S140" s="16">
+        <f t="shared" si="8"/>
+        <v>0.92092932448262399</v>
+      </c>
+      <c r="U140">
+        <v>148</v>
+      </c>
+      <c r="V140">
+        <v>519</v>
+      </c>
+      <c r="W140">
+        <v>2</v>
+      </c>
+      <c r="X140">
+        <v>536</v>
+      </c>
+      <c r="Y140">
+        <v>32</v>
+      </c>
+      <c r="Z140" s="13">
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="AA140" s="13">
+        <v>0.41399999999999998</v>
+      </c>
+    </row>
+    <row r="141" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A141">
+        <v>202402</v>
+      </c>
+      <c r="B141">
+        <v>7380</v>
+      </c>
+      <c r="C141">
+        <v>314</v>
+      </c>
+      <c r="D141">
+        <v>2674</v>
+      </c>
+      <c r="E141" s="2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G141">
+        <v>198</v>
+      </c>
+      <c r="H141" s="13">
+        <f t="shared" si="9"/>
+        <v>2.6829268292682926E-2</v>
+      </c>
+      <c r="J141">
+        <v>76</v>
+      </c>
+      <c r="K141" s="13">
+        <f t="shared" si="10"/>
+        <v>1.0298102981029811E-2</v>
+      </c>
+      <c r="L141">
+        <v>459</v>
+      </c>
+      <c r="M141" s="13">
+        <f t="shared" si="11"/>
+        <v>6.2195121951219512E-2</v>
+      </c>
+      <c r="N141">
+        <v>147</v>
+      </c>
+      <c r="O141" s="7">
+        <f t="shared" si="7"/>
+        <v>1.9918699186991871E-2</v>
+      </c>
+      <c r="P141">
+        <v>312</v>
+      </c>
+      <c r="Q141" s="14">
+        <f t="shared" si="12"/>
+        <v>4.2276422764227641E-2</v>
+      </c>
+      <c r="R141">
+        <v>6647</v>
+      </c>
+      <c r="S141" s="16">
+        <f t="shared" si="8"/>
+        <v>0.90067750677506775</v>
+      </c>
+      <c r="U141">
+        <v>218</v>
+      </c>
+      <c r="V141">
+        <v>1055</v>
+      </c>
+      <c r="W141">
+        <v>4</v>
+      </c>
+      <c r="X141">
+        <v>485</v>
+      </c>
+      <c r="Y141">
+        <v>54</v>
+      </c>
+      <c r="Z141" s="13">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="AA141" s="13">
+        <v>0.42099999999999999</v>
+      </c>
+    </row>
+    <row r="142" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A142">
+        <v>202403</v>
+      </c>
+      <c r="B142">
+        <v>9750</v>
+      </c>
+      <c r="C142">
+        <v>403</v>
+      </c>
+      <c r="D142">
+        <v>2513</v>
+      </c>
+      <c r="E142" s="2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G142">
+        <v>198</v>
+      </c>
+      <c r="H142" s="13">
+        <f t="shared" si="9"/>
+        <v>2.0307692307692308E-2</v>
+      </c>
+      <c r="J142">
+        <v>76</v>
+      </c>
+      <c r="K142" s="13">
+        <f t="shared" si="10"/>
+        <v>7.7948717948717952E-3</v>
+      </c>
+      <c r="L142">
+        <v>767</v>
+      </c>
+      <c r="M142" s="13">
+        <f t="shared" si="11"/>
+        <v>7.8666666666666663E-2</v>
+      </c>
+      <c r="N142">
+        <v>210</v>
+      </c>
+      <c r="O142" s="7">
+        <f t="shared" si="7"/>
+        <v>2.1538461538461538E-2</v>
+      </c>
+      <c r="P142">
+        <v>557</v>
+      </c>
+      <c r="Q142" s="14">
+        <f t="shared" si="12"/>
+        <v>5.7128205128205128E-2</v>
+      </c>
+      <c r="R142">
+        <v>8709</v>
+      </c>
+      <c r="S142" s="16">
+        <f t="shared" si="8"/>
+        <v>0.89323076923076927</v>
+      </c>
+      <c r="U142">
+        <v>284</v>
+      </c>
+      <c r="V142">
+        <v>864</v>
+      </c>
+      <c r="W142">
+        <v>8</v>
+      </c>
+      <c r="X142">
+        <v>438</v>
+      </c>
+      <c r="Y142">
+        <v>37</v>
+      </c>
+      <c r="Z142" s="13">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="AA142" s="13">
+        <v>0.47699999999999998</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E1:E137 E140:E1048576">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="lessThan">
-      <formula>0.99</formula>
-    </cfRule>
+  <conditionalFormatting sqref="E1:E1048576">
     <cfRule type="containsBlanks" priority="2" stopIfTrue="1">
       <formula>LEN(TRIM(E1))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="lessThan">
+      <formula>0.99</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9599,24 +10122,24 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -9630,17 +10153,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010074D02CDF85BB3C43825BB38CAE9C40BF" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="62feba1939917040a6b1ec14de8a482b">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1ae9c94a-2673-46e1-b5a6-dc0c87eae04c" xmlns:ns3="5083af8e-c479-4bff-9f3e-2a380844c8c1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="78886e55d6c6caec8810e425b736b93a" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010074D02CDF85BB3C43825BB38CAE9C40BF" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1b73d6116ab50935105d8c7eae16e965">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1ae9c94a-2673-46e1-b5a6-dc0c87eae04c" xmlns:ns3="5083af8e-c479-4bff-9f3e-2a380844c8c1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d31ceb4bd609c72a5ef3b8d383532d93" ns2:_="" ns3:_="">
     <xsd:import namespace="1ae9c94a-2673-46e1-b5a6-dc0c87eae04c"/>
     <xsd:import namespace="5083af8e-c479-4bff-9f3e-2a380844c8c1"/>
     <xsd:element name="properties">
@@ -9893,6 +10407,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -9905,15 +10428,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF887100-7B50-47F5-87D7-ABDD1957FF85}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{46F1A33C-471B-4837-B594-FCF42F1264AA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9FFB6F8C-39B1-4885-9E39-23297604E0E3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -9927,6 +10442,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF887100-7B50-47F5-87D7-ABDD1957FF85}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/EV/data/bilsalg.xlsx
+++ b/EV/data/bilsalg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roberan\CICERO senter for klimaforskning\CM - Documents\SmallJobs\2019\201903_bilsalg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cicero.sharepoint.com/sites/Group-ClimateMitigation/Shared Documents/SmallJobs/2019/201903_bilsalg/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DBFD6F7-B7AB-42E0-9CD3-5DA37D125FC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="13_ncr:1_{86895BED-31D7-474B-A798-158E65269AF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD05D8A4-6D85-4D51-9FE7-C32D7E7D4BFB}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{94A590A3-A19D-4EDC-866B-407362CF22C8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="16800" xr2:uid="{94A590A3-A19D-4EDC-866B-407362CF22C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -60,6 +60,31 @@
           </rPr>
           <t xml:space="preserve">
 Share of new cars (excl used imports)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB1" authorId="0" shapeId="0" xr:uid="{53C7E4BB-15C2-4D0F-BB06-B27DF297FF00}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Robbie Andrew:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Førstegangsregistrerte kjøretøy i Norge
+https://www.vegvesen.no/fag/trafikk/kjoretoystatistikk/</t>
         </r>
       </text>
     </comment>
@@ -306,7 +331,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Hydrogenbil</t>
   </si>
@@ -396,6 +421,33 @@
   </si>
   <si>
     <t>Næringsandel (personbiler)</t>
+  </si>
+  <si>
+    <t>These numbers are not identical with those from Statens Vegvesen, which is the official register</t>
+  </si>
+  <si>
+    <t>e.g.</t>
+  </si>
+  <si>
+    <t>https://www.vegvesen.no/globalassets/fag/trafikk/kjoretoystatistikk/forstegangsregistrering-i-norge-tabell-32-aret-2023.pdf</t>
+  </si>
+  <si>
+    <t>SVV personbiler</t>
+  </si>
+  <si>
+    <t>SVV busser</t>
+  </si>
+  <si>
+    <t>SVV varebiler</t>
+  </si>
+  <si>
+    <t>SVV lastebiler</t>
+  </si>
+  <si>
+    <t>SVV trekkbiler</t>
+  </si>
+  <si>
+    <t>Period</t>
   </si>
 </sst>
 </file>
@@ -861,29 +913,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A23E6F8-FBFE-40A4-8A3E-1BC2B49C4A9C}">
-  <dimension ref="A1:AA142"/>
+  <dimension ref="A1:AF147"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B124" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="U126" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E142" sqref="E142"/>
+      <selection pane="bottomRight" activeCell="AA5" sqref="AA5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="12" max="12" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="11.453125" customWidth="1"/>
-    <col min="18" max="18" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.453125" customWidth="1"/>
-    <col min="22" max="22" width="10.453125" customWidth="1"/>
-    <col min="23" max="23" width="11.453125" customWidth="1"/>
+    <col min="12" max="12" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="11.44140625" customWidth="1"/>
+    <col min="18" max="18" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.44140625" customWidth="1"/>
+    <col min="22" max="22" width="10.44140625" customWidth="1"/>
+    <col min="23" max="23" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="59.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:32" ht="59.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
       <c r="B1" s="3" t="s">
         <v>7</v>
       </c>
@@ -962,8 +1017,23 @@
       <c r="AA1" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AB1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1994</v>
       </c>
@@ -992,7 +1062,7 @@
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
     </row>
-    <row r="3" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1995</v>
       </c>
@@ -1021,7 +1091,7 @@
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
     </row>
-    <row r="4" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1996</v>
       </c>
@@ -1050,7 +1120,7 @@
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
     </row>
-    <row r="5" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1997</v>
       </c>
@@ -1081,7 +1151,7 @@
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
     </row>
-    <row r="6" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1998</v>
       </c>
@@ -1110,7 +1180,7 @@
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
     </row>
-    <row r="7" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1999</v>
       </c>
@@ -1139,7 +1209,7 @@
       <c r="X7" s="3"/>
       <c r="Y7" s="3"/>
     </row>
-    <row r="8" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2000</v>
       </c>
@@ -1168,7 +1238,7 @@
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
     </row>
-    <row r="9" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2001</v>
       </c>
@@ -1197,7 +1267,7 @@
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
     </row>
-    <row r="10" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2002</v>
       </c>
@@ -1228,7 +1298,7 @@
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
     </row>
-    <row r="11" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2003</v>
       </c>
@@ -1257,7 +1327,7 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
     </row>
-    <row r="12" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2004</v>
       </c>
@@ -1292,7 +1362,7 @@
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
     </row>
-    <row r="13" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>200512</v>
       </c>
@@ -1329,7 +1399,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2005</v>
       </c>
@@ -1368,7 +1438,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>200612</v>
       </c>
@@ -1405,7 +1475,7 @@
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
     </row>
-    <row r="16" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2006</v>
       </c>
@@ -1440,7 +1510,7 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
     </row>
-    <row r="17" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>200712</v>
       </c>
@@ -1475,7 +1545,7 @@
       <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
     </row>
-    <row r="18" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2007</v>
       </c>
@@ -1518,7 +1588,7 @@
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
     </row>
-    <row r="19" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>200812</v>
       </c>
@@ -1555,7 +1625,7 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
     </row>
-    <row r="20" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2008</v>
       </c>
@@ -1599,7 +1669,7 @@
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
     </row>
-    <row r="21" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>200912</v>
       </c>
@@ -1634,7 +1704,7 @@
       <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
     </row>
-    <row r="22" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2009</v>
       </c>
@@ -1677,7 +1747,7 @@
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
     </row>
-    <row r="23" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>201012</v>
       </c>
@@ -1716,7 +1786,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="24" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2010</v>
       </c>
@@ -1766,7 +1836,7 @@
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
     </row>
-    <row r="25" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>201112</v>
       </c>
@@ -1817,7 +1887,7 @@
       <c r="X25" s="3"/>
       <c r="Y25" s="3"/>
     </row>
-    <row r="26" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2011</v>
       </c>
@@ -1869,7 +1939,7 @@
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
     </row>
-    <row r="27" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>201212</v>
       </c>
@@ -1921,7 +1991,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2012</v>
       </c>
@@ -1973,7 +2043,7 @@
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
     </row>
-    <row r="29" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>201312</v>
       </c>
@@ -2027,7 +2097,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="30" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2013</v>
       </c>
@@ -2092,7 +2162,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="31" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2014</v>
       </c>
@@ -2156,7 +2226,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>201501</v>
       </c>
@@ -2223,7 +2293,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>201502</v>
       </c>
@@ -2284,7 +2354,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>201503</v>
       </c>
@@ -2341,7 +2411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>201504</v>
       </c>
@@ -2399,7 +2469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>201505</v>
       </c>
@@ -2468,7 +2538,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>201506</v>
       </c>
@@ -2528,7 +2598,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>201507</v>
       </c>
@@ -2603,7 +2673,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>201508</v>
       </c>
@@ -2678,7 +2748,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>201509</v>
       </c>
@@ -2757,7 +2827,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>201510</v>
       </c>
@@ -2837,7 +2907,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>201511</v>
       </c>
@@ -2917,7 +2987,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>201512</v>
       </c>
@@ -2997,7 +3067,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>201601</v>
       </c>
@@ -3062,7 +3132,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>201602</v>
       </c>
@@ -3125,7 +3195,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>201603</v>
       </c>
@@ -3188,7 +3258,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>201604</v>
       </c>
@@ -3255,7 +3325,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>201605</v>
       </c>
@@ -3322,7 +3392,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>201606</v>
       </c>
@@ -3395,7 +3465,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>201607</v>
       </c>
@@ -3468,7 +3538,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>201608</v>
       </c>
@@ -3541,7 +3611,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>201609</v>
       </c>
@@ -3614,7 +3684,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>201610</v>
       </c>
@@ -3687,7 +3757,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>201611</v>
       </c>
@@ -3760,7 +3830,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>201612</v>
       </c>
@@ -3833,7 +3903,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>201701</v>
       </c>
@@ -3904,7 +3974,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>201702</v>
       </c>
@@ -3975,7 +4045,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>201703</v>
       </c>
@@ -4046,7 +4116,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>201704</v>
       </c>
@@ -4115,7 +4185,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>201705</v>
       </c>
@@ -4184,7 +4254,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>201706</v>
       </c>
@@ -4254,7 +4324,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>201707</v>
       </c>
@@ -4324,7 +4394,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>201708</v>
       </c>
@@ -4394,7 +4464,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>201709</v>
       </c>
@@ -4464,7 +4534,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>201710</v>
       </c>
@@ -4534,7 +4604,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>201711</v>
       </c>
@@ -4604,7 +4674,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>201712</v>
       </c>
@@ -4674,7 +4744,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>201801</v>
       </c>
@@ -4736,7 +4806,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>201802</v>
       </c>
@@ -4798,7 +4868,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>201803</v>
       </c>
@@ -4860,7 +4930,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>201804</v>
       </c>
@@ -4922,7 +4992,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>201805</v>
       </c>
@@ -4933,7 +5003,7 @@
         <v>1923</v>
       </c>
       <c r="E72" s="2">
-        <f t="shared" ref="E72:E142" si="6">H72+K72+M72+S72</f>
+        <f t="shared" ref="E72:E147" si="6">H72+K72+M72+S72</f>
         <v>1</v>
       </c>
       <c r="H72" s="13">
@@ -4984,7 +5054,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>201806</v>
       </c>
@@ -5046,7 +5116,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>201807</v>
       </c>
@@ -5108,7 +5178,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>201808</v>
       </c>
@@ -5170,7 +5240,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>201809</v>
       </c>
@@ -5232,7 +5302,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>201810</v>
       </c>
@@ -5294,7 +5364,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>201811</v>
       </c>
@@ -5356,7 +5426,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>201812</v>
       </c>
@@ -5418,7 +5488,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>201901</v>
       </c>
@@ -5482,8 +5552,23 @@
       <c r="Z80" s="13">
         <v>0.35699999999999998</v>
       </c>
-    </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AB80">
+        <v>10487</v>
+      </c>
+      <c r="AC80">
+        <v>50</v>
+      </c>
+      <c r="AD80">
+        <v>2735</v>
+      </c>
+      <c r="AE80">
+        <v>392</v>
+      </c>
+      <c r="AF80">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="81" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>201902</v>
       </c>
@@ -5547,8 +5632,23 @@
       <c r="Z81" s="13">
         <v>0.44700000000000001</v>
       </c>
-    </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AB81">
+        <v>12453</v>
+      </c>
+      <c r="AC81">
+        <v>54</v>
+      </c>
+      <c r="AD81">
+        <v>2777</v>
+      </c>
+      <c r="AE81">
+        <v>337</v>
+      </c>
+      <c r="AF81">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="82" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>201903</v>
       </c>
@@ -5612,8 +5712,23 @@
       <c r="Z82" s="13">
         <v>0.59899999999999998</v>
       </c>
-    </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AB82">
+        <v>20061</v>
+      </c>
+      <c r="AC82">
+        <v>82</v>
+      </c>
+      <c r="AD82">
+        <v>3407</v>
+      </c>
+      <c r="AE82">
+        <v>410</v>
+      </c>
+      <c r="AF82">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="83" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>201904</v>
       </c>
@@ -5674,8 +5789,23 @@
       <c r="Y83">
         <v>75</v>
       </c>
-    </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AB83">
+        <v>13023</v>
+      </c>
+      <c r="AC83">
+        <v>82</v>
+      </c>
+      <c r="AD83">
+        <v>3365</v>
+      </c>
+      <c r="AE83">
+        <v>398</v>
+      </c>
+      <c r="AF83">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="84" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>201905</v>
       </c>
@@ -5736,8 +5866,23 @@
       <c r="Y84">
         <v>203</v>
       </c>
-    </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AB84">
+        <v>15349</v>
+      </c>
+      <c r="AC84">
+        <v>210</v>
+      </c>
+      <c r="AD84">
+        <v>3311</v>
+      </c>
+      <c r="AE84">
+        <v>424</v>
+      </c>
+      <c r="AF84">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="85" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>201906</v>
       </c>
@@ -5798,8 +5943,23 @@
       <c r="Y85">
         <v>696</v>
       </c>
-    </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AB85">
+        <v>17331</v>
+      </c>
+      <c r="AC85">
+        <v>710</v>
+      </c>
+      <c r="AD85">
+        <v>3287</v>
+      </c>
+      <c r="AE85">
+        <v>399</v>
+      </c>
+      <c r="AF85">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="86" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>201907</v>
       </c>
@@ -5860,8 +6020,23 @@
       <c r="Y86">
         <v>585</v>
       </c>
-    </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AB86">
+        <v>11376</v>
+      </c>
+      <c r="AC86">
+        <v>585</v>
+      </c>
+      <c r="AD86">
+        <v>2380</v>
+      </c>
+      <c r="AE86">
+        <v>275</v>
+      </c>
+      <c r="AF86">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="87" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>201908</v>
       </c>
@@ -5922,8 +6097,23 @@
       <c r="Y87">
         <v>231</v>
       </c>
-    </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AB87">
+        <v>14069</v>
+      </c>
+      <c r="AC87">
+        <v>234</v>
+      </c>
+      <c r="AD87">
+        <v>4630</v>
+      </c>
+      <c r="AE87">
+        <v>475</v>
+      </c>
+      <c r="AF87">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="88" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>201909</v>
       </c>
@@ -5984,8 +6174,23 @@
       <c r="Y88">
         <v>99</v>
       </c>
-    </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AB88">
+        <v>12815</v>
+      </c>
+      <c r="AC88">
+        <v>111</v>
+      </c>
+      <c r="AD88">
+        <v>2601</v>
+      </c>
+      <c r="AE88">
+        <v>372</v>
+      </c>
+      <c r="AF88">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="89" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>201910</v>
       </c>
@@ -6046,8 +6251,23 @@
       <c r="Y89">
         <v>115</v>
       </c>
-    </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AB89">
+        <v>11993</v>
+      </c>
+      <c r="AC89">
+        <v>129</v>
+      </c>
+      <c r="AD89">
+        <v>2703</v>
+      </c>
+      <c r="AE89">
+        <v>515</v>
+      </c>
+      <c r="AF89">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="90" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>201911</v>
       </c>
@@ -6108,8 +6328,23 @@
       <c r="Y90">
         <v>45</v>
       </c>
-    </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AB90">
+        <v>11108</v>
+      </c>
+      <c r="AC90">
+        <v>50</v>
+      </c>
+      <c r="AD90">
+        <v>2621</v>
+      </c>
+      <c r="AE90">
+        <v>417</v>
+      </c>
+      <c r="AF90">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="91" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>201912</v>
       </c>
@@ -6170,8 +6405,23 @@
       <c r="Y91">
         <v>118</v>
       </c>
-    </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AB91">
+        <v>12027</v>
+      </c>
+      <c r="AC91">
+        <v>122</v>
+      </c>
+      <c r="AD91">
+        <v>2927</v>
+      </c>
+      <c r="AE91">
+        <v>266</v>
+      </c>
+      <c r="AF91">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="92" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>202001</v>
       </c>
@@ -6235,8 +6485,23 @@
       <c r="Z92" s="13">
         <v>0.44800000000000001</v>
       </c>
-    </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AB92">
+        <v>10494</v>
+      </c>
+      <c r="AC92">
+        <v>104</v>
+      </c>
+      <c r="AD92">
+        <v>2733</v>
+      </c>
+      <c r="AE92">
+        <v>443</v>
+      </c>
+      <c r="AF92">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="93" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>202002</v>
       </c>
@@ -6300,8 +6565,23 @@
       <c r="Z93" s="13">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AB93">
+        <v>11359</v>
+      </c>
+      <c r="AC93">
+        <v>27</v>
+      </c>
+      <c r="AD93">
+        <v>2741</v>
+      </c>
+      <c r="AE93">
+        <v>266</v>
+      </c>
+      <c r="AF93">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="94" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>202003</v>
       </c>
@@ -6331,7 +6611,7 @@
         <v>2392</v>
       </c>
       <c r="O94" s="7">
-        <f t="shared" ref="O94:O142" si="7">N94/B94</f>
+        <f t="shared" ref="O94:O147" si="7">N94/B94</f>
         <v>0.19211308328648302</v>
       </c>
       <c r="Q94" s="14">
@@ -6365,8 +6645,23 @@
       <c r="Z94" s="13">
         <v>0.48499999999999999</v>
       </c>
-    </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AB94">
+        <v>13236</v>
+      </c>
+      <c r="AC94">
+        <v>60</v>
+      </c>
+      <c r="AD94">
+        <v>2738</v>
+      </c>
+      <c r="AE94">
+        <v>335</v>
+      </c>
+      <c r="AF94">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>202004</v>
       </c>
@@ -6430,8 +6725,23 @@
       <c r="Z95" s="13">
         <v>0.437</v>
       </c>
-    </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AB95">
+        <v>8351</v>
+      </c>
+      <c r="AC95">
+        <v>120</v>
+      </c>
+      <c r="AD95">
+        <v>1996</v>
+      </c>
+      <c r="AE95">
+        <v>377</v>
+      </c>
+      <c r="AF95">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="96" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>202005</v>
       </c>
@@ -6473,7 +6783,7 @@
         <v>3444</v>
       </c>
       <c r="S96" s="16">
-        <f t="shared" ref="S96:S142" si="8">R96/B96</f>
+        <f t="shared" ref="S96:S147" si="8">R96/B96</f>
         <v>0.43060765191297823</v>
       </c>
       <c r="T96">
@@ -6497,8 +6807,23 @@
       <c r="Z96" s="13">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="97" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB96">
+        <v>9554</v>
+      </c>
+      <c r="AC96">
+        <v>78</v>
+      </c>
+      <c r="AD96">
+        <v>1891</v>
+      </c>
+      <c r="AE96">
+        <v>345</v>
+      </c>
+      <c r="AF96">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="97" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>202006</v>
       </c>
@@ -6572,8 +6897,23 @@
       <c r="Z97" s="13">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="98" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB97">
+        <v>13256</v>
+      </c>
+      <c r="AC97">
+        <v>388</v>
+      </c>
+      <c r="AD97">
+        <v>2180</v>
+      </c>
+      <c r="AE97">
+        <v>327</v>
+      </c>
+      <c r="AF97">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="98" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>202007</v>
       </c>
@@ -6591,21 +6931,21 @@
         <v>1249</v>
       </c>
       <c r="H98" s="13">
-        <f t="shared" ref="H98:H142" si="9">G98/B98</f>
+        <f t="shared" ref="H98:H147" si="9">G98/B98</f>
         <v>0.12781416291444944</v>
       </c>
       <c r="J98">
         <v>1026</v>
       </c>
       <c r="K98" s="13">
-        <f t="shared" ref="K98:K142" si="10">J98/B98</f>
+        <f t="shared" ref="K98:K147" si="10">J98/B98</f>
         <v>0.10499386000818665</v>
       </c>
       <c r="L98">
         <v>3089</v>
       </c>
       <c r="M98" s="13">
-        <f t="shared" ref="M98:M142" si="11">L98/B98</f>
+        <f t="shared" ref="M98:M147" si="11">L98/B98</f>
         <v>0.31610724519033973</v>
       </c>
       <c r="N98">
@@ -6619,7 +6959,7 @@
         <v>811</v>
       </c>
       <c r="Q98" s="14">
-        <f t="shared" ref="Q98:Q142" si="12">P98/B98</f>
+        <f t="shared" ref="Q98:Q147" si="12">P98/B98</f>
         <v>8.2992222677036431E-2</v>
       </c>
       <c r="R98">
@@ -6650,8 +6990,23 @@
       <c r="Z98" s="13">
         <v>0.48699999999999999</v>
       </c>
-    </row>
-    <row r="99" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB98">
+        <v>11725</v>
+      </c>
+      <c r="AC98">
+        <v>51</v>
+      </c>
+      <c r="AD98">
+        <v>1489</v>
+      </c>
+      <c r="AE98">
+        <v>165</v>
+      </c>
+      <c r="AF98">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="99" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>202008</v>
       </c>
@@ -6728,8 +7083,23 @@
       <c r="Z99" s="13">
         <v>0.47499999999999998</v>
       </c>
-    </row>
-    <row r="100" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB99">
+        <v>12560</v>
+      </c>
+      <c r="AC99">
+        <v>61</v>
+      </c>
+      <c r="AD99">
+        <v>2950</v>
+      </c>
+      <c r="AE99">
+        <v>266</v>
+      </c>
+      <c r="AF99">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="100" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>202009</v>
       </c>
@@ -6806,8 +7176,23 @@
       <c r="Z100" s="13">
         <v>0.45800000000000002</v>
       </c>
-    </row>
-    <row r="101" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB100">
+        <v>17297</v>
+      </c>
+      <c r="AC100">
+        <v>172</v>
+      </c>
+      <c r="AD100">
+        <v>3073</v>
+      </c>
+      <c r="AE100">
+        <v>302</v>
+      </c>
+      <c r="AF100">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="101" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>202010</v>
       </c>
@@ -6881,8 +7266,23 @@
       <c r="Z101" s="13">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="102" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB101">
+        <v>14385</v>
+      </c>
+      <c r="AC101">
+        <v>155</v>
+      </c>
+      <c r="AD101">
+        <v>2911</v>
+      </c>
+      <c r="AE101">
+        <v>313</v>
+      </c>
+      <c r="AF101">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="102" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>202011</v>
       </c>
@@ -6956,8 +7356,23 @@
       <c r="Z102" s="13">
         <v>0.48399999999999999</v>
       </c>
-    </row>
-    <row r="103" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB102">
+        <v>13623</v>
+      </c>
+      <c r="AC102">
+        <v>71</v>
+      </c>
+      <c r="AD102">
+        <v>2844</v>
+      </c>
+      <c r="AE102">
+        <v>311</v>
+      </c>
+      <c r="AF102">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="103" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>202012</v>
       </c>
@@ -7034,8 +7449,23 @@
       <c r="AA103" s="13">
         <v>0.48699999999999999</v>
       </c>
-    </row>
-    <row r="104" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB103">
+        <v>21518</v>
+      </c>
+      <c r="AC103">
+        <v>158</v>
+      </c>
+      <c r="AD103">
+        <v>3641</v>
+      </c>
+      <c r="AE103">
+        <v>230</v>
+      </c>
+      <c r="AF103">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="104" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>202101</v>
       </c>
@@ -7115,8 +7545,23 @@
       <c r="AA104" s="13">
         <v>0.51200000000000001</v>
       </c>
-    </row>
-    <row r="105" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB104">
+        <v>11251</v>
+      </c>
+      <c r="AC104">
+        <v>48</v>
+      </c>
+      <c r="AD104">
+        <v>2365</v>
+      </c>
+      <c r="AE104">
+        <v>311</v>
+      </c>
+      <c r="AF104">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="105" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>202102</v>
       </c>
@@ -7193,8 +7638,23 @@
       <c r="AA105" s="13">
         <v>0.48899999999999999</v>
       </c>
-    </row>
-    <row r="106" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB105">
+        <v>11912</v>
+      </c>
+      <c r="AC105">
+        <v>26</v>
+      </c>
+      <c r="AD105">
+        <v>2741</v>
+      </c>
+      <c r="AE105">
+        <v>277</v>
+      </c>
+      <c r="AF105">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="106" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>202103</v>
       </c>
@@ -7271,8 +7731,23 @@
       <c r="AA106" s="13">
         <v>0.496</v>
       </c>
-    </row>
-    <row r="107" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB106">
+        <v>17045</v>
+      </c>
+      <c r="AC106">
+        <v>60</v>
+      </c>
+      <c r="AD106">
+        <v>3275</v>
+      </c>
+      <c r="AE106">
+        <v>295</v>
+      </c>
+      <c r="AF106">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="107" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>202104</v>
       </c>
@@ -7349,8 +7824,23 @@
       <c r="AA107" s="13">
         <v>0.53</v>
       </c>
-    </row>
-    <row r="108" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB107">
+        <v>15046</v>
+      </c>
+      <c r="AC107">
+        <v>39</v>
+      </c>
+      <c r="AD107">
+        <v>3357</v>
+      </c>
+      <c r="AE107">
+        <v>302</v>
+      </c>
+      <c r="AF107">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="108" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>202105</v>
       </c>
@@ -7430,8 +7920,23 @@
       <c r="AA108" s="13">
         <v>0.48799999999999999</v>
       </c>
-    </row>
-    <row r="109" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB108">
+        <v>16055</v>
+      </c>
+      <c r="AC108">
+        <v>33</v>
+      </c>
+      <c r="AD108">
+        <v>2735</v>
+      </c>
+      <c r="AE108">
+        <v>282</v>
+      </c>
+      <c r="AF108">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="109" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>202106</v>
       </c>
@@ -7508,8 +8013,23 @@
       <c r="AA109" s="13">
         <v>0.45100000000000001</v>
       </c>
-    </row>
-    <row r="110" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB109">
+        <v>22881</v>
+      </c>
+      <c r="AC109">
+        <v>248</v>
+      </c>
+      <c r="AD109">
+        <v>3295</v>
+      </c>
+      <c r="AE109">
+        <v>361</v>
+      </c>
+      <c r="AF109">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="110" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>202107</v>
       </c>
@@ -7586,8 +8106,23 @@
       <c r="AA110" s="13">
         <v>0.44900000000000001</v>
       </c>
-    </row>
-    <row r="111" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB110">
+        <v>12750</v>
+      </c>
+      <c r="AC110">
+        <v>428</v>
+      </c>
+      <c r="AD110">
+        <v>1733</v>
+      </c>
+      <c r="AE110">
+        <v>217</v>
+      </c>
+      <c r="AF110">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="111" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>202108</v>
       </c>
@@ -7664,8 +8199,23 @@
       <c r="AA111" s="13">
         <v>0.42099999999999999</v>
       </c>
-    </row>
-    <row r="112" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB111">
+        <v>18561</v>
+      </c>
+      <c r="AC111">
+        <v>95</v>
+      </c>
+      <c r="AD111">
+        <v>3123</v>
+      </c>
+      <c r="AE111">
+        <v>300</v>
+      </c>
+      <c r="AF111">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="112" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>202109</v>
       </c>
@@ -7742,8 +8292,23 @@
       <c r="AA112" s="13">
         <v>0.34599999999999997</v>
       </c>
-    </row>
-    <row r="113" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB112">
+        <v>19946</v>
+      </c>
+      <c r="AC112">
+        <v>42</v>
+      </c>
+      <c r="AD112">
+        <v>2775</v>
+      </c>
+      <c r="AE112">
+        <v>300</v>
+      </c>
+      <c r="AF112">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="113" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>202110</v>
       </c>
@@ -7820,8 +8385,23 @@
       <c r="AA113" s="13">
         <v>0.45900000000000002</v>
       </c>
-    </row>
-    <row r="114" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB113">
+        <v>13339</v>
+      </c>
+      <c r="AC113">
+        <v>41</v>
+      </c>
+      <c r="AD113">
+        <v>2281</v>
+      </c>
+      <c r="AE113">
+        <v>375</v>
+      </c>
+      <c r="AF113">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="114" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>202111</v>
       </c>
@@ -7898,8 +8478,23 @@
       <c r="AA114" s="13">
         <v>0.40899999999999997</v>
       </c>
-    </row>
-    <row r="115" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB114">
+        <v>16250</v>
+      </c>
+      <c r="AC114">
+        <v>31</v>
+      </c>
+      <c r="AD114">
+        <v>2220</v>
+      </c>
+      <c r="AE114">
+        <v>285</v>
+      </c>
+      <c r="AF114">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="115" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>202112</v>
       </c>
@@ -7976,8 +8571,23 @@
       <c r="AA115" s="13">
         <v>0.47599999999999998</v>
       </c>
-    </row>
-    <row r="116" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB115">
+        <v>21001</v>
+      </c>
+      <c r="AC115">
+        <v>30</v>
+      </c>
+      <c r="AD115">
+        <v>3361</v>
+      </c>
+      <c r="AE115">
+        <v>244</v>
+      </c>
+      <c r="AF115">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="116" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>202201</v>
       </c>
@@ -8054,8 +8664,23 @@
       <c r="AA116" s="13">
         <v>0.39200000000000002</v>
       </c>
-    </row>
-    <row r="117" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB116">
+        <v>9039</v>
+      </c>
+      <c r="AC116">
+        <v>59</v>
+      </c>
+      <c r="AD116">
+        <v>1535</v>
+      </c>
+      <c r="AE116">
+        <v>337</v>
+      </c>
+      <c r="AF116">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="117" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>202202</v>
       </c>
@@ -8132,8 +8757,23 @@
       <c r="AA117" s="13">
         <v>0.44800000000000001</v>
       </c>
-    </row>
-    <row r="118" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB117">
+        <v>9305</v>
+      </c>
+      <c r="AC117">
+        <v>29</v>
+      </c>
+      <c r="AD117">
+        <v>1988</v>
+      </c>
+      <c r="AE117">
+        <v>291</v>
+      </c>
+      <c r="AF117">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="118" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>202203</v>
       </c>
@@ -8210,8 +8850,23 @@
       <c r="AA118" s="13">
         <v>0.34599999999999997</v>
       </c>
-    </row>
-    <row r="119" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB118">
+        <v>18192</v>
+      </c>
+      <c r="AC118">
+        <v>31</v>
+      </c>
+      <c r="AD118">
+        <v>2490</v>
+      </c>
+      <c r="AE118">
+        <v>306</v>
+      </c>
+      <c r="AF118">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="119" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>202204</v>
       </c>
@@ -8288,8 +8943,23 @@
       <c r="AA119" s="13">
         <v>0.497</v>
       </c>
-    </row>
-    <row r="120" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB119">
+        <v>11508</v>
+      </c>
+      <c r="AC119">
+        <v>33</v>
+      </c>
+      <c r="AD119">
+        <v>2175</v>
+      </c>
+      <c r="AE119">
+        <v>290</v>
+      </c>
+      <c r="AF119">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="120" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>202205</v>
       </c>
@@ -8366,8 +9036,23 @@
       <c r="AA120" s="13">
         <v>0.47</v>
       </c>
-    </row>
-    <row r="121" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB120">
+        <v>13528</v>
+      </c>
+      <c r="AC120">
+        <v>82</v>
+      </c>
+      <c r="AD120">
+        <v>2181</v>
+      </c>
+      <c r="AE120">
+        <v>286</v>
+      </c>
+      <c r="AF120">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="121" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>202206</v>
       </c>
@@ -8444,8 +9129,23 @@
       <c r="AA121" s="13">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="122" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB121">
+        <v>16947</v>
+      </c>
+      <c r="AC121">
+        <v>104</v>
+      </c>
+      <c r="AD121">
+        <v>2609</v>
+      </c>
+      <c r="AE121">
+        <v>347</v>
+      </c>
+      <c r="AF121">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="122" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>202207</v>
       </c>
@@ -8522,8 +9222,23 @@
       <c r="AA122" s="13">
         <v>0.46</v>
       </c>
-    </row>
-    <row r="123" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB122">
+        <v>8637</v>
+      </c>
+      <c r="AC122">
+        <v>49</v>
+      </c>
+      <c r="AD122">
+        <v>1486</v>
+      </c>
+      <c r="AE122">
+        <v>192</v>
+      </c>
+      <c r="AF122">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="123" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>202208</v>
       </c>
@@ -8600,8 +9315,23 @@
       <c r="AA123" s="13">
         <v>0.441</v>
       </c>
-    </row>
-    <row r="124" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB123">
+        <v>13824</v>
+      </c>
+      <c r="AC123">
+        <v>80</v>
+      </c>
+      <c r="AD123">
+        <v>3244</v>
+      </c>
+      <c r="AE123">
+        <v>330</v>
+      </c>
+      <c r="AF123">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="124" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>202209</v>
       </c>
@@ -8678,8 +9408,23 @@
       <c r="AA124" s="13">
         <v>0.38100000000000001</v>
       </c>
-    </row>
-    <row r="125" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB124">
+        <v>16053</v>
+      </c>
+      <c r="AC124">
+        <v>40</v>
+      </c>
+      <c r="AD124">
+        <v>2820</v>
+      </c>
+      <c r="AE124">
+        <v>351</v>
+      </c>
+      <c r="AF124">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="125" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>202210</v>
       </c>
@@ -8756,8 +9501,23 @@
       <c r="AA125" s="13">
         <v>0.433</v>
       </c>
-    </row>
-    <row r="126" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB125">
+        <v>13904</v>
+      </c>
+      <c r="AC125">
+        <v>69</v>
+      </c>
+      <c r="AD125">
+        <v>2350</v>
+      </c>
+      <c r="AE125">
+        <v>330</v>
+      </c>
+      <c r="AF125">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="126" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>202211</v>
       </c>
@@ -8834,8 +9594,23 @@
       <c r="AA126" s="13">
         <v>0.34200000000000003</v>
       </c>
-    </row>
-    <row r="127" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB126">
+        <v>20894</v>
+      </c>
+      <c r="AC126">
+        <v>32</v>
+      </c>
+      <c r="AD126">
+        <v>2469</v>
+      </c>
+      <c r="AE126">
+        <v>372</v>
+      </c>
+      <c r="AF126">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="127" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>202212</v>
       </c>
@@ -8913,8 +9688,23 @@
       <c r="AA127" s="13">
         <v>0.40799999999999997</v>
       </c>
-    </row>
-    <row r="128" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB127">
+        <v>43613</v>
+      </c>
+      <c r="AC127">
+        <v>35</v>
+      </c>
+      <c r="AD127">
+        <v>4015</v>
+      </c>
+      <c r="AE127">
+        <v>290</v>
+      </c>
+      <c r="AF127">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="128" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>202301</v>
       </c>
@@ -8991,8 +9781,23 @@
       <c r="AA128" s="13">
         <v>0.55300000000000005</v>
       </c>
-    </row>
-    <row r="129" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB128">
+        <v>2158</v>
+      </c>
+      <c r="AC128">
+        <v>36</v>
+      </c>
+      <c r="AD128">
+        <v>947</v>
+      </c>
+      <c r="AE128">
+        <v>318</v>
+      </c>
+      <c r="AF128">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="129" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>202302</v>
       </c>
@@ -9069,8 +9874,23 @@
       <c r="AA129" s="13">
         <v>0.41699999999999998</v>
       </c>
-    </row>
-    <row r="130" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB129">
+        <v>7764</v>
+      </c>
+      <c r="AC129">
+        <v>33</v>
+      </c>
+      <c r="AD129">
+        <v>1950</v>
+      </c>
+      <c r="AE129">
+        <v>313</v>
+      </c>
+      <c r="AF129">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="130" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>202303</v>
       </c>
@@ -9147,8 +9967,23 @@
       <c r="AA130" s="13">
         <v>0.33800000000000002</v>
       </c>
-    </row>
-    <row r="131" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB130">
+        <v>19882</v>
+      </c>
+      <c r="AC130">
+        <v>122</v>
+      </c>
+      <c r="AD130">
+        <v>2814</v>
+      </c>
+      <c r="AE130">
+        <v>432</v>
+      </c>
+      <c r="AF130">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="131" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>202304</v>
       </c>
@@ -9225,8 +10060,23 @@
       <c r="AA131" s="13">
         <v>0.46800000000000003</v>
       </c>
-    </row>
-    <row r="132" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB131">
+        <v>9542</v>
+      </c>
+      <c r="AC131">
+        <v>169</v>
+      </c>
+      <c r="AD131">
+        <v>2121</v>
+      </c>
+      <c r="AE131">
+        <v>312</v>
+      </c>
+      <c r="AF131">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="132" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>202305</v>
       </c>
@@ -9303,8 +10153,23 @@
       <c r="AA132" s="13">
         <v>0.42099999999999999</v>
       </c>
-    </row>
-    <row r="133" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB132">
+        <v>13962</v>
+      </c>
+      <c r="AC132">
+        <v>70</v>
+      </c>
+      <c r="AD132">
+        <v>2251</v>
+      </c>
+      <c r="AE132">
+        <v>374</v>
+      </c>
+      <c r="AF132">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="133" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>202306</v>
       </c>
@@ -9381,8 +10246,23 @@
       <c r="AA133" s="13">
         <v>0.438</v>
       </c>
-    </row>
-    <row r="134" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB133">
+        <v>16405</v>
+      </c>
+      <c r="AC133">
+        <v>271</v>
+      </c>
+      <c r="AD133">
+        <v>3054</v>
+      </c>
+      <c r="AE133">
+        <v>397</v>
+      </c>
+      <c r="AF133">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="134" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>202307</v>
       </c>
@@ -9459,8 +10339,23 @@
       <c r="AA134" s="13">
         <v>0.45300000000000001</v>
       </c>
-    </row>
-    <row r="135" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB134">
+        <v>8058</v>
+      </c>
+      <c r="AC134">
+        <v>51</v>
+      </c>
+      <c r="AD134">
+        <v>1243</v>
+      </c>
+      <c r="AE134">
+        <v>185</v>
+      </c>
+      <c r="AF134">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="135" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>202308</v>
       </c>
@@ -9537,8 +10432,23 @@
       <c r="AA135" s="13">
         <v>0.47599999999999998</v>
       </c>
-    </row>
-    <row r="136" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB135">
+        <v>11673</v>
+      </c>
+      <c r="AC135">
+        <v>26</v>
+      </c>
+      <c r="AD135">
+        <v>3012</v>
+      </c>
+      <c r="AE135">
+        <v>465</v>
+      </c>
+      <c r="AF135">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="136" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>202309</v>
       </c>
@@ -9615,8 +10525,23 @@
       <c r="AA136" s="13">
         <v>0.436</v>
       </c>
-    </row>
-    <row r="137" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB136">
+        <v>10881</v>
+      </c>
+      <c r="AC136">
+        <v>61</v>
+      </c>
+      <c r="AD136">
+        <v>2620</v>
+      </c>
+      <c r="AE136">
+        <v>346</v>
+      </c>
+      <c r="AF136">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="137" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>202310</v>
       </c>
@@ -9693,8 +10618,23 @@
       <c r="AA137" s="13">
         <v>0.495</v>
       </c>
-    </row>
-    <row r="138" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB137">
+        <v>9419</v>
+      </c>
+      <c r="AC137">
+        <v>47</v>
+      </c>
+      <c r="AD137">
+        <v>2526</v>
+      </c>
+      <c r="AE137">
+        <v>381</v>
+      </c>
+      <c r="AF137">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="138" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>202311</v>
       </c>
@@ -9774,8 +10714,23 @@
       <c r="AA138" s="13">
         <v>0.48499999999999999</v>
       </c>
-    </row>
-    <row r="139" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB138">
+        <v>10698</v>
+      </c>
+      <c r="AC138">
+        <v>79</v>
+      </c>
+      <c r="AD138">
+        <v>2863</v>
+      </c>
+      <c r="AE138">
+        <v>428</v>
+      </c>
+      <c r="AF138">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="139" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>202312</v>
       </c>
@@ -9855,8 +10810,23 @@
       <c r="AA139" s="13">
         <v>0.56899999999999995</v>
       </c>
-    </row>
-    <row r="140" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB139">
+        <v>12473</v>
+      </c>
+      <c r="AC139">
+        <v>115</v>
+      </c>
+      <c r="AD139">
+        <v>3933</v>
+      </c>
+      <c r="AE139">
+        <v>320</v>
+      </c>
+      <c r="AF139">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="140" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>202401</v>
       </c>
@@ -9936,8 +10906,23 @@
       <c r="AA140" s="13">
         <v>0.41399999999999998</v>
       </c>
-    </row>
-    <row r="141" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB140">
+        <v>5409</v>
+      </c>
+      <c r="AC140">
+        <v>36</v>
+      </c>
+      <c r="AD140">
+        <v>1445</v>
+      </c>
+      <c r="AE140">
+        <v>388</v>
+      </c>
+      <c r="AF140">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="141" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>202402</v>
       </c>
@@ -10017,8 +11002,23 @@
       <c r="AA141" s="13">
         <v>0.42099999999999999</v>
       </c>
-    </row>
-    <row r="142" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB141">
+        <v>7754</v>
+      </c>
+      <c r="AC141">
+        <v>67</v>
+      </c>
+      <c r="AD141">
+        <v>2715</v>
+      </c>
+      <c r="AE141">
+        <v>332</v>
+      </c>
+      <c r="AF141">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="142" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>202403</v>
       </c>
@@ -10097,6 +11097,456 @@
       </c>
       <c r="AA142" s="13">
         <v>0.47699999999999998</v>
+      </c>
+      <c r="AB142">
+        <v>10311</v>
+      </c>
+      <c r="AC142">
+        <v>56</v>
+      </c>
+      <c r="AD142">
+        <v>2480</v>
+      </c>
+      <c r="AE142">
+        <v>318</v>
+      </c>
+      <c r="AF142">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="143" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>202404</v>
+      </c>
+      <c r="B143">
+        <v>11241</v>
+      </c>
+      <c r="C143">
+        <v>518</v>
+      </c>
+      <c r="D143">
+        <v>3429</v>
+      </c>
+      <c r="E143" s="2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G143">
+        <v>356</v>
+      </c>
+      <c r="H143" s="13">
+        <f t="shared" si="9"/>
+        <v>3.1669780268659374E-2</v>
+      </c>
+      <c r="J143">
+        <v>136</v>
+      </c>
+      <c r="K143" s="13">
+        <f t="shared" si="10"/>
+        <v>1.2098567743083356E-2</v>
+      </c>
+      <c r="L143">
+        <v>698</v>
+      </c>
+      <c r="M143" s="13">
+        <f t="shared" si="11"/>
+        <v>6.2094119740236632E-2</v>
+      </c>
+      <c r="N143">
+        <v>178</v>
+      </c>
+      <c r="O143" s="7">
+        <f t="shared" si="7"/>
+        <v>1.5834890134329687E-2</v>
+      </c>
+      <c r="P143">
+        <v>520</v>
+      </c>
+      <c r="Q143" s="14">
+        <f t="shared" si="12"/>
+        <v>4.6259229605906949E-2</v>
+      </c>
+      <c r="R143">
+        <v>10051</v>
+      </c>
+      <c r="S143" s="16">
+        <f t="shared" si="8"/>
+        <v>0.89413753224802062</v>
+      </c>
+      <c r="U143">
+        <v>301</v>
+      </c>
+      <c r="V143">
+        <v>984</v>
+      </c>
+      <c r="W143">
+        <v>7</v>
+      </c>
+      <c r="X143">
+        <v>595</v>
+      </c>
+      <c r="Y143">
+        <v>77</v>
+      </c>
+      <c r="Z143" s="13">
+        <v>0.64</v>
+      </c>
+      <c r="AA143" s="13">
+        <v>0.501</v>
+      </c>
+      <c r="AB143">
+        <v>11943</v>
+      </c>
+      <c r="AC143">
+        <v>84</v>
+      </c>
+      <c r="AD143">
+        <v>3400</v>
+      </c>
+      <c r="AE143">
+        <v>429</v>
+      </c>
+      <c r="AF143">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="144" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>202405</v>
+      </c>
+      <c r="B144">
+        <v>10253</v>
+      </c>
+      <c r="C144">
+        <v>554</v>
+      </c>
+      <c r="D144">
+        <v>2822</v>
+      </c>
+      <c r="E144" s="2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G144">
+        <v>437</v>
+      </c>
+      <c r="H144" s="13">
+        <f t="shared" si="9"/>
+        <v>4.262167170584219E-2</v>
+      </c>
+      <c r="J144">
+        <v>129</v>
+      </c>
+      <c r="K144" s="13">
+        <f t="shared" si="10"/>
+        <v>1.2581683409733736E-2</v>
+      </c>
+      <c r="L144">
+        <v>1794</v>
+      </c>
+      <c r="M144" s="13">
+        <f t="shared" si="11"/>
+        <v>0.17497317858187847</v>
+      </c>
+      <c r="N144">
+        <v>544</v>
+      </c>
+      <c r="O144" s="7">
+        <f t="shared" si="7"/>
+        <v>5.3057641665853895E-2</v>
+      </c>
+      <c r="P144">
+        <v>1250</v>
+      </c>
+      <c r="Q144" s="14">
+        <f t="shared" si="12"/>
+        <v>0.12191553691602458</v>
+      </c>
+      <c r="R144">
+        <v>7893</v>
+      </c>
+      <c r="S144" s="16">
+        <f t="shared" si="8"/>
+        <v>0.76982346630254561</v>
+      </c>
+      <c r="U144">
+        <v>288</v>
+      </c>
+      <c r="V144">
+        <v>587</v>
+      </c>
+      <c r="W144">
+        <v>7</v>
+      </c>
+      <c r="X144">
+        <v>464</v>
+      </c>
+      <c r="Y144">
+        <v>62</v>
+      </c>
+      <c r="Z144" s="13">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="AA144" s="13">
+        <v>0.56699999999999995</v>
+      </c>
+      <c r="AB144">
+        <v>11101</v>
+      </c>
+      <c r="AC144">
+        <v>67</v>
+      </c>
+      <c r="AD144">
+        <v>2662</v>
+      </c>
+      <c r="AE144">
+        <v>353</v>
+      </c>
+      <c r="AF144">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="145" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>202406</v>
+      </c>
+      <c r="B145">
+        <v>17512</v>
+      </c>
+      <c r="C145">
+        <v>670</v>
+      </c>
+      <c r="D145">
+        <v>3178</v>
+      </c>
+      <c r="E145" s="2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G145">
+        <v>350</v>
+      </c>
+      <c r="H145" s="13">
+        <f t="shared" si="9"/>
+        <v>1.9986295111923253E-2</v>
+      </c>
+      <c r="J145">
+        <v>172</v>
+      </c>
+      <c r="K145" s="13">
+        <f t="shared" si="10"/>
+        <v>9.8218364550022846E-3</v>
+      </c>
+      <c r="L145">
+        <v>2981</v>
+      </c>
+      <c r="M145" s="13">
+        <f t="shared" si="11"/>
+        <v>0.17022613065326633</v>
+      </c>
+      <c r="N145">
+        <v>931</v>
+      </c>
+      <c r="O145" s="7">
+        <f t="shared" si="7"/>
+        <v>5.3163544997715854E-2</v>
+      </c>
+      <c r="P145">
+        <v>2050</v>
+      </c>
+      <c r="Q145" s="14">
+        <f t="shared" si="12"/>
+        <v>0.11706258565555049</v>
+      </c>
+      <c r="R145">
+        <v>14009</v>
+      </c>
+      <c r="S145" s="16">
+        <f t="shared" si="8"/>
+        <v>0.79996573777980817</v>
+      </c>
+      <c r="U145">
+        <v>393</v>
+      </c>
+      <c r="V145">
+        <v>770</v>
+      </c>
+      <c r="W145">
+        <v>7</v>
+      </c>
+      <c r="X145">
+        <v>460</v>
+      </c>
+      <c r="Y145">
+        <v>248</v>
+      </c>
+      <c r="Z145" s="13">
+        <v>0.69699999999999995</v>
+      </c>
+      <c r="AA145" s="13">
+        <v>0.56200000000000006</v>
+      </c>
+    </row>
+    <row r="146" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>202407</v>
+      </c>
+      <c r="B146">
+        <v>6456</v>
+      </c>
+      <c r="C146">
+        <v>622</v>
+      </c>
+      <c r="D146">
+        <v>1534</v>
+      </c>
+      <c r="E146" s="2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G146">
+        <v>164</v>
+      </c>
+      <c r="H146" s="13">
+        <f t="shared" si="9"/>
+        <v>2.5402726146220571E-2</v>
+      </c>
+      <c r="J146">
+        <v>45</v>
+      </c>
+      <c r="K146" s="13">
+        <f t="shared" si="10"/>
+        <v>6.970260223048327E-3</v>
+      </c>
+      <c r="L146">
+        <v>313</v>
+      </c>
+      <c r="M146" s="13">
+        <f t="shared" si="11"/>
+        <v>4.8482032218091699E-2</v>
+      </c>
+      <c r="N146">
+        <v>153</v>
+      </c>
+      <c r="O146" s="7">
+        <f t="shared" si="7"/>
+        <v>2.3698884758364312E-2</v>
+      </c>
+      <c r="P146">
+        <v>160</v>
+      </c>
+      <c r="Q146" s="14">
+        <f t="shared" si="12"/>
+        <v>2.4783147459727387E-2</v>
+      </c>
+      <c r="R146">
+        <v>5934</v>
+      </c>
+      <c r="S146" s="16">
+        <f t="shared" si="8"/>
+        <v>0.91914498141263945</v>
+      </c>
+      <c r="U146">
+        <v>411</v>
+      </c>
+      <c r="V146">
+        <v>338</v>
+      </c>
+      <c r="W146">
+        <v>10</v>
+      </c>
+      <c r="X146">
+        <v>256</v>
+      </c>
+      <c r="Y146">
+        <v>75</v>
+      </c>
+      <c r="Z146" s="13">
+        <v>0.68</v>
+      </c>
+      <c r="AA146" s="13">
+        <v>0.42399999999999999</v>
+      </c>
+    </row>
+    <row r="147" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>202408</v>
+      </c>
+      <c r="B147">
+        <v>11114</v>
+      </c>
+      <c r="C147">
+        <v>700</v>
+      </c>
+      <c r="D147">
+        <v>2506</v>
+      </c>
+      <c r="E147" s="2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G147">
+        <v>165</v>
+      </c>
+      <c r="H147" s="13">
+        <f t="shared" si="9"/>
+        <v>1.4846140003599064E-2</v>
+      </c>
+      <c r="J147">
+        <v>59</v>
+      </c>
+      <c r="K147" s="13">
+        <f t="shared" si="10"/>
+        <v>5.3086197588626954E-3</v>
+      </c>
+      <c r="L147">
+        <v>410</v>
+      </c>
+      <c r="M147" s="13">
+        <f t="shared" si="11"/>
+        <v>3.6890408493791611E-2</v>
+      </c>
+      <c r="N147">
+        <v>161</v>
+      </c>
+      <c r="O147" s="7">
+        <f t="shared" si="7"/>
+        <v>1.4486233579269391E-2</v>
+      </c>
+      <c r="P147">
+        <v>249</v>
+      </c>
+      <c r="Q147" s="14">
+        <f t="shared" si="12"/>
+        <v>2.2404174914522224E-2</v>
+      </c>
+      <c r="R147">
+        <v>10480</v>
+      </c>
+      <c r="S147" s="16">
+        <f t="shared" si="8"/>
+        <v>0.94295483174374661</v>
+      </c>
+      <c r="U147">
+        <v>455</v>
+      </c>
+      <c r="V147">
+        <v>537</v>
+      </c>
+      <c r="W147">
+        <v>9</v>
+      </c>
+      <c r="X147">
+        <v>474</v>
+      </c>
+      <c r="Y147">
+        <v>104</v>
+      </c>
+      <c r="Z147" s="13">
+        <v>0.751</v>
+      </c>
+      <c r="AA147" s="13">
+        <v>0.40400000000000003</v>
       </c>
     </row>
   </sheetData>
@@ -10116,37 +11566,53 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1E94DF1-1C5A-4953-83F1-2A875CF8F1A4}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{1991ED90-6F4C-49BE-8E27-52A88DD2C84E}"/>
+    <hyperlink ref="A8" r:id="rId2" xr:uid="{ED1894DD-6BCA-443D-A1A4-9AC28AEFB01D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/EV/data/bilsalg.xlsx
+++ b/EV/data/bilsalg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cicero.sharepoint.com/sites/Group-ClimateMitigation/Shared Documents/SmallJobs/2019/201903_bilsalg/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="48" documentId="13_ncr:1_{86895BED-31D7-474B-A798-158E65269AF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD05D8A4-6D85-4D51-9FE7-C32D7E7D4BFB}"/>
+  <xr:revisionPtr revIDLastSave="167" documentId="13_ncr:1_{86895BED-31D7-474B-A798-158E65269AF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0AE1CA7E-5289-4297-9968-FBF70EAAF096}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="16800" xr2:uid="{94A590A3-A19D-4EDC-866B-407362CF22C8}"/>
+    <workbookView xWindow="15360" yWindow="0" windowWidth="15360" windowHeight="16680" xr2:uid="{94A590A3-A19D-4EDC-866B-407362CF22C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -913,13 +913,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A23E6F8-FBFE-40A4-8A3E-1BC2B49C4A9C}">
-  <dimension ref="A1:AF147"/>
+  <dimension ref="A1:AF153"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="U126" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B117" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AA5" sqref="AA5"/>
+      <selection pane="bottomRight" activeCell="A153" sqref="A153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5003,7 +5003,7 @@
         <v>1923</v>
       </c>
       <c r="E72" s="2">
-        <f t="shared" ref="E72:E147" si="6">H72+K72+M72+S72</f>
+        <f t="shared" ref="E72:E153" si="6">H72+K72+M72+S72</f>
         <v>1</v>
       </c>
       <c r="H72" s="13">
@@ -6611,7 +6611,7 @@
         <v>2392</v>
       </c>
       <c r="O94" s="7">
-        <f t="shared" ref="O94:O147" si="7">N94/B94</f>
+        <f t="shared" ref="O94:O153" si="7">N94/B94</f>
         <v>0.19211308328648302</v>
       </c>
       <c r="Q94" s="14">
@@ -6783,7 +6783,7 @@
         <v>3444</v>
       </c>
       <c r="S96" s="16">
-        <f t="shared" ref="S96:S147" si="8">R96/B96</f>
+        <f t="shared" ref="S96:S153" si="8">R96/B96</f>
         <v>0.43060765191297823</v>
       </c>
       <c r="T96">
@@ -6931,21 +6931,21 @@
         <v>1249</v>
       </c>
       <c r="H98" s="13">
-        <f t="shared" ref="H98:H147" si="9">G98/B98</f>
+        <f t="shared" ref="H98:H153" si="9">G98/B98</f>
         <v>0.12781416291444944</v>
       </c>
       <c r="J98">
         <v>1026</v>
       </c>
       <c r="K98" s="13">
-        <f t="shared" ref="K98:K147" si="10">J98/B98</f>
+        <f t="shared" ref="K98:K153" si="10">J98/B98</f>
         <v>0.10499386000818665</v>
       </c>
       <c r="L98">
         <v>3089</v>
       </c>
       <c r="M98" s="13">
-        <f t="shared" ref="M98:M147" si="11">L98/B98</f>
+        <f t="shared" ref="M98:M153" si="11">L98/B98</f>
         <v>0.31610724519033973</v>
       </c>
       <c r="N98">
@@ -6959,7 +6959,7 @@
         <v>811</v>
       </c>
       <c r="Q98" s="14">
-        <f t="shared" ref="Q98:Q147" si="12">P98/B98</f>
+        <f t="shared" ref="Q98:Q153" si="12">P98/B98</f>
         <v>8.2992222677036431E-2</v>
       </c>
       <c r="R98">
@@ -11547,6 +11547,492 @@
       </c>
       <c r="AA147" s="13">
         <v>0.40400000000000003</v>
+      </c>
+    </row>
+    <row r="148" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>202409</v>
+      </c>
+      <c r="B148">
+        <v>12966</v>
+      </c>
+      <c r="C148">
+        <v>579</v>
+      </c>
+      <c r="D148">
+        <v>1959</v>
+      </c>
+      <c r="E148" s="2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G148">
+        <v>135</v>
+      </c>
+      <c r="H148" s="13">
+        <f t="shared" si="9"/>
+        <v>1.0411846367422489E-2</v>
+      </c>
+      <c r="J148">
+        <v>48</v>
+      </c>
+      <c r="K148" s="13">
+        <f t="shared" si="10"/>
+        <v>3.7019898195279964E-3</v>
+      </c>
+      <c r="L148">
+        <v>288</v>
+      </c>
+      <c r="M148" s="13">
+        <f t="shared" si="11"/>
+        <v>2.2211938917167977E-2</v>
+      </c>
+      <c r="N148">
+        <v>146</v>
+      </c>
+      <c r="O148" s="7">
+        <f t="shared" si="7"/>
+        <v>1.1260219034397655E-2</v>
+      </c>
+      <c r="P148">
+        <v>142</v>
+      </c>
+      <c r="Q148" s="14">
+        <f t="shared" si="12"/>
+        <v>1.0951719882770323E-2</v>
+      </c>
+      <c r="R148">
+        <v>12495</v>
+      </c>
+      <c r="S148" s="16">
+        <f t="shared" si="8"/>
+        <v>0.9636742248958815</v>
+      </c>
+      <c r="U148">
+        <v>346</v>
+      </c>
+      <c r="V148">
+        <v>441</v>
+      </c>
+      <c r="W148">
+        <v>7</v>
+      </c>
+      <c r="X148">
+        <v>539</v>
+      </c>
+      <c r="Y148">
+        <v>42</v>
+      </c>
+      <c r="Z148" s="13">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="AA148" s="13">
+        <v>0.36799999999999999</v>
+      </c>
+    </row>
+    <row r="149" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>202410</v>
+      </c>
+      <c r="B149">
+        <v>11552</v>
+      </c>
+      <c r="C149">
+        <v>553</v>
+      </c>
+      <c r="D149">
+        <v>2234</v>
+      </c>
+      <c r="E149" s="2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G149">
+        <v>257</v>
+      </c>
+      <c r="H149" s="13">
+        <f t="shared" si="9"/>
+        <v>2.2247229916897506E-2</v>
+      </c>
+      <c r="J149">
+        <v>63</v>
+      </c>
+      <c r="K149" s="13">
+        <f t="shared" si="10"/>
+        <v>5.453601108033241E-3</v>
+      </c>
+      <c r="L149">
+        <v>370</v>
+      </c>
+      <c r="M149" s="13">
+        <f t="shared" si="11"/>
+        <v>3.2029085872576177E-2</v>
+      </c>
+      <c r="N149">
+        <v>178</v>
+      </c>
+      <c r="O149" s="7">
+        <f t="shared" si="7"/>
+        <v>1.5408587257617729E-2</v>
+      </c>
+      <c r="P149">
+        <v>192</v>
+      </c>
+      <c r="Q149" s="14">
+        <f t="shared" si="12"/>
+        <v>1.662049861495845E-2</v>
+      </c>
+      <c r="R149">
+        <v>10862</v>
+      </c>
+      <c r="S149" s="16">
+        <f t="shared" si="8"/>
+        <v>0.94027008310249305</v>
+      </c>
+      <c r="U149">
+        <v>364</v>
+      </c>
+      <c r="V149">
+        <v>635</v>
+      </c>
+      <c r="W149">
+        <v>8</v>
+      </c>
+      <c r="X149">
+        <v>543</v>
+      </c>
+      <c r="Y149">
+        <v>39</v>
+      </c>
+      <c r="Z149" s="13">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="AA149" s="13">
+        <v>0.38600000000000001</v>
+      </c>
+    </row>
+    <row r="150" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>202411</v>
+      </c>
+      <c r="B150">
+        <v>11689</v>
+      </c>
+      <c r="C150">
+        <v>450</v>
+      </c>
+      <c r="D150">
+        <v>1883</v>
+      </c>
+      <c r="E150" s="2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G150">
+        <v>248</v>
+      </c>
+      <c r="H150" s="13">
+        <f t="shared" si="9"/>
+        <v>2.121652835999658E-2</v>
+      </c>
+      <c r="J150">
+        <v>67</v>
+      </c>
+      <c r="K150" s="13">
+        <f t="shared" si="10"/>
+        <v>5.7318846779023016E-3</v>
+      </c>
+      <c r="L150">
+        <v>434</v>
+      </c>
+      <c r="M150" s="13">
+        <f t="shared" si="11"/>
+        <v>3.7128924629994009E-2</v>
+      </c>
+      <c r="N150">
+        <v>154</v>
+      </c>
+      <c r="O150" s="7">
+        <f t="shared" si="7"/>
+        <v>1.317477970741723E-2</v>
+      </c>
+      <c r="P150">
+        <v>280</v>
+      </c>
+      <c r="Q150" s="14">
+        <f t="shared" si="12"/>
+        <v>2.3954144922576782E-2</v>
+      </c>
+      <c r="R150">
+        <v>10940</v>
+      </c>
+      <c r="S150" s="16">
+        <f t="shared" si="8"/>
+        <v>0.93592266233210708</v>
+      </c>
+      <c r="U150">
+        <v>297</v>
+      </c>
+      <c r="V150">
+        <v>621</v>
+      </c>
+      <c r="W150">
+        <v>11</v>
+      </c>
+      <c r="X150">
+        <v>444</v>
+      </c>
+      <c r="Y150">
+        <v>60</v>
+      </c>
+      <c r="Z150" s="13">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="AA150" s="13">
+        <v>0.38500000000000001</v>
+      </c>
+    </row>
+    <row r="151" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>202412</v>
+      </c>
+      <c r="B151">
+        <v>13652</v>
+      </c>
+      <c r="C151">
+        <v>403</v>
+      </c>
+      <c r="D151">
+        <v>2209</v>
+      </c>
+      <c r="E151" s="2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G151">
+        <v>327</v>
+      </c>
+      <c r="H151" s="13">
+        <f t="shared" si="9"/>
+        <v>2.3952534427190156E-2</v>
+      </c>
+      <c r="J151">
+        <v>71</v>
+      </c>
+      <c r="K151" s="13">
+        <f t="shared" si="10"/>
+        <v>5.2007031936712571E-3</v>
+      </c>
+      <c r="L151">
+        <v>1586</v>
+      </c>
+      <c r="M151" s="13">
+        <f t="shared" si="11"/>
+        <v>0.11617345443891006</v>
+      </c>
+      <c r="N151">
+        <v>593</v>
+      </c>
+      <c r="O151" s="7">
+        <f t="shared" si="7"/>
+        <v>4.3436859068268385E-2</v>
+      </c>
+      <c r="P151">
+        <v>993</v>
+      </c>
+      <c r="Q151" s="14">
+        <f t="shared" si="12"/>
+        <v>7.2736595370641657E-2</v>
+      </c>
+      <c r="R151">
+        <v>11668</v>
+      </c>
+      <c r="S151" s="16">
+        <f t="shared" si="8"/>
+        <v>0.85467330794022855</v>
+      </c>
+      <c r="U151">
+        <v>280</v>
+      </c>
+      <c r="V151">
+        <v>784</v>
+      </c>
+      <c r="W151">
+        <v>8</v>
+      </c>
+      <c r="X151">
+        <v>301</v>
+      </c>
+      <c r="Y151">
+        <v>44</v>
+      </c>
+      <c r="Z151" s="13">
+        <v>0.7659999999999999</v>
+      </c>
+      <c r="AA151" s="13">
+        <v>0.47700000000000004</v>
+      </c>
+    </row>
+    <row r="152" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>202501</v>
+      </c>
+      <c r="B152">
+        <v>9343</v>
+      </c>
+      <c r="C152">
+        <v>366</v>
+      </c>
+      <c r="D152">
+        <v>1718</v>
+      </c>
+      <c r="E152" s="2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G152">
+        <v>137</v>
+      </c>
+      <c r="H152" s="13">
+        <f t="shared" si="9"/>
+        <v>1.4663384351921225E-2</v>
+      </c>
+      <c r="J152">
+        <v>33</v>
+      </c>
+      <c r="K152" s="13">
+        <f t="shared" si="10"/>
+        <v>3.5320560847693461E-3</v>
+      </c>
+      <c r="L152">
+        <v>219</v>
+      </c>
+      <c r="M152" s="13">
+        <f t="shared" si="11"/>
+        <v>2.3440008562560205E-2</v>
+      </c>
+      <c r="N152">
+        <v>95</v>
+      </c>
+      <c r="O152" s="7">
+        <f t="shared" si="7"/>
+        <v>1.0168040244032965E-2</v>
+      </c>
+      <c r="P152">
+        <v>124</v>
+      </c>
+      <c r="Q152" s="14">
+        <f t="shared" si="12"/>
+        <v>1.327196831852724E-2</v>
+      </c>
+      <c r="R152">
+        <v>8954</v>
+      </c>
+      <c r="S152" s="16">
+        <f t="shared" si="8"/>
+        <v>0.95836455100074924</v>
+      </c>
+      <c r="U152">
+        <v>253</v>
+      </c>
+      <c r="V152">
+        <v>753</v>
+      </c>
+      <c r="W152">
+        <v>12</v>
+      </c>
+      <c r="X152">
+        <v>467</v>
+      </c>
+      <c r="Y152">
+        <v>39</v>
+      </c>
+      <c r="Z152" s="13">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="AA152" s="13">
+        <v>0.47799999999999998</v>
+      </c>
+    </row>
+    <row r="153" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>202502</v>
+      </c>
+      <c r="B153">
+        <v>8949</v>
+      </c>
+      <c r="C153">
+        <v>458</v>
+      </c>
+      <c r="D153">
+        <v>2036</v>
+      </c>
+      <c r="E153" s="2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G153">
+        <v>145</v>
+      </c>
+      <c r="H153" s="13">
+        <f t="shared" si="9"/>
+        <v>1.6202927701419154E-2</v>
+      </c>
+      <c r="J153">
+        <v>37</v>
+      </c>
+      <c r="K153" s="13">
+        <f t="shared" si="10"/>
+        <v>4.134540172086267E-3</v>
+      </c>
+      <c r="L153">
+        <v>290</v>
+      </c>
+      <c r="M153" s="13">
+        <f t="shared" si="11"/>
+        <v>3.2405855402838309E-2</v>
+      </c>
+      <c r="N153">
+        <v>136</v>
+      </c>
+      <c r="O153" s="7">
+        <f t="shared" si="7"/>
+        <v>1.5197228740641413E-2</v>
+      </c>
+      <c r="P153">
+        <v>154</v>
+      </c>
+      <c r="Q153" s="14">
+        <f t="shared" si="12"/>
+        <v>1.7208626662196892E-2</v>
+      </c>
+      <c r="R153">
+        <v>8477</v>
+      </c>
+      <c r="S153" s="16">
+        <f t="shared" si="8"/>
+        <v>0.94725667672365632</v>
+      </c>
+      <c r="U153">
+        <v>326</v>
+      </c>
+      <c r="V153">
+        <v>889</v>
+      </c>
+      <c r="W153">
+        <v>9</v>
+      </c>
+      <c r="X153">
+        <v>379</v>
+      </c>
+      <c r="Y153">
+        <v>41</v>
+      </c>
+      <c r="Z153" s="13">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="AA153" s="13">
+        <v>0.40899999999999997</v>
       </c>
     </row>
   </sheetData>
@@ -11619,6 +12105,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="5083af8e-c479-4bff-9f3e-2a380844c8c1" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1ae9c94a-2673-46e1-b5a6-dc0c87eae04c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010074D02CDF85BB3C43825BB38CAE9C40BF" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1b73d6116ab50935105d8c7eae16e965">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1ae9c94a-2673-46e1-b5a6-dc0c87eae04c" xmlns:ns3="5083af8e-c479-4bff-9f3e-2a380844c8c1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d31ceb4bd609c72a5ef3b8d383532d93" ns2:_="" ns3:_="">
     <xsd:import namespace="1ae9c94a-2673-46e1-b5a6-dc0c87eae04c"/>
@@ -11873,27 +12379,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF887100-7B50-47F5-87D7-ABDD1957FF85}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="5083af8e-c479-4bff-9f3e-2a380844c8c1" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1ae9c94a-2673-46e1-b5a6-dc0c87eae04c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F14F16C9-F74E-4CAA-B7B8-5E225606C761}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="5083af8e-c479-4bff-9f3e-2a380844c8c1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="1ae9c94a-2673-46e1-b5a6-dc0c87eae04c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9FFB6F8C-39B1-4885-9E39-23297604E0E3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11910,29 +12421,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF887100-7B50-47F5-87D7-ABDD1957FF85}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F14F16C9-F74E-4CAA-B7B8-5E225606C761}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="5083af8e-c479-4bff-9f3e-2a380844c8c1"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="1ae9c94a-2673-46e1-b5a6-dc0c87eae04c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>